--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1133.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1133.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8781306565948526</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04390653282974263</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04390653282974263</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.07025045252758821</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.0618547638640305</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0118547638640305</v>
+        <v>0.0137209013141928</v>
       </c>
       <c r="B65" t="n">
-        <v>0.008974146053888238</v>
+        <v>0.01038682624106603</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0009991165460609755</v>
+        <v>0.001759901182140436</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007650121072101892</v>
+        <v>0.0007805709403225626</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.00170157145967071</v>
+        <v>0.006291258336034194</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007053622356644835</v>
+        <v>0.0007696734456430045</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.005077399293612256</v>
+        <v>0.01031339506919837</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007331375753247781</v>
+        <v>0.0007689100721955826</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.009363189372079028</v>
+        <v>0.001759901182140436</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007367638626027285</v>
+        <v>0.0007805709403225626</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002866045425070837</v>
+        <v>0.003606110899939188</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001530024214420378</v>
+        <v>0.001561141880645125</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003264243889321776</v>
+        <v>0.01246243671834429</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001410724471328967</v>
+        <v>0.001539346891286009</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01060399349534172</v>
+        <v>0.02037638462026481</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001466275150649556</v>
+        <v>0.001537820144391165</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01859707290418666</v>
+        <v>0.003606110899939188</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001473527725205457</v>
+        <v>0.001561141880645125</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004468598969978463</v>
+        <v>0.005999999999999998</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002295036321630568</v>
+        <v>0.002725227272727272</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.003999999999999997</v>
+        <v>0.01734648999041002</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.00181681818181818</v>
+        <v>0.002309020336929014</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01499999999999999</v>
+        <v>0.02804030842865435</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002317370129870127</v>
+        <v>0.002306730216586747</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.0256517095304436</v>
+        <v>0.005999999999999998</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002210291587808185</v>
+        <v>0.002725227272727272</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006585979924461388</v>
+        <v>0.006571955608447713</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002991382017962746</v>
+        <v>0.00312228376129025</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.005429285584097637</v>
+        <v>0.02099999999999999</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002821448942657934</v>
+        <v>0.003086827007943511</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01727846483753817</v>
+        <v>0.03399999999999997</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002932550301299112</v>
+        <v>0.003184114339268976</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03199999999999997</v>
+        <v>0.006571955608447713</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003059904306220093</v>
+        <v>0.00312228376129025</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.002991382017962746</v>
+        <v>0.002725227272727272</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006585979924461388</v>
+        <v>0.005999999999999998</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006603861644476773</v>
+        <v>0.007631674321865907</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003825060536050946</v>
+        <v>0.003902854701612812</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.006307506522908499</v>
+        <v>0.02296675056408085</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003526811178322418</v>
+        <v>0.003848367228215023</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01945690950091539</v>
+        <v>0.03539398561687562</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003665687876623891</v>
+        <v>0.003844550360977913</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03359479086931949</v>
+        <v>0.007631674321865907</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003683819313013642</v>
+        <v>0.003902854701612812</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.008408765090361786</v>
+        <v>0.008509616281764464</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004590072643261135</v>
+        <v>0.004683425641935375</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.007216711410811719</v>
+        <v>0.02444401421030185</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004232173413986902</v>
+        <v>0.004618040673858027</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.0214234540899973</v>
+        <v>0.03774442681670964</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004398825451948668</v>
+        <v>0.004613460433173494</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03659536344311076</v>
+        <v>0.008509616281764464</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004420583175616371</v>
+        <v>0.004683425641935375</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.008115005059744128</v>
+        <v>0.009410534368917596</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005355084750471324</v>
+        <v>0.005463996582257938</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.008265465214325675</v>
+        <v>0.02540812298165335</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.004937535649651385</v>
+        <v>0.005387714119501032</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02343566295495447</v>
+        <v>0.03965536919682783</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005131963027273446</v>
+        <v>0.005382370505369077</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03835195076952619</v>
+        <v>0.009410534368917596</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005157347038219099</v>
+        <v>0.005463996582257938</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.008746786951507234</v>
+        <v>0.01033918146409949</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006120096857681514</v>
+        <v>0.006244567522580501</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.008862332899968697</v>
+        <v>0.02635894590669227</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005642897885315868</v>
+        <v>0.006157387565144036</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02475110044595749</v>
+        <v>0.04147744129828196</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005865100602598225</v>
+        <v>0.006473966450688574</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.03921263427858385</v>
+        <v>0.01033918146409949</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005894110900821828</v>
+        <v>0.006244567522580501</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01032831616453452</v>
+        <v>0.01100031044808433</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006885108964891702</v>
+        <v>0.007025138462903063</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.00971587943425916</v>
+        <v>0.0275991713062374</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006348260120980352</v>
+        <v>0.00676141804642486</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02642733091317695</v>
+        <v>0.04171833224478033</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006598238177923003</v>
+        <v>0.006920190649760243</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04147744129828196</v>
+        <v>0.01100031044808433</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006610260481229385</v>
+        <v>0.007025138462903063</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01088379809770938</v>
+        <v>0.01159867420164633</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007650121072101892</v>
+        <v>0.007805709403225625</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01033466978371542</v>
+        <v>0.0284129305202297</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007053622356644836</v>
+        <v>0.007696734456430046</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.0275991713062374</v>
+        <v>0.04349556487756617</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007106388354915924</v>
+        <v>0.007689100721955826</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04307118053854531</v>
+        <v>0.01159867420164633</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007367638626027285</v>
+        <v>0.007805709403225625</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.009437438149915225</v>
+        <v>0.01233902560555965</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008415133179312081</v>
+        <v>0.008586280343548188</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01112726891485582</v>
+        <v>0.02942400118617639</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.00775898459230932</v>
+        <v>0.00846640790207305</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02891499270072506</v>
+        <v>0.04407250955156045</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008064513328572559</v>
+        <v>0.008458010794151408</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04497142603240711</v>
+        <v>0.01233902560555965</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008104402488630013</v>
+        <v>0.008586280343548188</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.0118547638640305</v>
+        <v>0.01282611754059851</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008974146053888238</v>
+        <v>0.009366851283870751</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01190224179419875</v>
+        <v>0.03022947675013354</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008464346827973803</v>
+        <v>0.009236081347716054</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03071101449383326</v>
+        <v>0.04604799525828901</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008797650903897336</v>
+        <v>0.009226920866346989</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04651597664203244</v>
+        <v>0.01282611754059851</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008841166351232742</v>
+        <v>0.009366851283870751</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01261649718473442</v>
+        <v>0.0137209013141928</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009945157393732459</v>
+        <v>0.01038682624106603</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01236815338826253</v>
+        <v>0.03092872244734793</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009169709063638287</v>
+        <v>0.01000575479335906</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03180696007568312</v>
+        <v>0.04672085098927786</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009530788479222113</v>
+        <v>0.009995830938542572</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04849466747148201</v>
+        <v>0.0137209013141928</v>
       </c>
       <c r="O78" t="n">
-        <v>0.00957793021383547</v>
+        <v>0.01038682624106603</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01224196313453617</v>
+        <v>0.01406903821916564</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01071016950094265</v>
+        <v>0.01092799316451588</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01303356866356553</v>
+        <v>0.03192110351306651</v>
       </c>
       <c r="K79" t="n">
-        <v>0.009875071299302769</v>
+        <v>0.01077542823900206</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03329757520034399</v>
+        <v>0.04848990573605305</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01026392605454689</v>
+        <v>0.01076474101073815</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05069733362481632</v>
+        <v>0.01406903821916564</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0103146940764382</v>
+        <v>0.01092799316451588</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01188437467969886</v>
+        <v>0.01456955229843541</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01147518160815284</v>
+        <v>0.01170856410483844</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0137209013141928</v>
+        <v>0.03310598518253621</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01038682624106603</v>
+        <v>0.01154510168464507</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03477760562188492</v>
+        <v>0.04945398849014038</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01099706362987167</v>
+        <v>0.01153365108293374</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05201381020609591</v>
+        <v>0.01456955229843541</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01105145793904093</v>
+        <v>0.01170856410483844</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01253879313465856</v>
+        <v>0.01506769839992134</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01224019371536303</v>
+        <v>0.012489135045161</v>
       </c>
       <c r="J81" t="n">
-        <v>0.014406655721152</v>
+        <v>0.03408273269100381</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01128579577063174</v>
+        <v>0.01231477513028807</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03584179709437529</v>
+        <v>0.05111192824306582</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01173020120519645</v>
+        <v>0.01230256115512932</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05383393231938155</v>
+        <v>0.01506769839992134</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01178822180164366</v>
+        <v>0.012489135045161</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01320027981385138</v>
+        <v>0.01546298770613919</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01300520582257322</v>
+        <v>0.01326970598548356</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01533045107081178</v>
+        <v>0.03485071127371631</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01199115800629622</v>
+        <v>0.01308444857593108</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03768489537188421</v>
+        <v>0.0515625539863554</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01246333878052123</v>
+        <v>0.0130714712273249</v>
       </c>
       <c r="N82" t="n">
-        <v>0.05634753506873375</v>
+        <v>0.01546298770613919</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01252498566424638</v>
+        <v>0.01326970598548356</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01586389603171341</v>
+        <v>0.01595493139960474</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0137702179297834</v>
+        <v>0.01405027692580613</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01587341882283068</v>
+        <v>0.03540928616592046</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0126965202419607</v>
+        <v>0.01385412202157408</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03870164620848102</v>
+        <v>0.05290469471153503</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01319647635584601</v>
+        <v>0.01384038129952049</v>
       </c>
       <c r="N83" t="n">
-        <v>0.05754445355821314</v>
+        <v>0.01595493139960474</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01326174952684911</v>
+        <v>0.01405027692580613</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01652470310268069</v>
+        <v>0.01634304066283383</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0145352300369936</v>
+        <v>0.01483084786612869</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01682992085870197</v>
+        <v>0.03655782260286325</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01340188247762519</v>
+        <v>0.01462379546721709</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0401867953582348</v>
+        <v>0.05483717941013061</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01392961393117078</v>
+        <v>0.01460929137171607</v>
       </c>
       <c r="N84" t="n">
-        <v>0.05981452289188027</v>
+        <v>0.01634304066283383</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01399851338945184</v>
+        <v>0.01483084786612869</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01617776234118933</v>
+        <v>0.01702682667834222</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01530024214420378</v>
+        <v>0.01561141880645125</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01759431905991898</v>
+        <v>0.03719568581979149</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01410724471328967</v>
+        <v>0.01539346891286009</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04143508857521491</v>
+        <v>0.05565883707366809</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01466275150649556</v>
+        <v>0.01537820144391165</v>
       </c>
       <c r="N85" t="n">
-        <v>0.06194757817379593</v>
+        <v>0.01702682667834222</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01473527725205457</v>
+        <v>0.01561141880645125</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01681813506167541</v>
+        <v>0.0174058006286457</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01606525425141397</v>
+        <v>0.01639198974677382</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01826097530797496</v>
+        <v>0.03802224105195212</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01481260694895416</v>
+        <v>0.01616314235850309</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04224127161349045</v>
+        <v>0.05676849669367345</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01539588908182034</v>
+        <v>0.01614711151610723</v>
       </c>
       <c r="N86" t="n">
-        <v>0.06303345450802045</v>
+        <v>0.0174058006286457</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0154720411146573</v>
+        <v>0.01639198974677382</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.016440882578575</v>
+        <v>0.01777947369626007</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01683026635862416</v>
+        <v>0.01717256068709638</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01892425148436318</v>
+        <v>0.03883685353459207</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01551796918461864</v>
+        <v>0.0169328158041461</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04340009022713073</v>
+        <v>0.05836498726167272</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01612902665714512</v>
+        <v>0.01691602158830282</v>
       </c>
       <c r="N87" t="n">
-        <v>0.06506198699861482</v>
+        <v>0.01777947369626007</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01620880497726003</v>
+        <v>0.01717256068709638</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.0190410662063242</v>
+        <v>0.01834735706370112</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01759527846583435</v>
+        <v>0.01795313162741894</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01967850947057694</v>
+        <v>0.0394388885029581</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01622333142028312</v>
+        <v>0.0177024892497891</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04500629017020497</v>
+        <v>0.05914713776919162</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0168621642324699</v>
+        <v>0.0176849316604984</v>
       </c>
       <c r="N88" t="n">
-        <v>0.06652301074963923</v>
+        <v>0.01834735706370112</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01694556883986275</v>
+        <v>0.01795313162741894</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01861374725935908</v>
+        <v>0.01870896191348466</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01836029057304454</v>
+        <v>0.0187337025677415</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02061811114810949</v>
+        <v>0.04062771119229719</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01692869365594761</v>
+        <v>0.01847216269543211</v>
       </c>
       <c r="L89" t="n">
-        <v>0.0455546171967823</v>
+        <v>0.06011377720775635</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01759530180779467</v>
+        <v>0.01845384173269398</v>
       </c>
       <c r="N89" t="n">
-        <v>0.06870636086515453</v>
+        <v>0.01870896191348466</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01768233270246548</v>
+        <v>0.0187337025677415</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01815398705211572</v>
+        <v>0.01926379942812645</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01912530268025473</v>
+        <v>0.01951427350806407</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02113741839845414</v>
+        <v>0.04140268683785617</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01763405589161209</v>
+        <v>0.01924183614107512</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04673981706093208</v>
+        <v>0.06186373456889266</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01832843938311945</v>
+        <v>0.01922275180488956</v>
       </c>
       <c r="N90" t="n">
-        <v>0.07020187244922133</v>
+        <v>0.01926379942812645</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01841909656506821</v>
+        <v>0.01951427350806407</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.0206568468990302</v>
+        <v>0.0196113807901423</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01989031478746492</v>
+        <v>0.02029484444838663</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02183079310310415</v>
+        <v>0.04186318067488193</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01833941812727657</v>
+        <v>0.02001150958671812</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04775663551672343</v>
+        <v>0.06249583884412657</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01906157695844423</v>
+        <v>0.01999166187708514</v>
       </c>
       <c r="N91" t="n">
-        <v>0.07169938060590009</v>
+        <v>0.0196113807901423</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01915586042767094</v>
+        <v>0.02029484444838663</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02011738811453863</v>
+        <v>0.02025121718204799</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02065532689467511</v>
+        <v>0.02107541538870919</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0224925971435528</v>
+        <v>0.0428085579386214</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01904478036294106</v>
+        <v>0.02078118303236112</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04849981831822564</v>
+        <v>0.06370891902498405</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01979471453376901</v>
+        <v>0.02076057194928073</v>
       </c>
       <c r="N92" t="n">
-        <v>0.07288872043925165</v>
+        <v>0.02025121718204799</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01989262429027367</v>
+        <v>0.02107541538870919</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02053067201307707</v>
+        <v>0.02048281978635931</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0214203390018853</v>
+        <v>0.02185598632903175</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02311719240129338</v>
+        <v>0.04333818386432139</v>
       </c>
       <c r="K93" t="n">
-        <v>0.01975014259860554</v>
+        <v>0.02155085647800413</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04936411121950787</v>
+        <v>0.06500180410299106</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02052785210909379</v>
+        <v>0.02152948202147631</v>
       </c>
       <c r="N93" t="n">
-        <v>0.07395972705333648</v>
+        <v>0.02048281978635931</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0206293881528764</v>
+        <v>0.02185598632903175</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.0208917599090816</v>
+        <v>0.02090569978559208</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02218535110909549</v>
+        <v>0.02263655726935431</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02379894075781916</v>
+        <v>0.04435142368722889</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02045550483427002</v>
+        <v>0.02232052992364713</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0500442599746394</v>
+        <v>0.06597332306967346</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02126098968441856</v>
+        <v>0.02229839209367189</v>
       </c>
       <c r="N94" t="n">
-        <v>0.07490223555221509</v>
+        <v>0.02090569978559208</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02136615201547912</v>
+        <v>0.02263655726935431</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.0211957131169883</v>
+        <v>0.02141936836226206</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02295036321630568</v>
+        <v>0.02341712820967688</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02423220409462341</v>
+        <v>0.04484764264259067</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02116086706993451</v>
+        <v>0.02309020336929014</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0507350103376894</v>
+        <v>0.06672230491655734</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02199412725974334</v>
+        <v>0.02306730216586747</v>
       </c>
       <c r="N95" t="n">
-        <v>0.07600608103994833</v>
+        <v>0.02141936836226206</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02210291587808185</v>
+        <v>0.02341712820967688</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02143759295123325</v>
+        <v>0.02182333669888507</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02371537532351587</v>
+        <v>0.02419769914999944</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02471134429319945</v>
+        <v>0.04562620596565367</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02186622930559899</v>
+        <v>0.02385987681493314</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05093110806272713</v>
+        <v>0.06844757863516843</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02272726483506812</v>
+        <v>0.02383621223806306</v>
       </c>
       <c r="N96" t="n">
-        <v>0.07636109862059659</v>
+        <v>0.02182333669888507</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02283967974068458</v>
+        <v>0.02419769914999944</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02161246072625254</v>
+        <v>0.02231711597797686</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02448038743072605</v>
+        <v>0.024978270090322</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0253307232350405</v>
+        <v>0.04648647889166477</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02257159154126347</v>
+        <v>0.02462955026057614</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05172729890382183</v>
+        <v>0.06924797321703291</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0234604024103929</v>
+        <v>0.02460512231025864</v>
       </c>
       <c r="N97" t="n">
-        <v>0.0773571233982206</v>
+        <v>0.02231711597797686</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02357644360328731</v>
+        <v>0.024978270090322</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02171537775648226</v>
+        <v>0.02250021738205327</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02524539953793624</v>
+        <v>0.02575884103064456</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02568470280163986</v>
+        <v>0.04682782665587087</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02327695377692796</v>
+        <v>0.02539922370621915</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05191832861504267</v>
+        <v>0.07012231765367655</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02419353998571767</v>
+        <v>0.02537403238245422</v>
       </c>
       <c r="N98" t="n">
-        <v>0.07708399047688091</v>
+        <v>0.02250021738205327</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02431320746589004</v>
+        <v>0.02575884103064456</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02274199641639588</v>
+        <v>0.02287215209363005</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02601041164514643</v>
+        <v>0.02653941197096713</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02576764487449082</v>
+        <v>0.0477496144935188</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02398231601259244</v>
+        <v>0.02616889715186215</v>
       </c>
       <c r="L99" t="n">
-        <v>0.0516989429504589</v>
+        <v>0.07076944093662541</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02492667756104245</v>
+        <v>0.02614294245464981</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0774315349606382</v>
+        <v>0.02287215209363005</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02504997132849277</v>
+        <v>0.02653941197096713</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02171479513844456</v>
+        <v>0.02343243129522303</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02677542375235662</v>
+        <v>0.02731998291128969</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02607391133508666</v>
+        <v>0.0481512076398555</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02468767824825693</v>
+        <v>0.02693857059750516</v>
       </c>
       <c r="L100" t="n">
-        <v>0.05196388766413976</v>
+        <v>0.07188817205740539</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02565981513636723</v>
+        <v>0.02691185252684539</v>
       </c>
       <c r="N100" t="n">
-        <v>0.0781891246414827</v>
+        <v>0.02343243129522303</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0257867351910955</v>
+        <v>0.02731998291128969</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02064994003426496</v>
+        <v>0.02368056616934797</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02754043585956681</v>
+        <v>0.02810055385161225</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02609786406492064</v>
+        <v>0.04843197133012786</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02539304048392141</v>
+        <v>0.02770824404314817</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05171199591630937</v>
+        <v>0.07297734000754241</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02639295271169201</v>
+        <v>0.02768076259904097</v>
       </c>
       <c r="N101" t="n">
-        <v>0.07803863472096612</v>
+        <v>0.02368056616934797</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02652349905369823</v>
+        <v>0.02810055385161225</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02255101846433909</v>
+        <v>0.02411606789852068</v>
       </c>
       <c r="G102" t="n">
-        <v>0.028305447966777</v>
+        <v>0.02888112479193481</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02613402937631798</v>
+        <v>0.04919127079958271</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02609840271958589</v>
+        <v>0.02847791748879117</v>
       </c>
       <c r="L102" t="n">
-        <v>0.05185234604197694</v>
+        <v>0.07393577377856247</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02712609028701679</v>
+        <v>0.02844967267123655</v>
       </c>
       <c r="N102" t="n">
-        <v>0.07688938659679628</v>
+        <v>0.02411606789852068</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02726026291630096</v>
+        <v>0.02888112479193481</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02242161778914895</v>
+        <v>0.02423844766525693</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02907046007398719</v>
+        <v>0.02966169573225738</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02609672868581678</v>
+        <v>0.04972847128346697</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02680376495525038</v>
+        <v>0.02924759093443418</v>
       </c>
       <c r="L103" t="n">
-        <v>0.05159455731641607</v>
+        <v>0.07486230236199148</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02785922786234156</v>
+        <v>0.02921858274343214</v>
       </c>
       <c r="N103" t="n">
-        <v>0.07666120084372685</v>
+        <v>0.02423844766525693</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02799702677890368</v>
+        <v>0.02966169573225738</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02126532536917654</v>
+        <v>0.02474721665207254</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02983547218119738</v>
+        <v>0.03044226667257994</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02600248298014725</v>
+        <v>0.05044293801702751</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02750912719091486</v>
+        <v>0.03001726438007718</v>
       </c>
       <c r="L104" t="n">
-        <v>0.05114824510189303</v>
+        <v>0.07505575474935544</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02859236543766635</v>
+        <v>0.02998749281562772</v>
       </c>
       <c r="N104" t="n">
-        <v>0.07647389803651133</v>
+        <v>0.02474721665207254</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02873379064150641</v>
+        <v>0.03044226667257994</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02008572856490386</v>
+        <v>0.02484188604148328</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03060048428840757</v>
+        <v>0.0312228376129025</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02595762035739893</v>
+        <v>0.05083403623551125</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02821448942657934</v>
+        <v>0.03078693782572018</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05072302476067411</v>
+        <v>0.07621495993218025</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02932550301299112</v>
+        <v>0.0307564028878233</v>
       </c>
       <c r="N105" t="n">
-        <v>0.07534729874990315</v>
+        <v>0.02484188604148328</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02947055450410914</v>
+        <v>0.0312228376129025</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02088641473681291</v>
+        <v>0.02532196701600496</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03136549639561775</v>
+        <v>0.03200340855322507</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02576846891566133</v>
+        <v>0.05150113117416499</v>
       </c>
       <c r="K106" t="n">
-        <v>0.02891985166224383</v>
+        <v>0.03155661127136319</v>
       </c>
       <c r="L106" t="n">
-        <v>0.05022851165502551</v>
+        <v>0.07643874690199182</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0300586405883159</v>
+        <v>0.03152531296001888</v>
       </c>
       <c r="N106" t="n">
-        <v>0.07400122355865602</v>
+        <v>0.02532196701600496</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03020731836671187</v>
+        <v>0.03200340855322507</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.01967097124538571</v>
+        <v>0.02538697075815335</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03213050850282795</v>
+        <v>0.03278397949354763</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02544135675302397</v>
+        <v>0.05184358806823572</v>
       </c>
       <c r="K107" t="n">
-        <v>0.02962521389790831</v>
+        <v>0.03232628471700619</v>
       </c>
       <c r="L107" t="n">
-        <v>0.04997432114721354</v>
+        <v>0.07772594465031618</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03079177816364068</v>
+        <v>0.03229422303221446</v>
       </c>
       <c r="N107" t="n">
-        <v>0.07285549303752337</v>
+        <v>0.02538697075815335</v>
       </c>
       <c r="O107" t="n">
-        <v>0.0309440822293146</v>
+        <v>0.03278397949354763</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02144298545110425</v>
+        <v>0.02583640845044427</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03289552061003814</v>
+        <v>0.03356455043387019</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02538261196757639</v>
+        <v>0.05226077215297023</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03033057613357279</v>
+        <v>0.03309595816264919</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04927006859950445</v>
+        <v>0.07827538216867924</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03152491573896545</v>
+        <v>0.03306313310441005</v>
       </c>
       <c r="N108" t="n">
-        <v>0.07242992776125873</v>
+        <v>0.02583640845044427</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03168084609191733</v>
+        <v>0.03356455043387019</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02020604471445052</v>
+        <v>0.02606979127539348</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03366053271724832</v>
+        <v>0.03434512137419275</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02509856265740808</v>
+        <v>0.05255204866361546</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03103593836923728</v>
+        <v>0.0338656316082922</v>
       </c>
       <c r="L109" t="n">
-        <v>0.04862536937416442</v>
+        <v>0.07858588844860687</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03225805331429023</v>
+        <v>0.03383204317660563</v>
       </c>
       <c r="N109" t="n">
-        <v>0.07134434830461561</v>
+        <v>0.02606979127539348</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03241760995452005</v>
+        <v>0.03434512137419275</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.01996373639590655</v>
+        <v>0.02628663041551681</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03442554482445852</v>
+        <v>0.03512569231451532</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02479553692060858</v>
+        <v>0.05281678283541827</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03174130060490176</v>
+        <v>0.03463530505393521</v>
       </c>
       <c r="L110" t="n">
-        <v>0.04774983883345982</v>
+        <v>0.07915629248162515</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03299119088961502</v>
+        <v>0.03460095324880121</v>
       </c>
       <c r="N110" t="n">
-        <v>0.06961857524234766</v>
+        <v>0.02628663041551681</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03315437381712278</v>
+        <v>0.03512569231451532</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02071964785595433</v>
+        <v>0.02648643705333001</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03519055693166871</v>
+        <v>0.03590626325483788</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0244798628552674</v>
+        <v>0.05295433990362558</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03244666284056624</v>
+        <v>0.03540497849957821</v>
       </c>
       <c r="L111" t="n">
-        <v>0.04685309233965682</v>
+        <v>0.07998542325925995</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03372432846493979</v>
+        <v>0.0353698633209968</v>
       </c>
       <c r="N111" t="n">
-        <v>0.06827242914920828</v>
+        <v>0.02648643705333001</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03389113767972551</v>
+        <v>0.03590626325483788</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01947736645507585</v>
+        <v>0.0264687223713489</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03595556903887889</v>
+        <v>0.03668683419516044</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02405786855947409</v>
+        <v>0.05326408510348427</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03315202507623073</v>
+        <v>0.03617465194522122</v>
       </c>
       <c r="L112" t="n">
-        <v>0.04644474525502174</v>
+        <v>0.07997210977303726</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03445746604026457</v>
+        <v>0.03613877339319238</v>
       </c>
       <c r="N112" t="n">
-        <v>0.06682573059995112</v>
+        <v>0.0264687223713489</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03462790154232824</v>
+        <v>0.03668683419516044</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.01924047955375312</v>
+        <v>0.02673299755208924</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03672058114608908</v>
+        <v>0.037467405135483</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02363588213131813</v>
+        <v>0.05354538367024114</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03385738731189521</v>
+        <v>0.03694432539086422</v>
       </c>
       <c r="L113" t="n">
-        <v>0.04543441294182082</v>
+        <v>0.08031518101448293</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03519060361558934</v>
+        <v>0.03690768346538795</v>
       </c>
       <c r="N113" t="n">
-        <v>0.06559830016932966</v>
+        <v>0.02673299755208924</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03536466540493097</v>
+        <v>0.037467405135483</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01801257451246815</v>
+        <v>0.02687877377806686</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03748559325329927</v>
+        <v>0.03824797607580557</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02352023166888907</v>
+        <v>0.05399760083914321</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0345627495475597</v>
+        <v>0.03771399883650722</v>
       </c>
       <c r="L114" t="n">
-        <v>0.04473171076232027</v>
+        <v>0.08101346597512304</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03592374119091413</v>
+        <v>0.03767659353758354</v>
       </c>
       <c r="N114" t="n">
-        <v>0.06450995843209745</v>
+        <v>0.02687877377806686</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0361014292675337</v>
+        <v>0.03824797607580557</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01779723869170294</v>
+        <v>0.02700556223179752</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03825060536050946</v>
+        <v>0.03902854701612813</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02301724527027642</v>
+        <v>0.05402010184543726</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03526811178322418</v>
+        <v>0.03848367228215023</v>
       </c>
       <c r="L115" t="n">
-        <v>0.04434625407878645</v>
+        <v>0.08166579364648341</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0366568787662389</v>
+        <v>0.03844550360977912</v>
       </c>
       <c r="N115" t="n">
-        <v>0.06348052596300807</v>
+        <v>0.02700556223179752</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03683819313013642</v>
+        <v>0.03902854701612813</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.01859805945193949</v>
+        <v>0.02721287409579705</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03901561746771965</v>
+        <v>0.03980911795645069</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02273325103356971</v>
+        <v>0.05451225192437018</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03597347401888867</v>
+        <v>0.03925334572779323</v>
       </c>
       <c r="L116" t="n">
-        <v>0.04348765825348552</v>
+        <v>0.08137099302009004</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03739001634156368</v>
+        <v>0.0392144136819747</v>
       </c>
       <c r="N116" t="n">
-        <v>0.06232982333681497</v>
+        <v>0.02721287409579705</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03757495699273915</v>
+        <v>0.03980911795645069</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01841862415365979</v>
+        <v>0.0272002205525812</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03978062957492984</v>
+        <v>0.04058968889677326</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02247457705685844</v>
+        <v>0.05437341631118886</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03667883625455315</v>
+        <v>0.04002301917343624</v>
       </c>
       <c r="L117" t="n">
-        <v>0.04276553864868382</v>
+        <v>0.08232789308746902</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03812315391688845</v>
+        <v>0.03998332375417029</v>
       </c>
       <c r="N117" t="n">
-        <v>0.06147767112827168</v>
+        <v>0.0272002205525812</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03831172085534188</v>
+        <v>0.04058968889677326</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01726252015734585</v>
+        <v>0.0271671127846658</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04054564168214003</v>
+        <v>0.04137025983709582</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02224755143823216</v>
+        <v>0.05480296024114026</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03738419849021763</v>
+        <v>0.04079269261907924</v>
       </c>
       <c r="L118" t="n">
-        <v>0.04268951062664753</v>
+        <v>0.08263532284014602</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03885629149221324</v>
+        <v>0.04075223382636587</v>
       </c>
       <c r="N118" t="n">
-        <v>0.06084388991213185</v>
+        <v>0.0271671127846658</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03904848471794461</v>
+        <v>0.04137025983709582</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01713333482347969</v>
+        <v>0.02731306197456661</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04131065378935022</v>
+        <v>0.04215083077741838</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02215850227578038</v>
+        <v>0.05510024894947116</v>
       </c>
       <c r="K119" t="n">
-        <v>0.03808956072588211</v>
+        <v>0.04156236606472224</v>
       </c>
       <c r="L119" t="n">
-        <v>0.042069189549643</v>
+        <v>0.08199211126964717</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03958942906753802</v>
+        <v>0.04152114389856145</v>
       </c>
       <c r="N119" t="n">
-        <v>0.06034830026314891</v>
+        <v>0.02731306197456661</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03978524858054734</v>
+        <v>0.04215083077741838</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.0170346555125433</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04207566589656041</v>
+        <v>0.04293140171774094</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02201375766759261</v>
+        <v>0.05516464767142853</v>
       </c>
       <c r="K120" t="n">
-        <v>0.03879492296154659</v>
+        <v>0.04233203951036525</v>
       </c>
       <c r="L120" t="n">
-        <v>0.04131419077993637</v>
+        <v>0.08269708736749848</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04032256664286279</v>
+        <v>0.04229005397075704</v>
       </c>
       <c r="N120" t="n">
-        <v>0.05941072275607645</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04052201244315007</v>
+        <v>0.04293140171774094</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01897006958501866</v>
+        <v>0.02744155468498229</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0428406780037706</v>
+        <v>0.0437119726580635</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02181964571175837</v>
+        <v>0.05519834261247478</v>
       </c>
       <c r="K121" t="n">
-        <v>0.03950028519721108</v>
+        <v>0.04310171295600825</v>
       </c>
       <c r="L121" t="n">
-        <v>0.041034129679794</v>
+        <v>0.08295488259656392</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04105570421818757</v>
+        <v>0.04305896404295262</v>
       </c>
       <c r="N121" t="n">
-        <v>0.05895097796566801</v>
+        <v>0.02744155468498229</v>
       </c>
       <c r="O121" t="n">
-        <v>0.0412587763057528</v>
+        <v>0.0437119726580635</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01694316440138781</v>
+        <v>0.02733857685280965</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04360569011098079</v>
+        <v>0.04449254359838607</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02188249450636721</v>
+        <v>0.05469672795365038</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04020564743287556</v>
+        <v>0.04387138640165126</v>
       </c>
       <c r="L122" t="n">
-        <v>0.04063862161148207</v>
+        <v>0.08255055728523786</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04178884179351235</v>
+        <v>0.0438278741151482</v>
       </c>
       <c r="N122" t="n">
-        <v>0.05938888646667706</v>
+        <v>0.02733857685280965</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04199554016835552</v>
+        <v>0.04449254359838607</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01896096747554832</v>
+        <v>0.02743227476631512</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04437070221819097</v>
+        <v>0.04527311453870863</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02189410974425991</v>
+        <v>0.05478678444370289</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04091100966854005</v>
+        <v>0.04464105984729426</v>
       </c>
       <c r="L123" t="n">
-        <v>0.0406372819372669</v>
+        <v>0.08251989907521012</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04252197936883713</v>
+        <v>0.04459678418734379</v>
       </c>
       <c r="N123" t="n">
-        <v>0.05943759488748968</v>
+        <v>0.02743227476631512</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04273230403095825</v>
+        <v>0.04527311453870863</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01802871702254626</v>
+        <v>0.02732270621413527</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04513571432540116</v>
+        <v>0.04605368547903119</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02193454420610655</v>
+        <v>0.05476788611331479</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04161637190420453</v>
+        <v>0.04541073329293727</v>
       </c>
       <c r="L124" t="n">
-        <v>0.04043972601941476</v>
+        <v>0.08286049733666345</v>
       </c>
       <c r="M124" t="n">
-        <v>0.0432551169441619</v>
+        <v>0.04536569425953937</v>
       </c>
       <c r="N124" t="n">
-        <v>0.05968211488078901</v>
+        <v>0.02732270621413527</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04346906789356098</v>
+        <v>0.04605368547903119</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01714188756775165</v>
+        <v>0.02720992898490672</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04590072643261136</v>
+        <v>0.04683425641935376</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0220018102389468</v>
+        <v>0.05464016100639968</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04232173413986901</v>
+        <v>0.04618040673858027</v>
       </c>
       <c r="L125" t="n">
-        <v>0.04055788220229875</v>
+        <v>0.08237314342451035</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04398825451948668</v>
+        <v>0.04613460433173495</v>
       </c>
       <c r="N125" t="n">
-        <v>0.06010614335913633</v>
+        <v>0.02720992898490672</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04420583175616371</v>
+        <v>0.04683425641935376</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.0172957810813624</v>
+        <v>0.02729400086726605</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04666573853982154</v>
+        <v>0.04761482735967631</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02199409783578239</v>
+        <v>0.05480373716687104</v>
       </c>
       <c r="K126" t="n">
-        <v>0.0430270963755335</v>
+        <v>0.04695008018422328</v>
       </c>
       <c r="L126" t="n">
-        <v>0.04060101940402824</v>
+        <v>0.08195862869366333</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04472139209481146</v>
+        <v>0.04690351440393054</v>
       </c>
       <c r="N126" t="n">
-        <v>0.06009378525600489</v>
+        <v>0.02729400086726605</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04494259561876644</v>
+        <v>0.04761482735967631</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01748569953357645</v>
+        <v>0.02737497964984988</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04743075064703173</v>
+        <v>0.04839539829999888</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02210959698961511</v>
+        <v>0.0549587426386425</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04373245861119798</v>
+        <v>0.04771975362986628</v>
       </c>
       <c r="L127" t="n">
-        <v>0.04086003956782616</v>
+        <v>0.08191774449903477</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04545452967013625</v>
+        <v>0.04767242447612612</v>
       </c>
       <c r="N127" t="n">
-        <v>0.06072914550486797</v>
+        <v>0.02737497964984988</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04567935948136916</v>
+        <v>0.04839539829999888</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01870694489459178</v>
+        <v>0.02715292312129475</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04819576275424192</v>
+        <v>0.04917596924032144</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02234649769344667</v>
+        <v>0.05460530546562758</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04443782084686246</v>
+        <v>0.04848942707550929</v>
       </c>
       <c r="L128" t="n">
-        <v>0.04112460398581463</v>
+        <v>0.08215128219553719</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04618766724546102</v>
+        <v>0.0484413345483217</v>
       </c>
       <c r="N128" t="n">
-        <v>0.06159632903919893</v>
+        <v>0.02715292312129475</v>
       </c>
       <c r="O128" t="n">
-        <v>0.0464161233439719</v>
+        <v>0.04917596924032144</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.0189548191346063</v>
+        <v>0.0271278890702373</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04896077486145211</v>
+        <v>0.04995654018064401</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02260298994027883</v>
+        <v>0.05474355369173992</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04514318308252695</v>
+        <v>0.04925910052115229</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04148437395011587</v>
+        <v>0.08166003313808295</v>
       </c>
       <c r="M129" t="n">
-        <v>0.0469208048207858</v>
+        <v>0.04921024462051728</v>
       </c>
       <c r="N129" t="n">
-        <v>0.06277944079247105</v>
+        <v>0.0271278890702373</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04715288720657462</v>
+        <v>0.04995654018064401</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02022462422381797</v>
+        <v>0.02709993528531413</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0497257869686623</v>
+        <v>0.05073711112096656</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02277726372311333</v>
+        <v>0.054873615360893</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04584854531819144</v>
+        <v>0.0500287739667953</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04242901075285196</v>
+        <v>0.08184478868158473</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04765394239611057</v>
+        <v>0.04997915469271286</v>
       </c>
       <c r="N130" t="n">
-        <v>0.06416258569815764</v>
+        <v>0.02709993528531413</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04788965106917735</v>
+        <v>0.05073711112096656</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01851166213242472</v>
+        <v>0.02706911955516181</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05049079907587248</v>
+        <v>0.05151768206128913</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02276750903495191</v>
+        <v>0.05479561851700041</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04655390755385592</v>
+        <v>0.0507984474124383</v>
       </c>
       <c r="L131" t="n">
-        <v>0.0428481756861451</v>
+        <v>0.08140634018095488</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04838707997143535</v>
+        <v>0.05074806476490844</v>
       </c>
       <c r="N131" t="n">
-        <v>0.06522986868973202</v>
+        <v>0.02706911955516181</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04862641493178008</v>
+        <v>0.05151768206128913</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01881123483062452</v>
+        <v>0.02703549966841692</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05125581118308268</v>
+        <v>0.05229825300161169</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02317191586879634</v>
+        <v>0.05460969120397574</v>
       </c>
       <c r="K132" t="n">
-        <v>0.0472592697895204</v>
+        <v>0.0515681208580813</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04373153004211741</v>
+        <v>0.08104547899110587</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04912021754676013</v>
+        <v>0.05151697483710403</v>
       </c>
       <c r="N132" t="n">
-        <v>0.06626539470066745</v>
+        <v>0.02703549966841692</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04936317879438281</v>
+        <v>0.05229825300161169</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02011864428861529</v>
+        <v>0.02719913341371612</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05202082329029287</v>
+        <v>0.05307882394193425</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02328867421764833</v>
+        <v>0.05451596146573251</v>
       </c>
       <c r="K133" t="n">
-        <v>0.04796463202518488</v>
+        <v>0.05233779430372431</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04406873511289108</v>
+        <v>0.08036299646695028</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04985335512208491</v>
+        <v>0.05228588490929961</v>
       </c>
       <c r="N133" t="n">
-        <v>0.06815326866443727</v>
+        <v>0.02719913341371612</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05009994265698554</v>
+        <v>0.05307882394193425</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01942919247659497</v>
+        <v>0.02706007857969593</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05278583539750305</v>
+        <v>0.05385939488225682</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02341597407450964</v>
+        <v>0.05421455734618433</v>
       </c>
       <c r="K134" t="n">
-        <v>0.04866999426084937</v>
+        <v>0.05310746774936731</v>
       </c>
       <c r="L134" t="n">
-        <v>0.04484945219058825</v>
+        <v>0.08055968396340041</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05058649269740969</v>
+        <v>0.05305479498149519</v>
       </c>
       <c r="N134" t="n">
-        <v>0.06907759551451481</v>
+        <v>0.02706007857969593</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05083670651958826</v>
+        <v>0.05385939488225682</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02073818136476153</v>
+        <v>0.02701839295499298</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05355084750471325</v>
+        <v>0.05463996582257939</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02365200543238205</v>
+        <v>0.05440560688924473</v>
       </c>
       <c r="K135" t="n">
-        <v>0.04937535649651385</v>
+        <v>0.05387714119501032</v>
       </c>
       <c r="L135" t="n">
-        <v>0.04566334256733107</v>
+        <v>0.08043633283536888</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05131963027273446</v>
+        <v>0.05382370505369077</v>
       </c>
       <c r="N135" t="n">
-        <v>0.07022248018437338</v>
+        <v>0.02701839295499298</v>
       </c>
       <c r="O135" t="n">
-        <v>0.051573470382191</v>
+        <v>0.05463996582257939</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02204091292331291</v>
+        <v>0.02697413432824387</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05431585961192344</v>
+        <v>0.05542053676290194</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02389495828426726</v>
+        <v>0.05398923813882728</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05008071873217834</v>
+        <v>0.05464681464065333</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04660006753524168</v>
+        <v>0.07999373443776803</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05205276784805925</v>
+        <v>0.05459261512588635</v>
       </c>
       <c r="N136" t="n">
-        <v>0.07177202760748619</v>
+        <v>0.02697413432824387</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05231023424479372</v>
+        <v>0.05542053676290194</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02133268912244703</v>
+        <v>0.02702736048808518</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05508087171913362</v>
+        <v>0.05620110770322451</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02424302262316702</v>
+        <v>0.05376557913884555</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05078608096784282</v>
+        <v>0.05541648808629633</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0477492883864423</v>
+        <v>0.0791326801255105</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05278590542338402</v>
+        <v>0.05536152519808194</v>
       </c>
       <c r="N137" t="n">
-        <v>0.07271034271732663</v>
+        <v>0.02702736048808518</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05304699810739645</v>
+        <v>0.05620110770322451</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02160881193236185</v>
+        <v>0.02677812922315352</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05584588382634381</v>
+        <v>0.05698167864354707</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02449438844208308</v>
+        <v>0.05383475793321316</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05149144320350731</v>
+        <v>0.05618616153193933</v>
       </c>
       <c r="L138" t="n">
-        <v>0.04840066641305499</v>
+        <v>0.0786539612535086</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05351904299870879</v>
+        <v>0.05613043527027752</v>
       </c>
       <c r="N138" t="n">
-        <v>0.07482153044736795</v>
+        <v>0.02677812922315352</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05378376196999918</v>
+        <v>0.05698167864354707</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.0208645833232553</v>
+        <v>0.02672649832208547</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05661089593355401</v>
+        <v>0.05776224958386963</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0247472457340172</v>
+        <v>0.05339690256584359</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05219680543917179</v>
+        <v>0.05695583497758233</v>
       </c>
       <c r="L139" t="n">
-        <v>0.04914386290720194</v>
+        <v>0.07835836917667488</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05425218057403357</v>
+        <v>0.05689934534247311</v>
       </c>
       <c r="N139" t="n">
-        <v>0.07528969573108352</v>
+        <v>0.02672649832208547</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05452052583260191</v>
+        <v>0.05776224958386963</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02109530526532535</v>
+        <v>0.02677252557351764</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05737590804076419</v>
+        <v>0.05854282052419219</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02499978449197111</v>
+        <v>0.05345214108065044</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05290216767483626</v>
+        <v>0.05772550842322534</v>
       </c>
       <c r="L140" t="n">
-        <v>0.05036853916100534</v>
+        <v>0.07834669524992177</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05498531814935836</v>
+        <v>0.05766825541466868</v>
       </c>
       <c r="N140" t="n">
-        <v>0.07729894350194666</v>
+        <v>0.02677252557351764</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05525728969520464</v>
+        <v>0.05854282052419219</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02129627972876993</v>
+        <v>0.02681626876608662</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05814092014797439</v>
+        <v>0.05932339146451476</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02535019470894657</v>
+        <v>0.05330060152154725</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05360752991050075</v>
+        <v>0.05849518186886835</v>
       </c>
       <c r="L141" t="n">
-        <v>0.05076435646658728</v>
+        <v>0.07751973082816183</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05571845572468313</v>
+        <v>0.05843716548686427</v>
       </c>
       <c r="N141" t="n">
-        <v>0.07823337869343061</v>
+        <v>0.02681626876608662</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05599405355780736</v>
+        <v>0.05932339146451476</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02246280868378699</v>
+        <v>0.02655778568842897</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05890593225518457</v>
+        <v>0.06010396240483731</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02559666637794532</v>
+        <v>0.05344241193244764</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05431289214616523</v>
+        <v>0.05926485531451135</v>
       </c>
       <c r="L142" t="n">
-        <v>0.05192097611606999</v>
+        <v>0.07757826726630751</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05645159330000791</v>
+        <v>0.05920607555905985</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0790771062390086</v>
+        <v>0.02655778568842897</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05673081742041009</v>
+        <v>0.06010396240483731</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02259019410057446</v>
+        <v>0.02669713412918136</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05967094436239476</v>
+        <v>0.06088453334515988</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02583738949196909</v>
+        <v>0.05277770035726512</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05501825438182972</v>
+        <v>0.06003452876015435</v>
       </c>
       <c r="L143" t="n">
-        <v>0.05232805940157556</v>
+        <v>0.07682309591927117</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05718473087533269</v>
+        <v>0.05997498563125544</v>
       </c>
       <c r="N143" t="n">
-        <v>0.07971423107215414</v>
+        <v>0.02669713412918136</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05746758128301282</v>
+        <v>0.06088453334515988</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02267373794933029</v>
+        <v>0.02653437187698029</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06043595646960495</v>
+        <v>0.06166510428548245</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02607055404401964</v>
+        <v>0.0530065948399133</v>
       </c>
       <c r="K144" t="n">
-        <v>0.0557236166174942</v>
+        <v>0.06080420220579735</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05317526761522617</v>
+        <v>0.07615500814196541</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05791786845065747</v>
+        <v>0.06074389570345101</v>
       </c>
       <c r="N144" t="n">
-        <v>0.08042885812634037</v>
+        <v>0.02653437187698029</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05820434514561555</v>
+        <v>0.06166510428548245</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02370952772806099</v>
+        <v>0.02636955672046243</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06120096857681514</v>
+        <v>0.062445675225805</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02619435002709872</v>
+        <v>0.0524292234243057</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05642897885315869</v>
+        <v>0.06157387565144037</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05365226204914395</v>
+        <v>0.07577479528930264</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05865100602598225</v>
+        <v>0.06151280577564661</v>
       </c>
       <c r="N145" t="n">
-        <v>0.08140509233504067</v>
+        <v>0.02636955672046243</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05894110900821828</v>
+        <v>0.062445675225805</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02170864957272693</v>
+        <v>0.02650274644826435</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06196598068402533</v>
+        <v>0.06322624616612757</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02650696743420806</v>
+        <v>0.05264571415435593</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05713434108882317</v>
+        <v>0.06234354909708337</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05414870399545108</v>
+        <v>0.07548324871619533</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05938414360130702</v>
+        <v>0.06228171584784218</v>
       </c>
       <c r="N146" t="n">
-        <v>0.0824270386317284</v>
+        <v>0.02650274644826435</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05967787287082101</v>
+        <v>0.06322624616612757</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02170531086188245</v>
+        <v>0.02623399884902265</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06273099279123551</v>
+        <v>0.06400681710645013</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02650659625834942</v>
+        <v>0.05235619507397749</v>
       </c>
       <c r="K147" t="n">
-        <v>0.05783970332448765</v>
+        <v>0.06311322254272637</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05425425474626969</v>
+        <v>0.07518115977755607</v>
       </c>
       <c r="M147" t="n">
-        <v>0.0601172811766318</v>
+        <v>0.06305062592003777</v>
       </c>
       <c r="N147" t="n">
-        <v>0.0821788019498767</v>
+        <v>0.02623399884902265</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06041463673342373</v>
+        <v>0.06400681710645013</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02269957648386151</v>
+        <v>0.02616337171137391</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0634960048984457</v>
+        <v>0.06478738804677268</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02669142649252453</v>
+        <v>0.051960794227084</v>
       </c>
       <c r="K148" t="n">
-        <v>0.05854506556015213</v>
+        <v>0.06388289598836938</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05465857559372198</v>
+        <v>0.07466931982829711</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06085041875195658</v>
+        <v>0.06381953599223335</v>
       </c>
       <c r="N148" t="n">
-        <v>0.08295488259656392</v>
+        <v>0.02616337171137391</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06115140059602647</v>
+        <v>0.06478738804677268</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.023691549153423</v>
+        <v>0.02619092282395473</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0642610170056559</v>
+        <v>0.06556795898709526</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02705964812973516</v>
+        <v>0.05195963965758901</v>
       </c>
       <c r="K149" t="n">
-        <v>0.05925042779581662</v>
+        <v>0.06465256943401237</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05519834261247478</v>
+        <v>0.07394852022333109</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06158355632728135</v>
+        <v>0.06458844606442893</v>
       </c>
       <c r="N149" t="n">
-        <v>0.08216785083674927</v>
+        <v>0.02619092282395473</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06188816445862919</v>
+        <v>0.06556795898709526</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02268133158532583</v>
+        <v>0.02611670997540172</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06502602911286609</v>
+        <v>0.06634852992741783</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02700945116298302</v>
+        <v>0.05155285940940607</v>
       </c>
       <c r="K150" t="n">
-        <v>0.0599557900314811</v>
+        <v>0.0654222428796554</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05523008734518692</v>
+        <v>0.07361955231757045</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06231669390260614</v>
+        <v>0.06535735613662451</v>
       </c>
       <c r="N150" t="n">
-        <v>0.08288439988853713</v>
+        <v>0.02611670997540172</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06262492832123193</v>
+        <v>0.06634852992741783</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02366902649432893</v>
+        <v>0.02614079095435146</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06579104122007629</v>
+        <v>0.06712910086774038</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02723902558526989</v>
+        <v>0.05134058152644877</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06066115226714559</v>
+        <v>0.06619191632529839</v>
       </c>
       <c r="L151" t="n">
-        <v>0.05519847544502085</v>
+        <v>0.07288320746592758</v>
       </c>
       <c r="M151" t="n">
-        <v>0.0630498314779309</v>
+        <v>0.0661262662088201</v>
       </c>
       <c r="N151" t="n">
-        <v>0.08230023304103168</v>
+        <v>0.02614079095435146</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06336169218383465</v>
+        <v>0.06712910086774038</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02365473659519121</v>
+        <v>0.02596322354944053</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06655605332728647</v>
+        <v>0.06790967180806294</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02744180262838562</v>
+        <v>0.0512229340526307</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06136651450281008</v>
+        <v>0.0669615897709414</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05526322530214137</v>
+        <v>0.07254027702331517</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06378296905325569</v>
+        <v>0.06689517628101567</v>
       </c>
       <c r="N152" t="n">
-        <v>0.08231534244489291</v>
+        <v>0.02596322354944053</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06409845604643738</v>
+        <v>0.06790967180806294</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02163856460267156</v>
+        <v>0.02588406554930556</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06732106543449665</v>
+        <v>0.0686902427483855</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02744359597084607</v>
+        <v>0.05130004503186533</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06207187673847456</v>
+        <v>0.0677312632165844</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05572421696003407</v>
+        <v>0.07219155234464547</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06451610662858047</v>
+        <v>0.06766408635321126</v>
       </c>
       <c r="N153" t="n">
-        <v>0.08262972025078091</v>
+        <v>0.02588406554930556</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06483521990904011</v>
+        <v>0.0686902427483855</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02162061323152892</v>
+        <v>0.02570337474258312</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06808607754170684</v>
+        <v>0.06947081368870807</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02754037250556615</v>
+        <v>0.05107204250806632</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06277723897413905</v>
+        <v>0.0685009366622274</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05558133046218472</v>
+        <v>0.07113782478483099</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06524924420390525</v>
+        <v>0.06843299642540684</v>
       </c>
       <c r="N154" t="n">
-        <v>0.08294335860935576</v>
+        <v>0.02570337474258312</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06557198377164283</v>
+        <v>0.06947081368870807</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02160098519652219</v>
+        <v>0.0258212089179098</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06885108964891704</v>
+        <v>0.07025138462903063</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02763680332302809</v>
+        <v>0.05063905452514716</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06348260120980352</v>
+        <v>0.06927061010787042</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05583444585207892</v>
+        <v>0.07057988569878426</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06598238177923003</v>
+        <v>0.06920190649760243</v>
       </c>
       <c r="N155" t="n">
-        <v>0.08265624967127738</v>
+        <v>0.0258212089179098</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06630874763424556</v>
+        <v>0.07025138462903063</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02157978321241026</v>
+        <v>0.02563762586392222</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06961610175612723</v>
+        <v>0.0710319555693532</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02783277195971398</v>
+        <v>0.0505012091270215</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06418796344546801</v>
+        <v>0.07004028355351341</v>
       </c>
       <c r="L156" t="n">
-        <v>0.0561834431732024</v>
+        <v>0.06991852644141777</v>
       </c>
       <c r="M156" t="n">
-        <v>0.0667155193545548</v>
+        <v>0.06997081656979801</v>
       </c>
       <c r="N156" t="n">
-        <v>0.08306838558720575</v>
+        <v>0.02563762586392222</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06704551149684829</v>
+        <v>0.0710319555693532</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02255710999395207</v>
+        <v>0.02545268336925696</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07038111386333741</v>
+        <v>0.07181252650967576</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02792816195210596</v>
+        <v>0.04985863435760282</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06489332568113249</v>
+        <v>0.07080995699915642</v>
       </c>
       <c r="L157" t="n">
-        <v>0.0563282024690408</v>
+        <v>0.06995453836764393</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06744865692987959</v>
+        <v>0.0707397266419936</v>
       </c>
       <c r="N157" t="n">
-        <v>0.08287975850780105</v>
+        <v>0.02545268336925696</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06778227535945101</v>
+        <v>0.07181252650967576</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02153306825590651</v>
+        <v>0.02536643922255062</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07114612597054759</v>
+        <v>0.07259309744999831</v>
       </c>
       <c r="J158" t="n">
-        <v>0.0278228568366861</v>
+        <v>0.05001145826080475</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06559868791679697</v>
+        <v>0.07157963044479942</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05626860378307982</v>
+        <v>0.06858871283237528</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06818179450520437</v>
+        <v>0.07150863671418917</v>
       </c>
       <c r="N158" t="n">
-        <v>0.08299036058372322</v>
+        <v>0.02536643922255062</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06851903922205375</v>
+        <v>0.07259309744999831</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.0235077607130325</v>
+        <v>0.02537895121243978</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07191113807775779</v>
+        <v>0.07337366839032089</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02811674014993655</v>
+        <v>0.04965980888054078</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06630405015246146</v>
+        <v>0.07234930389044243</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05670452715880514</v>
+        <v>0.0683218411905242</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06891493208052914</v>
+        <v>0.07227754678638476</v>
       </c>
       <c r="N159" t="n">
-        <v>0.08230018396563221</v>
+        <v>0.02537895121243978</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06925580308465648</v>
+        <v>0.07337366839032089</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02248129008008895</v>
+        <v>0.02539027712756108</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07267615018496798</v>
+        <v>0.07415423933064345</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02820969542833937</v>
+        <v>0.04950381426072453</v>
       </c>
       <c r="K160" t="n">
-        <v>0.06700941238812594</v>
+        <v>0.07311897733608544</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05663585263970244</v>
+        <v>0.0676547147970033</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06964806965585392</v>
+        <v>0.07304645685858034</v>
       </c>
       <c r="N160" t="n">
-        <v>0.0831092208041882</v>
+        <v>0.02539027712756108</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06999256694725921</v>
+        <v>0.07415423933064345</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02145375907183478</v>
+        <v>0.02530047475655105</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07344116229217816</v>
+        <v>0.074934810270966</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02830160620837668</v>
+        <v>0.04934360244526959</v>
       </c>
       <c r="K161" t="n">
-        <v>0.06771477462379043</v>
+        <v>0.07388865078172843</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05696246026925733</v>
+        <v>0.06728812500672487</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07038120723117869</v>
+        <v>0.07381536693077591</v>
       </c>
       <c r="N161" t="n">
-        <v>0.0830174632500511</v>
+        <v>0.02530047475655105</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07072933080986193</v>
+        <v>0.074934810270966</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02142527040302887</v>
+        <v>0.02520960188804632</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07420617439938836</v>
+        <v>0.07571538121128857</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02829235602653063</v>
+        <v>0.04867930147808941</v>
       </c>
       <c r="K162" t="n">
-        <v>0.06842013685945492</v>
+        <v>0.07465832422737144</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05698423009095555</v>
+        <v>0.06672286317460147</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07111434480650347</v>
+        <v>0.0745842770029715</v>
       </c>
       <c r="N162" t="n">
-        <v>0.08242490345388098</v>
+        <v>0.02520960188804632</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07146609467246466</v>
+        <v>0.07571538121128857</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02239592678843016</v>
+        <v>0.02491771631068347</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07497118650659855</v>
+        <v>0.07649595215161113</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02848182841928329</v>
+        <v>0.04851103940309773</v>
       </c>
       <c r="K163" t="n">
-        <v>0.06912549909511939</v>
+        <v>0.07542799767301445</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05680104214828274</v>
+        <v>0.06615972065554565</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07184748238182825</v>
+        <v>0.07535318707516708</v>
       </c>
       <c r="N163" t="n">
-        <v>0.08273153356633789</v>
+        <v>0.02491771631068347</v>
       </c>
       <c r="O163" t="n">
-        <v>0.0722028585350674</v>
+        <v>0.07649595215161113</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02336583094279757</v>
+        <v>0.02502487581309912</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07573619861380873</v>
+        <v>0.0772765230919337</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02856990692311677</v>
+        <v>0.04813894426420795</v>
       </c>
       <c r="K164" t="n">
-        <v>0.06983086133078388</v>
+        <v>0.07619767111865745</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05691277648472468</v>
+        <v>0.06559948880446975</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07258061995715302</v>
+        <v>0.07612209714736266</v>
       </c>
       <c r="N164" t="n">
-        <v>0.0825373457380818</v>
+        <v>0.02502487581309912</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07293962239767011</v>
+        <v>0.0772765230919337</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02133508558088996</v>
+        <v>0.02483113818392983</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07650121072101893</v>
+        <v>0.07805709403225626</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02865647507451317</v>
+        <v>0.04776314410533372</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07053622356644836</v>
+        <v>0.07696734456430046</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05751931314376688</v>
+        <v>0.06464265065828179</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07331375753247781</v>
+        <v>0.07689100721955824</v>
       </c>
       <c r="N165" t="n">
-        <v>0.08254233211977274</v>
+        <v>0.02483113818392983</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07367638626027284</v>
+        <v>0.07805709403225626</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02330379341746631</v>
+        <v>0.02483656121181223</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07726622282822911</v>
+        <v>0.07883766497257882</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02864141640995463</v>
+        <v>0.04768376697038862</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07124158580211284</v>
+        <v>0.07773701800994345</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05752053216889513</v>
+        <v>0.0643632376543698</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07404689510780259</v>
+        <v>0.07765991729175384</v>
       </c>
       <c r="N166" t="n">
-        <v>0.08264648486207071</v>
+        <v>0.02483656121181223</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07441315012287557</v>
+        <v>0.07883766497257882</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02327205716728549</v>
+        <v>0.0245412026853829</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0780312349354393</v>
+        <v>0.07961823591290138</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02862461446592321</v>
+        <v>0.04740094090328614</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07194694803777733</v>
+        <v>0.07850669145558646</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05731631360359504</v>
+        <v>0.06374572451939353</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07478003268312736</v>
+        <v>0.0784288273639494</v>
       </c>
       <c r="N167" t="n">
-        <v>0.08284979611563581</v>
+        <v>0.0245412026853829</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07514991398547831</v>
+        <v>0.07961823591290138</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.0222399795451064</v>
+        <v>0.02444512039327842</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07879624704264949</v>
+        <v>0.08039880685322394</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02880595277890108</v>
+        <v>0.0472147939479399</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07265231027344181</v>
+        <v>0.07927636490122947</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05780653749135237</v>
+        <v>0.06359219901496327</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07551317025845214</v>
+        <v>0.079197737436145</v>
       </c>
       <c r="N168" t="n">
-        <v>0.08285225803112806</v>
+        <v>0.02444512039327842</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07588667784808104</v>
+        <v>0.08039880685322394</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02320766326568797</v>
+        <v>0.02444837212413541</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07956125914985968</v>
+        <v>0.08117937779354652</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02878531488537027</v>
+        <v>0.04672545414826343</v>
       </c>
       <c r="K169" t="n">
-        <v>0.0733576725091063</v>
+        <v>0.08004603834687248</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05769108387565272</v>
+        <v>0.0621047489026888</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07624630783377691</v>
+        <v>0.07996664750834058</v>
       </c>
       <c r="N169" t="n">
-        <v>0.08235386275920747</v>
+        <v>0.02444837212413541</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07662344171068376</v>
+        <v>0.08117937779354652</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02117521104378912</v>
+        <v>0.02425101566659045</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08032627125706987</v>
+        <v>0.08195994873386907</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02906258432181295</v>
+        <v>0.04643304954817035</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07406303474477079</v>
+        <v>0.08081571179251548</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05796983279998183</v>
+        <v>0.06198546194418036</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07697944540910169</v>
+        <v>0.08073555758053616</v>
       </c>
       <c r="N170" t="n">
-        <v>0.08285460245053394</v>
+        <v>0.02425101566659045</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07736020557328649</v>
+        <v>0.08195994873386907</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02114272559416873</v>
+        <v>0.02425310880928014</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08109128336428005</v>
+        <v>0.08274051967419163</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02913764462471122</v>
+        <v>0.04622511544913416</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07476839698043526</v>
+        <v>0.08158538523815848</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05804266430782529</v>
+        <v>0.06073642590104789</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07771258298442647</v>
+        <v>0.08150446765273174</v>
       </c>
       <c r="N171" t="n">
-        <v>0.08314845892457456</v>
+        <v>0.02425310880928014</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07809696943588922</v>
+        <v>0.08274051967419163</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02211030963158575</v>
+        <v>0.02405470934084106</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08185629547149025</v>
+        <v>0.0835210906145142</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02901037933054715</v>
+        <v>0.04565693292932765</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07547375921609974</v>
+        <v>0.08235505868380148</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05810945844266882</v>
+        <v>0.06065972853490137</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07844572055975126</v>
+        <v>0.08227337772492734</v>
       </c>
       <c r="N172" t="n">
-        <v>0.08261527840852512</v>
+        <v>0.02405470934084106</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07883373329849196</v>
+        <v>0.0835210906145142</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02207630536041628</v>
+        <v>0.02405508332124383</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08262130757870044</v>
+        <v>0.08430166155483676</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02908067197580287</v>
+        <v>0.04532848977964191</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07617912145176423</v>
+        <v>0.08312473212944449</v>
       </c>
       <c r="L173" t="n">
-        <v>0.05797009524799815</v>
+        <v>0.05935745760735106</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07917885813507604</v>
+        <v>0.0830422877971229</v>
       </c>
       <c r="N173" t="n">
-        <v>0.08245427160341207</v>
+        <v>0.02405508332124383</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07957049716109468</v>
+        <v>0.08430166155483676</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02103607029196625</v>
+        <v>0.0240475693272777</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08338631968591063</v>
+        <v>0.08508223249515932</v>
       </c>
       <c r="J174" t="n">
-        <v>0.0292484060969605</v>
+        <v>0.04504427583328027</v>
       </c>
       <c r="K174" t="n">
-        <v>0.0768844836874287</v>
+        <v>0.0838944055750875</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05822445476729887</v>
+        <v>0.05893170088000682</v>
       </c>
       <c r="M174" t="n">
-        <v>0.07991199571040081</v>
+        <v>0.0838111978693185</v>
       </c>
       <c r="N174" t="n">
-        <v>0.08256638623492013</v>
+        <v>0.0240475693272777</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08030726102369741</v>
+        <v>0.08508223249515932</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02298974309549602</v>
+        <v>0.02383092369718945</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08415133179312081</v>
+        <v>0.08586280343548189</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02941346523050213</v>
+        <v>0.04440878092344597</v>
       </c>
       <c r="K175" t="n">
-        <v>0.07758984592309319</v>
+        <v>0.0846640790207305</v>
       </c>
       <c r="L175" t="n">
-        <v>0.05827241704405672</v>
+        <v>0.05798454611447873</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08064513328572559</v>
+        <v>0.08458010794151408</v>
       </c>
       <c r="N175" t="n">
-        <v>0.08275257002873387</v>
+        <v>0.02383092369718945</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08104402488630014</v>
+        <v>0.08586280343548189</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02093775664460278</v>
+        <v>0.02360548536988226</v>
       </c>
       <c r="G176" t="n">
-        <v>0.084916343900331</v>
+        <v>0.08664337437580444</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02947573291290988</v>
+        <v>0.04412649488334211</v>
       </c>
       <c r="K176" t="n">
-        <v>0.07829520815875768</v>
+        <v>0.0854337524663735</v>
       </c>
       <c r="L176" t="n">
-        <v>0.05831386212175732</v>
+        <v>0.0568180810723769</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08137827086105037</v>
+        <v>0.08534901801370966</v>
       </c>
       <c r="N176" t="n">
-        <v>0.08261377071053783</v>
+        <v>0.02360548536988226</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08178078874890286</v>
+        <v>0.08664337437580444</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02288054381288374</v>
+        <v>0.02357159328425938</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08568135600754119</v>
+        <v>0.087423945316127</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02943509268066584</v>
+        <v>0.04330190754617194</v>
       </c>
       <c r="K177" t="n">
-        <v>0.07900057039442215</v>
+        <v>0.0862034259120165</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05814867004388641</v>
+        <v>0.05603439351531131</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08211140843637514</v>
+        <v>0.08611792808590524</v>
       </c>
       <c r="N177" t="n">
-        <v>0.08215093600601664</v>
+        <v>0.02357159328425938</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08251755261150559</v>
+        <v>0.087423945316127</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02181853747393608</v>
+        <v>0.02352958637922402</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08644636811475138</v>
+        <v>0.08820451625644958</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02939142807025213</v>
+        <v>0.0423395087451387</v>
       </c>
       <c r="K178" t="n">
-        <v>0.07970593263008664</v>
+        <v>0.08697309935765951</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05837672085392959</v>
+        <v>0.05543557120489201</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08284454601169992</v>
+        <v>0.08688683815810083</v>
       </c>
       <c r="N178" t="n">
-        <v>0.08176501364085492</v>
+        <v>0.02352958637922402</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08325431647410832</v>
+        <v>0.08820451625644958</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02175217050135704</v>
+        <v>0.02327980359367934</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08721138022196158</v>
+        <v>0.08898508719677213</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02954462261815086</v>
+        <v>0.04194378831344556</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08041129486575112</v>
+        <v>0.08774277280330252</v>
       </c>
       <c r="L179" t="n">
-        <v>0.05829789459537263</v>
+        <v>0.05422370190272902</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08357768358702469</v>
+        <v>0.0876557482302964</v>
       </c>
       <c r="N179" t="n">
-        <v>0.0815569513407372</v>
+        <v>0.02327980359367934</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08399108033671104</v>
+        <v>0.08898508719677213</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02168187576874374</v>
+        <v>0.0231225838665286</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08797639232917176</v>
+        <v>0.08976565813709469</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02959455986084412</v>
+        <v>0.04141923608429579</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08111665710141561</v>
+        <v>0.08851244624894553</v>
       </c>
       <c r="L180" t="n">
-        <v>0.0583120713117011</v>
+        <v>0.05300087337043252</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08431082116234948</v>
+        <v>0.08842465830249199</v>
       </c>
       <c r="N180" t="n">
-        <v>0.08182769683134805</v>
+        <v>0.0231225838665286</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08472784419931377</v>
+        <v>0.08976565813709469</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02060808614969345</v>
+        <v>0.02285826613667498</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08874140443638194</v>
+        <v>0.09054622907741726</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02954112333481405</v>
+        <v>0.04037034189089259</v>
       </c>
       <c r="K181" t="n">
-        <v>0.0818220193370801</v>
+        <v>0.08928211969458852</v>
       </c>
       <c r="L181" t="n">
-        <v>0.05801913104640072</v>
+        <v>0.05256917336961242</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08504395873767426</v>
+        <v>0.08919356837468757</v>
       </c>
       <c r="N181" t="n">
-        <v>0.08157819783837211</v>
+        <v>0.02285826613667498</v>
       </c>
       <c r="O181" t="n">
-        <v>0.0854646080619165</v>
+        <v>0.09054622907741726</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02253123451780333</v>
+        <v>0.02288718934302174</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08950641654359213</v>
+        <v>0.09132680001773982</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02968419657654274</v>
+        <v>0.03940159556643913</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08252738157274457</v>
+        <v>0.09005179314023154</v>
       </c>
       <c r="L182" t="n">
-        <v>0.05821176169187239</v>
+        <v>0.05163068966187878</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08577709631299903</v>
+        <v>0.08996247844688315</v>
       </c>
       <c r="N182" t="n">
-        <v>0.0811094020874939</v>
+        <v>0.02288718934302174</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08620137192451924</v>
+        <v>0.09132680001773982</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02145175374667058</v>
+        <v>0.02260969242447203</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09027142865080233</v>
+        <v>0.09210737095806239</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02982366312251229</v>
+        <v>0.03861748694413863</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08323274380840906</v>
+        <v>0.09082146658587453</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05805191903119142</v>
+        <v>0.05068751000884164</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08651023388832381</v>
+        <v>0.09073138851907873</v>
       </c>
       <c r="N183" t="n">
-        <v>0.08082225730439813</v>
+        <v>0.02260969242447203</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08693813578712196</v>
+        <v>0.09210737095806239</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02237007670989238</v>
+        <v>0.02252611431992907</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09103644075801252</v>
+        <v>0.09288794189838495</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02965940650920479</v>
+        <v>0.03792250585719431</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08393810604407355</v>
+        <v>0.09159114003151754</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05813700213794284</v>
+        <v>0.04944172217211101</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08724337146364859</v>
+        <v>0.09150029859127433</v>
       </c>
       <c r="N184" t="n">
-        <v>0.08081771121476927</v>
+        <v>0.02252611431992907</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08767489964972469</v>
+        <v>0.09288794189838495</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02028663628106595</v>
+        <v>0.0221367939682961</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09180145286522272</v>
+        <v>0.09366851283870752</v>
       </c>
       <c r="J185" t="n">
-        <v>0.0297913102731024</v>
+        <v>0.03722114213880942</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08464346827973802</v>
+        <v>0.09236081347716055</v>
       </c>
       <c r="L185" t="n">
-        <v>0.05767050032274176</v>
+        <v>0.0488954139132971</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08797650903897336</v>
+        <v>0.0922692086634699</v>
       </c>
       <c r="N185" t="n">
-        <v>0.08009671154429199</v>
+        <v>0.0221367939682961</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08841166351232742</v>
+        <v>0.09366851283870752</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02220186533378848</v>
+        <v>0.02204207030847631</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09256646497243289</v>
+        <v>0.09444908377903007</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02981925795068716</v>
+        <v>0.03631788562218716</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08534883051540251</v>
+        <v>0.09313048692280354</v>
       </c>
       <c r="L186" t="n">
-        <v>0.05765590289620315</v>
+        <v>0.04805067299400972</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08870964661429814</v>
+        <v>0.09303811873566549</v>
       </c>
       <c r="N186" t="n">
-        <v>0.08006020601865077</v>
+        <v>0.02204207030847631</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08914842737493016</v>
+        <v>0.09444908377903007</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02011619674165718</v>
+        <v>0.0217422822793729</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09333147707964308</v>
+        <v>0.09522965471935263</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02974313307844124</v>
+        <v>0.03581722614053065</v>
       </c>
       <c r="K187" t="n">
-        <v>0.086054192751067</v>
+        <v>0.09390016036844656</v>
       </c>
       <c r="L187" t="n">
-        <v>0.05749669916894212</v>
+        <v>0.04680958717585909</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08944278418962293</v>
+        <v>0.09380702880786107</v>
       </c>
       <c r="N187" t="n">
-        <v>0.07960914236353028</v>
+        <v>0.0217422822793729</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08988519123753287</v>
+        <v>0.09522965471935263</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02203006337826921</v>
+        <v>0.02173776881988912</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09409648918685327</v>
+        <v>0.09601022565967521</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02976281919284672</v>
+        <v>0.03492365352704321</v>
       </c>
       <c r="K188" t="n">
-        <v>0.08675955498673148</v>
+        <v>0.09466983381408955</v>
       </c>
       <c r="L188" t="n">
-        <v>0.05699637845157357</v>
+        <v>0.04557424422045525</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09017592176494771</v>
+        <v>0.09457593888005665</v>
       </c>
       <c r="N188" t="n">
-        <v>0.07924446830461512</v>
+        <v>0.02173776881988912</v>
       </c>
       <c r="O188" t="n">
-        <v>0.0906219551001356</v>
+        <v>0.09601022565967521</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.01994389811722179</v>
+        <v>0.02152886886892814</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09486150129406347</v>
+        <v>0.09679079659999776</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02987819983038573</v>
+        <v>0.03434165761492805</v>
       </c>
       <c r="K189" t="n">
-        <v>0.08746491722239597</v>
+        <v>0.09543950725973256</v>
       </c>
       <c r="L189" t="n">
-        <v>0.05655843005471262</v>
+        <v>0.04514673188940815</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09090905934027249</v>
+        <v>0.09534484895225223</v>
       </c>
       <c r="N189" t="n">
-        <v>0.07856713156758982</v>
+        <v>0.02152886886892814</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09135871896273833</v>
+        <v>0.09679079659999776</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.0198581338321121</v>
+        <v>0.02121592136539319</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09562651340127366</v>
+        <v>0.09757136754032032</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02978915852754033</v>
+        <v>0.0330757282373883</v>
       </c>
       <c r="K190" t="n">
-        <v>0.08817027945806044</v>
+        <v>0.09620918070537557</v>
       </c>
       <c r="L190" t="n">
-        <v>0.05638634328897427</v>
+        <v>0.04372913794432787</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09164219691559726</v>
+        <v>0.09611375902444781</v>
       </c>
       <c r="N190" t="n">
-        <v>0.07797807987813904</v>
+        <v>0.02121592136539319</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09209548282534105</v>
+        <v>0.09757136754032032</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02177320339653738</v>
+        <v>0.02109926524818748</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09639152550848384</v>
+        <v>0.09835193848064289</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02999557882079266</v>
+        <v>0.03263035522762719</v>
       </c>
       <c r="K191" t="n">
-        <v>0.08887564169372493</v>
+        <v>0.09697885415101858</v>
       </c>
       <c r="L191" t="n">
-        <v>0.05618360746497353</v>
+        <v>0.04322355014682455</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09237533449092204</v>
+        <v>0.09688266909664339</v>
       </c>
       <c r="N191" t="n">
-        <v>0.0781782609619473</v>
+        <v>0.02109926524818748</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09283224668794379</v>
+        <v>0.09835193848064289</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02168953968409476</v>
+        <v>0.02067923945621419</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09715653761569402</v>
+        <v>0.09913250942096545</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02999719744263234</v>
+        <v>0.03211002841884805</v>
       </c>
       <c r="K192" t="n">
-        <v>0.08958100392938942</v>
+        <v>0.09774852759666158</v>
       </c>
       <c r="L192" t="n">
-        <v>0.05535371189332544</v>
+        <v>0.0422320562585079</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09310847206624681</v>
+        <v>0.09765157916883899</v>
       </c>
       <c r="N192" t="n">
-        <v>0.07716862254469925</v>
+        <v>0.02067923945621419</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09356901055054652</v>
+        <v>0.09913250942096545</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.0216075755683815</v>
+        <v>0.02065618292837658</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09792154972290422</v>
+        <v>0.09991308036128801</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02978286722327998</v>
+        <v>0.03121923764425397</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09028636616505389</v>
+        <v>0.09851820104230458</v>
       </c>
       <c r="L193" t="n">
-        <v>0.05480014588464502</v>
+        <v>0.04165674404098846</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09384160964157159</v>
+        <v>0.09842048924103457</v>
       </c>
       <c r="N193" t="n">
-        <v>0.07725011235207935</v>
+        <v>0.02065618292837658</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09430577441314925</v>
+        <v>0.09991308036128801</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01952774392299472</v>
+        <v>0.02023043460357782</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09868656183011441</v>
+        <v>0.1006936513016106</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02984638630378876</v>
+        <v>0.03046247273704816</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09099172840071838</v>
+        <v>0.09928787448794758</v>
       </c>
       <c r="L194" t="n">
-        <v>0.05442639874954727</v>
+        <v>0.04019970125587596</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09457474721689638</v>
+        <v>0.09918939931323013</v>
       </c>
       <c r="N194" t="n">
-        <v>0.07702367810977234</v>
+        <v>0.02023043460357782</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09504253827575197</v>
+        <v>0.1006936513016106</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.0204504776215317</v>
+        <v>0.02010233342072115</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09945157393732461</v>
+        <v>0.1014742222419331</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02988874150669525</v>
+        <v>0.0301410501718023</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09169709063638287</v>
+        <v>0.1000575479335906</v>
       </c>
       <c r="L195" t="n">
-        <v>0.05403595979864728</v>
+        <v>0.03926301566478041</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09530788479222115</v>
+        <v>0.09995830938542573</v>
       </c>
       <c r="N195" t="n">
-        <v>0.07629026754346269</v>
+        <v>0.02010233342072115</v>
       </c>
       <c r="O195" t="n">
-        <v>0.0957793021383547</v>
+        <v>0.1014742222419331</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01937620953758958</v>
+        <v>0.01987221831870975</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1002165860445348</v>
+        <v>0.1022547931822557</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02981091965453608</v>
+        <v>0.02921036879488825</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09240245287204735</v>
+        <v>0.1008272213792336</v>
       </c>
       <c r="L196" t="n">
-        <v>0.05383231834256003</v>
+        <v>0.038348775029312</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09604102236754593</v>
+        <v>0.1007272194576213</v>
       </c>
       <c r="N196" t="n">
-        <v>0.07535082837883506</v>
+        <v>0.01987221831870975</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09651606600095744</v>
+        <v>0.1022547931822557</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01930537254476558</v>
+        <v>0.01953979626410669</v>
       </c>
       <c r="G197" t="n">
-        <v>0.100981598151745</v>
+        <v>0.1030353641225783</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02971390756984785</v>
+        <v>0.0284569445121983</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09310781510771184</v>
+        <v>0.1015968948248766</v>
       </c>
       <c r="L197" t="n">
-        <v>0.05321896369190054</v>
+        <v>0.03835711487425403</v>
       </c>
       <c r="M197" t="n">
-        <v>0.0967741599428707</v>
+        <v>0.1014961295298169</v>
       </c>
       <c r="N197" t="n">
-        <v>0.07540630834157402</v>
+        <v>0.01953979626410669</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09725282986356017</v>
+        <v>0.1030353641225783</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02123839951665689</v>
+        <v>0.01928776680705782</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1017466102589552</v>
+        <v>0.1038159350629008</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02959869207516715</v>
+        <v>0.02788367697476482</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09381317734337631</v>
+        <v>0.1023665682705196</v>
       </c>
       <c r="L198" t="n">
-        <v>0.05269938515728384</v>
+        <v>0.03685371681575811</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09750729751819548</v>
+        <v>0.1022650396020125</v>
       </c>
       <c r="N198" t="n">
-        <v>0.07445765515736413</v>
+        <v>0.01928776680705782</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09798959372616289</v>
+        <v>0.1038159350629008</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02117572332686067</v>
+        <v>0.01911007409045774</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1025116223661654</v>
+        <v>0.1045965060032234</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02926625999303056</v>
+        <v>0.02749346583362014</v>
       </c>
       <c r="K199" t="n">
-        <v>0.0945185395790408</v>
+        <v>0.1031362417161626</v>
       </c>
       <c r="L199" t="n">
-        <v>0.05207707204932496</v>
+        <v>0.03672754509711224</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09824043509352026</v>
+        <v>0.1030339496742081</v>
       </c>
       <c r="N199" t="n">
-        <v>0.07460581655189008</v>
+        <v>0.01911007409045774</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09872635758876562</v>
+        <v>0.1045965060032234</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02111777684897417</v>
+        <v>0.01890924030182456</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1032766344733756</v>
+        <v>0.1053770769435459</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02931759814597475</v>
+        <v>0.02678921073979662</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09522390181470529</v>
+        <v>0.1039059151618056</v>
       </c>
       <c r="L200" t="n">
-        <v>0.05125551367863893</v>
+        <v>0.03578149896067845</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09897357266884503</v>
+        <v>0.1038028597464036</v>
       </c>
       <c r="N200" t="n">
-        <v>0.07375174025083636</v>
+        <v>0.01890924030182456</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09946312145136833</v>
+        <v>0.1053770769435459</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01906499295659458</v>
+        <v>0.01848778762867638</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1040416465805857</v>
+        <v>0.1061576478838685</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02895369335653625</v>
+        <v>0.02577381134432663</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09592926405036976</v>
+        <v>0.1046755886074486</v>
       </c>
       <c r="L201" t="n">
-        <v>0.05103819935584075</v>
+        <v>0.03461847764881815</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09970671024416981</v>
+        <v>0.1045717698185992</v>
       </c>
       <c r="N201" t="n">
-        <v>0.07349637397988756</v>
+        <v>0.01848778762867638</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1001998853139711</v>
+        <v>0.1061576478838685</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02001780452331907</v>
+        <v>0.01804823825853134</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1048066586877959</v>
+        <v>0.1069382188241911</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02887553244725172</v>
+        <v>0.02505016729824258</v>
       </c>
       <c r="K202" t="n">
-        <v>0.09663462628603425</v>
+        <v>0.1054452620530916</v>
       </c>
       <c r="L202" t="n">
-        <v>0.0504286183915455</v>
+        <v>0.03344138040389327</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1004398478194946</v>
+        <v>0.1053406798907948</v>
       </c>
       <c r="N202" t="n">
-        <v>0.07334066546472823</v>
+        <v>0.01804823825853134</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1009366491765738</v>
+        <v>0.1069382188241911</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01997664442274487</v>
+        <v>0.01789311437890755</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1055716707950061</v>
+        <v>0.1077187897645136</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02868410224065772</v>
+        <v>0.02462117825257673</v>
       </c>
       <c r="K203" t="n">
-        <v>0.09733998852169874</v>
+        <v>0.1062149354987346</v>
       </c>
       <c r="L203" t="n">
-        <v>0.04993026009636817</v>
+        <v>0.0331531064682653</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1011729853948194</v>
+        <v>0.1061095899629904</v>
       </c>
       <c r="N203" t="n">
-        <v>0.07218556243104307</v>
+        <v>0.01789311437890755</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1016734130391765</v>
+        <v>0.1077187897645136</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.0189419455284691</v>
+        <v>0.01752493817732312</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1063366829022163</v>
+        <v>0.1084993607048362</v>
       </c>
       <c r="J204" t="n">
-        <v>0.0283803895592909</v>
+        <v>0.02378974385836147</v>
       </c>
       <c r="K204" t="n">
-        <v>0.09804535075736322</v>
+        <v>0.1069846089443776</v>
       </c>
       <c r="L204" t="n">
-        <v>0.04924661378092374</v>
+        <v>0.03225655508429609</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1019061229701442</v>
+        <v>0.106878500035186</v>
       </c>
       <c r="N204" t="n">
-        <v>0.07223201260451656</v>
+        <v>0.01752493817732312</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1024101769017793</v>
+        <v>0.1084993607048362</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01891414071408905</v>
+        <v>0.01694623184129616</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1071016950094265</v>
+        <v>0.1092799316451588</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02836538122568782</v>
+        <v>0.02275876376662919</v>
       </c>
       <c r="K205" t="n">
-        <v>0.09875071299302771</v>
+        <v>0.1077542823900206</v>
       </c>
       <c r="L205" t="n">
-        <v>0.04928116875582733</v>
+        <v>0.03135462549434737</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1026392605454689</v>
+        <v>0.1076474101073815</v>
       </c>
       <c r="N205" t="n">
-        <v>0.0714809637108334</v>
+        <v>0.01694623184129616</v>
       </c>
       <c r="O205" t="n">
-        <v>0.103146940764382</v>
+        <v>0.1092799316451588</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01889366285320186</v>
+        <v>0.01665951755834484</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1078667071166367</v>
+        <v>0.1100605025854813</v>
       </c>
       <c r="J206" t="n">
-        <v>0.0279400640623851</v>
+        <v>0.02203113762841222</v>
       </c>
       <c r="K206" t="n">
-        <v>0.0994560752286922</v>
+        <v>0.1085239558356636</v>
       </c>
       <c r="L206" t="n">
-        <v>0.04863741433169386</v>
+        <v>0.03015021694078074</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1033723981207937</v>
+        <v>0.1084163201795771</v>
       </c>
       <c r="N206" t="n">
-        <v>0.07123336347567805</v>
+        <v>0.01665951755834484</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1038837046269847</v>
+        <v>0.1100605025854813</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01888094481940475</v>
+        <v>0.01636731751598723</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1086317192238469</v>
+        <v>0.1108410735258039</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02790542489191934</v>
+        <v>0.02130976509474289</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1001614374643567</v>
+        <v>0.1092936292813067</v>
       </c>
       <c r="L207" t="n">
-        <v>0.04811883981913848</v>
+        <v>0.02944622866595803</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1041055356961185</v>
+        <v>0.1091852302517727</v>
       </c>
       <c r="N207" t="n">
-        <v>0.07079015962473523</v>
+        <v>0.01636731751598723</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1046204684895874</v>
+        <v>0.1108410735258039</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01887641948629488</v>
+        <v>0.01597215390174145</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1093967313310571</v>
+        <v>0.1116216444661264</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02756245053682714</v>
+        <v>0.02069754581665367</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1008667997000212</v>
+        <v>0.1100633027269496</v>
       </c>
       <c r="L208" t="n">
-        <v>0.0478289345287761</v>
+        <v>0.02874555991224076</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1048386732714433</v>
+        <v>0.1099541403239683</v>
       </c>
       <c r="N208" t="n">
-        <v>0.07065229988368943</v>
+        <v>0.01597215390174145</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1053572323521902</v>
+        <v>0.1116216444661264</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01987700560916957</v>
+        <v>0.01537654890312562</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1101617434382672</v>
+        <v>0.112402215406449</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02731212781964512</v>
+        <v>0.01999737944517677</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1015721619356856</v>
+        <v>0.1108329761725927</v>
       </c>
       <c r="L209" t="n">
-        <v>0.04727118777122177</v>
+        <v>0.02715110992199071</v>
       </c>
       <c r="M209" t="n">
-        <v>0.105571810846768</v>
+        <v>0.1107230503961639</v>
       </c>
       <c r="N209" t="n">
-        <v>0.07002073197822523</v>
+        <v>0.01537654890312562</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1060939962147929</v>
+        <v>0.112402215406449</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02087888095848128</v>
+        <v>0.01518302470765787</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1109267555454774</v>
+        <v>0.1131827863467716</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02695544356290987</v>
+        <v>0.01951216563134464</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1022775241713501</v>
+        <v>0.1116026496182357</v>
       </c>
       <c r="L210" t="n">
-        <v>0.04734908885709055</v>
+        <v>0.0265657779375697</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1063049484220928</v>
+        <v>0.1114919604683595</v>
       </c>
       <c r="N210" t="n">
-        <v>0.06969640363402729</v>
+        <v>0.01518302470765787</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1068307600773956</v>
+        <v>0.1131827863467716</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02088207503424797</v>
+        <v>0.01479410350285632</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1116917676526876</v>
+        <v>0.1139633572870941</v>
       </c>
       <c r="J211" t="n">
-        <v>0.026793384589158</v>
+        <v>0.01844480402618956</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1029828864070146</v>
+        <v>0.1123723230638787</v>
       </c>
       <c r="L211" t="n">
-        <v>0.04666612709699747</v>
+        <v>0.02549246320133941</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1070380859974176</v>
+        <v>0.112260870540555</v>
       </c>
       <c r="N211" t="n">
-        <v>0.06918026257678012</v>
+        <v>0.01479410350285632</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1075675239399984</v>
+        <v>0.1139633572870941</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02088662135104241</v>
+        <v>0.01421230747623907</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1124567797598978</v>
+        <v>0.1147439282274167</v>
       </c>
       <c r="J212" t="n">
-        <v>0.0265269377209261</v>
+        <v>0.01809819428074397</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1036882486426791</v>
+        <v>0.1131419965095217</v>
       </c>
       <c r="L212" t="n">
-        <v>0.04672579180155756</v>
+        <v>0.02453406495566146</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1077712235727424</v>
+        <v>0.1130297806127506</v>
       </c>
       <c r="N212" t="n">
-        <v>0.06887325653216841</v>
+        <v>0.01421230747623907</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1083042878026011</v>
+        <v>0.1147439282274167</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02089255342343749</v>
+        <v>0.01394015881532426</v>
       </c>
       <c r="G213" t="n">
-        <v>0.113221791867108</v>
+        <v>0.1155244991677393</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02615708978075079</v>
+        <v>0.01737523604604022</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1043936108783436</v>
+        <v>0.1139116699551647</v>
       </c>
       <c r="L213" t="n">
-        <v>0.04623157228138577</v>
+        <v>0.02389348244289757</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1085043611480671</v>
+        <v>0.1137986906849462</v>
       </c>
       <c r="N213" t="n">
-        <v>0.06817131429233347</v>
+        <v>0.01394015881532426</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1090410516652038</v>
+        <v>0.1155244991677393</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01889990476600596</v>
+        <v>0.01358017970762998</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1139868039743182</v>
+        <v>0.1163050701080618</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02608482759116867</v>
+        <v>0.01657882897311061</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1050989731140081</v>
+        <v>0.1146813434008077</v>
       </c>
       <c r="L214" t="n">
-        <v>0.04637048516938627</v>
+        <v>0.0234736149054095</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1092374987233919</v>
+        <v>0.1145676007571418</v>
       </c>
       <c r="N214" t="n">
-        <v>0.06806544839474304</v>
+        <v>0.01358017970762998</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1097778155278065</v>
+        <v>0.1163050701080618</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01890870889332071</v>
+        <v>0.01313489234067437</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1147518160815284</v>
+        <v>0.1170856410483844</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02571113797471633</v>
+        <v>0.01601187271298754</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1058043353496725</v>
+        <v>0.1154510168464507</v>
       </c>
       <c r="L215" t="n">
-        <v>0.04631156695320912</v>
+        <v>0.02237736158555886</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1099706362987167</v>
+        <v>0.1153365108293374</v>
       </c>
       <c r="N215" t="n">
-        <v>0.06765546680442569</v>
+        <v>0.01313489234067437</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1105145793904093</v>
+        <v>0.1170856410483844</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01991899931995451</v>
+        <v>0.01290681890197555</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1155168281887386</v>
+        <v>0.1178662119887069</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02543700775393039</v>
+        <v>0.01577726691670334</v>
       </c>
       <c r="K216" t="n">
-        <v>0.106509697585337</v>
+        <v>0.1162206902920937</v>
       </c>
       <c r="L216" t="n">
-        <v>0.04595403280228147</v>
+        <v>0.02130762172570755</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1107037738740415</v>
+        <v>0.116105420901533</v>
       </c>
       <c r="N216" t="n">
-        <v>0.06724139075205776</v>
+        <v>0.01290681890197555</v>
       </c>
       <c r="O216" t="n">
-        <v>0.111251343253012</v>
+        <v>0.1178662119887069</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01993080956048023</v>
+        <v>0.01249848157905164</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1162818402959488</v>
+        <v>0.1186467829290295</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02526342375134742</v>
+        <v>0.01547791123529041</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1072150598210015</v>
+        <v>0.1169903637377367</v>
       </c>
       <c r="L217" t="n">
-        <v>0.04599795803483689</v>
+        <v>0.02046729456821705</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1114369114493663</v>
+        <v>0.1168743309737285</v>
       </c>
       <c r="N217" t="n">
-        <v>0.06652324146831579</v>
+        <v>0.01249848157905164</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1119881071156147</v>
+        <v>0.1186467829290295</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01894417312947067</v>
+        <v>0.01231240255942073</v>
       </c>
       <c r="G218" t="n">
-        <v>0.117046852403159</v>
+        <v>0.1194273538693521</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02479137278950407</v>
+        <v>0.01451670531978105</v>
       </c>
       <c r="K218" t="n">
-        <v>0.107920422056666</v>
+        <v>0.1177600371833797</v>
       </c>
       <c r="L218" t="n">
-        <v>0.0456434179691089</v>
+        <v>0.01985927935544918</v>
       </c>
       <c r="M218" t="n">
-        <v>0.112170049024691</v>
+        <v>0.1176432410459241</v>
       </c>
       <c r="N218" t="n">
-        <v>0.06630104018387639</v>
+        <v>0.01231240255942073</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1127248709782175</v>
+        <v>0.1194273538693521</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02095912354149863</v>
+        <v>0.01205110403060095</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1178118645103691</v>
+        <v>0.1202079248096746</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02472184169093693</v>
+        <v>0.01449654882120768</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1086257842923305</v>
+        <v>0.1185297106290227</v>
       </c>
       <c r="L219" t="n">
-        <v>0.04529048792333107</v>
+        <v>0.01908647532976565</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1129031866000158</v>
+        <v>0.1184121511181197</v>
       </c>
       <c r="N219" t="n">
-        <v>0.06557480812941585</v>
+        <v>0.01205110403060095</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1134616348408202</v>
+        <v>0.1202079248096746</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01897569431113698</v>
+        <v>0.01191710818011045</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1185768766175793</v>
+        <v>0.1209884957499972</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02435581727818256</v>
+        <v>0.01412034139060261</v>
       </c>
       <c r="K220" t="n">
-        <v>0.109331146527995</v>
+        <v>0.1192993840746657</v>
       </c>
       <c r="L220" t="n">
-        <v>0.0451392432157369</v>
+        <v>0.01865178173352811</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1136363241753406</v>
+        <v>0.1191810611903153</v>
       </c>
       <c r="N220" t="n">
-        <v>0.06554456653561086</v>
+        <v>0.01191710818011045</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1141983987034229</v>
+        <v>0.1209884957499972</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0189939189529585</v>
+        <v>0.01151293719546732</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1193418887247895</v>
+        <v>0.1217690666903198</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02399428568793903</v>
+        <v>0.01359098267899819</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1100365087636594</v>
+        <v>0.1200690575203087</v>
       </c>
       <c r="L221" t="n">
-        <v>0.04488975916455995</v>
+        <v>0.01785809780909831</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1143694617506654</v>
+        <v>0.1199499712625109</v>
       </c>
       <c r="N221" t="n">
-        <v>0.06521033663313774</v>
+        <v>0.01151293719546732</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1149351625660256</v>
+        <v>0.1217690666903198</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02101383098153607</v>
+        <v>0.01154111326418965</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1201069008319997</v>
+        <v>0.1225496376306423</v>
       </c>
       <c r="J222" t="n">
-        <v>0.0237316579510478</v>
+        <v>0.01351137233742683</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1107418709993239</v>
+        <v>0.1208387309659517</v>
       </c>
       <c r="L222" t="n">
-        <v>0.04474211108803375</v>
+        <v>0.01750832279883802</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1151025993259902</v>
+        <v>0.1207188813347065</v>
       </c>
       <c r="N222" t="n">
-        <v>0.06487213965267308</v>
+        <v>0.01154111326418965</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1156719264286284</v>
+        <v>0.1225496376306423</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01903546391144247</v>
+        <v>0.01140098842218654</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1208719129392099</v>
+        <v>0.1233302085709649</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02356198793633707</v>
+        <v>0.01288441001692081</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1114472332349884</v>
+        <v>0.1216084044115947</v>
       </c>
       <c r="L223" t="n">
-        <v>0.04509637430439181</v>
+        <v>0.0172053559451088</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1158357369013149</v>
+        <v>0.121487791406902</v>
       </c>
       <c r="N223" t="n">
-        <v>0.06382999682489343</v>
+        <v>0.01140098842218654</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1164086902912311</v>
+        <v>0.1233302085709649</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02105885125725053</v>
+        <v>0.01126802133484112</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1216369250464201</v>
+        <v>0.1241107795112875</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02338533573498854</v>
+        <v>0.01271299536851256</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1121525954706529</v>
+        <v>0.1223780778572377</v>
       </c>
       <c r="L224" t="n">
-        <v>0.04445262413186776</v>
+        <v>0.01635209649027247</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1165688744766397</v>
+        <v>0.1222567014790976</v>
       </c>
       <c r="N224" t="n">
-        <v>0.06318392938047518</v>
+        <v>0.01126802133484112</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1171454541538338</v>
+        <v>0.1241107795112875</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02008402653353307</v>
+        <v>0.01113658714442779</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1224019371536303</v>
+        <v>0.12489135045161</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02290176143818388</v>
+        <v>0.01270002804323439</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1128579577063174</v>
+        <v>0.1231477513028807</v>
       </c>
       <c r="L225" t="n">
-        <v>0.04461093588869508</v>
+        <v>0.01655144367669076</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1173020120519645</v>
+        <v>0.1230256115512932</v>
       </c>
       <c r="N225" t="n">
-        <v>0.06353395855009486</v>
+        <v>0.01113658714442779</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1178822180164366</v>
+        <v>0.12489135045161</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02011102325486293</v>
+        <v>0.01100677447536195</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1231669492608405</v>
+        <v>0.1256719213919326</v>
       </c>
       <c r="J226" t="n">
-        <v>0.0227113251371049</v>
+        <v>0.01254811999977087</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1135633199419818</v>
+        <v>0.1239174247485237</v>
       </c>
       <c r="L226" t="n">
-        <v>0.04467138489310732</v>
+        <v>0.01590629674672522</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1180351496272893</v>
+        <v>0.1237945216234888</v>
       </c>
       <c r="N226" t="n">
-        <v>0.06238010556442902</v>
+        <v>0.01100677447536195</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1186189818790393</v>
+        <v>0.1256719213919326</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02113987493581292</v>
+        <v>0.01077867195205901</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1239319613680507</v>
+        <v>0.1264524923322551</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02251408692293327</v>
+        <v>0.01262244888325587</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1142686821776463</v>
+        <v>0.1246870981941667</v>
       </c>
       <c r="L227" t="n">
-        <v>0.04413404646333799</v>
+        <v>0.01531955494273768</v>
       </c>
       <c r="M227" t="n">
-        <v>0.118768287202614</v>
+        <v>0.1245634316956844</v>
       </c>
       <c r="N227" t="n">
-        <v>0.06202239165415402</v>
+        <v>0.01077867195205901</v>
       </c>
       <c r="O227" t="n">
-        <v>0.119355745741642</v>
+        <v>0.1264524923322551</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01917061509095587</v>
+        <v>0.01075236819893441</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1246969734752608</v>
+        <v>0.1272330632725777</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02201010688685071</v>
+        <v>0.01249748003293732</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1149740444133108</v>
+        <v>0.1254567716398097</v>
       </c>
       <c r="L228" t="n">
-        <v>0.0443989959176207</v>
+        <v>0.01539057541210542</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1195014247779388</v>
+        <v>0.1253323417678799</v>
       </c>
       <c r="N228" t="n">
-        <v>0.06186083804994641</v>
+        <v>0.01075236819893441</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1200925096042447</v>
+        <v>0.1272330632725777</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02120327723486461</v>
+        <v>0.01062795184040354</v>
       </c>
       <c r="G229" t="n">
-        <v>0.125461985582471</v>
+        <v>0.1280136342129003</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02179944512003898</v>
+        <v>0.01287321247872375</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1156794066489753</v>
+        <v>0.1262264450854527</v>
       </c>
       <c r="L229" t="n">
-        <v>0.04416630857418896</v>
+        <v>0.01497775848970961</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1202345623532636</v>
+        <v>0.1261012518400755</v>
       </c>
       <c r="N229" t="n">
-        <v>0.06119546598248277</v>
+        <v>0.01062795184040354</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1208292734668475</v>
+        <v>0.1280136342129003</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02123789488211195</v>
+        <v>0.01040551150088182</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1262269976896812</v>
+        <v>0.1287942051532228</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02158216171367977</v>
+        <v>0.01244964525052386</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1163847688846398</v>
+        <v>0.1269961185310958</v>
       </c>
       <c r="L230" t="n">
-        <v>0.04413605975127624</v>
+        <v>0.01536845353081057</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1209676999285884</v>
+        <v>0.1268701619122711</v>
       </c>
       <c r="N230" t="n">
-        <v>0.06052629668243958</v>
+        <v>0.01040551150088182</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1215660373294502</v>
+        <v>0.1287942051532228</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.0192745015472707</v>
+        <v>0.01028513580478468</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1269920097968914</v>
+        <v>0.1295747760935454</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02105831675895481</v>
+        <v>0.0126267773782463</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1170901311203043</v>
+        <v>0.1277657919767388</v>
       </c>
       <c r="L231" t="n">
-        <v>0.04370832476711617</v>
+        <v>0.01456280448023939</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1217008375039132</v>
+        <v>0.1276390719844667</v>
       </c>
       <c r="N231" t="n">
-        <v>0.06005335138049317</v>
+        <v>0.01028513580478468</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1223028011920529</v>
+        <v>0.1295747760935454</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02031313074491373</v>
+        <v>0.01006691337652752</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1277570219041016</v>
+        <v>0.1303553470338679</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02082797034704581</v>
+        <v>0.0124046078917997</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1177954933559688</v>
+        <v>0.1285354654223818</v>
       </c>
       <c r="L232" t="n">
-        <v>0.04388317893994226</v>
+        <v>0.01486095528282733</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1224339750792379</v>
+        <v>0.1284079820566623</v>
       </c>
       <c r="N232" t="n">
-        <v>0.05997665130732011</v>
+        <v>0.01006691337652752</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1230395650546557</v>
+        <v>0.1303553470338679</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02035381598961383</v>
+        <v>0.01015093284052575</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1285220340113118</v>
+        <v>0.1311359179741905</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02039118256913451</v>
+        <v>0.01288313582109268</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1185008555916332</v>
+        <v>0.1293051388680247</v>
       </c>
       <c r="L233" t="n">
-        <v>0.04336069758798802</v>
+        <v>0.0141630498834055</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1231671126545627</v>
+        <v>0.1291768921288579</v>
       </c>
       <c r="N233" t="n">
-        <v>0.05929621769359711</v>
+        <v>0.01015093284052575</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1237763289172584</v>
+        <v>0.1311359179741905</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02039659079594383</v>
+        <v>0.009837282821194823</v>
       </c>
       <c r="G234" t="n">
-        <v>0.129287046118522</v>
+        <v>0.1319164889145131</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02014801351640264</v>
+        <v>0.01286236019603398</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1192062178272977</v>
+        <v>0.1300748123136678</v>
       </c>
       <c r="L234" t="n">
-        <v>0.04324095602948702</v>
+        <v>0.01386923222680486</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1239002502298875</v>
+        <v>0.1299458022010534</v>
       </c>
       <c r="N234" t="n">
-        <v>0.05901207177000034</v>
+        <v>0.009837282821194823</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1245130927798611</v>
+        <v>0.1319164889145131</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02144148867847656</v>
+        <v>0.009826051942950102</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1300520582257322</v>
+        <v>0.1326970598548357</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01979852328003188</v>
+        <v>0.01264228004653212</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1199115800629622</v>
+        <v>0.1308444857593108</v>
       </c>
       <c r="L235" t="n">
-        <v>0.04342402958267286</v>
+        <v>0.0144796462578568</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1246333878052123</v>
+        <v>0.130714712273249</v>
       </c>
       <c r="N235" t="n">
-        <v>0.05862423476720657</v>
+        <v>0.009826051942950102</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1252498566424639</v>
+        <v>0.1326970598548357</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02048854315178483</v>
+        <v>0.009817328830207028</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1308170703329423</v>
+        <v>0.1334776307951582</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01954277195120402</v>
+        <v>0.0123228944024959</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1206169422986267</v>
+        <v>0.1316141592049538</v>
       </c>
       <c r="L236" t="n">
-        <v>0.04340999356577899</v>
+        <v>0.01359443592139231</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1253665253805371</v>
+        <v>0.1314836223454446</v>
       </c>
       <c r="N236" t="n">
-        <v>0.05773272791589207</v>
+        <v>0.009817328830207028</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1259866205050666</v>
+        <v>0.1334776307951582</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01953778773044149</v>
+        <v>0.009611202107381027</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1315820824401526</v>
+        <v>0.1342582017354808</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01898081962110072</v>
+        <v>0.0123042022938338</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1213223045342912</v>
+        <v>0.1323838326505968</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04279892329703899</v>
+        <v>0.01361374516224245</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1260996629558618</v>
+        <v>0.1322525324176402</v>
       </c>
       <c r="N237" t="n">
-        <v>0.05733757244673349</v>
+        <v>0.009611202107381027</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1267233843676693</v>
+        <v>0.1342582017354808</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01958925592901933</v>
+        <v>0.009607760398887499</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1323470945473627</v>
+        <v>0.1350387726758033</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01871272638090371</v>
+        <v>0.01238620275045457</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1220276667699557</v>
+        <v>0.1331535060962398</v>
       </c>
       <c r="L238" t="n">
-        <v>0.04269089409468638</v>
+        <v>0.01363771792523844</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1268328005311866</v>
+        <v>0.1330214424898358</v>
       </c>
       <c r="N238" t="n">
-        <v>0.05693878959040727</v>
+        <v>0.009607760398887499</v>
       </c>
       <c r="O238" t="n">
-        <v>0.127460148230272</v>
+        <v>0.1350387726758033</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01964298126209119</v>
+        <v>0.009407092329141858</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1331121066545729</v>
+        <v>0.1358193436161259</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01823855232179475</v>
+        <v>0.01256889480226689</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1227330290056202</v>
+        <v>0.1339231795418828</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04258598127695468</v>
+        <v>0.01366649815521143</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1275659381065114</v>
+        <v>0.1337903525620313</v>
       </c>
       <c r="N239" t="n">
-        <v>0.0566364005775899</v>
+        <v>0.009407092329141858</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1281969120928748</v>
+        <v>0.1358193436161259</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.0216989972442299</v>
+        <v>0.00930928652255951</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1338771187617831</v>
+        <v>0.1365999145564485</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01785835753495553</v>
+        <v>0.0126522774791793</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1234383912412846</v>
+        <v>0.1346928529875258</v>
       </c>
       <c r="L240" t="n">
-        <v>0.0425842601620775</v>
+        <v>0.01330022979699236</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1282990756818362</v>
+        <v>0.1345592626342269</v>
       </c>
       <c r="N240" t="n">
-        <v>0.05563042663895773</v>
+        <v>0.00930928652255951</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1289336759554775</v>
+        <v>0.1365999145564485</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02175733739000828</v>
+        <v>0.009114431603555913</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1346421308689933</v>
+        <v>0.137380485496771</v>
       </c>
       <c r="J241" t="n">
-        <v>0.0174722021115678</v>
+        <v>0.01253634981110049</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1241437534769491</v>
+        <v>0.1354625264331688</v>
       </c>
       <c r="L241" t="n">
-        <v>0.04268580606828834</v>
+        <v>0.01263905679541261</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1290322132571609</v>
+        <v>0.1353281727064225</v>
       </c>
       <c r="N241" t="n">
-        <v>0.05572088900518746</v>
+        <v>0.009114431603555913</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1296704398180802</v>
+        <v>0.137380485496771</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01981803521399914</v>
+        <v>0.009222616196546435</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1354071429762035</v>
+        <v>0.1381610564370936</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01728014614281324</v>
+        <v>0.01242111082793915</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1248491157126136</v>
+        <v>0.1362321998788118</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04269069431382075</v>
+        <v>0.01328312309530311</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1297653508324857</v>
+        <v>0.1360970827786181</v>
       </c>
       <c r="N242" t="n">
-        <v>0.05500780890695556</v>
+        <v>0.009222616196546435</v>
       </c>
       <c r="O242" t="n">
-        <v>0.130407203680683</v>
+        <v>0.1381610564370936</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.0218811242307753</v>
+        <v>0.008933928925946508</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1361721550834137</v>
+        <v>0.1389416273774161</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01688224971987362</v>
+        <v>0.01250655955960389</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1255544779482781</v>
+        <v>0.1370018733244548</v>
       </c>
       <c r="L243" t="n">
-        <v>0.04219900021690823</v>
+        <v>0.01313257264149509</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1304984884078105</v>
+        <v>0.1368659928508137</v>
       </c>
       <c r="N243" t="n">
-        <v>0.05399120757493847</v>
+        <v>0.008933928925946508</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1311439675432857</v>
+        <v>0.1389416273774161</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02194663795490963</v>
+        <v>0.009048458416171551</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1369371671906239</v>
+        <v>0.1397221983177387</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01647857293393062</v>
+        <v>0.01269269503600334</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1262598401839426</v>
+        <v>0.1377715467700978</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04261079909578436</v>
+        <v>0.01218754937881966</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1312316259831353</v>
+        <v>0.1376349029230093</v>
       </c>
       <c r="N244" t="n">
-        <v>0.05347110623981272</v>
+        <v>0.009048458416171551</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1318807314058884</v>
+        <v>0.1397221983177387</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02001460990097491</v>
+        <v>0.00876629329163698</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1377021792978341</v>
+        <v>0.1405027692580613</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01606917587616598</v>
+        <v>0.0123795162870462</v>
       </c>
       <c r="K245" t="n">
-        <v>0.126965202419607</v>
+        <v>0.1385412202157408</v>
       </c>
       <c r="L245" t="n">
-        <v>0.04202616626868269</v>
+        <v>0.01284819725210784</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1319647635584601</v>
+        <v>0.1384038129952049</v>
       </c>
       <c r="N245" t="n">
-        <v>0.05344752613225467</v>
+        <v>0.00876629329163698</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1326174952684911</v>
+        <v>0.1405027692580613</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.02108507358354397</v>
+        <v>0.008887522176758193</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1384671914050442</v>
+        <v>0.1412833401983838</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01565411863776144</v>
+        <v>0.01216702234264105</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1276705646552715</v>
+        <v>0.1393108936613838</v>
       </c>
       <c r="L246" t="n">
-        <v>0.04204517705383673</v>
+        <v>0.01201466020619091</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1326979011337849</v>
+        <v>0.1391727230674004</v>
       </c>
       <c r="N246" t="n">
-        <v>0.05322048848294109</v>
+        <v>0.008887522176758193</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1333542591310939</v>
+        <v>0.1412833401983838</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02015806251718964</v>
+        <v>0.008612233695950634</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1392322035122545</v>
+        <v>0.1420639111387064</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01513346130989868</v>
+        <v>0.01215521223269661</v>
       </c>
       <c r="K247" t="n">
-        <v>0.128375926890936</v>
+        <v>0.1400805671070268</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04226790676948003</v>
+        <v>0.01258708218589988</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1334310387091096</v>
+        <v>0.139941633139596</v>
       </c>
       <c r="N247" t="n">
-        <v>0.05269001452254823</v>
+        <v>0.008612233695950634</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1340910229936966</v>
+        <v>0.1420639111387064</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02023361021648475</v>
+        <v>0.008640516473629692</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1399972156194646</v>
+        <v>0.142844482079029</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01470726398375945</v>
+        <v>0.01264408498712147</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1290812891266005</v>
+        <v>0.1408502405526698</v>
       </c>
       <c r="L248" t="n">
-        <v>0.04199443073384615</v>
+        <v>0.01226560713606589</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1341641762844344</v>
+        <v>0.1407105432117916</v>
       </c>
       <c r="N248" t="n">
-        <v>0.05145612548175266</v>
+        <v>0.008640516473629692</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1348277868562993</v>
+        <v>0.142844482079029</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02031175019600211</v>
+        <v>0.008472459134210797</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1407622277266748</v>
+        <v>0.1436250530193515</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01417558675052547</v>
+        <v>0.0122336396358243</v>
       </c>
       <c r="K249" t="n">
-        <v>0.129786651362265</v>
+        <v>0.1416199139983128</v>
       </c>
       <c r="L249" t="n">
-        <v>0.04192482426516861</v>
+        <v>0.01235037900152014</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1348973138597592</v>
+        <v>0.1414794532839872</v>
       </c>
       <c r="N249" t="n">
-        <v>0.0511188425912309</v>
+        <v>0.008472459134210797</v>
       </c>
       <c r="O249" t="n">
-        <v>0.135564550718902</v>
+        <v>0.1436250530193515</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02039251597031455</v>
+        <v>0.008608150302109353</v>
       </c>
       <c r="G250" t="n">
-        <v>0.141527239833885</v>
+        <v>0.1444056239596741</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01393848970137848</v>
+        <v>0.01242387520871371</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1304920135979295</v>
+        <v>0.1423895874439559</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04185916268168097</v>
+        <v>0.0116415417270937</v>
       </c>
       <c r="M250" t="n">
-        <v>0.135630451435084</v>
+        <v>0.1422483633561828</v>
       </c>
       <c r="N250" t="n">
-        <v>0.05067818708165944</v>
+        <v>0.008608150302109353</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1363013145815048</v>
+        <v>0.1444056239596741</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.0204759410539949</v>
+        <v>0.008547678601740792</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1422922519410952</v>
+        <v>0.1451861948999966</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01339603292750018</v>
+        <v>0.01241479073569843</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1311973758335939</v>
+        <v>0.1431592608895988</v>
       </c>
       <c r="L251" t="n">
-        <v>0.0420975213016167</v>
+        <v>0.01133923925761765</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1363635890104087</v>
+        <v>0.1430172734283783</v>
       </c>
       <c r="N251" t="n">
-        <v>0.05013418018371463</v>
+        <v>0.008547678601740792</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1370380784441075</v>
+        <v>0.1451861948999966</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02056205896161598</v>
+        <v>0.008291132657520517</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1430572640483054</v>
+        <v>0.1459667658403192</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01304827652007227</v>
+        <v>0.01240638524668702</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1319027380692584</v>
+        <v>0.1439289343352418</v>
       </c>
       <c r="L252" t="n">
-        <v>0.04203997544320945</v>
+        <v>0.01204361553792327</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1370967265857335</v>
+        <v>0.1437861835005739</v>
       </c>
       <c r="N252" t="n">
-        <v>0.04928684312807324</v>
+        <v>0.008291132657520517</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1377748423067102</v>
+        <v>0.1459667658403192</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02265090320775061</v>
+        <v>0.008238601093863943</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1438222761555156</v>
+        <v>0.1467473367806418</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01259528057027652</v>
+        <v>0.01209865777158822</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1326081003049229</v>
+        <v>0.1446986077808849</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04188660042469269</v>
+        <v>0.01195481451284153</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1378298641610583</v>
+        <v>0.1445550935727695</v>
       </c>
       <c r="N253" t="n">
-        <v>0.04923619714541155</v>
+        <v>0.008238601093863943</v>
       </c>
       <c r="O253" t="n">
-        <v>0.138511606169313</v>
+        <v>0.1467473367806418</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02074250730697161</v>
+        <v>0.008290172535186484</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1445872882627258</v>
+        <v>0.1475279077209643</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01193710516929463</v>
+        <v>0.01249160734031055</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1333134625405874</v>
+        <v>0.1454682812265279</v>
       </c>
       <c r="L254" t="n">
-        <v>0.0415374715642999</v>
+        <v>0.01127298012720357</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1385630017363831</v>
+        <v>0.1453240036449651</v>
       </c>
       <c r="N254" t="n">
-        <v>0.04868226346640608</v>
+        <v>0.008290172535186484</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1392483700319157</v>
+        <v>0.1475279077209643</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02283690477385181</v>
+        <v>0.008145935605903556</v>
       </c>
       <c r="G255" t="n">
-        <v>0.145352300369936</v>
+        <v>0.1483084786612869</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01147381040830832</v>
+        <v>0.01238523298276273</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1340188247762519</v>
+        <v>0.1462379546721709</v>
       </c>
       <c r="L255" t="n">
-        <v>0.04139266418026477</v>
+        <v>0.01139825632584057</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1392961393117078</v>
+        <v>0.1460929137171607</v>
       </c>
       <c r="N255" t="n">
-        <v>0.04822506332173343</v>
+        <v>0.008145935605903556</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1399851338945184</v>
+        <v>0.1483084786612869</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02193412912296402</v>
+        <v>0.008305978930430592</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1461173124771461</v>
+        <v>0.1490890496016094</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01120545637849931</v>
+        <v>0.01247953372885346</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1347241870119164</v>
+        <v>0.1470076281178139</v>
       </c>
       <c r="L256" t="n">
-        <v>0.04135225359082076</v>
+        <v>0.01163078705358372</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1400292768870326</v>
+        <v>0.1468618237893563</v>
       </c>
       <c r="N256" t="n">
-        <v>0.04756461794207001</v>
+        <v>0.008305978930430592</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1407218977571211</v>
+        <v>0.1490890496016094</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.0210342138688811</v>
+        <v>0.00827039113318298</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1468823245843563</v>
+        <v>0.149869620541932</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01063210317104932</v>
+        <v>0.01257450860849127</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1354295492475809</v>
+        <v>0.1477773015634569</v>
       </c>
       <c r="L257" t="n">
-        <v>0.04161631511420141</v>
+        <v>0.01097071625526397</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1407624144623574</v>
+        <v>0.1476307338615518</v>
       </c>
       <c r="N257" t="n">
-        <v>0.04670094855809226</v>
+        <v>0.00827039113318298</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1414586616197239</v>
+        <v>0.149869620541932</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02213719252617584</v>
+        <v>0.008239260838576151</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1476473366915665</v>
+        <v>0.1506501914822546</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01025381087714008</v>
+        <v>0.01237015665158492</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1361349114832453</v>
+        <v>0.1485469750090999</v>
       </c>
       <c r="L258" t="n">
-        <v>0.04158492406864026</v>
+        <v>0.0116181878757125</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1414955520376822</v>
+        <v>0.1483996439337474</v>
       </c>
       <c r="N258" t="n">
-        <v>0.04593407640047675</v>
+        <v>0.008239260838576151</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1421954254823266</v>
+        <v>0.1506501914822546</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02224309860942109</v>
+        <v>0.008012676671025509</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1484123487987767</v>
+        <v>0.1514307624225771</v>
       </c>
       <c r="J259" t="n">
-        <v>0.009570639587953331</v>
+        <v>0.012266476888043</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1368402737189098</v>
+        <v>0.1493166484547429</v>
       </c>
       <c r="L259" t="n">
-        <v>0.04135815577237084</v>
+        <v>0.01137334585976063</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1422286896130069</v>
+        <v>0.149168554005943</v>
       </c>
       <c r="N259" t="n">
-        <v>0.04596402269990002</v>
+        <v>0.008012676671025509</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1429321893449293</v>
+        <v>0.1514307624225771</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02335196563318963</v>
+        <v>0.00809072725494648</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1491773609059869</v>
+        <v>0.1522113333628997</v>
       </c>
       <c r="J260" t="n">
-        <v>0.009182649394670755</v>
+        <v>0.01256346834777414</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1375456359545743</v>
+        <v>0.1500863219003859</v>
       </c>
       <c r="L260" t="n">
-        <v>0.04153608554362676</v>
+        <v>0.01153633415223915</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1429618271883317</v>
+        <v>0.1499374640781386</v>
       </c>
       <c r="N260" t="n">
-        <v>0.04549080868703853</v>
+        <v>0.00809072725494648</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1436689532075321</v>
+        <v>0.1522113333628997</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02346382711205432</v>
+        <v>0.007973501214754479</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1499423730131971</v>
+        <v>0.1529919043032223</v>
       </c>
       <c r="J261" t="n">
-        <v>0.008689900388474101</v>
+        <v>0.01256113006068701</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1382509981902388</v>
+        <v>0.1508559953460289</v>
       </c>
       <c r="L261" t="n">
-        <v>0.04131878870064146</v>
+        <v>0.01090729669797941</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1436949647636565</v>
+        <v>0.1507063741503342</v>
       </c>
       <c r="N261" t="n">
-        <v>0.04411445559256866</v>
+        <v>0.007973501214754479</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1444057170701348</v>
+        <v>0.1529919043032223</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.02357871656058798</v>
+        <v>0.007961087174864913</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1507073851204073</v>
+        <v>0.1537724752435448</v>
       </c>
       <c r="J262" t="n">
-        <v>0.008292452660545076</v>
+        <v>0.01235946105669028</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1389563604259033</v>
+        <v>0.1516256687916719</v>
       </c>
       <c r="L262" t="n">
-        <v>0.0413063405616485</v>
+        <v>0.01108637744181251</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1444281023389813</v>
+        <v>0.1514752842225298</v>
       </c>
       <c r="N262" t="n">
-        <v>0.04393498464716711</v>
+        <v>0.007961087174864913</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1451424809327375</v>
+        <v>0.1537724752435448</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02369666749336342</v>
+        <v>0.008053573759693206</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1514723972276175</v>
+        <v>0.1545530461838674</v>
       </c>
       <c r="J263" t="n">
-        <v>0.007790366302065428</v>
+        <v>0.01255846036569253</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1396617226615678</v>
+        <v>0.1523953422373149</v>
       </c>
       <c r="L263" t="n">
-        <v>0.04169881644488149</v>
+        <v>0.01107372032856951</v>
       </c>
       <c r="M263" t="n">
-        <v>0.145161239914306</v>
+        <v>0.1522441942947253</v>
       </c>
       <c r="N263" t="n">
-        <v>0.04375241708151023</v>
+        <v>0.008053573759693206</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1458792447953402</v>
+        <v>0.1545530461838674</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02181771342495348</v>
+        <v>0.008051049593654762</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1522374093348277</v>
+        <v>0.1553336171241899</v>
       </c>
       <c r="J264" t="n">
-        <v>0.007183701404216834</v>
+        <v>0.01255812701760251</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1403670848972322</v>
+        <v>0.1531650156829579</v>
       </c>
       <c r="L264" t="n">
-        <v>0.04149629166857391</v>
+        <v>0.01096946930308162</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1458943774896308</v>
+        <v>0.1530131043669209</v>
       </c>
       <c r="N264" t="n">
-        <v>0.04296677412627453</v>
+        <v>0.008051049593654762</v>
       </c>
       <c r="O264" t="n">
-        <v>0.146616008657943</v>
+        <v>0.1553336171241899</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1133.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1133.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8781306565948526</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04390653282974263</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04390653282974263</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.07025045252758821</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08134391969784559</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0137209013141928</v>
+        <v>0.03134391969784558</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01038682624106603</v>
+        <v>0.01375631127199705</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001759901182140436</v>
+        <v>0.0009329632495815865</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007805709403225626</v>
+        <v>0.0005426900128484551</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.006291258336034194</v>
+        <v>0.001817219308760692</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007696734456430045</v>
+        <v>0.0007805709403225626</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01031339506919837</v>
+        <v>0.00671180310724151</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007689100721955826</v>
+        <v>0.0007698928206965041</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001759901182140436</v>
+        <v>0.01120356308136367</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007805709403225626</v>
+        <v>0.0007667007539460514</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003606110899939188</v>
+        <v>0.001898834402094568</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001561141880645125</v>
+        <v>0.00108538002569691</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.01246243671834429</v>
+        <v>0.003695337447187627</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001539346891286009</v>
+        <v>0.001561141880645125</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.02037638462026481</v>
+        <v>0.01357017620543599</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001537820144391165</v>
+        <v>0.001539785641393008</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.003606110899939188</v>
+        <v>0.02103891374319233</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001561141880645125</v>
+        <v>0.001533401507892103</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.005999999999999998</v>
+        <v>0.002896412286633787</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002725227272727272</v>
+        <v>0.001628070038545365</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01734648999041002</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002309020336929014</v>
+        <v>0.002271022727272726</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02804030842865435</v>
+        <v>0.01866042094062889</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002306730216586747</v>
+        <v>0.002309678462089512</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.005999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002725227272727272</v>
+        <v>0.002477479338842977</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006571955608447713</v>
+        <v>0.003924495732294059</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.00312228376129025</v>
+        <v>0.002170760051393821</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.02099999999999999</v>
+        <v>0.006268108107651105</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003086827007943511</v>
+        <v>0.00312228376129025</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03399999999999997</v>
+        <v>0.02266783895886568</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003184114339268976</v>
+        <v>0.003079571282786017</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.006571955608447713</v>
+        <v>0.03285000308857666</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00312228376129025</v>
+        <v>0.003066803015784205</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.002725227272727272</v>
+        <v>0.011965528071851</v>
       </c>
       <c r="B70" t="n">
-        <v>0.005999999999999998</v>
+        <v>0.02634391969784558</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.007631674321865907</v>
+        <v>0.004981883568170219</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003902854701612812</v>
+        <v>0.002713450064242276</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02296675056408085</v>
+        <v>0.007151514571654791</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003848367228215023</v>
+        <v>0.003902854701612812</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03539398561687562</v>
+        <v>0.02399999999999997</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003844550360977913</v>
+        <v>0.00356238859180035</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.007631674321865907</v>
+        <v>0.03568655306719881</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003902854701612812</v>
+        <v>0.003833503769730257</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.008509616281764464</v>
+        <v>0.006067374623357082</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004683425641935375</v>
+        <v>0.003256140077090731</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02444401421030185</v>
+        <v>0.008361316687423903</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004618040673858027</v>
+        <v>0.004683425641935375</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03774442681670964</v>
+        <v>0.02557497859465926</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004613460433173494</v>
+        <v>0.004619356924179024</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.008509616281764464</v>
+        <v>0.03831446071403871</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004683425641935375</v>
+        <v>0.004600204523676308</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.009410534368917596</v>
+        <v>0.007179767726949483</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005463996582257938</v>
+        <v>0.003798830089939185</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02540812298165335</v>
+        <v>0.009199797688477139</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005387714119501032</v>
+        <v>0.005463996582257938</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03965536919682783</v>
+        <v>0.02615836780053232</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005382370505369077</v>
+        <v>0.005389249744875528</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.009410534368917596</v>
+        <v>0.04147744129828196</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005463996582257938</v>
+        <v>0.005708861324698105</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01033918146409949</v>
+        <v>0.00831786170804226</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006244567522580501</v>
+        <v>0.004341520102787641</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02635894590669227</v>
+        <v>0.01006924080833321</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006157387565144036</v>
+        <v>0.006244567522580501</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04147744129828196</v>
+        <v>0.02691282870052636</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006473966450688574</v>
+        <v>0.006159142565572033</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.01033918146409949</v>
+        <v>0.04191174899866401</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006244567522580501</v>
+        <v>0.006133606031568411</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01100031044808433</v>
+        <v>0.009480455395730218</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007025138462903063</v>
+        <v>0.004884210115636096</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
+        <v>0.01097192928051082</v>
+      </c>
+      <c r="K74" s="171" t="n">
+        <v>0.007025138462903063</v>
+      </c>
+      <c r="L74" s="172" t="n">
         <v>0.0275991713062374</v>
       </c>
-      <c r="K74" s="171" t="n">
-        <v>0.00676141804642486</v>
-      </c>
-      <c r="L74" s="172" t="n">
-        <v>0.04171833224478033</v>
-      </c>
       <c r="M74" s="170" t="n">
-        <v>0.006920190649760243</v>
+        <v>0.006827706458644711</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01100031044808433</v>
+        <v>0.04350193342607778</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007025138462903063</v>
+        <v>0.006900306785514463</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01159867420164633</v>
+        <v>0.01066634761910819</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007805709403225625</v>
+        <v>0.005426900128484551</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.0284129305202297</v>
+        <v>0.01171014633852866</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007696734456430046</v>
+        <v>0.007805709403225625</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04349556487756617</v>
+        <v>0.02832999172611025</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007689100721955826</v>
+        <v>0.007698928206965041</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01159867420164633</v>
+        <v>0.04517139650751317</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007805709403225625</v>
+        <v>0.007667007539460514</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01233902560555965</v>
+        <v>0.01187433720727103</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008586280343548188</v>
+        <v>0.005969590141333006</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02942400118617639</v>
+        <v>0.01238617521590545</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.00846640790207305</v>
+        <v>0.008586280343548188</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04407250955156045</v>
+        <v>0.02877572550901525</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008458010794151408</v>
+        <v>0.008468821027661545</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01233902560555965</v>
+        <v>0.0466197034551154</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008586280343548188</v>
+        <v>0.008433708293406564</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01282611754059851</v>
+        <v>0.01310322298931352</v>
       </c>
       <c r="G77" t="n">
+        <v>0.006512280154181462</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01300229914615988</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009366851283870751</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.03022947675013354</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009236081347716054</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.04604799525828901</v>
+        <v>0.02993108631749042</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009226920866346989</v>
+        <v>0.009238713848358048</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01282611754059851</v>
+        <v>0.04744641948103001</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009366851283870751</v>
+        <v>0.009200409047352616</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
+        <v>0.01435180379433053</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.007054970167029917</v>
+      </c>
+      <c r="J78" t="n">
         <v>0.0137209013141928</v>
       </c>
-      <c r="G78" t="n">
+      <c r="K78" t="n">
         <v>0.01038682624106603</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.03092872244734793</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01000575479335906</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.04672085098927786</v>
+        <v>0.03019492114760094</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009995830938542572</v>
+        <v>0.01000860666905455</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0137209013141928</v>
+        <v>0.04925110979740227</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01038682624106603</v>
+        <v>0.009967109801298668</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01406903821916564</v>
+        <v>0.01561887845141684</v>
       </c>
       <c r="G79" t="n">
+        <v>0.007597660179878371</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.01407632728601735</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01092799316451588</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.03192110351306651</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01077542823900206</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.04848990573605305</v>
+        <v>0.03136607699541191</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01076474101073815</v>
+        <v>0.01077849948975106</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01406903821916564</v>
+        <v>0.05083333961637776</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01092799316451588</v>
+        <v>0.01073381055524472</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01456955229843541</v>
+        <v>0.01690324578966731</v>
       </c>
       <c r="G80" t="n">
+        <v>0.008140350192726827</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01438650975198778</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01170856410483844</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.03310598518253621</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01154510168464507</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.04945398849014038</v>
+        <v>0.03184340085698842</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01153365108293374</v>
+        <v>0.01154839231044756</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01456955229843541</v>
+        <v>0.05159267415010166</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01170856410483844</v>
+        <v>0.01150051130919077</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01506769839992134</v>
+        <v>0.01820370463817678</v>
       </c>
       <c r="G81" t="n">
+        <v>0.008683040205575282</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.01499335858552671</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.012489135045161</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.03408273269100381</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01231477513028807</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.05111192824306582</v>
+        <v>0.03302573972839565</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01230256115512932</v>
+        <v>0.01231828513114407</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01506769839992134</v>
+        <v>0.05352867861071953</v>
       </c>
       <c r="O81" t="n">
-        <v>0.012489135045161</v>
+        <v>0.01226721206313682</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01546298770613919</v>
+        <v>0.01951905382604004</v>
       </c>
       <c r="G82" t="n">
+        <v>0.009225730218423737</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01539642138946141</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01326970598548356</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.03485071127371631</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01308444857593108</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.0515625539863554</v>
+        <v>0.03331194060569873</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0130714712273249</v>
+        <v>0.01308817795184057</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01546298770613919</v>
+        <v>0.05454091821037654</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01326970598548356</v>
+        <v>0.01303391281708287</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01595493139960474</v>
+        <v>0.02084809218235194</v>
       </c>
       <c r="G83" t="n">
+        <v>0.009768420231272192</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01609524576661922</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01405027692580613</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.03540928616592046</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01385412202157408</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.05290469471153503</v>
+        <v>0.03420085048496269</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01384038129952049</v>
+        <v>0.01385807077253707</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01595493139960474</v>
+        <v>0.05592895816121818</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01405027692580613</v>
+        <v>0.01380061357102893</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01634304066283383</v>
+        <v>0.02218961853620728</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01031111024412065</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01638937931982742</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01483084786612869</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.03655782260286325</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01462379546721709</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.05483717941013061</v>
+        <v>0.0352913163622528</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01460929137171607</v>
+        <v>0.01462796359323358</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01634304066283383</v>
+        <v>0.05689236367538997</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01483084786612869</v>
+        <v>0.01456731432497498</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01702682667834222</v>
+        <v>0.02354243171670092</v>
       </c>
       <c r="G85" t="n">
+        <v>0.0108538002569691</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.01707836965191335</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01561141880645125</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.03719568581979149</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01539346891286009</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.05565883707366809</v>
+        <v>0.03598218523363408</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01537820144391165</v>
+        <v>0.01539785641393008</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01702682667834222</v>
+        <v>0.05863069996503711</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01561141880645125</v>
+        <v>0.01533401507892103</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.0174058006286457</v>
+        <v>0.02490533055292768</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01139649026981756</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01746176436570433</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01639198974677382</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.03802224105195212</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01616314235850309</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.05676849669367345</v>
+        <v>0.03647230409517171</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01614711151610723</v>
+        <v>0.01616774923462658</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0174058006286457</v>
+        <v>0.05974353224230505</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01639198974677382</v>
+        <v>0.01610071583286708</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01777947369626007</v>
+        <v>0.02634391969784558</v>
       </c>
       <c r="G87" t="n">
+        <v>0.011965528071851</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.01783911106402762</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01717256068709638</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.03883685353459207</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.0169328158041461</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.05836498726167272</v>
+        <v>0.03746051994293079</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01691602158830282</v>
+        <v>0.01693764205532309</v>
       </c>
       <c r="N87" t="n">
-        <v>0.01777947369626007</v>
+        <v>0.06073042571933918</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01717256068709638</v>
+        <v>0.01686741658681313</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01834735706370112</v>
+        <v>0.02785917429122124</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01248187029551447</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.01850995734971059</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01795313162741894</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.0394388885029581</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.0177024892497891</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.05914713776919162</v>
+        <v>0.03834567977297645</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0176849316604984</v>
+        <v>0.01770753487601959</v>
       </c>
       <c r="N88" t="n">
-        <v>0.01834735706370112</v>
+        <v>0.06159094560828487</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01795313162741894</v>
+        <v>0.01763411734075918</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01870896191348466</v>
+        <v>0.02959508504831491</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01302456030836292</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.0188738508255805</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.0187337025677415</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.04062771119229719</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01847216269543211</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.06011377720775635</v>
+        <v>0.03922663058137382</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01845384173269398</v>
+        <v>0.0184774276967161</v>
       </c>
       <c r="N89" t="n">
-        <v>0.01870896191348466</v>
+        <v>0.06262465712128745</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0187337025677415</v>
+        <v>0.01840081809470523</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01926379942812645</v>
+        <v>0.03134391969784558</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01375631127199705</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.01943033909446469</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01951427350806407</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.04140268683785617</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01924183614107512</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.06186373456889266</v>
+        <v>0.03990221936418806</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01922275180488956</v>
+        <v>0.0192473205174126</v>
       </c>
       <c r="N90" t="n">
-        <v>0.01926379942812645</v>
+        <v>0.0639311254704924</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01951427350806407</v>
+        <v>0.01916751884865128</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.0196113807901423</v>
+        <v>0.03185304612245132</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01410994033405983</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.01977896975919047</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02029484444838663</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.04186318067488193</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02001150958671812</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.06249583884412657</v>
+        <v>0.04067129311748421</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01999166187708514</v>
+        <v>0.02001721333810911</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0196113807901423</v>
+        <v>0.06530991586804508</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02029484444838663</v>
+        <v>0.01993421960259734</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02025121718204799</v>
+        <v>0.03259997428425249</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01465263034690829</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.02021929042258512</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02107541538870919</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.0428085579386214</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02078118303236112</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.06370891902498405</v>
+        <v>0.04153269883732755</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02076057194928073</v>
+        <v>0.02078710615880561</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02025121718204799</v>
+        <v>0.0658605935260908</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02107541538870919</v>
+        <v>0.02070092035654339</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02048281978635931</v>
+        <v>0.03330649327762987</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01519532035975674</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.02055084868747599</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02185598632903175</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.04333818386432139</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02155085647800413</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.06500180410299106</v>
+        <v>0.04208528351978302</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02152948202147631</v>
+        <v>0.02155699897950211</v>
       </c>
       <c r="N93" t="n">
-        <v>0.02048281978635931</v>
+        <v>0.06768272365677513</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02185598632903175</v>
+        <v>0.02146762111048944</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02090569978559208</v>
+        <v>0.03397400399373635</v>
       </c>
       <c r="G94" t="n">
+        <v>0.0157380103726052</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.02117319215669038</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02263655726935431</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.04435142368722889</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02232052992364713</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.06597332306967346</v>
+        <v>0.04272789416091588</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02229839209367189</v>
+        <v>0.02232689180019862</v>
       </c>
       <c r="N94" t="n">
-        <v>0.02090569978559208</v>
+        <v>0.06797587147224327</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02263655726935431</v>
+        <v>0.02223432186443549</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02141936836226206</v>
+        <v>0.03460390732372477</v>
       </c>
       <c r="G95" t="n">
+        <v>0.01628070038545365</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.0214858684330556</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02341712820967688</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.04484764264259067</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02309020336929014</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.06672230491655734</v>
+        <v>0.04375937775679123</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02306730216586747</v>
+        <v>0.02309678462089512</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02141936836226206</v>
+        <v>0.0696396021846406</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02341712820967688</v>
+        <v>0.02300102261838154</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02182333669888507</v>
+        <v>0.03519760415874799</v>
       </c>
       <c r="G96" t="n">
+        <v>0.01682339039830211</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.02178842511939894</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02419769914999944</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.04562620596565367</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02385987681493314</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.06844757863516843</v>
+        <v>0.04447858130347415</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02383621223806306</v>
+        <v>0.02386667744159163</v>
       </c>
       <c r="N96" t="n">
-        <v>0.02182333669888507</v>
+        <v>0.06987348100611263</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02419769914999944</v>
+        <v>0.02376772337232759</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02231711597797686</v>
+        <v>0.03575649538995887</v>
       </c>
       <c r="G97" t="n">
+        <v>0.01736608041115056</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.02238040981854772</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.024978270090322</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.04648647889166477</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02462955026057614</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.06924797321703291</v>
+        <v>0.04488435179702979</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02460512231025864</v>
+        <v>0.02463657026228813</v>
       </c>
       <c r="N97" t="n">
-        <v>0.02231711597797686</v>
+        <v>0.0708770731488047</v>
       </c>
       <c r="O97" t="n">
-        <v>0.024978270090322</v>
+        <v>0.02453442412627364</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02250021738205327</v>
+        <v>0.03628198190851026</v>
       </c>
       <c r="G98" t="n">
+        <v>0.01790877042399902</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.02266137013332925</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02575884103064456</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.04682782665587087</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02539922370621915</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.07012231765367655</v>
+        <v>0.04587553623352333</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02537403238245422</v>
+        <v>0.02540646308298464</v>
       </c>
       <c r="N98" t="n">
-        <v>0.02250021738205327</v>
+        <v>0.07154994382486202</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02575884103064456</v>
+        <v>0.02530112488021969</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02287215209363005</v>
+        <v>0.03677546460555504</v>
       </c>
       <c r="G99" t="n">
+        <v>0.01845146043684747</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.02293085366657088</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02653941197096713</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.0477496144935188</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02616889715186215</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.07076944093662541</v>
+        <v>0.04665098160901981</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02614294245464981</v>
+        <v>0.02617635590368114</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02287215209363005</v>
+        <v>0.07299165824643034</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02653941197096713</v>
+        <v>0.02606782563416575</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02343243129522303</v>
+        <v>0.03723834437224607</v>
       </c>
       <c r="G100" t="n">
+        <v>0.01899415044969593</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.02348840802109987</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02731998291128969</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.0481512076398555</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02693857059750516</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.07188817205740539</v>
+        <v>0.04710953491958442</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02691185252684539</v>
+        <v>0.02694624872437765</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02343243129522303</v>
+        <v>0.07340178162565475</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02731998291128969</v>
+        <v>0.0268345263881118</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02368056616934797</v>
+        <v>0.03767202209973618</v>
       </c>
       <c r="G101" t="n">
+        <v>0.01953684046254438</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.02383358079974354</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02810055385161225</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.04843197133012786</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02770824404314817</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.07297734000754241</v>
+        <v>0.04785004316128227</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02768076259904097</v>
+        <v>0.02771614154507415</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02368056616934797</v>
+        <v>0.07407987917468067</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02810055385161225</v>
+        <v>0.02760122714205785</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02411606789852068</v>
+        <v>0.03807789867917823</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02007953047539284</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.02406591960532922</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02888112479193481</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.04919127079958271</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02847791748879117</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.07393577377856247</v>
+        <v>0.04827135333017848</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02844967267123655</v>
+        <v>0.02848603436577065</v>
       </c>
       <c r="N102" t="n">
-        <v>0.02411606789852068</v>
+        <v>0.07532551610565358</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02888112479193481</v>
+        <v>0.0283679278960039</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02423844766525693</v>
+        <v>0.03845737500172512</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02062222048824129</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.02428497204068421</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.02966169573225738</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.04972847128346697</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02924759093443418</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.07486230236199148</v>
+        <v>0.04877231242233815</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02921858274343214</v>
+        <v>0.02925592718646716</v>
       </c>
       <c r="N103" t="n">
-        <v>0.02423844766525693</v>
+        <v>0.07573825763071873</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02966169573225738</v>
+        <v>0.02913462864994995</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02474721665207254</v>
+        <v>0.03881185195852968</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02116491050108975</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.02459028570863579</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03044226667257994</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.05044293801702751</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03001726438007718</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.07505575474935544</v>
+        <v>0.04935176743382649</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02998749281562772</v>
+        <v>0.03002582000716366</v>
       </c>
       <c r="N104" t="n">
-        <v>0.02474721665207254</v>
+        <v>0.07611766896202166</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03044226667257994</v>
+        <v>0.029901329403896</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02484188604148328</v>
+        <v>0.03914273044074477</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02170760051393821</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.02508140821201132</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.0312228376129025</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.05083403623551125</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03078693782572018</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.07621495993218025</v>
+        <v>0.05020856536070858</v>
       </c>
       <c r="M105" t="n">
-        <v>0.0307564028878233</v>
+        <v>0.03079571282786017</v>
       </c>
       <c r="N105" t="n">
-        <v>0.02484188604148328</v>
+        <v>0.07746331531170769</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0312228376129025</v>
+        <v>0.03066803015784205</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02532196701600496</v>
+        <v>0.03945141133952326</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02225029052678666</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.0252578871536381</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03200340855322507</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.05150113117416499</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03155661127136319</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.07643874690199182</v>
+        <v>0.05084155319904951</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03152531296001888</v>
+        <v>0.03156560564855667</v>
       </c>
       <c r="N106" t="n">
-        <v>0.02532196701600496</v>
+        <v>0.07817476189192218</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03200340855322507</v>
+        <v>0.0314347309117881</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02538697075815335</v>
+        <v>0.039739295546018</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02279298053963512</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.0254192701363434</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03278397949354763</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.05184358806823572</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03232628471700619</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.07772594465031618</v>
+        <v>0.05104957794491441</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03229422303221446</v>
+        <v>0.03233549846925317</v>
       </c>
       <c r="N107" t="n">
-        <v>0.02538697075815335</v>
+        <v>0.07825157391481047</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03278397949354763</v>
+        <v>0.03220143166573416</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02583640845044427</v>
+        <v>0.04000778395138185</v>
       </c>
       <c r="G108" t="n">
+        <v>0.02333567055248357</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.02586510476295462</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03356455043387019</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.05226077215297023</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03309595816264919</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.07827538216867924</v>
+        <v>0.05133148659436848</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03306313310441005</v>
+        <v>0.03310539128994967</v>
       </c>
       <c r="N108" t="n">
-        <v>0.02583640845044427</v>
+        <v>0.07859331659251811</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03356455043387019</v>
+        <v>0.0329681324196802</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02606979127539348</v>
+        <v>0.04025827744676767</v>
       </c>
       <c r="G109" t="n">
+        <v>0.02387836056533203</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.02609493863629896</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03434512137419275</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.05255204866361546</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.0338656316082922</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.07858588844860687</v>
+        <v>0.05198612614347681</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03383204317660563</v>
+        <v>0.03387528411064618</v>
       </c>
       <c r="N109" t="n">
-        <v>0.02606979127539348</v>
+        <v>0.0790995551371903</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03434512137419275</v>
+        <v>0.03373483317362626</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02628663041551681</v>
+        <v>0.04049217692332832</v>
       </c>
       <c r="G110" t="n">
+        <v>0.02442105057818048</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.02610831935920378</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03512569231451532</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.05281678283541827</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03463530505393521</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.07915629248162515</v>
+        <v>0.05221234358830448</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03460095324880121</v>
+        <v>0.03464517693134268</v>
       </c>
       <c r="N110" t="n">
-        <v>0.02628663041551681</v>
+        <v>0.0799698547609724</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03512569231451532</v>
+        <v>0.03450153392757231</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02648643705333001</v>
+        <v>0.04071088327221666</v>
       </c>
       <c r="G111" t="n">
+        <v>0.02496374059102894</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.0263047945344964</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03590626325483788</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.05295433990362558</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03540497849957821</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.07998542325925995</v>
+        <v>0.05290898592491666</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0353698633209968</v>
+        <v>0.03541506975203919</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02648643705333001</v>
+        <v>0.08050378067601016</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03590626325483788</v>
+        <v>0.03526823468151836</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.0264687223713489</v>
+        <v>0.04091652848479473</v>
       </c>
       <c r="G112" t="n">
+        <v>0.02550643060387739</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.02668391176500413</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03668683419516044</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.05326408510348427</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03617465194522122</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.07997210977303726</v>
+        <v>0.05337490014937854</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03613877339319238</v>
+        <v>0.03618496257273569</v>
       </c>
       <c r="N112" t="n">
-        <v>0.0264687223713489</v>
+        <v>0.08100089809444849</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03668683419516044</v>
+        <v>0.03603493543546441</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02673299755208924</v>
+        <v>0.04111790884451559</v>
       </c>
       <c r="G113" t="n">
+        <v>0.02604912061672585</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.02664521865355428</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.037467405135483</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.05354538367024114</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03694432539086422</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.08031518101448293</v>
+        <v>0.05370893325775508</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03690768346538795</v>
+        <v>0.03695485539343219</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02673299755208924</v>
+        <v>0.08116077222843304</v>
       </c>
       <c r="O113" t="n">
-        <v>0.037467405135483</v>
+        <v>0.03680163618941047</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02687877377806686</v>
+        <v>0.0413171818431692</v>
       </c>
       <c r="G114" t="n">
+        <v>0.0265918106295743</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.02698826280297416</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03824797607580557</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.05399760083914321</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03771399883650722</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.08101346597512304</v>
+        <v>0.05400993224611159</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03767659353758354</v>
+        <v>0.0377247482141287</v>
       </c>
       <c r="N114" t="n">
-        <v>0.02687877377806686</v>
+        <v>0.08128296829010917</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03824797607580557</v>
+        <v>0.03756833694335651</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02700556223179752</v>
+        <v>0.04151427607501496</v>
       </c>
       <c r="G115" t="n">
+        <v>0.02713450064242276</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.02701259181609104</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03902854701612813</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.05402010184543726</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03848367228215023</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.08166579364648341</v>
+        <v>0.05397674411051304</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03844550360977912</v>
+        <v>0.0384946410348252</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02700556223179752</v>
+        <v>0.0814670514916222</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03902854701612813</v>
+        <v>0.03833503769730257</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02721287409579705</v>
+        <v>0.04170912013431217</v>
       </c>
       <c r="G116" t="n">
+        <v>0.02767719065527121</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.02711775329573229</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.03980911795645069</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.05451225192437018</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03925334572779323</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.08137099302009004</v>
+        <v>0.05460821584702469</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0392144136819747</v>
+        <v>0.03926453385552171</v>
       </c>
       <c r="N116" t="n">
-        <v>0.02721287409579705</v>
+        <v>0.0815125870451176</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03980911795645069</v>
+        <v>0.03910173845124862</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.0272002205525812</v>
+        <v>0.04190164261532023</v>
       </c>
       <c r="G117" t="n">
+        <v>0.02821988066811967</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.0273032948447252</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04058968889677326</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.05437341631118886</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04002301917343624</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.08232789308746902</v>
+        <v>0.0547031944517116</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03998332375417029</v>
+        <v>0.04003442667621821</v>
       </c>
       <c r="N117" t="n">
-        <v>0.0272002205525812</v>
+        <v>0.0820191401627407</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04058968889677326</v>
+        <v>0.03986843920519467</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.0271671127846658</v>
+        <v>0.04209177211229842</v>
       </c>
       <c r="G118" t="n">
+        <v>0.02876257068096812</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.02736876406589706</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04137025983709582</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.05480296024114026</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04079269261907924</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.08263532284014602</v>
+        <v>0.05456052692063884</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04075223382636587</v>
+        <v>0.04080431949691472</v>
       </c>
       <c r="N118" t="n">
-        <v>0.0271671127846658</v>
+        <v>0.08198627605663678</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04137025983709582</v>
+        <v>0.04063513995914072</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02731306197456661</v>
+        <v>0.04227943721950615</v>
       </c>
       <c r="G119" t="n">
+        <v>0.02930526069381658</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.02721370856207518</v>
+      </c>
+      <c r="K119" t="n">
         <v>0.04215083077741838</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.05510024894947116</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.04156236606472224</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.08199211126964717</v>
+        <v>0.05457906024987169</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04152114389856145</v>
+        <v>0.04157421231761122</v>
       </c>
       <c r="N119" t="n">
-        <v>0.02731306197456661</v>
+        <v>0.08261355993895142</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04215083077741838</v>
+        <v>0.04140184071308677</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
+        <v>0.04246456653120276</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.02984795070666503</v>
+      </c>
+      <c r="J120" t="n">
         <v>0.02744180262838562</v>
       </c>
-      <c r="G120" t="n">
+      <c r="K120" t="n">
         <v>0.04293140171774094</v>
       </c>
-      <c r="J120" t="n">
-        <v>0.05516464767142853</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.04233203951036525</v>
-      </c>
       <c r="L120" t="n">
-        <v>0.08269708736749848</v>
+        <v>0.05519834261247478</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04229005397075704</v>
+        <v>0.04234410513830772</v>
       </c>
       <c r="N120" t="n">
-        <v>0.02744180262838562</v>
+        <v>0.08280055702182987</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04293140171774094</v>
+        <v>0.04216854146703283</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02744155468498229</v>
+        <v>0.04264708864164757</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03039064071951348</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.02734111104956244</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.0437119726580635</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.05519834261247478</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04310171295600825</v>
-      </c>
       <c r="L121" t="n">
+        <v>0.05489511747351442</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.04311399795900422</v>
+      </c>
+      <c r="N121" t="n">
         <v>0.08295488259656392</v>
       </c>
-      <c r="M121" t="n">
-        <v>0.04305896404295262</v>
-      </c>
-      <c r="N121" t="n">
-        <v>0.02744155468498229</v>
-      </c>
       <c r="O121" t="n">
-        <v>0.0437119726580635</v>
+        <v>0.04293524222097887</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02733857685280965</v>
+        <v>0.04282693214509997</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03093333073236194</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.02723285875795455</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04449254359838607</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.05469672795365038</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04387138640165126</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.08255055728523786</v>
+        <v>0.05499164913466473</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0438278741151482</v>
+        <v>0.04388389077970073</v>
       </c>
       <c r="N122" t="n">
-        <v>0.02733857685280965</v>
+        <v>0.08265188589140088</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04449254359838607</v>
+        <v>0.04370194297492493</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02743227476631512</v>
+        <v>0.04300402563581929</v>
       </c>
       <c r="G123" t="n">
+        <v>0.0314760207452104</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.02731554573578447</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04527311453870863</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.05478678444370289</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04464105984729426</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.08251989907521012</v>
+        <v>0.05495246965909328</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04459678418734379</v>
+        <v>0.04465378360039723</v>
       </c>
       <c r="N123" t="n">
-        <v>0.02743227476631512</v>
+        <v>0.08291520869904828</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04527311453870863</v>
+        <v>0.04446864372887098</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02732270621413527</v>
+        <v>0.04317829770806487</v>
       </c>
       <c r="G124" t="n">
+        <v>0.03201871075805885</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.02718950171929668</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04605368547903119</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.05476788611331479</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04541073329293727</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.08286049733666345</v>
+        <v>0.05467963896968731</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04536569425953937</v>
+        <v>0.04542367642109374</v>
       </c>
       <c r="N124" t="n">
-        <v>0.02732270621413527</v>
+        <v>0.08263799245488751</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04605368547903119</v>
+        <v>0.04523534448281703</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02720992898490672</v>
+        <v>0.04334967695609607</v>
       </c>
       <c r="G125" t="n">
+        <v>0.03256140077090731</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.02735505644473561</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04683425641935376</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.05464016100639968</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04618040673858027</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.08237314342451035</v>
+        <v>0.05497475248003214</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04613460433173495</v>
+        <v>0.04619356924179024</v>
       </c>
       <c r="N125" t="n">
-        <v>0.02720992898490672</v>
+        <v>0.08252173536148188</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04683425641935376</v>
+        <v>0.04600204523676308</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02729400086726605</v>
+        <v>0.04351809197417225</v>
       </c>
       <c r="G126" t="n">
+        <v>0.03310409078375576</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.02731253964834573</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04761482735967631</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.05480373716687104</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04695008018422328</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.08195862869366333</v>
+        <v>0.05453940560371315</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04690351440393054</v>
+        <v>0.04696346206248675</v>
       </c>
       <c r="N126" t="n">
-        <v>0.02729400086726605</v>
+        <v>0.08196793562139471</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04761482735967631</v>
+        <v>0.04676874599070913</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02737497964984988</v>
+        <v>0.04368347135655275</v>
       </c>
       <c r="G127" t="n">
+        <v>0.03364678079660422</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.02716228106637152</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04839539829999888</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.0549587426386425</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04771975362986628</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.08191774449903477</v>
+        <v>0.05427519375431561</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04767242447612612</v>
+        <v>0.04773335488318325</v>
       </c>
       <c r="N127" t="n">
-        <v>0.02737497964984988</v>
+        <v>0.08237809143718944</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04839539829999888</v>
+        <v>0.04753544674465518</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02715292312129475</v>
+        <v>0.04384574369749693</v>
       </c>
       <c r="G128" t="n">
+        <v>0.03418947080945267</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.02700461043505739</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.04917596924032144</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.05460530546562758</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04848942707550929</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.08215128219553719</v>
+        <v>0.05398371234542493</v>
       </c>
       <c r="M128" t="n">
-        <v>0.0484413345483217</v>
+        <v>0.04850324770387976</v>
       </c>
       <c r="N128" t="n">
-        <v>0.02715292312129475</v>
+        <v>0.08165370101142927</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04917596924032144</v>
+        <v>0.04830214749860123</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.0271278890702373</v>
+        <v>0.04400483759126411</v>
       </c>
       <c r="G129" t="n">
+        <v>0.03473216082230113</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.02693985749064781</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.04995654018064401</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.05474355369173992</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.04925910052115229</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.08166003313808295</v>
+        <v>0.05416655679062649</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04921024462051728</v>
+        <v>0.04927314052457626</v>
       </c>
       <c r="N129" t="n">
-        <v>0.0271278890702373</v>
+        <v>0.08169626254667772</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04995654018064401</v>
+        <v>0.04906884825254729</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02709993528531413</v>
+        <v>0.04416068163211369</v>
       </c>
       <c r="G130" t="n">
+        <v>0.03527485083514958</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.02706835196938727</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05073711112096656</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.054873615360893</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.0500287739667953</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.08184478868158473</v>
+        <v>0.05362532250350555</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04997915469271286</v>
+        <v>0.05004303334527277</v>
       </c>
       <c r="N130" t="n">
-        <v>0.02709993528531413</v>
+        <v>0.08140727424549793</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05073711112096656</v>
+        <v>0.04983554900649333</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02706911955516181</v>
+        <v>0.04431320441430496</v>
       </c>
       <c r="G131" t="n">
+        <v>0.03581754084799803</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.0268904236075202</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05151768206128913</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.05479561851700041</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.0507984474124383</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.08140634018095488</v>
+        <v>0.05366160489764757</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05074806476490844</v>
+        <v>0.05081292616596927</v>
       </c>
       <c r="N131" t="n">
-        <v>0.02706911955516181</v>
+        <v>0.08098823431045332</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05151768206128913</v>
+        <v>0.05060224976043939</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02703549966841692</v>
+        <v>0.04446233453209732</v>
       </c>
       <c r="G132" t="n">
+        <v>0.03636023086084649</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.02670640214129105</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05229825300161169</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.05460969120397574</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.0515681208580813</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.08104547899110587</v>
+        <v>0.05347699938663783</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05151697483710403</v>
+        <v>0.05158281898666578</v>
       </c>
       <c r="N132" t="n">
-        <v>0.02703549966841692</v>
+        <v>0.08034064094410737</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05229825300161169</v>
+        <v>0.05136895051438544</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02719913341371612</v>
+        <v>0.04460800057975009</v>
       </c>
       <c r="G133" t="n">
+        <v>0.03690292087369495</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.0266166173069443</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05307882394193425</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.05451596146573251</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05233779430372431</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.08036299646695028</v>
+        <v>0.05317310138406167</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05228588490929961</v>
+        <v>0.05235271180736228</v>
       </c>
       <c r="N133" t="n">
-        <v>0.02719913341371612</v>
+        <v>0.08006599234902312</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05307882394193425</v>
+        <v>0.05213565126833149</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02706007857969593</v>
+        <v>0.04475013115152264</v>
       </c>
       <c r="G134" t="n">
+        <v>0.03744561088654341</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.02662139884072438</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05385939488225682</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.05421455734618433</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05310746774936731</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.08055968396340041</v>
+        <v>0.05265150630350449</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05305479498149519</v>
+        <v>0.05312260462805879</v>
       </c>
       <c r="N134" t="n">
-        <v>0.02706007857969593</v>
+        <v>0.0801657867277642</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05385939488225682</v>
+        <v>0.05290235202227754</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02701839295499298</v>
+        <v>0.0448886548416743</v>
       </c>
       <c r="G135" t="n">
+        <v>0.03798830089939186</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.02652107647887579</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05463996582257939</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.05440560688924473</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05387714119501032</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.08043633283536888</v>
+        <v>0.0521138095585516</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05382370505369077</v>
+        <v>0.05389249744875529</v>
       </c>
       <c r="N135" t="n">
-        <v>0.02701839295499298</v>
+        <v>0.07924152228289372</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05463996582257939</v>
+        <v>0.05366905277622359</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02697413432824387</v>
+        <v>0.04502350024446444</v>
       </c>
       <c r="G136" t="n">
+        <v>0.03853099091224031</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.02641597995764294</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05542053676290194</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.05398923813882728</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05464681464065333</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.07999373443776803</v>
+        <v>0.0516616065627884</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05459261512588635</v>
+        <v>0.05466239026945179</v>
       </c>
       <c r="N136" t="n">
-        <v>0.02697413432824387</v>
+        <v>0.07879469721697513</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05542053676290194</v>
+        <v>0.05443575353016964</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02702736048808518</v>
+        <v>0.0451545959541524</v>
       </c>
       <c r="G137" t="n">
+        <v>0.03907368092508877</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.02640643901327031</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05620110770322451</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.05376557913884555</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05541648808629633</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.0791326801255105</v>
+        <v>0.05129649272980019</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05536152519808194</v>
+        <v>0.05543228309014829</v>
       </c>
       <c r="N137" t="n">
-        <v>0.02702736048808518</v>
+        <v>0.07872680973257179</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05620110770322451</v>
+        <v>0.0552024542841157</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02677812922315352</v>
+        <v>0.04528187056499754</v>
       </c>
       <c r="G138" t="n">
+        <v>0.03961637093793722</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.02629278338200236</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05698167864354707</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.05383475793321316</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05618616153193933</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.0786539612535086</v>
+        <v>0.05142006347317232</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05613043527027752</v>
+        <v>0.0562021759108448</v>
       </c>
       <c r="N138" t="n">
-        <v>0.02677812922315352</v>
+        <v>0.07753935803224693</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05698167864354707</v>
+        <v>0.05596915503806175</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02672649832208547</v>
+        <v>0.04540525267125918</v>
       </c>
       <c r="G139" t="n">
+        <v>0.04015906095078568</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.02607534280008351</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05776224958386963</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.05339690256584359</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05695583497758233</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.07835836917667488</v>
+        <v>0.05083391420649017</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05689934534247311</v>
+        <v>0.0569720687315413</v>
       </c>
       <c r="N139" t="n">
-        <v>0.02672649832208547</v>
+        <v>0.07743384031856404</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05776224958386963</v>
+        <v>0.0567358557920078</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02677252557351764</v>
+        <v>0.04552467086719669</v>
       </c>
       <c r="G140" t="n">
+        <v>0.04070175096363413</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.02585444700375829</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05854282052419219</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.05345214108065044</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05772550842322534</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.07834669524992177</v>
+        <v>0.05043964034333906</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05766825541466868</v>
+        <v>0.05774196155223781</v>
       </c>
       <c r="N140" t="n">
-        <v>0.02677252557351764</v>
+        <v>0.07701175479408628</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05854282052419219</v>
+        <v>0.05750255654595385</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02681626876608662</v>
+        <v>0.04564005374706945</v>
       </c>
       <c r="G141" t="n">
+        <v>0.04124444097648259</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.02583042572927109</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.05932339146451476</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.05330060152154725</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05849518186886835</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.07751973082816183</v>
+        <v>0.05013883729730439</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05843716548686427</v>
+        <v>0.05851185437293431</v>
       </c>
       <c r="N141" t="n">
-        <v>0.02681626876608662</v>
+        <v>0.0765745996613772</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05932339146451476</v>
+        <v>0.0582692572998999</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02655778568842897</v>
+        <v>0.04575132990513674</v>
       </c>
       <c r="G142" t="n">
+        <v>0.04178713098933105</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.0256036087128664</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06010396240483731</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.05344241193244764</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.05926485531451135</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.07757826726630751</v>
+        <v>0.04983310048197145</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05920607555905985</v>
+        <v>0.05928174719363082</v>
       </c>
       <c r="N142" t="n">
-        <v>0.02655778568842897</v>
+        <v>0.07542387312299986</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06010396240483731</v>
+        <v>0.05903595805384595</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02669713412918136</v>
+        <v>0.04585842793565797</v>
       </c>
       <c r="G143" t="n">
+        <v>0.0423298210021795</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.02557432569078867</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06088453334515988</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.05277770035726512</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06003452876015435</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.07682309591927117</v>
+        <v>0.0494240253109256</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05997498563125544</v>
+        <v>0.06005164001432732</v>
       </c>
       <c r="N143" t="n">
-        <v>0.02669713412918136</v>
+        <v>0.07486107338151782</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06088453334515988</v>
+        <v>0.05980265880779201</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02653437187698029</v>
+        <v>0.04596127643289247</v>
       </c>
       <c r="G144" t="n">
+        <v>0.04287251101502796</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.02534290639928236</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06166510428548245</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.0530065948399133</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06080420220579735</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.07615500814196541</v>
+        <v>0.04861320719775222</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06074389570345101</v>
+        <v>0.06082153283502383</v>
       </c>
       <c r="N144" t="n">
-        <v>0.02653437187698029</v>
+        <v>0.07488769863949435</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06166510428548245</v>
+        <v>0.06056935956173806</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02636955672046243</v>
+        <v>0.0460598039910996</v>
       </c>
       <c r="G145" t="n">
+        <v>0.04341520102787641</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.0252096805745919</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.062445675225805</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.0524292234243057</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06157387565144037</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.07577479528930264</v>
+        <v>0.04820224155603667</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06151280577564661</v>
+        <v>0.06159142565572033</v>
       </c>
       <c r="N145" t="n">
-        <v>0.02636955672046243</v>
+        <v>0.0745052470994928</v>
       </c>
       <c r="O145" t="n">
-        <v>0.062445675225805</v>
+        <v>0.06133606031568411</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02650274644826435</v>
+        <v>0.0461539392045387</v>
       </c>
       <c r="G146" t="n">
+        <v>0.04395789104072487</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.02527497795296178</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06322624616612757</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.05264571415435593</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06234354909708337</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.07548324871619533</v>
+        <v>0.04789272379936427</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06228171584784218</v>
+        <v>0.06236131847641684</v>
       </c>
       <c r="N146" t="n">
-        <v>0.02650274644826435</v>
+        <v>0.07391521696407644</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06322624616612757</v>
+        <v>0.06210276106963016</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02623399884902265</v>
+        <v>0.04624361066746911</v>
       </c>
       <c r="G147" t="n">
+        <v>0.04450058105357332</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.02503912827063645</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06400681710645013</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.05235619507397749</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06311322254272637</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.07518115977755607</v>
+        <v>0.04758624934132036</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06305062592003777</v>
+        <v>0.06313121129711334</v>
       </c>
       <c r="N147" t="n">
-        <v>0.02623399884902265</v>
+        <v>0.07311910643580871</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06400681710645013</v>
+        <v>0.06286946182357621</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02616337171137391</v>
+        <v>0.0463287469741502</v>
       </c>
       <c r="G148" t="n">
+        <v>0.04504327106642177</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.02500246126386038</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06478738804677268</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.051960794227084</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06388289598836938</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.07466931982829711</v>
+        <v>0.0469844135954903</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06381953599223335</v>
+        <v>0.06390110411780985</v>
       </c>
       <c r="N148" t="n">
-        <v>0.02616337171137391</v>
+        <v>0.07271841371725279</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06478738804677268</v>
+        <v>0.06363616257752226</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02619092282395473</v>
+        <v>0.04640927671884131</v>
       </c>
       <c r="G149" t="n">
+        <v>0.04558596107927023</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.02486530666887798</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06556795898709526</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.05195963965758901</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06465256943401237</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.07394852022333109</v>
+        <v>0.04668881197545949</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06458844606442893</v>
+        <v>0.06467099693850634</v>
       </c>
       <c r="N149" t="n">
-        <v>0.02619092282395473</v>
+        <v>0.07201463701097222</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06556795898709526</v>
+        <v>0.06440286333146832</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02611670997540172</v>
+        <v>0.04648512849580178</v>
       </c>
       <c r="G150" t="n">
+        <v>0.04612865109211869</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.02472799422193377</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06634852992741783</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.05155285940940607</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.0654222428796554</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.07361955231757045</v>
+        <v>0.0464010398948132</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06535735613662451</v>
+        <v>0.06544088975920284</v>
       </c>
       <c r="N150" t="n">
-        <v>0.02611670997540172</v>
+        <v>0.07080927451953023</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06634852992741783</v>
+        <v>0.06516956408541437</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02614079095435146</v>
+        <v>0.04655623089929099</v>
       </c>
       <c r="G151" t="n">
+        <v>0.04667134110496714</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.02439085365927214</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06712910086774038</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.05134058152644877</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06619191632529839</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.07288320746592758</v>
+        <v>0.04612269276713685</v>
       </c>
       <c r="M151" t="n">
-        <v>0.0661262662088201</v>
+        <v>0.06621078257989935</v>
       </c>
       <c r="N151" t="n">
-        <v>0.02614079095435146</v>
+        <v>0.07070382444549006</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06712910086774038</v>
+        <v>0.06593626483936041</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02596322354944053</v>
+        <v>0.04662251252356825</v>
       </c>
       <c r="G152" t="n">
+        <v>0.04721403111781559</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.0243542147171376</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06790967180806294</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.0512229340526307</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.0669615897709414</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.07254027702331517</v>
+        <v>0.04575536600601574</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06689517628101567</v>
+        <v>0.06698067540059585</v>
       </c>
       <c r="N152" t="n">
-        <v>0.02596322354944053</v>
+        <v>0.06999978499141524</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06790967180806294</v>
+        <v>0.06670296559330646</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02588406554930556</v>
+        <v>0.04668390196289295</v>
       </c>
       <c r="G153" t="n">
+        <v>0.04775672113066405</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.02421840713177459</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.0686902427483855</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.05130004503186533</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.0677312632165844</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.07219155234464547</v>
+        <v>0.04520065502503523</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06766408635321126</v>
+        <v>0.06775056822129236</v>
       </c>
       <c r="N153" t="n">
-        <v>0.02588406554930556</v>
+        <v>0.06949865435986902</v>
       </c>
       <c r="O153" t="n">
-        <v>0.0686902427483855</v>
+        <v>0.06746966634725252</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02570337474258312</v>
+        <v>0.0467403278115244</v>
       </c>
       <c r="G154" t="n">
+        <v>0.04829941114351251</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.02398376063942756</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.06947081368870807</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.05107204250806632</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.0685009366622274</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.07113782478483099</v>
+        <v>0.04466015523778069</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06843299642540684</v>
+        <v>0.06852046104198886</v>
       </c>
       <c r="N154" t="n">
-        <v>0.02570337474258312</v>
+        <v>0.0686019307534147</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06947081368870807</v>
+        <v>0.06823636710119857</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.0258212089179098</v>
+        <v>0.04679171866372198</v>
       </c>
       <c r="G155" t="n">
+        <v>0.04884210115636096</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.02385060497634098</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07025138462903063</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.05063905452514716</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.06927061010787042</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.07057988569878426</v>
+        <v>0.04443546205783744</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06920190649760243</v>
+        <v>0.06929035386268537</v>
       </c>
       <c r="N155" t="n">
-        <v>0.0258212089179098</v>
+        <v>0.06801111237461566</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07025138462903063</v>
+        <v>0.06900306785514462</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02563762586392222</v>
+        <v>0.04683800311374503</v>
       </c>
       <c r="G156" t="n">
+        <v>0.04938479116920941</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.02391926987875929</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.0710319555693532</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.0505012091270215</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07004028355351341</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.06991852644141777</v>
+        <v>0.04432817089879088</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06997081656979801</v>
+        <v>0.07006024668338187</v>
       </c>
       <c r="N156" t="n">
-        <v>0.02563762586392222</v>
+        <v>0.06732769742603523</v>
       </c>
       <c r="O156" t="n">
-        <v>0.0710319555693532</v>
+        <v>0.06976976860909068</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02545268336925696</v>
+        <v>0.04687910975585291</v>
       </c>
       <c r="G157" t="n">
+        <v>0.04992748118205787</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.02379008508292696</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07181252650967576</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.04985863435760282</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07080995699915642</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.06995453836764393</v>
+        <v>0.04403987717422631</v>
       </c>
       <c r="M157" t="n">
-        <v>0.0707397266419936</v>
+        <v>0.07083013950407838</v>
       </c>
       <c r="N157" t="n">
-        <v>0.02545268336925696</v>
+        <v>0.0670531841102367</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07181252650967576</v>
+        <v>0.07053646936303672</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02536643922255062</v>
+        <v>0.04691496718430495</v>
       </c>
       <c r="G158" t="n">
+        <v>0.05047017119490632</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.02356087157393351</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07259309744999831</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.05001145826080475</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07157963044479942</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.06858871283237528</v>
+        <v>0.04396691003012954</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07150863671418917</v>
+        <v>0.07160003232477488</v>
       </c>
       <c r="N158" t="n">
-        <v>0.02536643922255062</v>
+        <v>0.06657417022483264</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07259309744999831</v>
+        <v>0.07130317011698277</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02537895121243978</v>
+        <v>0.0469455039933605</v>
       </c>
       <c r="G159" t="n">
+        <v>0.05101286120775478</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.02332751361589157</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07337366839032089</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.04965980888054078</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07234930389044243</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.0683218411905242</v>
+        <v>0.04330068424565234</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07227754678638476</v>
+        <v>0.07236992514547139</v>
       </c>
       <c r="N159" t="n">
-        <v>0.02537895121243978</v>
+        <v>0.06616699733413289</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07337366839032089</v>
+        <v>0.07206987087092882</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02539027712756108</v>
+        <v>0.04697064877727894</v>
       </c>
       <c r="G160" t="n">
+        <v>0.05155555122060324</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.02339008070596399</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07415423933064345</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.04950381426072453</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07311897733608544</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.0676547147970033</v>
+        <v>0.04314058157175457</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07304645685858034</v>
+        <v>0.07313981796616789</v>
       </c>
       <c r="N160" t="n">
-        <v>0.02539027712756108</v>
+        <v>0.06493270775721327</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07415423933064345</v>
+        <v>0.07283657162487488</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02530047475655105</v>
+        <v>0.0469903301303196</v>
       </c>
       <c r="G161" t="n">
+        <v>0.05209824123345169</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.02324871837583131</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.074934810270966</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.04934360244526959</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07388865078172843</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.06728812500672487</v>
+        <v>0.04298612826872106</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07381536693077591</v>
+        <v>0.07390971078686438</v>
       </c>
       <c r="N161" t="n">
-        <v>0.02530047475655105</v>
+        <v>0.06447274829292848</v>
       </c>
       <c r="O161" t="n">
-        <v>0.074934810270966</v>
+        <v>0.07360327237882093</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02520960188804632</v>
+        <v>0.04700447664674182</v>
       </c>
       <c r="G162" t="n">
+        <v>0.05264093124630015</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.02290357215717399</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07571538121128857</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.04867930147808941</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07465832422737144</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.06672286317460147</v>
+        <v>0.04253685059683657</v>
       </c>
       <c r="M162" t="n">
-        <v>0.0745842770029715</v>
+        <v>0.07467960360756089</v>
       </c>
       <c r="N162" t="n">
-        <v>0.02520960188804632</v>
+        <v>0.06338856574013307</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07571538121128857</v>
+        <v>0.07436997313276698</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02491771631068347</v>
+        <v>0.04701301692080495</v>
       </c>
       <c r="G163" t="n">
+        <v>0.0531836212591486</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.02295478758167251</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07649595215161113</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.04851103940309773</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07542799767301445</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.06615972065554565</v>
+        <v>0.04259227481638603</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07535318707516708</v>
+        <v>0.07544949642825739</v>
       </c>
       <c r="N163" t="n">
-        <v>0.02491771631068347</v>
+        <v>0.06338160689768169</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07649595215161113</v>
+        <v>0.07513667388671302</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02502487581309912</v>
+        <v>0.04701587954676838</v>
       </c>
       <c r="G164" t="n">
+        <v>0.05372631127199706</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.02280251018100737</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.0772765230919337</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.04813894426420795</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07619767111865745</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.06559948880446975</v>
+        <v>0.04215192718765409</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07612209714736266</v>
+        <v>0.0762193892489539</v>
       </c>
       <c r="N164" t="n">
-        <v>0.02502487581309912</v>
+        <v>0.06225331856442889</v>
       </c>
       <c r="O164" t="n">
-        <v>0.0772765230919337</v>
+        <v>0.07590337464065909</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02483113818392983</v>
+        <v>0.04701587954676838</v>
       </c>
       <c r="G165" t="n">
+        <v>0.05372631127199706</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.02254688548685907</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07805709403225626</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.04776314410533372</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07696734456430046</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.06464265065828179</v>
+        <v>0.04191533397092567</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07689100721955824</v>
+        <v>0.0769892820696504</v>
       </c>
       <c r="N165" t="n">
-        <v>0.02483113818392983</v>
+        <v>0.06150514753922914</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07805709403225626</v>
+        <v>0.07667007539460513</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02483656121181223</v>
+        <v>0.04619000559346559</v>
       </c>
       <c r="G166" t="n">
+        <v>0.05372604274353304</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.02228805903090808</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.07883766497257882</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.04768376697038862</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07773701800994345</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.0643632376543698</v>
+        <v>0.04158202142648557</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07765991729175384</v>
+        <v>0.07775917489034691</v>
       </c>
       <c r="N166" t="n">
-        <v>0.02483656121181223</v>
+        <v>0.06083854062093724</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07883766497257882</v>
+        <v>0.07743677614855118</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.0245412026853829</v>
+        <v>0.04537360093859452</v>
       </c>
       <c r="G167" t="n">
+        <v>0.05372577421506902</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.0222261763448349</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.07961823591290138</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.04740094090328614</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07850669145558646</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.06374572451939353</v>
+        <v>0.04165151581461862</v>
       </c>
       <c r="M167" t="n">
-        <v>0.0784288273639494</v>
+        <v>0.07852906771104341</v>
       </c>
       <c r="N167" t="n">
-        <v>0.0245412026853829</v>
+        <v>0.06045494460840767</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07961823591290138</v>
+        <v>0.07820347690249724</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02444512039327842</v>
+        <v>0.04456716720982158</v>
       </c>
       <c r="G168" t="n">
+        <v>0.053725505686605</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.02216138296032001</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08039880685322394</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.0472147939479399</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.07927636490122947</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.06359219901496327</v>
+        <v>0.04122334339560962</v>
       </c>
       <c r="M168" t="n">
-        <v>0.079197737436145</v>
+        <v>0.07929896053173992</v>
       </c>
       <c r="N168" t="n">
-        <v>0.02444512039327842</v>
+        <v>0.05925580630049504</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08039880685322394</v>
+        <v>0.07897017765644328</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02444837212413541</v>
+        <v>0.04377120603491826</v>
       </c>
       <c r="G169" t="n">
+        <v>0.05372523715814098</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.02179382440904389</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08117937779354652</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.04672545414826343</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08004603834687248</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.0621047489026888</v>
+        <v>0.04109703042974333</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07996664750834058</v>
+        <v>0.08006885335243642</v>
       </c>
       <c r="N169" t="n">
-        <v>0.02444837212413541</v>
+        <v>0.05864257249605404</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08117937779354652</v>
+        <v>0.07973687841038934</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02425101566659045</v>
+        <v>0.04298621904155055</v>
       </c>
       <c r="G170" t="n">
+        <v>0.05372496862967697</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.02172364622268706</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08195994873386907</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.04643304954817035</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08081571179251548</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.06198546194418036</v>
+        <v>0.04067210317730469</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08073555758053616</v>
+        <v>0.08083874617313293</v>
       </c>
       <c r="N170" t="n">
-        <v>0.02425101566659045</v>
+        <v>0.05721668999393908</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08195994873386907</v>
+        <v>0.0805035791643354</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02425310880928014</v>
+        <v>0.04221270785741971</v>
       </c>
       <c r="G171" t="n">
+        <v>0.05372470010121295</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.02165099393292998</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08274051967419163</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.04622511544913416</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08158538523815848</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.06073642590104789</v>
+        <v>0.04054808789857844</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08150446765273174</v>
+        <v>0.08160863899382943</v>
       </c>
       <c r="N171" t="n">
-        <v>0.02425310880928014</v>
+        <v>0.05647960559300486</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08274051967419163</v>
+        <v>0.08127027991828144</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02405470934084106</v>
+        <v>0.04145117411019421</v>
       </c>
       <c r="G172" t="n">
+        <v>0.05372443157274893</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.02147601307145315</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.0835210906145142</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.04565693292932765</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08235505868380148</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.06065972853490137</v>
+        <v>0.04062451085384938</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08227337772492734</v>
+        <v>0.08237853181452594</v>
       </c>
       <c r="N172" t="n">
-        <v>0.02405470934084106</v>
+        <v>0.05563276609210599</v>
       </c>
       <c r="O172" t="n">
-        <v>0.0835210906145142</v>
+        <v>0.08203698067222749</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02405508332124383</v>
+        <v>0.04070211942764158</v>
       </c>
       <c r="G173" t="n">
+        <v>0.05372416304428491</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.02109884916993705</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08430166155483676</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.04532848977964191</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08312473212944449</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.05935745760735106</v>
+        <v>0.04010089830340238</v>
       </c>
       <c r="M173" t="n">
-        <v>0.0830422877971229</v>
+        <v>0.08314842463522244</v>
       </c>
       <c r="N173" t="n">
-        <v>0.02405508332124383</v>
+        <v>0.05527761829009709</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08430166155483676</v>
+        <v>0.08280368142617354</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.0240475693272777</v>
+        <v>0.03996604543742975</v>
       </c>
       <c r="G174" t="n">
+        <v>0.0537238945158209</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.0211196477600622</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08508223249515932</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.04504427583328027</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.0838944055750875</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.05893170088000682</v>
+        <v>0.03987677650752222</v>
       </c>
       <c r="M174" t="n">
-        <v>0.0838111978693185</v>
+        <v>0.08391831745591893</v>
       </c>
       <c r="N174" t="n">
-        <v>0.0240475693272777</v>
+        <v>0.05381560898583254</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08508223249515932</v>
+        <v>0.08357038218011958</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02383092369718945</v>
+        <v>0.03924345376725999</v>
       </c>
       <c r="G175" t="n">
+        <v>0.05372362598735689</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.02083855437350904</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08586280343548189</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.04440878092344597</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.0846640790207305</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.05798454611447873</v>
+        <v>0.03965167172649373</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08458010794151408</v>
+        <v>0.08468821027661544</v>
       </c>
       <c r="N175" t="n">
-        <v>0.02383092369718945</v>
+        <v>0.05304818497816727</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08586280343548189</v>
+        <v>0.08433708293406565</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02360548536988226</v>
+        <v>0.03853484604480306</v>
       </c>
       <c r="G176" t="n">
+        <v>0.05372335745889286</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.0206557145419581</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08664337437580444</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.04412649488334211</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.0854337524663735</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.0568180810723769</v>
+        <v>0.03962511022060169</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08534901801370966</v>
+        <v>0.08545810309731194</v>
       </c>
       <c r="N176" t="n">
-        <v>0.02360548536988226</v>
+        <v>0.05277679306595556</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08664337437580444</v>
+        <v>0.08510378368801171</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02357159328425938</v>
+        <v>0.03784072389782199</v>
       </c>
       <c r="G177" t="n">
+        <v>0.05372308893042885</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.02047127379708985</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.087423945316127</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.04330190754617194</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.0862034259120165</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.05603439351531131</v>
+        <v>0.03939661825013097</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08611792808590524</v>
+        <v>0.08622799591800845</v>
       </c>
       <c r="N177" t="n">
-        <v>0.02357159328425938</v>
+        <v>0.05130288004805228</v>
       </c>
       <c r="O177" t="n">
-        <v>0.087423945316127</v>
+        <v>0.08587048444195775</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02352958637922402</v>
+        <v>0.03716158895398684</v>
       </c>
       <c r="G178" t="n">
+        <v>0.05372282040196483</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.02028537767058478</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.08820451625644958</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.0423395087451387</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08697309935765951</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.05543557120489201</v>
+        <v>0.03926572207536635</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08688683815810083</v>
+        <v>0.08699788873870495</v>
       </c>
       <c r="N178" t="n">
-        <v>0.02352958637922402</v>
+        <v>0.05082789272331178</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08820451625644958</v>
+        <v>0.0866371851959038</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02327980359367934</v>
+        <v>0.03649794284099898</v>
       </c>
       <c r="G179" t="n">
+        <v>0.05372255187350081</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.01999817169412337</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.08898508719677213</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.04194378831344556</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08774277280330252</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.05422370190272902</v>
+        <v>0.03883194795659264</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0876557482302964</v>
+        <v>0.08776778155940146</v>
       </c>
       <c r="N179" t="n">
-        <v>0.02327980359367934</v>
+        <v>0.04975327789058881</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08898508719677213</v>
+        <v>0.08740388594984985</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.0231225838665286</v>
+        <v>0.03585028718653183</v>
       </c>
       <c r="G180" t="n">
+        <v>0.05372228334503679</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.01990980139938613</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.08976565813709469</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.04141923608429579</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.08851244624894553</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.05300087337043252</v>
+        <v>0.03869482215409475</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08842465830249199</v>
+        <v>0.08853767438009796</v>
       </c>
       <c r="N180" t="n">
-        <v>0.0231225838665286</v>
+        <v>0.04928048234873789</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08976565813709469</v>
+        <v>0.08817058670379591</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02285826613667498</v>
+        <v>0.03521912361834308</v>
       </c>
       <c r="G181" t="n">
+        <v>0.05372201481657277</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.01972041231805352</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09054622907741726</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.04037034189089259</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.08928211969458852</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.05256917336961242</v>
+        <v>0.03825387092815738</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08919356837468757</v>
+        <v>0.08930756720079447</v>
       </c>
       <c r="N181" t="n">
-        <v>0.02285826613667498</v>
+        <v>0.04781095289661369</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09054622907741726</v>
+        <v>0.08893728745774196</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02288718934302174</v>
+        <v>0.03460495376410548</v>
       </c>
       <c r="G182" t="n">
+        <v>0.05372174628810876</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.01963014998180605</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09132680001773982</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.03940159556643913</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09005179314023154</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.05163068966187878</v>
+        <v>0.03810862053906536</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08996247844688315</v>
+        <v>0.09007746002149097</v>
       </c>
       <c r="N182" t="n">
-        <v>0.02288718934302174</v>
+        <v>0.0475461363330707</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09132680001773982</v>
+        <v>0.08970398821168801</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02260969242447203</v>
+        <v>0.03400827925152032</v>
       </c>
       <c r="G183" t="n">
+        <v>0.05372147775964475</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.01933915992232421</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09210737095806239</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.03861748694413863</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09082146658587453</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.05068751000884164</v>
+        <v>0.03765859724710358</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09073138851907873</v>
+        <v>0.09084735284218748</v>
       </c>
       <c r="N183" t="n">
-        <v>0.02260969242447203</v>
+        <v>0.04618747945696355</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09210737095806239</v>
+        <v>0.09047068896563405</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02252611431992907</v>
+        <v>0.03342960170826409</v>
       </c>
       <c r="G184" t="n">
+        <v>0.05372120923118072</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.0190475876712885</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09288794189838495</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.03792250585719431</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09159114003151754</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.04944172217211101</v>
+        <v>0.03750332731255679</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09150029859127433</v>
+        <v>0.09161724566288398</v>
       </c>
       <c r="N184" t="n">
-        <v>0.02252611431992907</v>
+        <v>0.04563642906714688</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09288794189838495</v>
+        <v>0.09123738971958011</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.0221367939682961</v>
+        <v>0.0328694227620885</v>
       </c>
       <c r="G185" t="n">
+        <v>0.05372094070271671</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.01905557876037937</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09366851283870752</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.03722114213880942</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09236081347716055</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.0488954139132971</v>
+        <v>0.03734233699570982</v>
       </c>
       <c r="M185" t="n">
-        <v>0.0922692086634699</v>
+        <v>0.09238713848358049</v>
       </c>
       <c r="N185" t="n">
-        <v>0.0221367939682961</v>
+        <v>0.04449443196247527</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09366851283870752</v>
+        <v>0.09200409047352616</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02204207030847631</v>
+        <v>0.03232824404066924</v>
       </c>
       <c r="G186" t="n">
+        <v>0.05372067217425269</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.01866327872127732</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09444908377903007</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.03631788562218716</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09313048692280354</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.04805067299400972</v>
+        <v>0.03727515255684752</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09303811873566549</v>
+        <v>0.09315703130427699</v>
       </c>
       <c r="N186" t="n">
-        <v>0.02204207030847631</v>
+        <v>0.04376293494180328</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09444908377903007</v>
+        <v>0.09277079122747221</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.0217422822793729</v>
+        <v>0.0318065671717076</v>
       </c>
       <c r="G187" t="n">
+        <v>0.05372040364578868</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.01847083308566289</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09522965471935263</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.03581722614053065</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09390016036844656</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.04680958717585909</v>
+        <v>0.03670130025625468</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09380702880786107</v>
+        <v>0.0939269241249735</v>
       </c>
       <c r="N187" t="n">
-        <v>0.0217422822793729</v>
+        <v>0.04294338480398552</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09522965471935263</v>
+        <v>0.09353749198141827</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02173776881988912</v>
+        <v>0.03130489378288349</v>
       </c>
       <c r="G188" t="n">
+        <v>0.05372013511732465</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.0184783873852165</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09601022565967521</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.03492365352704321</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09466983381408955</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.04557424422045525</v>
+        <v>0.03672030635421611</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09457593888005665</v>
+        <v>0.09469681694567</v>
       </c>
       <c r="N188" t="n">
-        <v>0.02173776881988912</v>
+        <v>0.04183722834787656</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09601022565967521</v>
+        <v>0.09430419273536432</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02152886886892814</v>
+        <v>0.03082372550194187</v>
       </c>
       <c r="G189" t="n">
+        <v>0.05371986658886064</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.01818608715161867</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09679079659999776</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.03434165761492805</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09543950725973256</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.04514673188940815</v>
+        <v>0.03603169711101659</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09534484895225223</v>
+        <v>0.09546670976636651</v>
       </c>
       <c r="N189" t="n">
-        <v>0.02152886886892814</v>
+        <v>0.04114591237233112</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09679079659999776</v>
+        <v>0.09507089348931036</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02121592136539319</v>
+        <v>0.03036151564344798</v>
       </c>
       <c r="G190" t="n">
+        <v>0.05371959806039663</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.01789407791654987</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09757136754032032</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.0330757282373883</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09620918070537557</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.04372913794432787</v>
+        <v>0.03563499878694107</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09611375902444781</v>
+        <v>0.09623660258706301</v>
       </c>
       <c r="N190" t="n">
-        <v>0.02121592136539319</v>
+        <v>0.04027088367620357</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09757136754032032</v>
+        <v>0.09583759424325641</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02109926524818748</v>
+        <v>0.02990647595642139</v>
       </c>
       <c r="G191" t="n">
+        <v>0.05371932953193261</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.0177025052116906</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.09835193848064289</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.03263035522762719</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09697885415101858</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.04322355014682455</v>
+        <v>0.03532973764227418</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09688266909664339</v>
+        <v>0.09700649540775952</v>
       </c>
       <c r="N191" t="n">
-        <v>0.02109926524818748</v>
+        <v>0.04021358905834871</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09835193848064289</v>
+        <v>0.09660429499720247</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02067923945621419</v>
+        <v>0.02945705975543048</v>
       </c>
       <c r="G192" t="n">
+        <v>0.05371906100346859</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.0177115145687214</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.09913250942096545</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.03211002841884805</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09774852759666158</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.0422320562585079</v>
+        <v>0.03521543993730086</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09765157916883899</v>
+        <v>0.09777638822845602</v>
       </c>
       <c r="N192" t="n">
-        <v>0.02067923945621419</v>
+        <v>0.03927547531762099</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09913250942096545</v>
+        <v>0.09737099575114852</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02065618292837658</v>
+        <v>0.02901376866821569</v>
       </c>
       <c r="G193" t="n">
+        <v>0.05371879247500457</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.01751557360387149</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.09991308036128801</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.03121923764425397</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.09851820104230458</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.04165674404098846</v>
+        <v>0.03478803024504284</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09842048924103457</v>
+        <v>0.09854628104915253</v>
       </c>
       <c r="N193" t="n">
-        <v>0.02065618292837658</v>
+        <v>0.03843574343115852</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09991308036128801</v>
+        <v>0.09813769650509457</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02023043460357782</v>
+        <v>0.02857710432245865</v>
       </c>
       <c r="G194" t="n">
+        <v>0.05371852394654055</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.0173080841634549</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1006936513016106</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.03046247273704816</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.09928787448794758</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.04019970125587596</v>
+        <v>0.0345435121968419</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09918939931323013</v>
+        <v>0.09931617386984903</v>
       </c>
       <c r="N194" t="n">
-        <v>0.02023043460357782</v>
+        <v>0.03776933704629537</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1006936513016106</v>
+        <v>0.09890439725904061</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02010233342072115</v>
+        <v>0.02814756834586062</v>
       </c>
       <c r="G195" t="n">
+        <v>0.05371825541807654</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.01688991772667137</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1014742222419331</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.0301410501718023</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1000575479335906</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.03926301566478041</v>
+        <v>0.03428275335962927</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09995830938542573</v>
+        <v>0.1000860666905455</v>
       </c>
       <c r="N195" t="n">
-        <v>0.02010233342072115</v>
+        <v>0.03677874473357767</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1014742222419331</v>
+        <v>0.09967109801298667</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01987221831870975</v>
+        <v>0.0277256623661047</v>
       </c>
       <c r="G196" t="n">
+        <v>0.05371798688961251</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.01666197138894218</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1022547931822557</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.02921036879488825</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1008272213792336</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.038348775029312</v>
+        <v>0.03410663208836284</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1007272194576213</v>
+        <v>0.100855959511242</v>
       </c>
       <c r="N196" t="n">
-        <v>0.01987221831870975</v>
+        <v>0.03646652279459323</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1022547931822557</v>
+        <v>0.1004377987669327</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01953979626410669</v>
+        <v>0.02731188801092896</v>
       </c>
       <c r="G197" t="n">
+        <v>0.0537177183611485</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.01642514224568856</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1030353641225783</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.0284569445121983</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1015968948248766</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.03835711487425403</v>
+        <v>0.03351602673800044</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1014961295298169</v>
+        <v>0.1016258523319385</v>
       </c>
       <c r="N197" t="n">
-        <v>0.01953979626410669</v>
+        <v>0.03563522753092974</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1030353641225783</v>
+        <v>0.1012044995208788</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01928776680705782</v>
+        <v>0.02690674690801612</v>
       </c>
       <c r="G198" t="n">
+        <v>0.05371744983268448</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.01628032739233175</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1038159350629008</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.02788367697476482</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1023665682705196</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.03685371681575811</v>
+        <v>0.03311181566349994</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1022650396020125</v>
+        <v>0.1023957451526351</v>
       </c>
       <c r="N198" t="n">
-        <v>0.01928776680705782</v>
+        <v>0.03458741524417513</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1038159350629008</v>
+        <v>0.1019712002748248</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01911007409045774</v>
+        <v>0.02651074068506745</v>
       </c>
       <c r="G199" t="n">
+        <v>0.05371718130422047</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.01592842392429303</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1045965060032234</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.02749346583362014</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1031362417161626</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.03672754509711224</v>
+        <v>0.03289487721981921</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1030339496742081</v>
+        <v>0.1031656379733316</v>
       </c>
       <c r="N199" t="n">
-        <v>0.01911007409045774</v>
+        <v>0.03382564223591694</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1045965060032234</v>
+        <v>0.1027379010287709</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01890924030182456</v>
+        <v>0.02612437096976768</v>
       </c>
       <c r="G200" t="n">
+        <v>0.05371691277575644</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.01577032893699362</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1053770769435459</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.02678921073979662</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1039059151618056</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.03578149896067845</v>
+        <v>0.03226608976191614</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1038028597464036</v>
+        <v>0.103935530794028</v>
       </c>
       <c r="N200" t="n">
-        <v>0.01890924030182456</v>
+        <v>0.03275246480774308</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1053770769435459</v>
+        <v>0.1035046017827169</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01848778762867638</v>
+        <v>0.02574813938985174</v>
       </c>
       <c r="G201" t="n">
+        <v>0.05371664424729243</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.01560693952585479</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1061576478838685</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.02577381134432663</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1046755886074486</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.03461847764881815</v>
+        <v>0.03172633164474856</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1045717698185992</v>
+        <v>0.1047054236147246</v>
       </c>
       <c r="N201" t="n">
-        <v>0.01848778762867638</v>
+        <v>0.03167043926124147</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1061576478838685</v>
+        <v>0.104271302536663</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01804823825853134</v>
+        <v>0.02538254757300387</v>
       </c>
       <c r="G202" t="n">
+        <v>0.05371637571882842</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.01523915278629777</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1069382188241911</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.02505016729824258</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1054452620530916</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.03344138040389327</v>
+        <v>0.03117648122327432</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1053406798907948</v>
+        <v>0.1054753164354211</v>
       </c>
       <c r="N202" t="n">
-        <v>0.01804823825853134</v>
+        <v>0.0304821218979997</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1069382188241911</v>
+        <v>0.105038003290609</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01789311437890755</v>
+        <v>0.02502809714692539</v>
       </c>
       <c r="G203" t="n">
+        <v>0.0537161071903644</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.01506786581374382</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1077187897645136</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.02462117825257673</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1062149354987346</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.0331531064682653</v>
+        <v>0.03081741685245137</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1061095899629904</v>
+        <v>0.1062452092561176</v>
       </c>
       <c r="N203" t="n">
-        <v>0.01789311437890755</v>
+        <v>0.03019006901960575</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1077187897645136</v>
+        <v>0.1058047040445551</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01752493817732312</v>
+        <v>0.0246852897393029</v>
       </c>
       <c r="G204" t="n">
+        <v>0.05371583866190038</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.01459397570361418</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1084993607048362</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.02378974385836147</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1069846089443776</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.03225655508429609</v>
+        <v>0.03035001688723749</v>
       </c>
       <c r="M204" t="n">
-        <v>0.106878500035186</v>
+        <v>0.1070151020768141</v>
       </c>
       <c r="N204" t="n">
-        <v>0.01752493817732312</v>
+        <v>0.02949683692764715</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1084993607048362</v>
+        <v>0.1065714047985011</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01694623184129616</v>
+        <v>0.02435462697786756</v>
       </c>
       <c r="G205" t="n">
+        <v>0.05371557013343636</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.0145183795513301</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1092799316451588</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.02275876376662919</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1077542823900206</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.03135462549434737</v>
+        <v>0.02977515968259059</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1076474101073815</v>
+        <v>0.1077849948975106</v>
       </c>
       <c r="N205" t="n">
-        <v>0.01694623184129616</v>
+        <v>0.02850498192371193</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1092799316451588</v>
+        <v>0.1073381055524472</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01665951755834484</v>
+        <v>0.02403661049030546</v>
       </c>
       <c r="G206" t="n">
+        <v>0.05371530160497234</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.01404197445231285</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1100605025854813</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.02203113762841222</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1085239558356636</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.03015021694078074</v>
+        <v>0.02939372359346853</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1084163201795771</v>
+        <v>0.1085548877182071</v>
       </c>
       <c r="N206" t="n">
-        <v>0.01665951755834484</v>
+        <v>0.02741706030938768</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1100605025854813</v>
+        <v>0.1081048063063932</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01636731751598723</v>
+        <v>0.02373174190431793</v>
       </c>
       <c r="G207" t="n">
+        <v>0.05371503307650833</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.01396565750198368</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1108410735258039</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.02130976509474289</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1092936292813067</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.02944622866595803</v>
+        <v>0.02910658697482915</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1091852302517727</v>
+        <v>0.1093247805389036</v>
       </c>
       <c r="N207" t="n">
-        <v>0.01636731751598723</v>
+        <v>0.02623562838626237</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1108410735258039</v>
+        <v>0.1088715070603393</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01597215390174145</v>
+        <v>0.02344052284759386</v>
       </c>
       <c r="G208" t="n">
+        <v>0.0537147645480443</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.01369032579576379</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1116216444661264</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.02069754581665367</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1100633027269496</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.02874555991224076</v>
+        <v>0.02841462818163037</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1099541403239683</v>
+        <v>0.1100946733596001</v>
       </c>
       <c r="N208" t="n">
-        <v>0.01597215390174145</v>
+        <v>0.02516324245592355</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1116216444661264</v>
+        <v>0.1096382078142853</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01537654890312562</v>
+        <v>0.02316345494785992</v>
       </c>
       <c r="G209" t="n">
+        <v>0.05371449601958029</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.01341687642907448</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.112402215406449</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.01999737944517677</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1108329761725927</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.02715110992199071</v>
+        <v>0.02801872556883001</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1107230503961639</v>
+        <v>0.1108645661802966</v>
       </c>
       <c r="N209" t="n">
-        <v>0.01537654890312562</v>
+        <v>0.02480245881995924</v>
       </c>
       <c r="O209" t="n">
-        <v>0.112402215406449</v>
+        <v>0.1104049085682314</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01518302470765787</v>
+        <v>0.02290103983280439</v>
       </c>
       <c r="G210" t="n">
+        <v>0.05371422749111628</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.01314620649733698</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1131827863467716</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.01951216563134464</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1116026496182357</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.0265657779375697</v>
+        <v>0.02721975749138592</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1114919604683595</v>
+        <v>0.1116344590009931</v>
       </c>
       <c r="N210" t="n">
-        <v>0.01518302470765787</v>
+        <v>0.02355583377995712</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1131827863467716</v>
+        <v>0.1111716093221775</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01479410350285632</v>
+        <v>0.0226537791301286</v>
       </c>
       <c r="G211" t="n">
+        <v>0.05371395896265226</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.01287921309597255</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1139633572870941</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.01844480402618956</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1123723230638787</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.02549246320133941</v>
+        <v>0.026918602304256</v>
       </c>
       <c r="M211" t="n">
-        <v>0.112260870540555</v>
+        <v>0.1124043518216896</v>
       </c>
       <c r="N211" t="n">
-        <v>0.01479410350285632</v>
+        <v>0.02302592363750494</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1139633572870941</v>
+        <v>0.1119383100761235</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01421230747623907</v>
+        <v>0.02242217446752409</v>
       </c>
       <c r="G212" t="n">
+        <v>0.05371369043418824</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.01261679332040241</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1147439282274167</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.01809819428074397</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1131419965095217</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.02453406495566146</v>
+        <v>0.02651613836239811</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1130297806127506</v>
+        <v>0.1131742446423861</v>
       </c>
       <c r="N212" t="n">
-        <v>0.01421230747623907</v>
+        <v>0.02201528469419062</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1147439282274167</v>
+        <v>0.1127050108300695</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01394015881532426</v>
+        <v>0.02220672747271234</v>
       </c>
       <c r="G213" t="n">
+        <v>0.05371342190572422</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.01215984426604785</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1155244991677393</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.01737523604604022</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1139116699551647</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.02389348244289757</v>
+        <v>0.0257132440207701</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1137986906849462</v>
+        <v>0.1139441374630826</v>
       </c>
       <c r="N213" t="n">
-        <v>0.01394015881532426</v>
+        <v>0.0214264732516018</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1155244991677393</v>
+        <v>0.1134717115840156</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01358017970762998</v>
+        <v>0.02200793977338418</v>
       </c>
       <c r="G214" t="n">
+        <v>0.05371315337726021</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.01210926302833009</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1163050701080618</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.01657882897311061</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1146813434008077</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.0234736149054095</v>
+        <v>0.02571079763432993</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1145676007571418</v>
+        <v>0.1147140302837791</v>
       </c>
       <c r="N214" t="n">
-        <v>0.01358017970762998</v>
+        <v>0.02036204561132632</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1163050701080618</v>
+        <v>0.1142384123379617</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01313489234067437</v>
+        <v>0.02200793977338418</v>
       </c>
       <c r="G215" t="n">
+        <v>0.05371315337726021</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.01166594670267039</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1170856410483844</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.01601187271298754</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1154510168464507</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.02237736158555886</v>
+        <v>0.02500967755803529</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1153365108293374</v>
+        <v>0.1154839231044756</v>
       </c>
       <c r="N215" t="n">
-        <v>0.01313489234067437</v>
+        <v>0.01952455807495196</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1170856410483844</v>
+        <v>0.1150051130919077</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01290681890197555</v>
+        <v>0.0214297442399118</v>
       </c>
       <c r="G216" t="n">
+        <v>0.05362893392873574</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.01153079238448999</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1178662119887069</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.01577726691670334</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1162206902920937</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.02130762172570755</v>
+        <v>0.02471076214684417</v>
       </c>
       <c r="M216" t="n">
-        <v>0.116105420901533</v>
+        <v>0.1162538159251721</v>
       </c>
       <c r="N216" t="n">
-        <v>0.01290681890197555</v>
+        <v>0.0196165669440666</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1178662119887069</v>
+        <v>0.1157718138458537</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01249848157905164</v>
+        <v>0.02085827997775576</v>
       </c>
       <c r="G217" t="n">
+        <v>0.0535447144802113</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.01130469716921015</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1186467829290295</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.01547791123529041</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1169903637377367</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.02046729456821705</v>
+        <v>0.02421492975571443</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1168743309737285</v>
+        <v>0.1170237087458686</v>
       </c>
       <c r="N217" t="n">
-        <v>0.01249848157905164</v>
+        <v>0.01894062852025785</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1186467829290295</v>
+        <v>0.1165385145997998</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01231240255942073</v>
+        <v>0.02029394231165403</v>
       </c>
       <c r="G218" t="n">
+        <v>0.05346049503168684</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.01108855815225212</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1194273538693521</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.01451670531978105</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1177600371833797</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.01985927935544918</v>
+        <v>0.02332305873960389</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1176432410459241</v>
+        <v>0.1177936015665651</v>
       </c>
       <c r="N218" t="n">
-        <v>0.01231240255942073</v>
+        <v>0.01829929910511352</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1194273538693521</v>
+        <v>0.1173052153537458</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01205110403060095</v>
+        <v>0.01973712656634478</v>
       </c>
       <c r="G219" t="n">
+        <v>0.05337627558316238</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.01098327242903714</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1202079248096746</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.01449654882120768</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1185297106290227</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.01908647532976565</v>
+        <v>0.02273602745347045</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1184121511181197</v>
+        <v>0.1185634943872616</v>
       </c>
       <c r="N219" t="n">
-        <v>0.01205110403060095</v>
+        <v>0.0169951350002216</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1202079248096746</v>
+        <v>0.1180719161076919</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01191710818011045</v>
+        <v>0.01918822806656623</v>
       </c>
       <c r="G220" t="n">
+        <v>0.05329205613463793</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.01078973709498646</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1209884957499972</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.01412034139060261</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1192993840746657</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.01865178173352811</v>
+        <v>0.02235471425227198</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1191810611903153</v>
+        <v>0.1193333872079581</v>
       </c>
       <c r="N220" t="n">
-        <v>0.01191710818011045</v>
+        <v>0.01693069250716961</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1209884957499972</v>
+        <v>0.118838616861638</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01151293719546732</v>
+        <v>0.01864764213705633</v>
       </c>
       <c r="G221" t="n">
+        <v>0.05320783668611347</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.01050884924552133</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1217690666903198</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.01359098267899819</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1200690575203087</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.01785809780909831</v>
+        <v>0.02207999749096631</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1199499712625109</v>
+        <v>0.1201032800286546</v>
       </c>
       <c r="N221" t="n">
-        <v>0.01151293719546732</v>
+        <v>0.01650852792754548</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1217690666903198</v>
+        <v>0.119605317615584</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01154111326418965</v>
+        <v>0.01811576410255328</v>
       </c>
       <c r="G222" t="n">
+        <v>0.05312361723758902</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.01044150597606301</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1225496376306423</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.01351137233742683</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1208387309659517</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.01750832279883802</v>
+        <v>0.02161275552451133</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1207188813347065</v>
+        <v>0.1208731728493511</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01154111326418965</v>
+        <v>0.01563119756293696</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1225496376306423</v>
+        <v>0.1203720183695301</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01140098842218654</v>
+        <v>0.01759298928779519</v>
       </c>
       <c r="G223" t="n">
+        <v>0.05303939778906455</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.01008860438203273</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1233302085709649</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.01288441001692081</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1216084044115947</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.0172053559451088</v>
+        <v>0.0208538667078649</v>
       </c>
       <c r="M223" t="n">
-        <v>0.121487791406902</v>
+        <v>0.1216430656700477</v>
       </c>
       <c r="N223" t="n">
-        <v>0.01140098842218654</v>
+        <v>0.01520125771493186</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1233302085709649</v>
+        <v>0.1211387191234761</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01126802133484112</v>
+        <v>0.01707971301752025</v>
       </c>
       <c r="G224" t="n">
+        <v>0.05295517834054011</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.009951041558851764</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1241107795112875</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.01271299536851256</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1223780778572377</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.01635209649027247</v>
+        <v>0.02070420939598486</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1222567014790976</v>
+        <v>0.1224129584907442</v>
       </c>
       <c r="N224" t="n">
-        <v>0.01126802133484112</v>
+        <v>0.01502126468511789</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1241107795112875</v>
+        <v>0.1219054198774222</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01113658714442779</v>
+        <v>0.01657633061646643</v>
       </c>
       <c r="G225" t="n">
+        <v>0.05287095889201564</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.009929714601941343</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.12489135045161</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.01270002804323439</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1231477513028807</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.01655144367669076</v>
+        <v>0.02036466194382916</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1230256115512932</v>
+        <v>0.1231828513114407</v>
       </c>
       <c r="N225" t="n">
-        <v>0.01113658714442779</v>
+        <v>0.01449377477508301</v>
       </c>
       <c r="O225" t="n">
-        <v>0.12489135045161</v>
+        <v>0.1226721206313682</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01100677447536195</v>
+        <v>0.01608323740937193</v>
       </c>
       <c r="G226" t="n">
+        <v>0.05278673944349119</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.009725520606722722</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1256719213919326</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.01254811999977087</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1239174247485237</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.01590629674672522</v>
+        <v>0.01983610270635558</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1237945216234888</v>
+        <v>0.1239527441321372</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01100677447536195</v>
+        <v>0.01392134428641478</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1256719213919326</v>
+        <v>0.1234388213853143</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01077867195205901</v>
+        <v>0.01560082872097492</v>
       </c>
       <c r="G227" t="n">
+        <v>0.05270251999496674</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.009639356668617129</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1264524923322551</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.01262244888325587</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1246870981941667</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.01531955494273768</v>
+        <v>0.01951941003852203</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1245634316956844</v>
+        <v>0.1247226369528337</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01077867195205901</v>
+        <v>0.01430652952070116</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1264524923322551</v>
+        <v>0.1242055221392603</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01075236819893441</v>
+        <v>0.01512949987601338</v>
       </c>
       <c r="G228" t="n">
+        <v>0.05261830054644228</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.009672119883045852</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1272330632725777</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.01249748003293732</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1254567716398097</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.01539057541210542</v>
+        <v>0.01891546229528634</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1253323417678799</v>
+        <v>0.1254925297735302</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01075236819893441</v>
+        <v>0.0139518867795298</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1272330632725777</v>
+        <v>0.1249722228932064</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01062795184040354</v>
+        <v>0.01466964619922555</v>
       </c>
       <c r="G229" t="n">
+        <v>0.05253408109791782</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.009724707345430107</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1280136342129003</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.01287321247872375</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1262264450854527</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.01497775848970961</v>
+        <v>0.01872513783160643</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1261012518400755</v>
+        <v>0.1262624225942267</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01062795184040354</v>
+        <v>0.01355997236448864</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1280136342129003</v>
+        <v>0.1257389236471524</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01040551150088182</v>
+        <v>0.01422166301534948</v>
       </c>
       <c r="G230" t="n">
+        <v>0.05244986164939337</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.009497891484663457</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1287942051532228</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.01244964525052386</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1269961185310958</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.01536845353081057</v>
+        <v>0.01824924397751621</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1268701619122711</v>
+        <v>0.1270323154149232</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01040551150088182</v>
+        <v>0.0137329948347571</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1287942051532228</v>
+        <v>0.1265056244010985</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01028513580478468</v>
+        <v>0.01378594564912329</v>
       </c>
       <c r="G231" t="n">
+        <v>0.05236564220086891</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.0095797837979434</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1295747760935454</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.0126267773782463</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1277657919767388</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.01456280448023939</v>
+        <v>0.01758094213014458</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1276390719844667</v>
+        <v>0.1278022082356197</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01028513580478468</v>
+        <v>0.01373300268062744</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1295747760935454</v>
+        <v>0.1272723251550445</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01006691337652752</v>
+        <v>0.01336288942528513</v>
       </c>
       <c r="G232" t="n">
+        <v>0.05228142275234446</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.009562120230497309</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1303553470338679</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.0124046078917997</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1285354654223818</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.01486095528282733</v>
+        <v>0.01721531581364158</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1284079820566623</v>
+        <v>0.1285721010563162</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01006691337652752</v>
+        <v>0.01403304936444494</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1303553470338679</v>
+        <v>0.1280390259089906</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01015093284052575</v>
+        <v>0.01295288966857307</v>
       </c>
       <c r="G233" t="n">
+        <v>0.05219720330381999</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.009544906715621658</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1311359179741905</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.01288313582109268</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1293051388680247</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.0141630498834055</v>
+        <v>0.01685241307148103</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1291768921288579</v>
+        <v>0.1293419938770127</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01015093284052575</v>
+        <v>0.0139331701491715</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1311359179741905</v>
+        <v>0.1288057266629366</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.009837282821194823</v>
+        <v>0.01255634170372529</v>
       </c>
       <c r="G234" t="n">
+        <v>0.05211298385529554</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.009428149186612902</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1319164889145131</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.01286236019603398</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1300748123136678</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.01386923222680486</v>
+        <v>0.01679228194713689</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1299458022010534</v>
+        <v>0.1301118866977092</v>
       </c>
       <c r="N234" t="n">
-        <v>0.009837282821194823</v>
+        <v>0.01343340029776896</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1319164889145131</v>
+        <v>0.1295724274168827</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.009826051942950102</v>
+        <v>0.01217364085547985</v>
       </c>
       <c r="G235" t="n">
+        <v>0.05202876440677109</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.009611853576767498</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1326970598548357</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.01264228004653212</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1308444857593108</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.0144796462578568</v>
+        <v>0.01633497048408306</v>
       </c>
       <c r="M235" t="n">
-        <v>0.130714712273249</v>
+        <v>0.1308817795184057</v>
       </c>
       <c r="N235" t="n">
-        <v>0.009826051942950102</v>
+        <v>0.01343377507319926</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1326970598548357</v>
+        <v>0.1303391281708287</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.009817328830207028</v>
+        <v>0.01180518244857488</v>
       </c>
       <c r="G236" t="n">
+        <v>0.05194454495824663</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.009496025819381922</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1334776307951582</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.0123228944024959</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1316141592049538</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.01359443592139231</v>
+        <v>0.01598052672579336</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1314836223454446</v>
+        <v>0.1316516723391022</v>
       </c>
       <c r="N236" t="n">
-        <v>0.009817328830207028</v>
+        <v>0.0136343297384241</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1334776307951582</v>
+        <v>0.1311058289247748</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.009611202107381027</v>
+        <v>0.01145136180774852</v>
       </c>
       <c r="G237" t="n">
+        <v>0.05186032550972217</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.009480671847752635</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1342582017354808</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.0123042022938338</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1323838326505968</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.01361374516224245</v>
+        <v>0.01572899871574171</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1322525324176402</v>
+        <v>0.1324215651597987</v>
       </c>
       <c r="N237" t="n">
-        <v>0.009611202107381027</v>
+        <v>0.01423509955640545</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1342582017354808</v>
+        <v>0.1318725296787208</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.009607760398887499</v>
+        <v>0.01111257425773887</v>
       </c>
       <c r="G238" t="n">
+        <v>0.05177610606119772</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.009565797595176097</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1350387726758033</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.01238620275045457</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1331535060962398</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.01363771792523844</v>
+        <v>0.0155804344974021</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1330214424898358</v>
+        <v>0.1331914579804952</v>
       </c>
       <c r="N238" t="n">
-        <v>0.009607760398887499</v>
+        <v>0.0141361197901051</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1350387726758033</v>
+        <v>0.1326392304326669</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.009407092329141858</v>
+        <v>0.01078921512328402</v>
       </c>
       <c r="G239" t="n">
+        <v>0.05169188661267327</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.00955140899494878</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1358193436161259</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.01256889480226689</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1339231795418828</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.01366649815521143</v>
+        <v>0.01483488211424833</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1337903525620313</v>
+        <v>0.1339613508011917</v>
       </c>
       <c r="N239" t="n">
-        <v>0.009407092329141858</v>
+        <v>0.01363742570248488</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1358193436161259</v>
+        <v>0.1334059311866129</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.00930928652255951</v>
+        <v>0.01048006548644149</v>
       </c>
       <c r="G240" t="n">
+        <v>0.05160766716414881</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.009437511980367151</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1365999145564485</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.0126522774791793</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1346928529875258</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.01330022979699236</v>
+        <v>0.01449238960975427</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1345592626342269</v>
+        <v>0.1347312436218882</v>
       </c>
       <c r="N240" t="n">
-        <v>0.00930928652255951</v>
+        <v>0.0142390525565067</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1365999145564485</v>
+        <v>0.134172631940559</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.009114431603555913</v>
+        <v>0.01017583521586551</v>
       </c>
       <c r="G241" t="n">
+        <v>0.05152344771562435</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.009524112484727662</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.137380485496771</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.01253634981110049</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1354625264331688</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.01263905679541261</v>
+        <v>0.0145530050273939</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1353281727064225</v>
+        <v>0.1355011364425847</v>
       </c>
       <c r="N241" t="n">
-        <v>0.009114431603555913</v>
+        <v>0.01344103561513238</v>
       </c>
       <c r="O241" t="n">
-        <v>0.137380485496771</v>
+        <v>0.134939332694505</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.009222616196546435</v>
+        <v>0.009875305393613594</v>
       </c>
       <c r="G242" t="n">
+        <v>0.05143922826709989</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.009311216441326792</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1381610564370936</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.01242111082793915</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1362321998788118</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.01328312309530311</v>
+        <v>0.0139167764106411</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1360970827786181</v>
+        <v>0.1362710292632812</v>
       </c>
       <c r="N242" t="n">
-        <v>0.009222616196546435</v>
+        <v>0.01344341014132377</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1381610564370936</v>
+        <v>0.1357060334484511</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.008933928925946508</v>
+        <v>0.009578871344423812</v>
       </c>
       <c r="G243" t="n">
+        <v>0.05135500881857544</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.009398829783460988</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1389416273774161</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.01250655955960389</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1370018733244548</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.01313257264149509</v>
+        <v>0.01358375180296967</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1368659928508137</v>
+        <v>0.1370409220839777</v>
       </c>
       <c r="N243" t="n">
-        <v>0.008933928925946508</v>
+        <v>0.0140462113980428</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1389416273774161</v>
+        <v>0.1364727342023971</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.009048458416171551</v>
+        <v>0.009286928393034292</v>
       </c>
       <c r="G244" t="n">
+        <v>0.05127078937005098</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.009486958444426735</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1397221983177387</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.01269269503600334</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1377715467700978</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.01218754937881966</v>
+        <v>0.01305397924785359</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1376349029230093</v>
+        <v>0.1378108149046742</v>
       </c>
       <c r="N244" t="n">
-        <v>0.009048458416171551</v>
+        <v>0.01394947464825119</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1397221983177387</v>
+        <v>0.1372394349563432</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.00876629329163698</v>
+        <v>0.008999871864183169</v>
       </c>
       <c r="G245" t="n">
+        <v>0.05118656992152653</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.009475608357520482</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1405027692580613</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.0123795162870462</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1385412202157408</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.01284819725210784</v>
+        <v>0.01282750678876673</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1384038129952049</v>
+        <v>0.1385807077253707</v>
       </c>
       <c r="N245" t="n">
-        <v>0.00876629329163698</v>
+        <v>0.01375323515491089</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1405027692580613</v>
+        <v>0.1380061357102892</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.008887522176758193</v>
+        <v>0.008718097082608553</v>
       </c>
       <c r="G246" t="n">
+        <v>0.05110235047300207</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.009464785456038703</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1412833401983838</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.01216702234264105</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1393108936613838</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.01201466020619091</v>
+        <v>0.01270438246918301</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1391727230674004</v>
+        <v>0.1393506005460672</v>
       </c>
       <c r="N246" t="n">
-        <v>0.008887522176758193</v>
+        <v>0.01395752818098367</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1412833401983838</v>
+        <v>0.1387728364642353</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.008612233695950634</v>
+        <v>0.008441999373048535</v>
       </c>
       <c r="G247" t="n">
+        <v>0.05101813102447762</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.009254495673277852</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1420639111387064</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.01215521223269661</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1400805671070268</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.01258708218589988</v>
+        <v>0.0120846543325763</v>
       </c>
       <c r="M247" t="n">
-        <v>0.139941633139596</v>
+        <v>0.1401204933667637</v>
       </c>
       <c r="N247" t="n">
-        <v>0.008612233695950634</v>
+        <v>0.01406238898943152</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1420639111387064</v>
+        <v>0.1395395372181814</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.008640516473629692</v>
+        <v>0.008171974060241269</v>
       </c>
       <c r="G248" t="n">
+        <v>0.05093391157595316</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.009444744942534403</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.142844482079029</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.01264408498712147</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1408502405526698</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.01226560713606589</v>
+        <v>0.01176837042242052</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1407105432117916</v>
+        <v>0.1408903861874602</v>
       </c>
       <c r="N248" t="n">
-        <v>0.008640516473629692</v>
+        <v>0.01396785284321611</v>
       </c>
       <c r="O248" t="n">
-        <v>0.142844482079029</v>
+        <v>0.1403062379721274</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.008472459134210797</v>
+        <v>0.007908416468924859</v>
       </c>
       <c r="G249" t="n">
+        <v>0.05084969212742871</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.009335539197104809</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1436250530193515</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.0122336396358243</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1416199139983128</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.01235037900152014</v>
+        <v>0.01155557878218946</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1414794532839872</v>
+        <v>0.1416602790081568</v>
       </c>
       <c r="N249" t="n">
-        <v>0.008472459134210797</v>
+        <v>0.01407395500529945</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1436250530193515</v>
+        <v>0.1410729387260734</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.008608150302109353</v>
+        <v>0.007651721923837396</v>
       </c>
       <c r="G250" t="n">
+        <v>0.05076547267890424</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.009426884370285549</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1444056239596741</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.01242387520871371</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1423895874439559</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.0116415417270937</v>
+        <v>0.01124632745535714</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1422483633561828</v>
+        <v>0.1424301718288533</v>
       </c>
       <c r="N250" t="n">
-        <v>0.008608150302109353</v>
+        <v>0.01358073073864335</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1444056239596741</v>
+        <v>0.1418396394800195</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.008547678601740792</v>
+        <v>0.007402285749717033</v>
       </c>
       <c r="G251" t="n">
+        <v>0.05068125323037979</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.009318786395373084</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1451861948999966</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.01241479073569843</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1431592608895988</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.01133923925761765</v>
+        <v>0.01124066448539743</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1430172734283783</v>
+        <v>0.1432000646495498</v>
       </c>
       <c r="N251" t="n">
-        <v>0.008547678601740792</v>
+        <v>0.01428821530620955</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1451861948999966</v>
+        <v>0.1426063402339655</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.008291132657520517</v>
+        <v>0.007160503271301862</v>
       </c>
       <c r="G252" t="n">
+        <v>0.05059703378185534</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.00941125120566387</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1459667658403192</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.01240638524668702</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1439289343352418</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.01204361553792327</v>
+        <v>0.01053863791578416</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1437861835005739</v>
+        <v>0.1439699574702463</v>
       </c>
       <c r="N252" t="n">
-        <v>0.008291132657520517</v>
+        <v>0.01399644397096</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1459667658403192</v>
+        <v>0.1433730409879116</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.008238601093863943</v>
+        <v>0.006926769813330014</v>
       </c>
       <c r="G253" t="n">
+        <v>0.05051281433333088</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.009204284734454379</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1467473367806418</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.01209865777158822</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1446986077808849</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.01195481451284153</v>
+        <v>0.01034029578999127</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1445550935727695</v>
+        <v>0.1447398502909428</v>
       </c>
       <c r="N253" t="n">
-        <v>0.008238601093863943</v>
+        <v>0.01410545199585667</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1467473367806418</v>
+        <v>0.1441397417418576</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.008290172535186484</v>
+        <v>0.006701480700539615</v>
       </c>
       <c r="G254" t="n">
+        <v>0.05042859488480642</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.009397892915041083</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1475279077209643</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.01249160734031055</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1454682812265279</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.01127298012720357</v>
+        <v>0.01044568615149266</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1453240036449651</v>
+        <v>0.1455097431116393</v>
       </c>
       <c r="N254" t="n">
-        <v>0.008290172535186484</v>
+        <v>0.01371527464386113</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1475279077209643</v>
+        <v>0.1449064424958037</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.008145935605903556</v>
+        <v>0.006485031257668743</v>
       </c>
       <c r="G255" t="n">
+        <v>0.05034437543628197</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.009192081680720422</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1483084786612869</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.01238523298276273</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1462379546721709</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.01139825632584057</v>
+        <v>0.009654857043762233</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1460929137171607</v>
+        <v>0.1462796359323358</v>
       </c>
       <c r="N255" t="n">
-        <v>0.008145935605903556</v>
+        <v>0.01432594717793545</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1483084786612869</v>
+        <v>0.1456731432497498</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.008305978930430592</v>
+        <v>0.00627781680945555</v>
       </c>
       <c r="G256" t="n">
+        <v>0.05026015598775752</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.009286856964788884</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1490890496016094</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.01247953372885346</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1470076281178139</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.01163078705358372</v>
+        <v>0.009667856510273826</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1468618237893563</v>
+        <v>0.1470495287530323</v>
       </c>
       <c r="N256" t="n">
-        <v>0.008305978930430592</v>
+        <v>0.01383750486104141</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1490890496016094</v>
+        <v>0.1464398440036958</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.00827039113318298</v>
+        <v>0.006080232680638148</v>
       </c>
       <c r="G257" t="n">
+        <v>0.05017593653923306</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.009382224700542924</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.149869620541932</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.01257450860849127</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1477773015634569</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.01097071625526397</v>
+        <v>0.009584732594501405</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1476307338615518</v>
+        <v>0.1478194215737288</v>
       </c>
       <c r="N257" t="n">
-        <v>0.00827039113318298</v>
+        <v>0.01374998295614088</v>
       </c>
       <c r="O257" t="n">
-        <v>0.149869620541932</v>
+        <v>0.1472065447576419</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.008239260838576151</v>
+        <v>0.005892674195954628</v>
       </c>
       <c r="G258" t="n">
+        <v>0.0500917170907086</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.009278190821278995</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1506501914822546</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.01237015665158492</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1485469750090999</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.0116181878757125</v>
+        <v>0.009105533339918814</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1483996439337474</v>
+        <v>0.1485893143944253</v>
       </c>
       <c r="N258" t="n">
-        <v>0.008239260838576151</v>
+        <v>0.01386341672619573</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1506501914822546</v>
+        <v>0.1479732455115879</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.008012676671025509</v>
+        <v>0.005715536680143136</v>
       </c>
       <c r="G259" t="n">
+        <v>0.05000749764218414</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.009374761260293595</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1514307624225771</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.012266476888043</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1493166484547429</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.01137334585976063</v>
+        <v>0.008730306789999975</v>
       </c>
       <c r="M259" t="n">
-        <v>0.149168554005943</v>
+        <v>0.1493592072151218</v>
       </c>
       <c r="N259" t="n">
-        <v>0.008012676671025509</v>
+        <v>0.01427784143416777</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1514307624225771</v>
+        <v>0.148739946265534</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.00809072725494648</v>
+        <v>0.005549215457941771</v>
       </c>
       <c r="G260" t="n">
+        <v>0.04992327819365969</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.009171941950883153</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1522113333628997</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.01256346834777414</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1500863219003859</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.01153633415223915</v>
+        <v>0.008759100988218776</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1499374640781386</v>
+        <v>0.1501291000358183</v>
       </c>
       <c r="N260" t="n">
-        <v>0.00809072725494648</v>
+        <v>0.01429329234301885</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1522113333628997</v>
+        <v>0.14950664701948</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.007973501214754479</v>
+        <v>0.005394105854088664</v>
       </c>
       <c r="G261" t="n">
+        <v>0.04983905874513523</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.00916973882634415</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1529919043032223</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.01256113006068701</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1508559953460289</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.01090729669797941</v>
+        <v>0.008191963978049083</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1507063741503342</v>
+        <v>0.1508989928565148</v>
       </c>
       <c r="N261" t="n">
-        <v>0.007973501214754479</v>
+        <v>0.01440980471571079</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1529919043032223</v>
+        <v>0.150273347773426</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.007961087174864913</v>
+        <v>0.00525060319332192</v>
       </c>
       <c r="G262" t="n">
+        <v>0.04975483929661078</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.00936815781997305</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1537724752435448</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.01235946105669028</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1516256687916719</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.01108637744181251</v>
+        <v>0.007828943802964783</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1514752842225298</v>
+        <v>0.1516688856772113</v>
       </c>
       <c r="N262" t="n">
-        <v>0.007961087174864913</v>
+        <v>0.01402741381520556</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1537724752435448</v>
+        <v>0.1510400485273721</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.008053573759693206</v>
+        <v>0.005119102800379659</v>
       </c>
       <c r="G263" t="n">
+        <v>0.04967061984808632</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.009267204865066311</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1545530461838674</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.01255846036569253</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1523953422373149</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.01107372032856951</v>
+        <v>0.007670088506439826</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1522441942947253</v>
+        <v>0.1524387784979078</v>
       </c>
       <c r="N263" t="n">
-        <v>0.008053573759693206</v>
+        <v>0.0137461549044649</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1545530461838674</v>
+        <v>0.1518067492813182</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.008051049593654762</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.04958640039956187</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.009266885894920411</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1553336171241899</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.01255812701760251</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1531650156829579</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.01096946930308162</v>
+        <v>0.007615446131948117</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1530131043669209</v>
+        <v>0.1532086713186043</v>
       </c>
       <c r="N264" t="n">
-        <v>0.008051049593654762</v>
+        <v>0.01426606324645074</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1553336171241899</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1525734500352642</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04957324250482503</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005608774781105143</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04957351103328904</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006213809984298692</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04957377956175306</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006815056388560885</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04957404809021707</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007412464772924475</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04957431661868109</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008005985916370063</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04957458514714511</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008595570597930036</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04957485367560913</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009181169596585326</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04957512220407314</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.009762733691368021</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04957539073253716</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01034021366125937</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04957565926100118</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01091356028529109</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.0495759277894652</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01148272434244483</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04957619631792921</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01204765661175192</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04957646484639323</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01260830787219439</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04957673337485725</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01316462890280318</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04957700190332127</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.0137165704825607</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04957727043178528</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01426408339049753</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.0495775389602493</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01480711840559644</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04957780748871331</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01534562630687597</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04957807601717733</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01587955787335427</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04957834454564135</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01640886388401469</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04957861307410536</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01693349511788685</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04957888160256938</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01745340235395451</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.0495791501310334</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01796853637124687</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04957941865949742</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01847884794874807</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04957968718796144</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01898448885121008</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04957995571642546</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01948661577195614</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04958022424488947</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01998538047573781</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04958049277335349</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02048073374153997</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.0495807613018175</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02097262634839075</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04958102983028152</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02146100907527534</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04958129835874554</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02194583270122158</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04958156688720956</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02242704800521494</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04958183541567357</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02290460576627258</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04958210394413759</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02337845676341138</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04958237247260161</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.0238485517756173</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04958264100106562</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02431484158191739</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04958290952952964</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.0247772769612979</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04958317805799366</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02523580869278558</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04958344658645768</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02569038755536705</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04958371511492169</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02614096432806866</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04958398364338571</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02658748978987741</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04958425217184972</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.02702991471981928</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04958452070031374</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.02746818989688163</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04958478922877776</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.02790226610009008</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04958505775724178</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.02833209410843239</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.0495853262857058</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.02875762470093378</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04958559481416982</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.02917880865658234</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04958586334263383</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.029595596754403</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04958613187109785</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03000793977338419</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04958640039956187</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03000793977338419</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04957324250482503</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03046618324490753</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04965799901027751</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03091994835298803</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04974275551573001</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03136909827090591</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.0498275120211825</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03181349617194132</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04991226852663498</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03225300522937449</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04999702503208748</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03268748861648561</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05008178153753997</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03311680950655488</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05016653804299245</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.0335408310728625</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05025129454844495</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03395941648868864</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05033605105389743</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03437242892731351</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05042080755934993</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.03477973156201733</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05050556406480242</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.03518118756608024</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05059032057025491</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.03557666011278247</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.0506750770757074</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.03596601237540425</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.0507598335811599</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.0363491075272257</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05084459008661238</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.03672580874152707</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05092934659206487</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.03709597919158858</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05101410309751736</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.03745948205069033</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05109885960296985</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.03781618049211261</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05118361610842234</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.03816593768913554</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05126837261387483</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.03850861681503941</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05135312911932732</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.03884408104310433</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05143788562477981</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.03917219354661054</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.0515226421302323</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.03949281749883821</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.0516073986356848</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.03980637478217341</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05169215514113729</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04011608082453155</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05177691164658977</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.0404223575082987</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05186166815204227</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04072506800675503</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05194642465749475</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.04102407549318075</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05203118116294724</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04131924314085608</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05211593766839974</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.04161043412306116</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05220069417385222</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.0418975116130762</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05228545067930471</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04218033878418145</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05237020718475721</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.04245877880965705</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.0524549636902097</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.04273269486278322</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05253972019566219</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.04300195011684016</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05262447670111468</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.04326640774510804</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05270923320656717</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.04352593092086704</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05279398971201966</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.04378038281739742</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05287874621747215</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.04402962660797938</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05296350272292465</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.04427352546589304</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05304825922837714</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.04451194256441862</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05313301573382962</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.04474474107683633</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05321777223928211</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.04497178417642639</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.0533025287447346</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.04519293503646894</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05338728525018709</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.04540805683024422</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05347204175563958</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.04561701273103246</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05355679826109207</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.04581966591211377</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05364155476654456</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.04601587954676838</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05372631127199706</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.03634391969784559</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05372631127199706</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.04612194295713223</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.055278984058161</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.04622022839058268</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05683165684432495</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.04631103203752951</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.0583843296304889</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.04639465008838248</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05993700241665284</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.04647137873355135</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06148967520281679</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.04654151416344593</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06304234798898074</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.04660535256847592</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.0645950207751447</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.04666319013905115</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06614769356130865</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.04671532306558135</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06770036634747259</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.04676204753847631</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06925303913363653</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.04680365974814577</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07080571191980049</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.04684045588499951</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07235838470596444</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.04687273213944732</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07391105749212838</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.04690078470189891</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07546373027829233</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.04692490976276412</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07701640306445628</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.04694540351245267</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.07856907585062023</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.04696256214137436</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08012174863678419</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.04697668183993892</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08167442142294812</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.04698805879855612</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08322709420911208</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.04699698920763577</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08477976699527602</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.0470037692575876</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08633243978143997</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.04700869513882139</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08788511256760392</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.0470120630417469</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08943778535376787</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.04701416915677391</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09099045813993181</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.04701530967431218</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09254313092609576</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.04701578078477149</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09409580371225972</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.04701587867856157</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09564847649842366</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.04699692057570898</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09720114928458762</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.04691342015630003</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09875382207075155</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.04676768294656078</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1003064948569155</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.04656440839377594</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1018591676430795</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.04630829594523027</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1034118404292434</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.04600404504820846</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1049645132154074</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.04565635514999526</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1065171860015713</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.04526992569787541</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1080698587877352</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.0448494561391336</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1096225315738992</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.0443996459210546</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1111752043600632</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.04392519449092311</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1127278771462271</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.04343080129602388</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.114280549932391</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.04292116578364161</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.115833222718555</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.04240098740106106</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1173858955047189</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.04187496559556693</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1189385682908829</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04134779981444398</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1204912410770468</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.0408241895049769</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1220439138632108</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04030883411445045</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1235965866493747</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.03980643309014935</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1251492594355387</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.0393216858793583</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1267019322217026</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.03885929192936208</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1282546050078666</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.03842395068744538</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1298072777940305</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.03802036160089294</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1313599505801945</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.03765133869891316</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1329126233663585</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.03729098503697657</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1344652961525224</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.03692999755030957</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1360179689386863</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.03656879735512303</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1375706417248503</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.03620780556762788</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1391233145110142</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.03584744330403505</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1406759872971782</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.03548813168055541</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1422286600833421</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.03513029181339991</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1437813328695061</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.03477434481877943</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.14533400565567</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.0344207118129049</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.146886678441834</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.03406981391198721</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1484393512279979</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.03372207223223726</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.03337790788986601</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1515446968003258</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.03303774200108431</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1530973695864898</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.03270199568210311</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1546500423726537</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.0323710900491333</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1562027151588177</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.0320454462183858</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1577553879449816</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.03172548530607151</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1593080607311455</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.03141162842840134</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1608607335173095</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.03110429670158621</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1624134063034735</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03080391124183701</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1639660790896374</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.03051089316536466</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1655187518758013</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03022566358838007</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1670714246619653</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02994864362709415</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1686240974481292</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02968025439771782</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1701767702342932</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02942091701646196</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1717294430204571</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02916839056854534</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1732821158066211</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02891902410060317</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.174834788592785</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02867291701051812</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.176387461378949</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02843020217446043</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.177940134165113</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02819101246860028</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1794928069512769</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02795548076910784</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1810454797374408</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02772373995215328</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1825981525236048</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02749592289390684</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1841508253097687</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02727216247053867</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1857034980959327</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02705259155821897</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1872561708820966</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02683734303311791</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1888088436682606</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.0266265497714057</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1903615164544245</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02642034464925254</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1919141892405885</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02621886054282857</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1934668620267524</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02602223032830403</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1950195348129164</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.0258305868818491</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1965722075990803</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02564406307963393</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.1981248803852443</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02546279179782875</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.1996775531714082</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02528690591260371</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2012302259575722</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02511653830012905</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2027828987437361</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02495182183657492</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2043355715299</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.0247928893981115</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.205888244316064</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02463987386090903</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.207440917102228</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1133.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1133.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08134391969784559</v>
+        <v>0.0618547638640305</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03134391969784558</v>
+        <v>0.0118547638640305</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01375631127199705</v>
+        <v>0.008974146053888238</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0009329632495815865</v>
+        <v>0.004087288125336146</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0005426900128484551</v>
+        <v>0.001627318364679089</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001817219308760692</v>
+        <v>0.004032624800020354</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007805709403225626</v>
+        <v>0.001633576938643104</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.00671180310724151</v>
+        <v>0.01297161051393159</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007698928206965041</v>
+        <v>0.001801762830976666</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01120356308136367</v>
+        <v>0.02032394623615819</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007667007539460514</v>
+        <v>0.001923172658757677</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.001898834402094568</v>
+        <v>0.006585979924461388</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.00108538002569691</v>
+        <v>0.002991382017962746</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003695337447187627</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001561141880645125</v>
+        <v>0.003406534090909087</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01357017620543599</v>
+        <v>0.01695084419940446</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001539785641393008</v>
+        <v>0.003258673270541056</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02103891374319233</v>
+        <v>0.02542770941097394</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001533401507892103</v>
+        <v>0.003271433442727049</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.002896412286633787</v>
+        <v>0.008743890142887831</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001628070038545365</v>
+        <v>0.004881955094037267</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.009122287087944624</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002271022727272726</v>
+        <v>0.004900730815929314</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01866042094062889</v>
+        <v>0.02077063350701422</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002309678462089512</v>
+        <v>0.004888009905811584</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.02982824587932675</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002477479338842977</v>
+        <v>0.004907150164090573</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.003924495732294059</v>
+        <v>0.01016279602973089</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002170760051393821</v>
+        <v>0.006509273458716356</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.006268108107651105</v>
+        <v>0.01073256329409983</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00312228376129025</v>
+        <v>0.006534307754572417</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02266783895886568</v>
+        <v>0.02367887927251122</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003079571282786017</v>
+        <v>0.006517346541082113</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03285000308857666</v>
+        <v>0.03345036494233411</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003066803015784205</v>
+        <v>0.006542866885454098</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.011965528071851</v>
+        <v>0.002991382017962746</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02634391969784558</v>
+        <v>0.006585979924461388</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.004981883568170219</v>
+        <v>0.01131843520156798</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.002713450064242276</v>
+        <v>0.008136591823395446</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.007151514571654791</v>
+        <v>0.01216200233477438</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003902854701612812</v>
+        <v>0.008167884693215522</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02399999999999997</v>
+        <v>0.02562915278523994</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.00356238859180035</v>
+        <v>0.008146683176352641</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03568655306719881</v>
+        <v>0.03636382480596828</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003833503769730257</v>
+        <v>0.008178583606817622</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.006067374623357082</v>
+        <v>0.0118547638640305</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.003256140077090731</v>
+        <v>0.008974146053888238</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.008361316687423903</v>
+        <v>0.0137209013141928</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004683425641935375</v>
+        <v>0.01021960227272726</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02557497859465926</v>
+        <v>0.0275991713062374</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004619356924179024</v>
+        <v>0.009375781901584649</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03831446071403871</v>
+        <v>0.03993838367620195</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004600204523676308</v>
+        <v>0.009814300328181147</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.007179767726949483</v>
+        <v>0.01234003744666214</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.003798830089939185</v>
+        <v>0.01139122855275362</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.009199797688477139</v>
+        <v>0.01445466085277507</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005463996582257938</v>
+        <v>0.01143503857050173</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02615836780053232</v>
+        <v>0.03003000914007015</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005389249744875528</v>
+        <v>0.0114053564468937</v>
       </c>
       <c r="N72" s="171" t="n">
         <v>0.04147744129828196</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005708861324698105</v>
+        <v>0.0106454190340909</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.00831786170804226</v>
+        <v>0.01429985091826734</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.004341520102787641</v>
+        <v>0.01301854691743271</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01006924080833321</v>
+        <v>0.01545964550290557</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006244567522580501</v>
+        <v>0.01306861550914483</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02691282870052636</v>
+        <v>0.03234451003232006</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006159142565572033</v>
+        <v>0.01303469308216423</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04191174899866401</v>
+        <v>0.04545278010059067</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006133606031568411</v>
+        <v>0.0130857337709082</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.009480455395730218</v>
+        <v>0.01522177582628757</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.004884210115636096</v>
+        <v>0.0146458652821118</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01097192928051082</v>
+        <v>0.01673958263153327</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007025138462903063</v>
+        <v>0.01470219244778794</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.0275991713062374</v>
+        <v>0.03429196478164129</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006827706458644711</v>
+        <v>0.01466402971743475</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04350193342607778</v>
+        <v>0.04884316873202971</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006900306785514463</v>
+        <v>0.01472145049227172</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01066634761910819</v>
+        <v>0.01610101558161837</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.005426900128484551</v>
+        <v>0.01627318364679089</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01171014633852866</v>
+        <v>0.01758665802367337</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007805709403225625</v>
+        <v>0.01633576938643104</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02832999172611025</v>
+        <v>0.03655821974534282</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007698928206965041</v>
+        <v>0.01629336635270528</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04517139650751317</v>
+        <v>0.05228827990331292</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007667007539460514</v>
+        <v>0.01635716721363524</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01187433720727103</v>
+        <v>0.01593277359515535</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.005969590141333006</v>
+        <v>0.01790050201146998</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01238617521590545</v>
+        <v>0.01869305746434116</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008586280343548188</v>
+        <v>0.01796934632507415</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02877572550901525</v>
+        <v>0.03852912128073371</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008468821027661545</v>
+        <v>0.01792270298797581</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.0466197034551154</v>
+        <v>0.05525643349945586</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008433708293406564</v>
+        <v>0.01799288393499877</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01310322298931352</v>
+        <v>0.01671225327779405</v>
       </c>
       <c r="G77" t="n">
-        <v>0.006512280154181462</v>
+        <v>0.01952782037614907</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01300229914615988</v>
+        <v>0.01975096673855185</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009366851283870751</v>
+        <v>0.01960292326371725</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02993108631749042</v>
+        <v>0.04049051574512297</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009238713848358048</v>
+        <v>0.01955203962324634</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04744641948103001</v>
+        <v>0.05851594940547372</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009200409047352616</v>
+        <v>0.01962860065636229</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01435180379433053</v>
+        <v>0.01643465804043003</v>
       </c>
       <c r="G78" t="n">
-        <v>0.007054970167029917</v>
+        <v>0.02115513874082816</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0137209013141928</v>
+        <v>0.02045257163132069</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01038682624106603</v>
+        <v>0.02123650020236036</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03019492114760094</v>
+        <v>0.04202824949581963</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01000860666905455</v>
+        <v>0.02118137625851687</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04925110979740227</v>
+        <v>0.06113514750638144</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009967109801298668</v>
+        <v>0.02126431737772582</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01561887845141684</v>
+        <v>0.01709519129395888</v>
       </c>
       <c r="G79" t="n">
-        <v>0.007597660179878371</v>
+        <v>0.02278245710550725</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01407632728601735</v>
+        <v>0.02129005792766292</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01092799316451588</v>
+        <v>0.02287007714100346</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03136607699541191</v>
+        <v>0.0437281688901327</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01077849948975106</v>
+        <v>0.0228107128937874</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05083333961637776</v>
+        <v>0.0633823476871947</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01073381055524472</v>
+        <v>0.02290003409908934</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01690324578966731</v>
+        <v>0.01868905644927614</v>
       </c>
       <c r="G80" t="n">
-        <v>0.008140350192726827</v>
+        <v>0.02440977547018634</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01438650975198778</v>
+        <v>0.0222556114125938</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01170856410483844</v>
+        <v>0.02450365407964656</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03184340085698842</v>
+        <v>0.04497612028537123</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01154839231044756</v>
+        <v>0.02444004952905792</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05159267415010166</v>
+        <v>0.06622586983292839</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01150051130919077</v>
+        <v>0.02453575082045287</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01820370463817678</v>
+        <v>0.01821145691727737</v>
       </c>
       <c r="G81" t="n">
-        <v>0.008683040205575282</v>
+        <v>0.02603709383486542</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01499335858552671</v>
+        <v>0.02294141787112856</v>
       </c>
       <c r="K81" t="n">
-        <v>0.012489135045161</v>
+        <v>0.02613723101828967</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03302573972839565</v>
+        <v>0.04665795003884421</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01231828513114407</v>
+        <v>0.02606938616432845</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05352867861071953</v>
+        <v>0.06873403382859805</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01226721206313682</v>
+        <v>0.02617146754181639</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01951905382604004</v>
+        <v>0.01865759610885816</v>
       </c>
       <c r="G82" t="n">
-        <v>0.009225730218423737</v>
+        <v>0.02766441219954451</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01539642138946141</v>
+        <v>0.02333966308828243</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01326970598548356</v>
+        <v>0.02777080795693277</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03331194060569873</v>
+        <v>0.04745950450786063</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01308817795184057</v>
+        <v>0.02769872279959898</v>
       </c>
       <c r="N82" t="n">
-        <v>0.05454091821037654</v>
+        <v>0.07067515955921883</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01303391281708287</v>
+        <v>0.02780718426317992</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02084809218235194</v>
+        <v>0.02002267743491405</v>
       </c>
       <c r="G83" t="n">
-        <v>0.009768420231272192</v>
+        <v>0.0292917305642236</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01609524576661922</v>
+        <v>0.02404253284907069</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01405027692580613</v>
+        <v>0.02940438489557588</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03420085048496269</v>
+        <v>0.04866663004972963</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01385807077253707</v>
+        <v>0.02932805943486951</v>
       </c>
       <c r="N83" t="n">
-        <v>0.05592895816121818</v>
+        <v>0.07191756690980589</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01380061357102893</v>
+        <v>0.02944290098454344</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02218961853620728</v>
+        <v>0.01931487507681059</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01031111024412065</v>
+        <v>0.03091904892890269</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01638937931982742</v>
+        <v>0.02444221293850854</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01483084786612869</v>
+        <v>0.03103796183421898</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0352913163622528</v>
+        <v>0.04897684006399816</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01462796359323358</v>
+        <v>0.03095739607014004</v>
       </c>
       <c r="N84" t="n">
-        <v>0.05689236367538997</v>
+        <v>0.07332957576537452</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01456731432497498</v>
+        <v>0.03107861770590696</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02354243171670092</v>
+        <v>0.02059203276588713</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0108538002569691</v>
+        <v>0.03254636729358178</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01707836965191335</v>
+        <v>0.02467113585312873</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01561141880645125</v>
+        <v>0.03267153877286209</v>
       </c>
       <c r="L85" t="n">
-        <v>0.03598218523363408</v>
+        <v>0.04992700488500604</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01539785641393008</v>
+        <v>0.03258673270541056</v>
       </c>
       <c r="N85" t="n">
-        <v>0.05863069996503711</v>
+        <v>0.07395134143349691</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01533401507892103</v>
+        <v>0.03271433442727049</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02490533055292768</v>
+        <v>0.01986015289721618</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01139649026981756</v>
+        <v>0.03417368565826086</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01746176436570433</v>
+        <v>0.02509009173632507</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01639198974677382</v>
+        <v>0.03430511571150519</v>
       </c>
       <c r="L86" t="n">
-        <v>0.03647230409517171</v>
+        <v>0.05075702105536276</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01616774923462658</v>
+        <v>0.03421606934068109</v>
       </c>
       <c r="N86" t="n">
-        <v>0.05974353224230505</v>
+        <v>0.07502379079207372</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01610071583286708</v>
+        <v>0.03435005114863401</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02634391969784558</v>
+        <v>0.02111741357035139</v>
       </c>
       <c r="G87" t="n">
-        <v>0.011965528071851</v>
+        <v>0.03580100402293996</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01783911106402762</v>
+        <v>0.02519783653007854</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01717256068709638</v>
+        <v>0.03593869265014829</v>
       </c>
       <c r="L87" t="n">
-        <v>0.03746051994293079</v>
+        <v>0.05086263119259568</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01693764205532309</v>
+        <v>0.03584540597595162</v>
       </c>
       <c r="N87" t="n">
-        <v>0.06073042571933918</v>
+        <v>0.07646376828575169</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01686741658681313</v>
+        <v>0.03598576786999754</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02785917429122124</v>
+        <v>0.02036199288484641</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01248187029551447</v>
+        <v>0.03742832238761905</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01850995734971059</v>
+        <v>0.02549223711295316</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01795313162741894</v>
+        <v>0.0375722695887914</v>
       </c>
       <c r="L88" t="n">
-        <v>0.03834567977297645</v>
+        <v>0.05153957791423225</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01770753487601959</v>
+        <v>0.03747474261122215</v>
       </c>
       <c r="N88" t="n">
-        <v>0.06159094560828487</v>
+        <v>0.07676480024694476</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01763411734075918</v>
+        <v>0.03762148459136106</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02959508504831491</v>
+        <v>0.02159206894025489</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01302456030836292</v>
+        <v>0.03905564075229814</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0188738508255805</v>
+        <v>0.02577116036351297</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0187337025677415</v>
+        <v>0.03920584652743451</v>
       </c>
       <c r="L89" t="n">
-        <v>0.03922663058137382</v>
+        <v>0.0521836038377998</v>
       </c>
       <c r="M89" t="n">
-        <v>0.0184774276967161</v>
+        <v>0.03910407924649267</v>
       </c>
       <c r="N89" t="n">
-        <v>0.06262465712128745</v>
+        <v>0.07832041300806664</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01840081809470523</v>
+        <v>0.03925720131272459</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03134391969784558</v>
+        <v>0.02280581983613048</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01375631127199705</v>
+        <v>0.04068295911697722</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01943033909446469</v>
+        <v>0.02613247316032198</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01951427350806407</v>
+        <v>0.04083942346607761</v>
       </c>
       <c r="L90" t="n">
-        <v>0.03990221936418806</v>
+        <v>0.05249045158082569</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0192473205174126</v>
+        <v>0.04073341588176321</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0639311254704924</v>
+        <v>0.07882413290153123</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01916751884865128</v>
+        <v>0.04089291803408811</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03185304612245132</v>
+        <v>0.02200142367202679</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01410994033405983</v>
+        <v>0.04231027748165631</v>
       </c>
       <c r="J91" t="n">
-        <v>0.01977896975919047</v>
+        <v>0.02637404238194421</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02029484444838663</v>
+        <v>0.04247300040472071</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04067129311748421</v>
+        <v>0.05345586376083739</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02001721333810911</v>
+        <v>0.04236275251703373</v>
       </c>
       <c r="N91" t="n">
-        <v>0.06530991586804508</v>
+        <v>0.07936948625975238</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01993421960259734</v>
+        <v>0.04252863475545163</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03259997428425249</v>
+        <v>0.02317705854749748</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01465263034690829</v>
+        <v>0.04393759584633541</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02021929042258512</v>
+        <v>0.02669373490694366</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02107541538870919</v>
+        <v>0.04410657734336382</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04153269883732755</v>
+        <v>0.05377558299536223</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02078710615880561</v>
+        <v>0.04399208915230426</v>
       </c>
       <c r="N92" t="n">
-        <v>0.0658605935260908</v>
+        <v>0.07974999941514399</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02070092035654339</v>
+        <v>0.04416435147681516</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03330649327762987</v>
+        <v>0.02233090256209622</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01519532035975674</v>
+        <v>0.0455649142110145</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02055084868747599</v>
+        <v>0.02688941761388434</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02185598632903175</v>
+        <v>0.04574015428200692</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04208528351978302</v>
+        <v>0.05384535190192755</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02155699897950211</v>
+        <v>0.04562142578757479</v>
       </c>
       <c r="N93" t="n">
-        <v>0.06768272365677513</v>
+        <v>0.08055919870011985</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02146762111048944</v>
+        <v>0.04580006819817868</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03397400399373635</v>
+        <v>0.02146113381537662</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0157380103726052</v>
+        <v>0.04719223257569358</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02117319215669038</v>
+        <v>0.02695895738133031</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02263655726935431</v>
+        <v>0.04737373122065002</v>
       </c>
       <c r="L94" t="n">
-        <v>0.04272789416091588</v>
+        <v>0.05406091309806083</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02232689180019862</v>
+        <v>0.04725076242284532</v>
       </c>
       <c r="N94" t="n">
-        <v>0.06797587147224327</v>
+        <v>0.08109061044709381</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02223432186443549</v>
+        <v>0.04743578491954221</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03460390732372477</v>
+        <v>0.02256593040689234</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01628070038545365</v>
+        <v>0.04881955094037267</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0214858684330556</v>
+        <v>0.02700022108784554</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02341712820967688</v>
+        <v>0.04900730815929313</v>
       </c>
       <c r="L95" t="n">
-        <v>0.04375937775679123</v>
+        <v>0.05451800920128944</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02309678462089512</v>
+        <v>0.04888009905811584</v>
       </c>
       <c r="N95" t="n">
-        <v>0.0696396021846406</v>
+        <v>0.08193776098847977</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02300102261838154</v>
+        <v>0.04907150164090573</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03519760415874799</v>
+        <v>0.02364347043619702</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01682339039830211</v>
+        <v>0.05044686930505176</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02178842511939894</v>
+        <v>0.02731107561199408</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02419769914999944</v>
+        <v>0.05064088509793623</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04447858130347415</v>
+        <v>0.05491238282914068</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02386667744159163</v>
+        <v>0.05050943569338637</v>
       </c>
       <c r="N96" t="n">
-        <v>0.06987348100611263</v>
+        <v>0.08169417665669143</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02376772337232759</v>
+        <v>0.05070721836226926</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03575649538995887</v>
+        <v>0.02370952772806099</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01736608041115056</v>
+        <v>0.05207418766973085</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02238040981854772</v>
+        <v>0.02718938783233993</v>
       </c>
       <c r="K97" t="n">
-        <v>0.024978270090322</v>
+        <v>0.05227446203657934</v>
       </c>
       <c r="L97" t="n">
-        <v>0.04488435179702979</v>
+        <v>0.05519834261247478</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02463657026228813</v>
+        <v>0.0521387723286569</v>
       </c>
       <c r="N97" t="n">
-        <v>0.0708770731488047</v>
+        <v>0.0824533837841428</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02453442412627364</v>
+        <v>0.05234293508363278</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03628198190851026</v>
+        <v>0.02270949320638785</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01790877042399902</v>
+        <v>0.05370150603440994</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02266137013332925</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02575884103064456</v>
+        <v>0.05390803897522244</v>
       </c>
       <c r="L98" t="n">
-        <v>0.04587553623352333</v>
+        <v>0.0550959331288208</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02540646308298464</v>
+        <v>0.05376810896392743</v>
       </c>
       <c r="N98" t="n">
-        <v>0.07154994382486202</v>
+        <v>0.08295488259656392</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02530112488021969</v>
+        <v>0.0539786518049963</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03677546460555504</v>
+        <v>0.02270234813966136</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01845146043684747</v>
+        <v>0.05532882439908902</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02293085366657088</v>
+        <v>0.02744085865343761</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02653941197096713</v>
+        <v>0.05554161591386555</v>
       </c>
       <c r="L99" t="n">
-        <v>0.04665098160901981</v>
+        <v>0.05498798612748357</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02617635590368114</v>
+        <v>0.05539744559919796</v>
       </c>
       <c r="N99" t="n">
-        <v>0.07299165824643034</v>
+        <v>0.08235458730586059</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02606782563416575</v>
+        <v>0.05561436852635984</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03723834437224607</v>
+        <v>0.02168002240519888</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01899415044969593</v>
+        <v>0.05695614276376811</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02348840802109987</v>
+        <v>0.02722593567528848</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02731998291128969</v>
+        <v>0.05717519285250865</v>
       </c>
       <c r="L100" t="n">
-        <v>0.04710953491958442</v>
+        <v>0.05494297454443381</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02694624872437765</v>
+        <v>0.05702678223446848</v>
       </c>
       <c r="N100" t="n">
-        <v>0.07340178162565475</v>
+        <v>0.08242112791548645</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0268345263881118</v>
+        <v>0.05725008524772336</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03767202209973618</v>
+        <v>0.0236434937687037</v>
       </c>
       <c r="G101" t="n">
-        <v>0.01953684046254438</v>
+        <v>0.05858346112844721</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02383358079974354</v>
+        <v>0.02739374096829066</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02810055385161225</v>
+        <v>0.05880876979115175</v>
       </c>
       <c r="L101" t="n">
-        <v>0.04785004316128227</v>
+        <v>0.05476435918442918</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02771614154507415</v>
+        <v>0.05865611886973902</v>
       </c>
       <c r="N101" t="n">
-        <v>0.07407987917468067</v>
+        <v>0.08213458831521386</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02760122714205785</v>
+        <v>0.05888580196908687</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03807789867917823</v>
+        <v>0.02359372242425173</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02007953047539284</v>
+        <v>0.0602107794931263</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02406591960532922</v>
+        <v>0.02734539874895667</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02888112479193481</v>
+        <v>0.06044234672979485</v>
       </c>
       <c r="L102" t="n">
-        <v>0.04827135333017848</v>
+        <v>0.05485438381080882</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02848603436577065</v>
+        <v>0.06028545550500954</v>
       </c>
       <c r="N102" t="n">
-        <v>0.07532551610565358</v>
+        <v>0.08259838031455086</v>
       </c>
       <c r="O102" t="n">
-        <v>0.0283679278960039</v>
+        <v>0.0605215186904504</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03845737500172512</v>
+        <v>0.02153166856591889</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02062222048824129</v>
+        <v>0.06183809785780538</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02428497204068421</v>
+        <v>0.0270820332337991</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02966169573225738</v>
+        <v>0.06207592366843797</v>
       </c>
       <c r="L103" t="n">
-        <v>0.04877231242233815</v>
+        <v>0.05451529218691187</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02925592718646716</v>
+        <v>0.06191479214028008</v>
       </c>
       <c r="N103" t="n">
-        <v>0.07573825763071873</v>
+        <v>0.08191591572300561</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02913462864994995</v>
+        <v>0.06215723541181393</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03881185195852968</v>
+        <v>0.02245829238778109</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02116491050108975</v>
+        <v>0.06346541622248447</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02459028570863579</v>
+        <v>0.02710476863933052</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03044226667257994</v>
+        <v>0.06370950060708107</v>
       </c>
       <c r="L104" t="n">
-        <v>0.04935176743382649</v>
+        <v>0.0541493280760775</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03002582000716366</v>
+        <v>0.0635441287755506</v>
       </c>
       <c r="N104" t="n">
-        <v>0.07611766896202166</v>
+        <v>0.08219060635008635</v>
       </c>
       <c r="O104" t="n">
-        <v>0.029901329403896</v>
+        <v>0.06379295213317744</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03914273044074477</v>
+        <v>0.02337455408391427</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02170760051393821</v>
+        <v>0.06509273458716357</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02508140821201132</v>
+        <v>0.02701472918206352</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0312228376129025</v>
+        <v>0.06534307754572417</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05020856536070858</v>
+        <v>0.05425873524164493</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03079571282786017</v>
+        <v>0.06517346541082113</v>
       </c>
       <c r="N105" t="n">
-        <v>0.07746331531170769</v>
+        <v>0.08122586400530107</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03066803015784205</v>
+        <v>0.06542866885454098</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03945141133952326</v>
+        <v>0.02228141384839437</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02225029052678666</v>
+        <v>0.06672005295184265</v>
       </c>
       <c r="J106" t="n">
-        <v>0.0252578871536381</v>
+        <v>0.02701303907851066</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03200340855322507</v>
+        <v>0.06697665448436728</v>
       </c>
       <c r="L106" t="n">
-        <v>0.05084155319904951</v>
+        <v>0.05394575744695329</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03156560564855667</v>
+        <v>0.06680280204609165</v>
       </c>
       <c r="N106" t="n">
-        <v>0.07817476189192218</v>
+        <v>0.08142510049815799</v>
       </c>
       <c r="O106" t="n">
-        <v>0.0314347309117881</v>
+        <v>0.06706438557590451</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.039739295546018</v>
+        <v>0.02117983187529729</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02279298053963512</v>
+        <v>0.06834737131652173</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0254192701363434</v>
+        <v>0.02680082254518451</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03278397949354763</v>
+        <v>0.06861023142301038</v>
       </c>
       <c r="L107" t="n">
-        <v>0.05104957794491441</v>
+        <v>0.0539126384553418</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03233549846925317</v>
+        <v>0.06843213868136218</v>
       </c>
       <c r="N107" t="n">
-        <v>0.07825157391481047</v>
+        <v>0.08139172763816521</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03220143166573416</v>
+        <v>0.06870010229726803</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04000778395138185</v>
+        <v>0.02107076835869898</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02333567055248357</v>
+        <v>0.06997468968120084</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02586510476295462</v>
+        <v>0.02667920379859766</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03356455043387019</v>
+        <v>0.07024380836165349</v>
       </c>
       <c r="L108" t="n">
-        <v>0.05133148659436848</v>
+        <v>0.0536616220301496</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03310539128994967</v>
+        <v>0.0700614753166327</v>
       </c>
       <c r="N108" t="n">
-        <v>0.07859331659251811</v>
+        <v>0.08102915723483078</v>
       </c>
       <c r="O108" t="n">
-        <v>0.0329681324196802</v>
+        <v>0.07033581901863155</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04025827744676767</v>
+        <v>0.02095518349267533</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02387836056533203</v>
+        <v>0.07160200804587992</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02609493863629896</v>
+        <v>0.02664930705526268</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03434512137419275</v>
+        <v>0.07187738530029658</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05198612614347681</v>
+        <v>0.05339495193471583</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03387528411064618</v>
+        <v>0.07169081195190324</v>
       </c>
       <c r="N109" t="n">
-        <v>0.0790995551371903</v>
+        <v>0.08064080109766292</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03373483317362626</v>
+        <v>0.07197153573999508</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04049217692332832</v>
+        <v>0.0218340374713023</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02442105057818048</v>
+        <v>0.073229326410559</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02610831935920378</v>
+        <v>0.02651225653169215</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03512569231451532</v>
+        <v>0.0735109622389397</v>
       </c>
       <c r="L110" t="n">
-        <v>0.05221234358830448</v>
+        <v>0.0532148719323797</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03464517693134268</v>
+        <v>0.07332014858717377</v>
       </c>
       <c r="N110" t="n">
-        <v>0.0799698547609724</v>
+        <v>0.08003007103616971</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03450153392757231</v>
+        <v>0.0736072524613586</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04071088327221666</v>
+        <v>0.0217082904886558</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02496374059102894</v>
+        <v>0.0748566447752381</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0263047945344964</v>
+        <v>0.02636917644439862</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03590626325483788</v>
+        <v>0.07514453917758279</v>
       </c>
       <c r="L111" t="n">
-        <v>0.05290898592491666</v>
+        <v>0.05242362578648038</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03541506975203919</v>
+        <v>0.0749494852224443</v>
       </c>
       <c r="N111" t="n">
-        <v>0.08050378067601016</v>
+        <v>0.07940037885985923</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03526823468151836</v>
+        <v>0.07524296918272212</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04091652848479473</v>
+        <v>0.02257890273881176</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02550643060387739</v>
+        <v>0.07648396313991719</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02668391176500413</v>
+        <v>0.02612119100989468</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03668683419516044</v>
+        <v>0.0767781161162259</v>
       </c>
       <c r="L112" t="n">
-        <v>0.05337490014937854</v>
+        <v>0.05252345726035706</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03618496257273569</v>
+        <v>0.07657882185771482</v>
       </c>
       <c r="N112" t="n">
-        <v>0.08100089809444849</v>
+        <v>0.07885513637823965</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03603493543546441</v>
+        <v>0.07687868590408564</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04111790884451559</v>
+        <v>0.02044683441584612</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02604912061672585</v>
+        <v>0.07811128150459627</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02664521865355428</v>
+        <v>0.02606942444469292</v>
       </c>
       <c r="K113" t="n">
-        <v>0.037467405135483</v>
+        <v>0.07841169305486902</v>
       </c>
       <c r="L113" t="n">
-        <v>0.05370893325775508</v>
+        <v>0.05181661011734889</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03695485539343219</v>
+        <v>0.07820815849298535</v>
       </c>
       <c r="N113" t="n">
-        <v>0.08116077222843304</v>
+        <v>0.07889775540081911</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03680163618941047</v>
+        <v>0.07851440262544918</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.0413171818431692</v>
+        <v>0.02231304571383476</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0265918106295743</v>
+        <v>0.07973859986927537</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02698826280297416</v>
+        <v>0.02591500096530588</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03824797607580557</v>
+        <v>0.08004526999351211</v>
       </c>
       <c r="L114" t="n">
-        <v>0.05400993224611159</v>
+        <v>0.05160532812079502</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0377247482141287</v>
+        <v>0.07983749512825587</v>
       </c>
       <c r="N114" t="n">
-        <v>0.08128296829010917</v>
+        <v>0.07783164773710577</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03756833694335651</v>
+        <v>0.0801501193468127</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04151427607501496</v>
+        <v>0.02217849682685365</v>
       </c>
       <c r="G115" t="n">
-        <v>0.02713450064242276</v>
+        <v>0.08136591823395445</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02701259181609104</v>
+        <v>0.02555904478824617</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03902854701612813</v>
+        <v>0.08167884693215521</v>
       </c>
       <c r="L115" t="n">
-        <v>0.05397674411051304</v>
+        <v>0.05119185503403467</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0384946410348252</v>
+        <v>0.08146683176352641</v>
       </c>
       <c r="N115" t="n">
-        <v>0.0814670514916222</v>
+        <v>0.07736022519660768</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03833503769730257</v>
+        <v>0.08178583606817622</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04170912013431217</v>
+        <v>0.02204414794897869</v>
       </c>
       <c r="G116" t="n">
-        <v>0.02767719065527121</v>
+        <v>0.08299323659863354</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02711775329573229</v>
+        <v>0.02560268013002635</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03980911795645069</v>
+        <v>0.08331242387079832</v>
       </c>
       <c r="L116" t="n">
-        <v>0.05460821584702469</v>
+        <v>0.05097843462040696</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03926453385552171</v>
+        <v>0.08309616839879692</v>
       </c>
       <c r="N116" t="n">
-        <v>0.0815125870451176</v>
+        <v>0.077286899588833</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03910173845124862</v>
+        <v>0.08342155278953975</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04190164261532023</v>
+        <v>0.02091095927428581</v>
       </c>
       <c r="G117" t="n">
-        <v>0.02821988066811967</v>
+        <v>0.08462055496331262</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0273032948447252</v>
+        <v>0.02524703120715899</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04058968889677326</v>
+        <v>0.08494600080944142</v>
       </c>
       <c r="L117" t="n">
-        <v>0.0547031944517116</v>
+        <v>0.05106731064325112</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04003442667621821</v>
+        <v>0.08472550503406746</v>
       </c>
       <c r="N117" t="n">
-        <v>0.0820191401627407</v>
+        <v>0.07651508272328977</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03986843920519467</v>
+        <v>0.08505726951090327</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04209177211229842</v>
+        <v>0.02077528132574187</v>
       </c>
       <c r="G118" t="n">
-        <v>0.02876257068096812</v>
+        <v>0.08624787332799172</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02736876406589706</v>
+        <v>0.02529318130614393</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04137025983709582</v>
+        <v>0.08657957774808453</v>
       </c>
       <c r="L118" t="n">
-        <v>0.05456052692063884</v>
+        <v>0.05045535615695038</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04080431949691472</v>
+        <v>0.08635484166933799</v>
       </c>
       <c r="N118" t="n">
-        <v>0.08198627605663678</v>
+        <v>0.07634818640948626</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04063513995914072</v>
+        <v>0.08669298623226679</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04227943721950615</v>
+        <v>0.01962105281848825</v>
       </c>
       <c r="G119" t="n">
-        <v>0.02930526069381658</v>
+        <v>0.08787519169267081</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02721370856207518</v>
+        <v>0.0250268124170633</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04215083077741838</v>
+        <v>0.08821315468672764</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05457906024987169</v>
+        <v>0.0503038977580238</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04157421231761122</v>
+        <v>0.08798417830460852</v>
       </c>
       <c r="N119" t="n">
-        <v>0.08261355993895142</v>
+        <v>0.07545782950700602</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04140184071308677</v>
+        <v>0.08832870295363032</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04246456653120276</v>
+        <v>0.02144954092931152</v>
       </c>
       <c r="G120" t="n">
-        <v>0.02984795070666503</v>
+        <v>0.0895025100573499</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02744180262838562</v>
+        <v>0.0249382504931667</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04293140171774094</v>
+        <v>0.08984673162537073</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05519834261247478</v>
+        <v>0.04961078885956938</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04234410513830772</v>
+        <v>0.08961351493987904</v>
       </c>
       <c r="N120" t="n">
-        <v>0.08280055702182987</v>
+        <v>0.07529893719530639</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04216854146703283</v>
+        <v>0.08996441967499384</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04264708864164757</v>
+        <v>0.02126387408528806</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03039064071951348</v>
+        <v>0.09112982842202899</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02734111104956244</v>
+        <v>0.02453115836623554</v>
       </c>
       <c r="K121" t="n">
-        <v>0.0437119726580635</v>
+        <v>0.09148030856401385</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05489511747351442</v>
+        <v>0.04908333991075498</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04311399795900422</v>
+        <v>0.09124285157514958</v>
       </c>
       <c r="N121" t="n">
-        <v>0.08295488259656392</v>
+        <v>0.07468178837951517</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04293524222097887</v>
+        <v>0.09160013639635736</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04282693214509997</v>
+        <v>0.02106718071349427</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03093333073236194</v>
+        <v>0.09275714678670807</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02723285875795455</v>
+        <v>0.02450919886805128</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04449254359838607</v>
+        <v>0.09311388550265694</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05499164913466473</v>
+        <v>0.04892886136074828</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04388389077970073</v>
+        <v>0.09287218821042009</v>
       </c>
       <c r="N122" t="n">
-        <v>0.08265188589140088</v>
+        <v>0.07411749914284127</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04370194297492493</v>
+        <v>0.0932358531177209</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04300402563581929</v>
+        <v>0.01986258924100651</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0314760207452104</v>
+        <v>0.09438446515138717</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02731554573578447</v>
+        <v>0.02407603483039535</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04527311453870863</v>
+        <v>0.09474746244130004</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05495246965909328</v>
+        <v>0.04855466365871713</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04465378360039723</v>
+        <v>0.09450152484569063</v>
       </c>
       <c r="N123" t="n">
-        <v>0.08291520869904828</v>
+        <v>0.07351718556849374</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04446864372887098</v>
+        <v>0.09487156983908442</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04317829770806487</v>
+        <v>0.01965322809490117</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03201871075805885</v>
+        <v>0.09601178351606626</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02718950171929668</v>
+        <v>0.02383532908504918</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04605368547903119</v>
+        <v>0.09638103937994316</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05467963896968731</v>
+        <v>0.04786805725382928</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04542367642109374</v>
+        <v>0.09613086148096116</v>
       </c>
       <c r="N124" t="n">
-        <v>0.08263799245488751</v>
+        <v>0.0719919637396812</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04523534448281703</v>
+        <v>0.09650728656044794</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04334967695609607</v>
+        <v>0.01944222570225462</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03256140077090731</v>
+        <v>0.09763910188074534</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02735505644473561</v>
+        <v>0.02379074446379423</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04683425641935376</v>
+        <v>0.09801461631858625</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05497475248003214</v>
+        <v>0.04727635259525245</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04619356924179024</v>
+        <v>0.09776019811623168</v>
       </c>
       <c r="N125" t="n">
-        <v>0.08252173536148188</v>
+        <v>0.07145294973961269</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04600204523676308</v>
+        <v>0.09814300328181147</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04351809197417225</v>
+        <v>0.02023271049014323</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03310409078375576</v>
+        <v>0.09926642024542442</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02731253964834573</v>
+        <v>0.02334594379841194</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04761482735967631</v>
+        <v>0.09964819325722936</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05453940560371315</v>
+        <v>0.04668686013215451</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04696346206248675</v>
+        <v>0.09938953475150221</v>
       </c>
       <c r="N126" t="n">
-        <v>0.08196793562139471</v>
+        <v>0.07131125965149709</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04676874599070913</v>
+        <v>0.09977872000317499</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04368347135655275</v>
+        <v>0.01802781088564341</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03364678079660422</v>
+        <v>0.1008937386101035</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02716228106637152</v>
+        <v>0.02330458992068375</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04839539829999888</v>
+        <v>0.1012817701958725</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05427519375431561</v>
+        <v>0.04670689031370318</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04773335488318325</v>
+        <v>0.1010188713867727</v>
       </c>
       <c r="N127" t="n">
-        <v>0.08237809143718944</v>
+        <v>0.07047800955854333</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04753544674465518</v>
+        <v>0.1014144367245385</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04384574369749693</v>
+        <v>0.0188306553158315</v>
       </c>
       <c r="G128" t="n">
-        <v>0.03418947080945267</v>
+        <v>0.1025210569747826</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02700461043505739</v>
+        <v>0.02307034566239108</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04917596924032144</v>
+        <v>0.1029153471345156</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05398371234542493</v>
+        <v>0.04574375358906624</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04850324770387976</v>
+        <v>0.1026482080220433</v>
       </c>
       <c r="N128" t="n">
-        <v>0.08165370101142927</v>
+        <v>0.06976431554396012</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04830214749860123</v>
+        <v>0.103050153445902</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04400483759126411</v>
+        <v>0.01964028807224499</v>
       </c>
       <c r="G129" t="n">
-        <v>0.03473216082230113</v>
+        <v>0.1041483753394617</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02693985749064781</v>
+        <v>0.02284687385531539</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04995654018064401</v>
+        <v>0.1045489240731587</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05416655679062649</v>
+        <v>0.04570066186289132</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04927314052457626</v>
+        <v>0.1042775446573138</v>
       </c>
       <c r="N129" t="n">
-        <v>0.08169626254667772</v>
+        <v>0.06878129369095648</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04906884825254729</v>
+        <v>0.1046858701672656</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04416068163211369</v>
+        <v>0.01843445519137887</v>
       </c>
       <c r="G130" t="n">
-        <v>0.03527485083514958</v>
+        <v>0.1057756937041408</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02706835196938727</v>
+        <v>0.02251911945619441</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05073711112096656</v>
+        <v>0.1061825010118018</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05362532250350555</v>
+        <v>0.04522794823782147</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05004303334527277</v>
+        <v>0.1059068812925843</v>
       </c>
       <c r="N130" t="n">
-        <v>0.08140727424549793</v>
+        <v>0.06790205933715798</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04983554900649333</v>
+        <v>0.1063215868886291</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04431320441430496</v>
+        <v>0.0192130249027552</v>
       </c>
       <c r="G131" t="n">
-        <v>0.03581754084799803</v>
+        <v>0.1074030120688199</v>
       </c>
       <c r="J131" t="n">
-        <v>0.0268904236075202</v>
+        <v>0.02227050292471168</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05151768206128913</v>
+        <v>0.1078160779504449</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05366160489764757</v>
+        <v>0.04451709499742545</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05081292616596927</v>
+        <v>0.1075362179278549</v>
       </c>
       <c r="N131" t="n">
-        <v>0.08098823431045332</v>
+        <v>0.06765943303199595</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05060224976043939</v>
+        <v>0.1079573036099926</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04446233453209732</v>
+        <v>0.01798047555065029</v>
       </c>
       <c r="G132" t="n">
-        <v>0.03636023086084649</v>
+        <v>0.109030330433499</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02670640214129105</v>
+        <v>0.0221062460733618</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05229825300161169</v>
+        <v>0.109449654889088</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05347699938663783</v>
+        <v>0.0439785670518284</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05158281898666578</v>
+        <v>0.1091655545631254</v>
       </c>
       <c r="N132" t="n">
-        <v>0.08034064094410737</v>
+        <v>0.06616663448295551</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05136895051438544</v>
+        <v>0.1095930203313562</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.04460800057975009</v>
+        <v>0.01774128547934045</v>
       </c>
       <c r="G133" t="n">
-        <v>0.03690292087369495</v>
+        <v>0.110657648798178</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0266166173069443</v>
+        <v>0.02183159224691292</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05307882394193425</v>
+        <v>0.1110832318277311</v>
       </c>
       <c r="L133" t="n">
-        <v>0.05317310138406167</v>
+        <v>0.04352282931115575</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05235271180736228</v>
+        <v>0.1107948911983959</v>
       </c>
       <c r="N133" t="n">
-        <v>0.08006599234902312</v>
+        <v>0.06573957636640665</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05213565126833149</v>
+        <v>0.1112287370527197</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04475013115152264</v>
+        <v>0.01649993303310202</v>
       </c>
       <c r="G134" t="n">
-        <v>0.03744561088654341</v>
+        <v>0.1122849671628571</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02662139884072438</v>
+        <v>0.02155178479013321</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05385939488225682</v>
+        <v>0.1127168087663742</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05265150630350449</v>
+        <v>0.0431603466855327</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05312260462805879</v>
+        <v>0.1124242278336664</v>
       </c>
       <c r="N134" t="n">
-        <v>0.0801657867277642</v>
+        <v>0.06499417135871921</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05290235202227754</v>
+        <v>0.1128644537740832</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.0448886548416743</v>
+        <v>0.01626089655621128</v>
       </c>
       <c r="G135" t="n">
-        <v>0.03798830089939186</v>
+        <v>0.1139122855275362</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02652107647887579</v>
+        <v>0.02107206704779084</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05463996582257939</v>
+        <v>0.1143503857050173</v>
       </c>
       <c r="L135" t="n">
-        <v>0.0521138095585516</v>
+        <v>0.04260158408508455</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05389249744875529</v>
+        <v>0.114053564468937</v>
       </c>
       <c r="N135" t="n">
-        <v>0.07924152228289372</v>
+        <v>0.06414633213626336</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05366905277622359</v>
+        <v>0.1145001704954467</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04502350024446444</v>
+        <v>0.01702865439294456</v>
       </c>
       <c r="G136" t="n">
-        <v>0.03853099091224031</v>
+        <v>0.1155396038922153</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02641597995764294</v>
+        <v>0.02099768236465398</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05542053676290194</v>
+        <v>0.1159839626436604</v>
       </c>
       <c r="L136" t="n">
-        <v>0.0516616065627884</v>
+        <v>0.04205700641993657</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05466239026945179</v>
+        <v>0.1156829011042075</v>
       </c>
       <c r="N136" t="n">
-        <v>0.07879469721697513</v>
+        <v>0.06331197137540912</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05443575353016964</v>
+        <v>0.1161358872168102</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.0451545959541524</v>
+        <v>0.01780768488757818</v>
       </c>
       <c r="G137" t="n">
-        <v>0.03907368092508877</v>
+        <v>0.1171669222568944</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02640643901327031</v>
+        <v>0.02053387408549076</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05620110770322451</v>
+        <v>0.1176175395823035</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05129649272980019</v>
+        <v>0.04133707860021399</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05543228309014829</v>
+        <v>0.117312237739478</v>
       </c>
       <c r="N137" t="n">
-        <v>0.07872680973257179</v>
+        <v>0.06240700175252628</v>
       </c>
       <c r="O137" t="n">
-        <v>0.0552024542841157</v>
+        <v>0.1177716039381737</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.04528187056499754</v>
+        <v>0.01760246638438843</v>
       </c>
       <c r="G138" t="n">
-        <v>0.03961637093793722</v>
+        <v>0.1187942406215735</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02629278338200236</v>
+        <v>0.02038588555506937</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05698167864354707</v>
+        <v>0.1192511165209466</v>
       </c>
       <c r="L138" t="n">
-        <v>0.05142006347317232</v>
+        <v>0.04085226553604218</v>
       </c>
       <c r="M138" t="n">
-        <v>0.0562021759108448</v>
+        <v>0.1189415743747485</v>
       </c>
       <c r="N138" t="n">
-        <v>0.07753935803224693</v>
+        <v>0.06184733594398495</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05596915503806175</v>
+        <v>0.1194073206595373</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04540525267125918</v>
+        <v>0.01741747722765163</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04015906095078568</v>
+        <v>0.1204215589862526</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02607534280008351</v>
+        <v>0.02015896011815797</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05776224958386963</v>
+        <v>0.1208846934595897</v>
       </c>
       <c r="L139" t="n">
-        <v>0.05083391420649017</v>
+        <v>0.04031303213754633</v>
       </c>
       <c r="M139" t="n">
-        <v>0.0569720687315413</v>
+        <v>0.1205709110100191</v>
       </c>
       <c r="N139" t="n">
-        <v>0.07743384031856404</v>
+        <v>0.06064888662615509</v>
       </c>
       <c r="O139" t="n">
-        <v>0.0567358557920078</v>
+        <v>0.1210430373809008</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.04552467086719669</v>
+        <v>0.01625719576164411</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04070175096363413</v>
+        <v>0.1220488773509317</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02585444700375829</v>
+        <v>0.01985834111952473</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05854282052419219</v>
+        <v>0.1225182703982328</v>
       </c>
       <c r="L140" t="n">
-        <v>0.05043964034333906</v>
+        <v>0.04012984331485175</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05774196155223781</v>
+        <v>0.1222002476452896</v>
       </c>
       <c r="N140" t="n">
-        <v>0.07701175479408628</v>
+        <v>0.06042756647540665</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05750255654595385</v>
+        <v>0.1226787541022643</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04564005374706945</v>
+        <v>0.01512610033064216</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04124444097648259</v>
+        <v>0.1236761957156108</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02583042572927109</v>
+        <v>0.01978927190393781</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05932339146451476</v>
+        <v>0.1241518473368759</v>
       </c>
       <c r="L141" t="n">
-        <v>0.05013883729730439</v>
+        <v>0.03981316397808374</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05851185437293431</v>
+        <v>0.1238295842805602</v>
       </c>
       <c r="N141" t="n">
-        <v>0.0765745996613772</v>
+        <v>0.06009928816810967</v>
       </c>
       <c r="O141" t="n">
-        <v>0.0582692572998999</v>
+        <v>0.1243144708236279</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.04575132990513674</v>
+        <v>0.01702866927892211</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04178713098933105</v>
+        <v>0.1253035140802898</v>
       </c>
       <c r="J142" t="n">
-        <v>0.0256036087128664</v>
+        <v>0.01975699581616536</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06010396240483731</v>
+        <v>0.125785424275519</v>
       </c>
       <c r="L142" t="n">
-        <v>0.04983310048197145</v>
+        <v>0.03927345903736754</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05928174719363082</v>
+        <v>0.1254589209158307</v>
       </c>
       <c r="N142" t="n">
-        <v>0.07542387312299986</v>
+        <v>0.05917996438063411</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05903595805384595</v>
+        <v>0.1259501875449914</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.04585842793565797</v>
+        <v>0.01696938095076027</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0423298210021795</v>
+        <v>0.1269308324449689</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02557432569078867</v>
+        <v>0.01946675620097553</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06088453334515988</v>
+        <v>0.1274190012141621</v>
       </c>
       <c r="L143" t="n">
-        <v>0.0494240253109256</v>
+        <v>0.03912119340282844</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06005164001432732</v>
+        <v>0.1270882575511012</v>
       </c>
       <c r="N143" t="n">
-        <v>0.07486107338151782</v>
+        <v>0.05948550778935002</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05980265880779201</v>
+        <v>0.1275859042663549</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.04596127643289247</v>
+        <v>0.01595237048357502</v>
       </c>
       <c r="G144" t="n">
-        <v>0.04287251101502796</v>
+        <v>0.1285581508096481</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02534290639928236</v>
+        <v>0.01952379640313652</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06166510428548245</v>
+        <v>0.1290525781528052</v>
       </c>
       <c r="L144" t="n">
-        <v>0.04861320719775222</v>
+        <v>0.0393668319845917</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06082153283502383</v>
+        <v>0.1287175941863717</v>
       </c>
       <c r="N144" t="n">
-        <v>0.07488769863949435</v>
+        <v>0.05883183107062734</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06056935956173806</v>
+        <v>0.1292216209877184</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0460598039910996</v>
+        <v>0.0169565715859799</v>
       </c>
       <c r="G145" t="n">
-        <v>0.04341520102787641</v>
+        <v>0.1301854691743271</v>
       </c>
       <c r="J145" t="n">
-        <v>0.0252096805745919</v>
+        <v>0.01942264951846766</v>
       </c>
       <c r="K145" t="n">
-        <v>0.062445675225805</v>
+        <v>0.1306861550914483</v>
       </c>
       <c r="L145" t="n">
-        <v>0.04820224155603667</v>
+        <v>0.03927433029676544</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06159142565572033</v>
+        <v>0.1303469308216423</v>
       </c>
       <c r="N145" t="n">
-        <v>0.0745052470994928</v>
+        <v>0.05851588539958696</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06133606031568411</v>
+        <v>0.130857337709082</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.0461539392045387</v>
+        <v>0.0159671828815583</v>
       </c>
       <c r="G146" t="n">
-        <v>0.04395789104072487</v>
+        <v>0.1318127875390062</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02527497795296178</v>
+        <v>0.01963163144645945</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06322624616612757</v>
+        <v>0.1323197320300914</v>
       </c>
       <c r="L146" t="n">
-        <v>0.04789272379936427</v>
+        <v>0.0391969171544076</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06236131847641684</v>
+        <v>0.1319762674569128</v>
       </c>
       <c r="N146" t="n">
-        <v>0.07391521696407644</v>
+        <v>0.05893955388408911</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06210276106963016</v>
+        <v>0.1324930544304455</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.04624361066746911</v>
+        <v>0.01598387530320409</v>
       </c>
       <c r="G147" t="n">
-        <v>0.04450058105357332</v>
+        <v>0.1334401059036853</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02503912827063645</v>
+        <v>0.01964788019175284</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06400681710645013</v>
+        <v>0.1339533089687346</v>
       </c>
       <c r="L147" t="n">
-        <v>0.04758624934132036</v>
+        <v>0.03903380906654841</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06313121129711334</v>
+        <v>0.1336056040921833</v>
       </c>
       <c r="N147" t="n">
-        <v>0.07311910643580871</v>
+        <v>0.05858542758704877</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06286946182357621</v>
+        <v>0.134128771151809</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.0463287469741502</v>
+        <v>0.01600631978381118</v>
       </c>
       <c r="G148" t="n">
-        <v>0.04504327106642177</v>
+        <v>0.1350674242683644</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02500246126386038</v>
+        <v>0.01967101047528433</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06478738804677268</v>
+        <v>0.1355868859073777</v>
       </c>
       <c r="L148" t="n">
-        <v>0.0469844135954903</v>
+        <v>0.03948423707540391</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06390110411780985</v>
+        <v>0.1352349407274538</v>
       </c>
       <c r="N148" t="n">
-        <v>0.07271841371725279</v>
+        <v>0.05925233725080276</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06363616257752226</v>
+        <v>0.1357644878731725</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.04640927671884131</v>
+        <v>0.01703418725627346</v>
       </c>
       <c r="G149" t="n">
-        <v>0.04558596107927023</v>
+        <v>0.1366947426330435</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02486530666887798</v>
+        <v>0.01960063701799028</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06556795898709526</v>
+        <v>0.1372204628460208</v>
       </c>
       <c r="L149" t="n">
-        <v>0.04668881197545949</v>
+        <v>0.03934743222319004</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06467099693850634</v>
+        <v>0.1368642773627244</v>
       </c>
       <c r="N149" t="n">
-        <v>0.07201463701097222</v>
+        <v>0.05943911361768789</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06440286333146832</v>
+        <v>0.1374002045945361</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.04648512849580178</v>
+        <v>0.01506714865348482</v>
       </c>
       <c r="G150" t="n">
-        <v>0.04612865109211869</v>
+        <v>0.1383220609977226</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02472799422193377</v>
+        <v>0.01953637454080713</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06634852992741783</v>
+        <v>0.1388540397846639</v>
       </c>
       <c r="L150" t="n">
-        <v>0.0464010398948132</v>
+        <v>0.03942262555212289</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06544088975920284</v>
+        <v>0.1384936139979949</v>
       </c>
       <c r="N150" t="n">
-        <v>0.07080927451953023</v>
+        <v>0.05914458743004092</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06516956408541437</v>
+        <v>0.1390359213158996</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.04655623089929099</v>
+        <v>0.01710487490833917</v>
       </c>
       <c r="G151" t="n">
-        <v>0.04667134110496714</v>
+        <v>0.1399493793624017</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02439085365927214</v>
+        <v>0.0197778377646713</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06712910086774038</v>
+        <v>0.140487616723307</v>
       </c>
       <c r="L151" t="n">
-        <v>0.04612269276713685</v>
+        <v>0.03980904810441852</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06621078257989935</v>
+        <v>0.1401229506332654</v>
       </c>
       <c r="N151" t="n">
-        <v>0.07070382444549006</v>
+        <v>0.05976758943019878</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06593626483936041</v>
+        <v>0.1406716380372631</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.04662251252356825</v>
+        <v>0.01514703695373038</v>
       </c>
       <c r="G152" t="n">
-        <v>0.04721403111781559</v>
+        <v>0.1415766977270808</v>
       </c>
       <c r="J152" t="n">
-        <v>0.0243542147171376</v>
+        <v>0.01982464141051921</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06790967180806294</v>
+        <v>0.1421211936619501</v>
       </c>
       <c r="L152" t="n">
-        <v>0.04575536600601574</v>
+        <v>0.03970593092229285</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06698067540059585</v>
+        <v>0.1417522872685359</v>
       </c>
       <c r="N152" t="n">
-        <v>0.06999978499141524</v>
+        <v>0.05950695036049819</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06670296559330646</v>
+        <v>0.1423073547586266</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.04668390196289295</v>
+        <v>0.01619330572255237</v>
       </c>
       <c r="G153" t="n">
-        <v>0.04775672113066405</v>
+        <v>0.1432040160917598</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02421840713177459</v>
+        <v>0.01967640019928726</v>
       </c>
       <c r="K153" t="n">
-        <v>0.0686902427483855</v>
+        <v>0.1437547706005932</v>
       </c>
       <c r="L153" t="n">
-        <v>0.04520065502503523</v>
+        <v>0.03951250504796205</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06775056822129236</v>
+        <v>0.1433816239038065</v>
       </c>
       <c r="N153" t="n">
-        <v>0.06949865435986902</v>
+        <v>0.060061500963276</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06746966634725252</v>
+        <v>0.1439430714799902</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.0467403278115244</v>
+        <v>0.01724335214769902</v>
       </c>
       <c r="G154" t="n">
-        <v>0.04829941114351251</v>
+        <v>0.1448313344564389</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02398376063942756</v>
+        <v>0.01973272885191189</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06947081368870807</v>
+        <v>0.1453883475392363</v>
       </c>
       <c r="L154" t="n">
-        <v>0.04466015523778069</v>
+        <v>0.04012800152364207</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06852046104198886</v>
+        <v>0.145010960539077</v>
       </c>
       <c r="N154" t="n">
-        <v>0.0686019307534147</v>
+        <v>0.05973007198086905</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06823636710119857</v>
+        <v>0.1455787882013537</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.04679171866372198</v>
+        <v>0.01729684716206423</v>
       </c>
       <c r="G155" t="n">
-        <v>0.04884210115636096</v>
+        <v>0.146458652821118</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02385060497634098</v>
+        <v>0.01989324208932952</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07025138462903063</v>
+        <v>0.1470219244778794</v>
       </c>
       <c r="L155" t="n">
-        <v>0.04443546205783744</v>
+        <v>0.0402516513915489</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06929035386268537</v>
+        <v>0.1466402971743475</v>
       </c>
       <c r="N155" t="n">
-        <v>0.06801111237461566</v>
+        <v>0.05961149415561406</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06900306785514462</v>
+        <v>0.1472145049227172</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.04683800311374503</v>
+        <v>0.01735353176836307</v>
       </c>
       <c r="G156" t="n">
-        <v>0.04938479116920941</v>
+        <v>0.1480859711857971</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02391926987875929</v>
+        <v>0.01995755463247655</v>
       </c>
       <c r="K156" t="n">
-        <v>0.0710319555693532</v>
+        <v>0.1486555014165225</v>
       </c>
       <c r="L156" t="n">
-        <v>0.04432817089879088</v>
+        <v>0.03998268569389862</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07006024668338187</v>
+        <v>0.1482696338096181</v>
       </c>
       <c r="N156" t="n">
-        <v>0.06732769742603523</v>
+        <v>0.06020459822984792</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06976976860909068</v>
+        <v>0.1488502216440807</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.04687910975585291</v>
+        <v>0.01744349102271074</v>
       </c>
       <c r="G157" t="n">
-        <v>0.04992748118205787</v>
+        <v>0.1497132895504762</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02379008508292696</v>
+        <v>0.02013867749489791</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07181252650967576</v>
+        <v>0.1502890783551656</v>
       </c>
       <c r="L157" t="n">
-        <v>0.04403987717422631</v>
+        <v>0.04057514596209449</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07083013950407838</v>
+        <v>0.1498989704448886</v>
       </c>
       <c r="N157" t="n">
-        <v>0.0670531841102367</v>
+        <v>0.06083299790965163</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07053646936303672</v>
+        <v>0.1504859383654442</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.04691496718430495</v>
+        <v>0.01558487940257438</v>
       </c>
       <c r="G158" t="n">
-        <v>0.05047017119490632</v>
+        <v>0.1513406079151553</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02356087157393351</v>
+        <v>0.020279869213028</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07259309744999831</v>
+        <v>0.1519226552938087</v>
       </c>
       <c r="L158" t="n">
-        <v>0.04396691003012954</v>
+        <v>0.04049021190837923</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07160003232477488</v>
+        <v>0.1515283070801591</v>
       </c>
       <c r="N158" t="n">
-        <v>0.06657417022483264</v>
+        <v>0.06063513820592897</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07130317011698277</v>
+        <v>0.1521216550868078</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.0469455039933605</v>
+        <v>0.01576776316625245</v>
       </c>
       <c r="G159" t="n">
-        <v>0.05101286120775478</v>
+        <v>0.1529679262798344</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02332751361589157</v>
+        <v>0.020274181811425</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07337366839032089</v>
+        <v>0.1535562322324518</v>
       </c>
       <c r="L159" t="n">
-        <v>0.04330068424565234</v>
+        <v>0.04120517130236723</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07236992514547139</v>
+        <v>0.1531576437154296</v>
       </c>
       <c r="N159" t="n">
-        <v>0.06616699733413289</v>
+        <v>0.06100317509076203</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07206987087092882</v>
+        <v>0.1537573718081713</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.04697064877727894</v>
+        <v>0.01698220857204338</v>
       </c>
       <c r="G160" t="n">
-        <v>0.05155555122060324</v>
+        <v>0.1545952446445135</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02339008070596399</v>
+        <v>0.02060998464506357</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07415423933064345</v>
+        <v>0.1551898091710949</v>
       </c>
       <c r="L160" t="n">
-        <v>0.04314058157175457</v>
+        <v>0.04159681116450611</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07313981796616789</v>
+        <v>0.1547869803507002</v>
       </c>
       <c r="N160" t="n">
-        <v>0.06493270775721327</v>
+        <v>0.06200181149740341</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07283657162487488</v>
+        <v>0.1553930885295348</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.0469903301303196</v>
+        <v>0.01621828187824563</v>
       </c>
       <c r="G161" t="n">
-        <v>0.05209824123345169</v>
+        <v>0.1562225630091925</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02324871837583131</v>
+        <v>0.02077564706891835</v>
       </c>
       <c r="K161" t="n">
-        <v>0.074934810270966</v>
+        <v>0.156823386109738</v>
       </c>
       <c r="L161" t="n">
-        <v>0.04298612826872106</v>
+        <v>0.0421419185152436</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07390971078686438</v>
+        <v>0.1564163169859707</v>
       </c>
       <c r="N161" t="n">
-        <v>0.06447274829292848</v>
+        <v>0.06329575035910529</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07360327237882093</v>
+        <v>0.1570288052508984</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.04700447664674182</v>
+        <v>0.01746604934315765</v>
       </c>
       <c r="G162" t="n">
-        <v>0.05264093124630015</v>
+        <v>0.1578498813738716</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02290357215717399</v>
+        <v>0.02115953843796402</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07571538121128857</v>
+        <v>0.1584569630483811</v>
       </c>
       <c r="L162" t="n">
-        <v>0.04253685059683657</v>
+        <v>0.04261728037502729</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07467960360756089</v>
+        <v>0.1580456536212412</v>
       </c>
       <c r="N162" t="n">
-        <v>0.06338856574013307</v>
+        <v>0.06374969460912017</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07436997313276698</v>
+        <v>0.1586645219722619</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.04701301692080495</v>
+        <v>0.0187155772250779</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0531836212591486</v>
+        <v>0.1594771997385507</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02295478758167251</v>
+        <v>0.02135002810717519</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07649595215161113</v>
+        <v>0.1600905399870242</v>
       </c>
       <c r="L163" t="n">
-        <v>0.04259227481638603</v>
+        <v>0.04329968376430485</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07544949642825739</v>
+        <v>0.1596749902565117</v>
       </c>
       <c r="N163" t="n">
-        <v>0.06338160689768169</v>
+        <v>0.06502834718070044</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07513667388671302</v>
+        <v>0.1603002386936254</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.04701587954676838</v>
+        <v>0.0179569317823048</v>
       </c>
       <c r="G164" t="n">
-        <v>0.05372631127199706</v>
+        <v>0.1611045181032298</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02280251018100737</v>
+        <v>0.02173548543152652</v>
       </c>
       <c r="K164" t="n">
-        <v>0.0772765230919337</v>
+        <v>0.1617241169256673</v>
       </c>
       <c r="L164" t="n">
-        <v>0.04215192718765409</v>
+        <v>0.04406591570352392</v>
       </c>
       <c r="M164" t="n">
-        <v>0.0762193892489539</v>
+        <v>0.1613043268917823</v>
       </c>
       <c r="N164" t="n">
-        <v>0.06225331856442889</v>
+        <v>0.06519641100709855</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07590337464065909</v>
+        <v>0.1619359554149889</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.04701587954676838</v>
+        <v>0.01718017927313682</v>
       </c>
       <c r="G165" t="n">
-        <v>0.05372631127199706</v>
+        <v>0.1627318364679089</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02254688548685907</v>
+        <v>0.02190427976599268</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07805709403225626</v>
+        <v>0.1633576938643104</v>
       </c>
       <c r="L165" t="n">
-        <v>0.04191533397092567</v>
+        <v>0.04429276321313222</v>
       </c>
       <c r="M165" t="n">
-        <v>0.0769892820696504</v>
+        <v>0.1629336635270528</v>
       </c>
       <c r="N165" t="n">
-        <v>0.06150514753922914</v>
+        <v>0.06641858902156661</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07667007539460513</v>
+        <v>0.1635716721363524</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.04619000559346559</v>
+        <v>0.01937538595587242</v>
       </c>
       <c r="G166" t="n">
-        <v>0.05372604274353304</v>
+        <v>0.164359154832588</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02228805903090808</v>
+        <v>0.0221447804655483</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07883766497257882</v>
+        <v>0.1649912708029535</v>
       </c>
       <c r="L166" t="n">
-        <v>0.04158202142648557</v>
+        <v>0.04505701331357725</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07775917489034691</v>
+        <v>0.1645630001623234</v>
       </c>
       <c r="N166" t="n">
-        <v>0.06083854062093724</v>
+        <v>0.06745958415735726</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07743677614855118</v>
+        <v>0.165207388857716</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.04537360093859452</v>
+        <v>0.01955053384241202</v>
       </c>
       <c r="G167" t="n">
-        <v>0.05372577421506902</v>
+        <v>0.1659864731972671</v>
       </c>
       <c r="J167" t="n">
-        <v>0.0222261763448349</v>
+        <v>0.02235309692187948</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07961823591290138</v>
+        <v>0.1666248477415966</v>
       </c>
       <c r="L167" t="n">
-        <v>0.04165151581461862</v>
+        <v>0.04526725055205424</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07852906771104341</v>
+        <v>0.1661923367975938</v>
       </c>
       <c r="N167" t="n">
-        <v>0.06045494460840767</v>
+        <v>0.06729859800356314</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07820347690249724</v>
+        <v>0.1668431055790795</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04456716720982158</v>
+        <v>0.01772133465760992</v>
       </c>
       <c r="G168" t="n">
-        <v>0.053725505686605</v>
+        <v>0.1676137915619462</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02216138296032001</v>
+        <v>0.02255337548428027</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08039880685322394</v>
+        <v>0.1682584246802397</v>
       </c>
       <c r="L168" t="n">
-        <v>0.04122334339560962</v>
+        <v>0.04566655975419714</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07929896053173992</v>
+        <v>0.1678216734328644</v>
       </c>
       <c r="N168" t="n">
-        <v>0.05925580630049504</v>
+        <v>0.06800675025783492</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07897017765644328</v>
+        <v>0.168478822300443</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04377120603491826</v>
+        <v>0.01788810660765043</v>
       </c>
       <c r="G169" t="n">
-        <v>0.05372523715814098</v>
+        <v>0.1692411099266252</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02179382440904389</v>
+        <v>0.02274881933248894</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08117937779354652</v>
+        <v>0.1698920016188828</v>
       </c>
       <c r="L169" t="n">
-        <v>0.04109703042974333</v>
+        <v>0.04575637847448258</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08006885335243642</v>
+        <v>0.1694510100681349</v>
       </c>
       <c r="N169" t="n">
-        <v>0.05864257249605404</v>
+        <v>0.06890010853583228</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07973687841038934</v>
+        <v>0.1701145390218065</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04298621904155055</v>
+        <v>0.01805116482071872</v>
       </c>
       <c r="G170" t="n">
-        <v>0.05372496862967697</v>
+        <v>0.1708684282913044</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02172364622268706</v>
+        <v>0.02303979742557143</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08195994873386907</v>
+        <v>0.171525578557526</v>
       </c>
       <c r="L170" t="n">
-        <v>0.04067210317730469</v>
+        <v>0.04613744309848797</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08083874617313293</v>
+        <v>0.1710803467034055</v>
       </c>
       <c r="N170" t="n">
-        <v>0.05721668999393908</v>
+        <v>0.06967979256674917</v>
       </c>
       <c r="O170" t="n">
-        <v>0.0805035791643354</v>
+        <v>0.1717502557431701</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04221270785741971</v>
+        <v>0.01821082442500001</v>
       </c>
       <c r="G171" t="n">
-        <v>0.05372470010121295</v>
+        <v>0.1724957466559834</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02165099393292998</v>
+        <v>0.02312667872259365</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08274051967419163</v>
+        <v>0.1731591554961691</v>
       </c>
       <c r="L171" t="n">
-        <v>0.04054808789857844</v>
+        <v>0.04651049001179078</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08160863899382943</v>
+        <v>0.172709683338676</v>
       </c>
       <c r="N171" t="n">
-        <v>0.05647960559300486</v>
+        <v>0.07004692207977908</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08127027991828144</v>
+        <v>0.1733859724645336</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04145117411019421</v>
+        <v>0.01836740054867944</v>
       </c>
       <c r="G172" t="n">
-        <v>0.05372443157274893</v>
+        <v>0.1741230650206625</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02147601307145315</v>
+        <v>0.02340983218262153</v>
       </c>
       <c r="K172" t="n">
-        <v>0.0835210906145142</v>
+        <v>0.1747927324348122</v>
       </c>
       <c r="L172" t="n">
-        <v>0.04062451085384938</v>
+        <v>0.04727625559996854</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08237853181452594</v>
+        <v>0.1743390199739465</v>
       </c>
       <c r="N172" t="n">
-        <v>0.05563276609210599</v>
+        <v>0.07070261680411605</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08203698067222749</v>
+        <v>0.1750216891858971</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04070211942764158</v>
+        <v>0.01852120831994225</v>
       </c>
       <c r="G173" t="n">
-        <v>0.05372416304428491</v>
+        <v>0.1757503833853416</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02109884916993705</v>
+        <v>0.02348962676472101</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08430166155483676</v>
+        <v>0.1764263093734553</v>
       </c>
       <c r="L173" t="n">
-        <v>0.04010089830340238</v>
+        <v>0.04733547624859857</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08314842463522244</v>
+        <v>0.175968356609217</v>
       </c>
       <c r="N173" t="n">
-        <v>0.05527761829009709</v>
+        <v>0.0707479964689538</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08280368142617354</v>
+        <v>0.1766574059072606</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03996604543742975</v>
+        <v>0.02067256286697358</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0537238945158209</v>
+        <v>0.1773777017500207</v>
       </c>
       <c r="J174" t="n">
-        <v>0.0211196477600622</v>
+        <v>0.02366643142795802</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08508223249515932</v>
+        <v>0.1780598863120983</v>
       </c>
       <c r="L174" t="n">
-        <v>0.03987677650752222</v>
+        <v>0.0477888883432584</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08391831745591893</v>
+        <v>0.1775976932444876</v>
       </c>
       <c r="N174" t="n">
-        <v>0.05381560898583254</v>
+        <v>0.07188418080348602</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08357038218011958</v>
+        <v>0.1782931226286242</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03924345376725999</v>
+        <v>0.02082177931795864</v>
       </c>
       <c r="G175" t="n">
-        <v>0.05372362598735689</v>
+        <v>0.1790050201146998</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02083855437350904</v>
+        <v>0.02404061513139848</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08586280343548189</v>
+        <v>0.1796934632507415</v>
       </c>
       <c r="L175" t="n">
-        <v>0.03965167172649373</v>
+        <v>0.0484372282695254</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08468821027661544</v>
+        <v>0.1792270298797581</v>
       </c>
       <c r="N175" t="n">
-        <v>0.05304818497816727</v>
+        <v>0.07181228953690644</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08433708293406565</v>
+        <v>0.1799288393499877</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03853484604480306</v>
+        <v>0.02096917280108261</v>
       </c>
       <c r="G176" t="n">
-        <v>0.05372335745889286</v>
+        <v>0.1806323384793789</v>
       </c>
       <c r="J176" t="n">
-        <v>0.0206557145419581</v>
+        <v>0.02421254683410831</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08664337437580444</v>
+        <v>0.1813270401893846</v>
       </c>
       <c r="L176" t="n">
-        <v>0.03962511022060169</v>
+        <v>0.04838123241297712</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08545810309731194</v>
+        <v>0.1808563665150286</v>
       </c>
       <c r="N176" t="n">
-        <v>0.05277679306595556</v>
+        <v>0.07243344239840904</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08510378368801171</v>
+        <v>0.1815645560713512</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03784072389782199</v>
+        <v>0.0201150584445307</v>
       </c>
       <c r="G177" t="n">
-        <v>0.05372308893042885</v>
+        <v>0.182259656844058</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02047127379708985</v>
+        <v>0.02418259549515347</v>
       </c>
       <c r="K177" t="n">
-        <v>0.087423945316127</v>
+        <v>0.1829606171280277</v>
       </c>
       <c r="L177" t="n">
-        <v>0.03939661825013097</v>
+        <v>0.04912163715919096</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08622799591800845</v>
+        <v>0.1824857031502992</v>
       </c>
       <c r="N177" t="n">
-        <v>0.05130288004805228</v>
+        <v>0.07304875911718733</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08587048444195775</v>
+        <v>0.1832002727927147</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03716158895398684</v>
+        <v>0.01926249835134833</v>
       </c>
       <c r="G178" t="n">
-        <v>0.05372282040196483</v>
+        <v>0.1838869752087371</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02028537767058478</v>
+        <v>0.02445194029563628</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08820451625644958</v>
+        <v>0.1845941940666708</v>
       </c>
       <c r="L178" t="n">
-        <v>0.03926572207536635</v>
+        <v>0.04916372411880479</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08699788873870495</v>
+        <v>0.1841150397855697</v>
       </c>
       <c r="N178" t="n">
-        <v>0.05082789272331178</v>
+        <v>0.07386040510164182</v>
       </c>
       <c r="O178" t="n">
-        <v>0.0866371851959038</v>
+        <v>0.1848359895140783</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03649794284099898</v>
+        <v>0.02041858751429923</v>
       </c>
       <c r="G179" t="n">
-        <v>0.05372255187350081</v>
+        <v>0.1855142935734161</v>
       </c>
       <c r="J179" t="n">
-        <v>0.01999817169412337</v>
+        <v>0.02473034040109146</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08898508719677213</v>
+        <v>0.1862277710053139</v>
       </c>
       <c r="L179" t="n">
-        <v>0.03883194795659264</v>
+        <v>0.04972580455383874</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08776778155940146</v>
+        <v>0.1857443764208402</v>
       </c>
       <c r="N179" t="n">
-        <v>0.04975327789058881</v>
+        <v>0.0738968738541948</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08740388594984985</v>
+        <v>0.1864717062354418</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03585028718653183</v>
+        <v>0.02157880892288119</v>
       </c>
       <c r="G180" t="n">
-        <v>0.05372228334503679</v>
+        <v>0.1871416119380952</v>
       </c>
       <c r="J180" t="n">
-        <v>0.01990980139938613</v>
+        <v>0.02471562410397034</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08976565813709469</v>
+        <v>0.187861347943957</v>
       </c>
       <c r="L180" t="n">
-        <v>0.03869482215409475</v>
+        <v>0.0499988610802391</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08853767438009796</v>
+        <v>0.1873737130561107</v>
       </c>
       <c r="N180" t="n">
-        <v>0.04928048234873789</v>
+        <v>0.07505634465733951</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08817058670379591</v>
+        <v>0.1881074229568053</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03521912361834308</v>
+        <v>0.02073774923067322</v>
       </c>
       <c r="G181" t="n">
-        <v>0.05372201481657277</v>
+        <v>0.1887689303027743</v>
       </c>
       <c r="J181" t="n">
-        <v>0.01972041231805352</v>
+        <v>0.02500145333826384</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09054622907741726</v>
+        <v>0.1894949248826001</v>
       </c>
       <c r="L181" t="n">
-        <v>0.03825387092815738</v>
+        <v>0.05057024389256939</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08930756720079447</v>
+        <v>0.1890030496913813</v>
       </c>
       <c r="N181" t="n">
-        <v>0.04781095289661369</v>
+        <v>0.07531958253842519</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08893728745774196</v>
+        <v>0.1897431396781688</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03460495376410548</v>
+        <v>0.02088999509125432</v>
       </c>
       <c r="G182" t="n">
-        <v>0.05372174628810876</v>
+        <v>0.1903962486674534</v>
       </c>
       <c r="J182" t="n">
-        <v>0.01963014998180605</v>
+        <v>0.0250814900379628</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09132680001773982</v>
+        <v>0.1911285018212432</v>
       </c>
       <c r="L182" t="n">
-        <v>0.03810862053906536</v>
+        <v>0.05042730318539324</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09007746002149097</v>
+        <v>0.1906323863266518</v>
       </c>
       <c r="N182" t="n">
-        <v>0.0475461363330707</v>
+        <v>0.07586735252480087</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08970398821168801</v>
+        <v>0.1913788563995324</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03400827925152032</v>
+        <v>0.02203013315820347</v>
       </c>
       <c r="G183" t="n">
-        <v>0.05372147775964475</v>
+        <v>0.1920235670321325</v>
       </c>
       <c r="J183" t="n">
-        <v>0.01933915992232421</v>
+        <v>0.02544939613705814</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09210737095806239</v>
+        <v>0.1927620787598863</v>
       </c>
       <c r="L183" t="n">
-        <v>0.03765859724710358</v>
+        <v>0.0507573891532741</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09084735284218748</v>
+        <v>0.1922617229619223</v>
       </c>
       <c r="N183" t="n">
-        <v>0.04618747945696355</v>
+        <v>0.07628041964381582</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09047068896563405</v>
+        <v>0.1930145731208959</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03342960170826409</v>
+        <v>0.02115275008509968</v>
       </c>
       <c r="G184" t="n">
-        <v>0.05372120923118072</v>
+        <v>0.1936508853968116</v>
       </c>
       <c r="J184" t="n">
-        <v>0.0190475876712885</v>
+        <v>0.02559883356954071</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09288794189838495</v>
+        <v>0.1943956556985294</v>
       </c>
       <c r="L184" t="n">
-        <v>0.03750332731255679</v>
+        <v>0.05124785199077561</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09161724566288398</v>
+        <v>0.1938910595971929</v>
       </c>
       <c r="N184" t="n">
-        <v>0.04563642906714688</v>
+        <v>0.07703954892281895</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09123738971958011</v>
+        <v>0.1946502898422594</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.0328694227620885</v>
+        <v>0.02025243252552192</v>
       </c>
       <c r="G185" t="n">
-        <v>0.05372094070271671</v>
+        <v>0.1952782037614907</v>
       </c>
       <c r="J185" t="n">
-        <v>0.01905557876037937</v>
+        <v>0.02572346426940139</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09366851283870752</v>
+        <v>0.1960292326371725</v>
       </c>
       <c r="L185" t="n">
-        <v>0.03734233699570982</v>
+        <v>0.05178604189246128</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09238713848358049</v>
+        <v>0.1955203962324634</v>
       </c>
       <c r="N185" t="n">
-        <v>0.04449443196247527</v>
+        <v>0.07692550538915954</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09200409047352616</v>
+        <v>0.1962860065636229</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03232824404066924</v>
+        <v>0.02032394383688879</v>
       </c>
       <c r="G186" t="n">
-        <v>0.05372067217425269</v>
+        <v>0.1969055221261698</v>
       </c>
       <c r="J186" t="n">
-        <v>0.01866327872127732</v>
+        <v>0.02571695017063107</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09444908377903007</v>
+        <v>0.1976628095758156</v>
       </c>
       <c r="L186" t="n">
-        <v>0.03727515255684752</v>
+        <v>0.05165931150185041</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09315703130427699</v>
+        <v>0.1971497328677339</v>
       </c>
       <c r="N186" t="n">
-        <v>0.04376293494180328</v>
+        <v>0.07771905407018664</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09277079122747221</v>
+        <v>0.1979217232849865</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.0318065671717076</v>
+        <v>0.0223820583560093</v>
       </c>
       <c r="G187" t="n">
-        <v>0.05372040364578868</v>
+        <v>0.1985328404908488</v>
       </c>
       <c r="J187" t="n">
-        <v>0.01847083308566289</v>
+        <v>0.02568559909530861</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09522965471935263</v>
+        <v>0.1992963865144587</v>
       </c>
       <c r="L187" t="n">
-        <v>0.03670130025625468</v>
+        <v>0.05179505551189656</v>
       </c>
       <c r="M187" t="n">
-        <v>0.0939269241249735</v>
+        <v>0.1987790695030044</v>
       </c>
       <c r="N187" t="n">
-        <v>0.04294338480398552</v>
+        <v>0.0775300555626709</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09353749198141827</v>
+        <v>0.19955744000635</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03130489378288349</v>
+        <v>0.02243891522538914</v>
       </c>
       <c r="G188" t="n">
-        <v>0.05372013511732465</v>
+        <v>0.200160158855528</v>
       </c>
       <c r="J188" t="n">
-        <v>0.0184783873852165</v>
+        <v>0.02595209158306296</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09601022565967521</v>
+        <v>0.2009299634531018</v>
       </c>
       <c r="L188" t="n">
-        <v>0.03672030635421611</v>
+        <v>0.05172786875045882</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09469681694567</v>
+        <v>0.200408406138275</v>
       </c>
       <c r="N188" t="n">
-        <v>0.04183722834787656</v>
+        <v>0.07823176755353528</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09430419273536432</v>
+        <v>0.2011931567277135</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03082372550194187</v>
+        <v>0.022494494523181</v>
       </c>
       <c r="G189" t="n">
-        <v>0.05371986658886064</v>
+        <v>0.201787477220207</v>
       </c>
       <c r="J189" t="n">
-        <v>0.01818608715161867</v>
+        <v>0.02601710078399992</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09679079659999776</v>
+        <v>0.2025635403917449</v>
       </c>
       <c r="L189" t="n">
-        <v>0.03603169711101659</v>
+        <v>0.05215770466454137</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09546670976636651</v>
+        <v>0.2020377427735455</v>
       </c>
       <c r="N189" t="n">
-        <v>0.04114591237233112</v>
+        <v>0.07782899094286272</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09507089348931036</v>
+        <v>0.202828873449077</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03036151564344798</v>
+        <v>0.02154877632753752</v>
       </c>
       <c r="G190" t="n">
-        <v>0.05371959806039663</v>
+        <v>0.2034147955848861</v>
       </c>
       <c r="J190" t="n">
-        <v>0.01789407791654987</v>
+        <v>0.02608060337317898</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09757136754032032</v>
+        <v>0.204197117330388</v>
       </c>
       <c r="L190" t="n">
-        <v>0.03563499878694107</v>
+        <v>0.05198451670114851</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09623660258706301</v>
+        <v>0.203667079408816</v>
       </c>
       <c r="N190" t="n">
-        <v>0.04027088367620357</v>
+        <v>0.07822165494335098</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09583759424325641</v>
+        <v>0.2044645901704406</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02990647595642139</v>
+        <v>0.02060174071661132</v>
       </c>
       <c r="G191" t="n">
-        <v>0.05371932953193261</v>
+        <v>0.2050421139495652</v>
       </c>
       <c r="J191" t="n">
-        <v>0.0177025052116906</v>
+        <v>0.02614257602565953</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09835193848064289</v>
+        <v>0.2058306942690311</v>
       </c>
       <c r="L191" t="n">
-        <v>0.03532973764227418</v>
+        <v>0.05210825830728449</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09700649540775952</v>
+        <v>0.2052964160440865</v>
       </c>
       <c r="N191" t="n">
-        <v>0.04021358905834871</v>
+        <v>0.07900968876769782</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09660429499720247</v>
+        <v>0.2061003068918041</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02945705975543048</v>
+        <v>0.02065336776855509</v>
       </c>
       <c r="G192" t="n">
-        <v>0.05371906100346859</v>
+        <v>0.2066694323142443</v>
       </c>
       <c r="J192" t="n">
-        <v>0.0177115145687214</v>
+        <v>0.02620299541650101</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09913250942096545</v>
+        <v>0.2074642712076742</v>
       </c>
       <c r="L192" t="n">
-        <v>0.03521543993730086</v>
+        <v>0.0524288829299536</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09777638822845602</v>
+        <v>0.2069257526793571</v>
       </c>
       <c r="N192" t="n">
-        <v>0.03927547531762099</v>
+        <v>0.07839302162860118</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09737099575114852</v>
+        <v>0.2077360236131676</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02901376866821569</v>
+        <v>0.02070363756152149</v>
       </c>
       <c r="G193" t="n">
-        <v>0.05371879247500457</v>
+        <v>0.2082967506789234</v>
       </c>
       <c r="J193" t="n">
-        <v>0.01751557360387149</v>
+        <v>0.02606183822076287</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09991308036128801</v>
+        <v>0.2090978481463173</v>
       </c>
       <c r="L193" t="n">
-        <v>0.03478803024504284</v>
+        <v>0.05264634401616006</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09854628104915253</v>
+        <v>0.2085550893146276</v>
       </c>
       <c r="N193" t="n">
-        <v>0.03843574343115852</v>
+        <v>0.07857158273875875</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09813769650509457</v>
+        <v>0.2093717403345311</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02857710432245865</v>
+        <v>0.02175253017366315</v>
       </c>
       <c r="G194" t="n">
-        <v>0.05371852394654055</v>
+        <v>0.2099240690436025</v>
       </c>
       <c r="J194" t="n">
-        <v>0.0173080841634549</v>
+        <v>0.02611908111350454</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1006936513016106</v>
+        <v>0.2107314250849605</v>
       </c>
       <c r="L194" t="n">
-        <v>0.0345435121968419</v>
+        <v>0.05266059501290815</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09931617386984903</v>
+        <v>0.2101844259498981</v>
       </c>
       <c r="N194" t="n">
-        <v>0.03776933704629537</v>
+        <v>0.07904530131086862</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09890439725904061</v>
+        <v>0.2110074570558947</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02814756834586062</v>
+        <v>0.02080002568313272</v>
       </c>
       <c r="G195" t="n">
-        <v>0.05371825541807654</v>
+        <v>0.2115513874082816</v>
       </c>
       <c r="J195" t="n">
-        <v>0.01688991772667137</v>
+        <v>0.02637470076978547</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1014742222419331</v>
+        <v>0.2123650020236036</v>
       </c>
       <c r="L195" t="n">
-        <v>0.03428275335962927</v>
+        <v>0.05267158936720209</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1000860666905455</v>
+        <v>0.2118137625851687</v>
       </c>
       <c r="N195" t="n">
-        <v>0.03677874473357767</v>
+        <v>0.07901410655762831</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09967109801298667</v>
+        <v>0.2126431737772582</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0277256623661047</v>
+        <v>0.02084610416808287</v>
       </c>
       <c r="G196" t="n">
-        <v>0.05371798688961251</v>
+        <v>0.2131787057729607</v>
       </c>
       <c r="J196" t="n">
-        <v>0.01666197138894218</v>
+        <v>0.02622867386466508</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1022547931822557</v>
+        <v>0.2139985789622466</v>
       </c>
       <c r="L196" t="n">
-        <v>0.03410663208836284</v>
+        <v>0.05307928052604624</v>
       </c>
       <c r="M196" t="n">
-        <v>0.100855959511242</v>
+        <v>0.2134430992204392</v>
       </c>
       <c r="N196" t="n">
-        <v>0.03646652279459323</v>
+        <v>0.07927792769173569</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1004377987669327</v>
+        <v>0.2142788904986217</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02731188801092896</v>
+        <v>0.02089074570666624</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0537177183611485</v>
+        <v>0.2148060241376398</v>
       </c>
       <c r="J197" t="n">
-        <v>0.01642514224568856</v>
+        <v>0.02648097707320285</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1030353641225783</v>
+        <v>0.2156321559008897</v>
       </c>
       <c r="L197" t="n">
-        <v>0.03351602673800044</v>
+        <v>0.05318362193644474</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1016258523319385</v>
+        <v>0.2150724358557097</v>
       </c>
       <c r="N197" t="n">
-        <v>0.03563522753092974</v>
+        <v>0.07933669392588877</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1012044995208788</v>
+        <v>0.2159146072199852</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02690674690801612</v>
+        <v>0.02293393037703548</v>
       </c>
       <c r="G198" t="n">
-        <v>0.05371744983268448</v>
+        <v>0.2164333425023189</v>
       </c>
       <c r="J198" t="n">
-        <v>0.01628032739233175</v>
+        <v>0.02643158707045817</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1038159350629008</v>
+        <v>0.2172657328395328</v>
       </c>
       <c r="L198" t="n">
-        <v>0.03311181566349994</v>
+        <v>0.05308456704540193</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1023957451526351</v>
+        <v>0.2167017724909802</v>
       </c>
       <c r="N198" t="n">
-        <v>0.03458741524417513</v>
+        <v>0.07989033447278515</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1019712002748248</v>
+        <v>0.2175503239413487</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02651074068506745</v>
+        <v>0.02297563825734326</v>
       </c>
       <c r="G199" t="n">
-        <v>0.05371718130422047</v>
+        <v>0.2180606608669979</v>
       </c>
       <c r="J199" t="n">
-        <v>0.01592842392429303</v>
+        <v>0.02658048053149051</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1045965060032234</v>
+        <v>0.218899309778176</v>
       </c>
       <c r="L199" t="n">
-        <v>0.03289487721981921</v>
+        <v>0.05328206929992205</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1031656379733316</v>
+        <v>0.2183311091262508</v>
       </c>
       <c r="N199" t="n">
-        <v>0.03382564223591694</v>
+        <v>0.07963877854512302</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1027379010287709</v>
+        <v>0.2191860406627123</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02612437096976768</v>
+        <v>0.02101584942574224</v>
       </c>
       <c r="G200" t="n">
-        <v>0.05371691277575644</v>
+        <v>0.219687979231677</v>
       </c>
       <c r="J200" t="n">
-        <v>0.01577032893699362</v>
+        <v>0.02652763413135928</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1053770769435459</v>
+        <v>0.2205328867168191</v>
       </c>
       <c r="L200" t="n">
-        <v>0.03226608976191614</v>
+        <v>0.05357608214700929</v>
       </c>
       <c r="M200" t="n">
-        <v>0.103935530794028</v>
+        <v>0.2199604457615213</v>
       </c>
       <c r="N200" t="n">
-        <v>0.03275246480774308</v>
+        <v>0.08028195535559979</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1035046017827169</v>
+        <v>0.2208217573840758</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02574813938985174</v>
+        <v>0.02105454396038502</v>
       </c>
       <c r="G201" t="n">
-        <v>0.05371664424729243</v>
+        <v>0.2213152975963561</v>
       </c>
       <c r="J201" t="n">
-        <v>0.01560693952585479</v>
+        <v>0.02667302454512395</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1061576478838685</v>
+        <v>0.2221664636554622</v>
       </c>
       <c r="L201" t="n">
-        <v>0.03172633164474856</v>
+        <v>0.05356655903366805</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1047054236147246</v>
+        <v>0.2215897823967918</v>
       </c>
       <c r="N201" t="n">
-        <v>0.03167043926124147</v>
+        <v>0.0800197941169134</v>
       </c>
       <c r="O201" t="n">
-        <v>0.104271302536663</v>
+        <v>0.2224574741054393</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02538254757300387</v>
+        <v>0.02209170193942432</v>
       </c>
       <c r="G202" t="n">
-        <v>0.05371637571882842</v>
+        <v>0.2229426159610352</v>
       </c>
       <c r="J202" t="n">
-        <v>0.01523915278629777</v>
+        <v>0.02661662844784392</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1069382188241911</v>
+        <v>0.2238000405941053</v>
       </c>
       <c r="L202" t="n">
-        <v>0.03117648122327432</v>
+        <v>0.05335345340690245</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1054753164354211</v>
+        <v>0.2232191190320623</v>
       </c>
       <c r="N202" t="n">
-        <v>0.0304821218979997</v>
+        <v>0.08035222404176179</v>
       </c>
       <c r="O202" t="n">
-        <v>0.105038003290609</v>
+        <v>0.2240931908268028</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02502809714692539</v>
+        <v>0.02312730344101274</v>
       </c>
       <c r="G203" t="n">
-        <v>0.0537161071903644</v>
+        <v>0.2245699343257143</v>
       </c>
       <c r="J203" t="n">
-        <v>0.01506786581374382</v>
+        <v>0.02655842251457866</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1077187897645136</v>
+        <v>0.2254336175327484</v>
       </c>
       <c r="L203" t="n">
-        <v>0.03081741685245137</v>
+        <v>0.05333671871371687</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1062452092561176</v>
+        <v>0.2248484556673329</v>
       </c>
       <c r="N203" t="n">
-        <v>0.03019006901960575</v>
+        <v>0.08037917434284275</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1058047040445551</v>
+        <v>0.2257289075481664</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.0246852897393029</v>
+        <v>0.02216132854330295</v>
       </c>
       <c r="G204" t="n">
-        <v>0.05371583866190038</v>
+        <v>0.2261972526903934</v>
       </c>
       <c r="J204" t="n">
-        <v>0.01459397570361418</v>
+        <v>0.02659838342038759</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1084993607048362</v>
+        <v>0.2270671944713915</v>
       </c>
       <c r="L204" t="n">
-        <v>0.03035001688723749</v>
+        <v>0.05371630840111549</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1070151020768141</v>
+        <v>0.2264777923026034</v>
       </c>
       <c r="N204" t="n">
-        <v>0.02949683692764715</v>
+        <v>0.08040057423285413</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1065714047985011</v>
+        <v>0.2273646242695299</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02435462697786756</v>
+        <v>0.02119375732444764</v>
       </c>
       <c r="G205" t="n">
-        <v>0.05371557013343636</v>
+        <v>0.2278245710550725</v>
       </c>
       <c r="J205" t="n">
-        <v>0.0145183795513301</v>
+        <v>0.02683648784033017</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1092799316451588</v>
+        <v>0.2287007714100346</v>
       </c>
       <c r="L205" t="n">
-        <v>0.02977515968259059</v>
+        <v>0.0538921759161026</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1077849948975106</v>
+        <v>0.2281071289378739</v>
       </c>
       <c r="N205" t="n">
-        <v>0.02850498192371193</v>
+        <v>0.0811163529244936</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1073381055524472</v>
+        <v>0.2290003409908934</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02403661049030546</v>
+        <v>0.02222456986259939</v>
       </c>
       <c r="G206" t="n">
-        <v>0.05371530160497234</v>
+        <v>0.2294518894197515</v>
       </c>
       <c r="J206" t="n">
-        <v>0.01404197445231285</v>
+        <v>0.02687271244946582</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1100605025854813</v>
+        <v>0.2303343483486777</v>
       </c>
       <c r="L206" t="n">
-        <v>0.02939372359346853</v>
+        <v>0.05356427470568242</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1085548877182071</v>
+        <v>0.2297364655731445</v>
       </c>
       <c r="N206" t="n">
-        <v>0.02741706030938768</v>
+        <v>0.08052643963045908</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1081048063063932</v>
+        <v>0.230636057712257</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02373174190431793</v>
+        <v>0.02325374623591092</v>
       </c>
       <c r="G207" t="n">
-        <v>0.05371503307650833</v>
+        <v>0.2310792077844307</v>
       </c>
       <c r="J207" t="n">
-        <v>0.01396565750198368</v>
+        <v>0.026807033922854</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1108410735258039</v>
+        <v>0.2319679252873208</v>
       </c>
       <c r="L207" t="n">
-        <v>0.02910658697482915</v>
+        <v>0.05413255821685925</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1093247805389036</v>
+        <v>0.231365802208415</v>
       </c>
       <c r="N207" t="n">
-        <v>0.02623562838626237</v>
+        <v>0.08103076356344846</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1088715070603393</v>
+        <v>0.2322717744336205</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02344052284759386</v>
+        <v>0.02328126652253483</v>
       </c>
       <c r="G208" t="n">
-        <v>0.0537147645480443</v>
+        <v>0.2327065261491097</v>
       </c>
       <c r="J208" t="n">
-        <v>0.01369032579576379</v>
+        <v>0.0268394289355541</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1116216444661264</v>
+        <v>0.2336015022259639</v>
       </c>
       <c r="L208" t="n">
-        <v>0.02841462818163037</v>
+        <v>0.05399697989663738</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1100946733596001</v>
+        <v>0.2329951388436855</v>
       </c>
       <c r="N208" t="n">
-        <v>0.02516324245592355</v>
+        <v>0.0807292539361596</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1096382078142853</v>
+        <v>0.233907491154984</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02316345494785992</v>
+        <v>0.02130711080062382</v>
       </c>
       <c r="G209" t="n">
-        <v>0.05371449601958029</v>
+        <v>0.2343338445137888</v>
       </c>
       <c r="J209" t="n">
-        <v>0.01341687642907448</v>
+        <v>0.0268698741626256</v>
       </c>
       <c r="K209" t="n">
-        <v>0.112402215406449</v>
+        <v>0.235235079164607</v>
       </c>
       <c r="L209" t="n">
-        <v>0.02801872556883001</v>
+        <v>0.05425749319202103</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1108645661802966</v>
+        <v>0.2346244754789561</v>
       </c>
       <c r="N209" t="n">
-        <v>0.02480245881995924</v>
+        <v>0.08152183996129009</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1104049085682314</v>
+        <v>0.2355432078763475</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02290103983280439</v>
+        <v>0.02133125914833051</v>
       </c>
       <c r="G210" t="n">
-        <v>0.05371422749111628</v>
+        <v>0.2359611628784679</v>
       </c>
       <c r="J210" t="n">
-        <v>0.01314620649733698</v>
+        <v>0.02699834627912792</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1131827863467716</v>
+        <v>0.2368686561032501</v>
       </c>
       <c r="L210" t="n">
-        <v>0.02721975749138592</v>
+        <v>0.0540140515500144</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1116344590009931</v>
+        <v>0.2362538121142266</v>
       </c>
       <c r="N210" t="n">
-        <v>0.02355583377995712</v>
+        <v>0.08110845085153801</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1111716093221775</v>
+        <v>0.237178924597711</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.0226537791301286</v>
+        <v>0.02335369164380756</v>
       </c>
       <c r="G211" t="n">
-        <v>0.05371395896265226</v>
+        <v>0.237588481243147</v>
       </c>
       <c r="J211" t="n">
-        <v>0.01287921309597255</v>
+        <v>0.02682482196012051</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1139633572870941</v>
+        <v>0.2385022330418932</v>
       </c>
       <c r="L211" t="n">
-        <v>0.026918602304256</v>
+        <v>0.05426660841762188</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1124043518216896</v>
+        <v>0.2378831487494971</v>
       </c>
       <c r="N211" t="n">
-        <v>0.02302592363750494</v>
+        <v>0.081489015819601</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1119383100761235</v>
+        <v>0.2388146413190746</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02242217446752409</v>
+        <v>0.02237438836520762</v>
       </c>
       <c r="G212" t="n">
-        <v>0.05371369043418824</v>
+        <v>0.2392157996078261</v>
       </c>
       <c r="J212" t="n">
-        <v>0.01261679332040241</v>
+        <v>0.02694927788066281</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1147439282274167</v>
+        <v>0.2401358099805363</v>
       </c>
       <c r="L212" t="n">
-        <v>0.02651613836239811</v>
+        <v>0.0540151172418476</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1131742446423861</v>
+        <v>0.2395124853847676</v>
       </c>
       <c r="N212" t="n">
-        <v>0.02201528469419062</v>
+        <v>0.08156346407817699</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1127050108300695</v>
+        <v>0.2404503580404381</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02220672747271234</v>
+        <v>0.02139332939068339</v>
       </c>
       <c r="G213" t="n">
-        <v>0.05371342190572422</v>
+        <v>0.2408431179725052</v>
       </c>
       <c r="J213" t="n">
-        <v>0.01215984426604785</v>
+        <v>0.02687169071581426</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1155244991677393</v>
+        <v>0.2417693869191794</v>
       </c>
       <c r="L213" t="n">
-        <v>0.0257132440207701</v>
+        <v>0.05425953146969595</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1139441374630826</v>
+        <v>0.2411418220200382</v>
       </c>
       <c r="N213" t="n">
-        <v>0.0214264732516018</v>
+        <v>0.08123172483996388</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1134717115840156</v>
+        <v>0.2420860747618016</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02200793977338418</v>
+        <v>0.02341049479838744</v>
       </c>
       <c r="G214" t="n">
-        <v>0.05371315337726021</v>
+        <v>0.2424704363371843</v>
       </c>
       <c r="J214" t="n">
-        <v>0.01210926302833009</v>
+        <v>0.02689203714063428</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1163050701080618</v>
+        <v>0.2434029638578225</v>
       </c>
       <c r="L214" t="n">
-        <v>0.02571079763432993</v>
+        <v>0.05409980454817104</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1147140302837791</v>
+        <v>0.2427711586553087</v>
       </c>
       <c r="N214" t="n">
-        <v>0.02036204561132632</v>
+        <v>0.08139372731765926</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1142384123379617</v>
+        <v>0.2437217914831651</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02200793977338418</v>
+        <v>0.02242586466647246</v>
       </c>
       <c r="G215" t="n">
-        <v>0.05371315337726021</v>
+        <v>0.2440977547018633</v>
       </c>
       <c r="J215" t="n">
-        <v>0.01166594670267039</v>
+        <v>0.02691029383018231</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1170856410483844</v>
+        <v>0.2450365407964657</v>
       </c>
       <c r="L215" t="n">
-        <v>0.02500967755803529</v>
+        <v>0.05433588992427726</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1154839231044756</v>
+        <v>0.2444004952905792</v>
       </c>
       <c r="N215" t="n">
-        <v>0.01952455807495196</v>
+        <v>0.08194940072396112</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1150051130919077</v>
+        <v>0.2453575082045286</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.0214297442399118</v>
+        <v>0.02343941907309115</v>
       </c>
       <c r="G216" t="n">
-        <v>0.05362893392873574</v>
+        <v>0.2457250730665424</v>
       </c>
       <c r="J216" t="n">
-        <v>0.01153079238448999</v>
+        <v>0.0270264374595178</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1178662119887069</v>
+        <v>0.2466701177351088</v>
       </c>
       <c r="L216" t="n">
-        <v>0.02471076214684417</v>
+        <v>0.05406774104501882</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1162538159251721</v>
+        <v>0.2460298319258498</v>
       </c>
       <c r="N216" t="n">
-        <v>0.0196165669440666</v>
+        <v>0.08179867427156728</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1157718138458537</v>
+        <v>0.2469932249258922</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02085827997775576</v>
+        <v>0.02245113809639608</v>
       </c>
       <c r="G217" t="n">
-        <v>0.0535447144802113</v>
+        <v>0.2473523914312215</v>
       </c>
       <c r="J217" t="n">
-        <v>0.01130469716921015</v>
+        <v>0.02694044470370019</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1186467829290295</v>
+        <v>0.2483036946737519</v>
       </c>
       <c r="L217" t="n">
-        <v>0.02421492975571443</v>
+        <v>0.05409531135739995</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1170237087458686</v>
+        <v>0.2476591685611203</v>
       </c>
       <c r="N217" t="n">
-        <v>0.01894062852025785</v>
+        <v>0.08174147717317554</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1165385145997998</v>
+        <v>0.2486289416472557</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02029394231165403</v>
+        <v>0.02346100181453996</v>
       </c>
       <c r="G218" t="n">
-        <v>0.05346049503168684</v>
+        <v>0.2489797097959006</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01108855815225212</v>
+        <v>0.02705229223778892</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1194273538693521</v>
+        <v>0.249937271612395</v>
       </c>
       <c r="L218" t="n">
-        <v>0.02332305873960389</v>
+        <v>0.05461855430842499</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1177936015665651</v>
+        <v>0.2492885051963908</v>
       </c>
       <c r="N218" t="n">
-        <v>0.01829929910511352</v>
+        <v>0.08197773864148378</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1173052153537458</v>
+        <v>0.2502646583686192</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01973712656634478</v>
+        <v>0.02346899030567541</v>
       </c>
       <c r="G219" t="n">
-        <v>0.05337627558316238</v>
+        <v>0.2506070281605797</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01098327242903714</v>
+        <v>0.0269619567368434</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1202079248096746</v>
+        <v>0.2515708485510381</v>
       </c>
       <c r="L219" t="n">
-        <v>0.02273602745347045</v>
+        <v>0.05433742334509811</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1185634943872616</v>
+        <v>0.2509178418316613</v>
       </c>
       <c r="N219" t="n">
-        <v>0.0169951350002216</v>
+        <v>0.08130738788918968</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1180719161076919</v>
+        <v>0.2519003750899828</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01918822806656623</v>
+        <v>0.02247508364795511</v>
       </c>
       <c r="G220" t="n">
-        <v>0.05329205613463793</v>
+        <v>0.2522343465252588</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01078973709498646</v>
+        <v>0.02706941487592311</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1209884957499972</v>
+        <v>0.2532044254896812</v>
       </c>
       <c r="L220" t="n">
-        <v>0.02235471425227198</v>
+        <v>0.05465187191442361</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1193333872079581</v>
+        <v>0.2525471784669319</v>
       </c>
       <c r="N220" t="n">
-        <v>0.01693069250716961</v>
+        <v>0.08173035412899116</v>
       </c>
       <c r="O220" t="n">
-        <v>0.118838616861638</v>
+        <v>0.2535360918113463</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01864764213705633</v>
+        <v>0.02247926191953169</v>
       </c>
       <c r="G221" t="n">
-        <v>0.05320783668611347</v>
+        <v>0.2538616648899379</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01050884924552133</v>
+        <v>0.02697464333008746</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1217690666903198</v>
+        <v>0.2548380024283243</v>
       </c>
       <c r="L221" t="n">
-        <v>0.02207999749096631</v>
+        <v>0.0543618534634058</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1201032800286546</v>
+        <v>0.2541765151022024</v>
       </c>
       <c r="N221" t="n">
-        <v>0.01650852792754548</v>
+        <v>0.08144656657358607</v>
       </c>
       <c r="O221" t="n">
-        <v>0.119605317615584</v>
+        <v>0.2551718085327098</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01811576410255328</v>
+        <v>0.02248150519855784</v>
       </c>
       <c r="G222" t="n">
-        <v>0.05312361723758902</v>
+        <v>0.255488983254617</v>
       </c>
       <c r="J222" t="n">
-        <v>0.01044150597606301</v>
+        <v>0.0269776187743959</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1225496376306423</v>
+        <v>0.2564715793669674</v>
       </c>
       <c r="L222" t="n">
-        <v>0.02161275552451133</v>
+        <v>0.05416732143904882</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1208731728493511</v>
+        <v>0.2558058517374729</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01563119756293696</v>
+        <v>0.08215595443567225</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1203720183695301</v>
+        <v>0.2568075252540734</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01759298928779519</v>
+        <v>0.02247808361699741</v>
       </c>
       <c r="G223" t="n">
-        <v>0.05303939778906455</v>
+        <v>0.2571163016192961</v>
       </c>
       <c r="J223" t="n">
-        <v>0.01008860438203273</v>
+        <v>0.02697699652193702</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1233302085709649</v>
+        <v>0.2581051563056105</v>
       </c>
       <c r="L223" t="n">
-        <v>0.0208538667078649</v>
+        <v>0.05466189050670484</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1216430656700477</v>
+        <v>0.2574351883727434</v>
       </c>
       <c r="N223" t="n">
-        <v>0.01520125771493186</v>
+        <v>0.08185634996489427</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1211387191234761</v>
+        <v>0.2584432419754369</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01707971301752025</v>
+        <v>0.02342748906474022</v>
       </c>
       <c r="G224" t="n">
-        <v>0.05295517834054011</v>
+        <v>0.2587436199839752</v>
       </c>
       <c r="J224" t="n">
-        <v>0.009951041558851764</v>
+        <v>0.02702861287330556</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1241107795112875</v>
+        <v>0.2597387332442536</v>
       </c>
       <c r="L224" t="n">
-        <v>0.02070420939598486</v>
+        <v>0.05425064537273641</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1224129584907442</v>
+        <v>0.259064525008014</v>
       </c>
       <c r="N224" t="n">
-        <v>0.01502126468511789</v>
+        <v>0.08122078251621384</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1219054198774222</v>
+        <v>0.2600789586968004</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01657633061646643</v>
+        <v>0.02232302622124323</v>
       </c>
       <c r="G225" t="n">
-        <v>0.05287095889201564</v>
+        <v>0.2603709383486543</v>
       </c>
       <c r="J225" t="n">
-        <v>0.009929714601941343</v>
+        <v>0.02681628634066076</v>
       </c>
       <c r="K225" t="n">
-        <v>0.12489135045161</v>
+        <v>0.2613723101828967</v>
       </c>
       <c r="L225" t="n">
-        <v>0.02036466194382916</v>
+        <v>0.05411295868827701</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1231828513114407</v>
+        <v>0.2606938616432845</v>
       </c>
       <c r="N225" t="n">
-        <v>0.01449377477508301</v>
+        <v>0.08119025822860981</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1226721206313682</v>
+        <v>0.2617146754181639</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01608323740937193</v>
+        <v>0.0211709055905842</v>
       </c>
       <c r="G226" t="n">
-        <v>0.05278673944349119</v>
+        <v>0.2619982567133333</v>
       </c>
       <c r="J226" t="n">
-        <v>0.009725520606722722</v>
+        <v>0.02664728831987015</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1256719213919326</v>
+        <v>0.2630058871215398</v>
       </c>
       <c r="L226" t="n">
-        <v>0.01983610270635558</v>
+        <v>0.0538633430416845</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1239527441321372</v>
+        <v>0.262323198278555</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01392134428641478</v>
+        <v>0.08088684457510059</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1234388213853143</v>
+        <v>0.2633503921395274</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01560082872097492</v>
+        <v>0.02097733767684098</v>
       </c>
       <c r="G227" t="n">
-        <v>0.05270251999496674</v>
+        <v>0.2636255750780124</v>
       </c>
       <c r="J227" t="n">
-        <v>0.009639356668617129</v>
+        <v>0.02642889020680124</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1264524923322551</v>
+        <v>0.2646394640601828</v>
       </c>
       <c r="L227" t="n">
-        <v>0.01951941003852203</v>
+        <v>0.0534163110213168</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1247226369528337</v>
+        <v>0.2639525349138255</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01430652952070116</v>
+        <v>0.07993260902870458</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1242055221392603</v>
+        <v>0.2649861088608909</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01512949987601338</v>
+        <v>0.02174853298409139</v>
       </c>
       <c r="G228" t="n">
-        <v>0.05261830054644228</v>
+        <v>0.2652528934426915</v>
       </c>
       <c r="J228" t="n">
-        <v>0.009672119883045852</v>
+        <v>0.02626836339732154</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1272330632725777</v>
+        <v>0.266273040998826</v>
       </c>
       <c r="L228" t="n">
-        <v>0.01891546229528634</v>
+        <v>0.05268637521553174</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1254925297735302</v>
+        <v>0.2655818715490961</v>
       </c>
       <c r="N228" t="n">
-        <v>0.0139518867795298</v>
+        <v>0.07974961906244021</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1249722228932064</v>
+        <v>0.2666218255822545</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01466964619922555</v>
+        <v>0.02049070201641325</v>
       </c>
       <c r="G229" t="n">
-        <v>0.05253408109791782</v>
+        <v>0.2668802118073706</v>
       </c>
       <c r="J229" t="n">
-        <v>0.009724707345430107</v>
+        <v>0.02607297928729856</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1280136342129003</v>
+        <v>0.2679066179374691</v>
       </c>
       <c r="L229" t="n">
-        <v>0.01872513783160643</v>
+        <v>0.05198804821268727</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1262624225942267</v>
+        <v>0.2672112081843666</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01355997236448864</v>
+        <v>0.07825994214932602</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1257389236471524</v>
+        <v>0.268257542303618</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01422166301534948</v>
+        <v>0.02221005527788435</v>
       </c>
       <c r="G230" t="n">
-        <v>0.05244986164939337</v>
+        <v>0.2685075301720497</v>
       </c>
       <c r="J230" t="n">
-        <v>0.009497891484663457</v>
+        <v>0.02555000927259983</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1287942051532228</v>
+        <v>0.2695401948761122</v>
       </c>
       <c r="L230" t="n">
-        <v>0.01824924397751621</v>
+        <v>0.0513358426011413</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1270323154149232</v>
+        <v>0.2688405448196372</v>
       </c>
       <c r="N230" t="n">
-        <v>0.0137329948347571</v>
+        <v>0.07758564576238036</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1265056244010985</v>
+        <v>0.2698932590249815</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01378594564912329</v>
+        <v>0.02191280327258255</v>
       </c>
       <c r="G231" t="n">
-        <v>0.05236564220086891</v>
+        <v>0.2701348485367288</v>
       </c>
       <c r="J231" t="n">
-        <v>0.0095797837979434</v>
+        <v>0.02530672474909286</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1295747760935454</v>
+        <v>0.2711737718147553</v>
       </c>
       <c r="L231" t="n">
-        <v>0.01758094213014458</v>
+        <v>0.05094427096925166</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1278022082356197</v>
+        <v>0.2704698814549077</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01373300268062744</v>
+        <v>0.07634879737462169</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1272723251550445</v>
+        <v>0.271528975746345</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01336288942528513</v>
+        <v>0.02060515650458565</v>
       </c>
       <c r="G232" t="n">
-        <v>0.05228142275234446</v>
+        <v>0.2717621669014079</v>
       </c>
       <c r="J232" t="n">
-        <v>0.009562120230497309</v>
+        <v>0.02505039711264517</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1303553470338679</v>
+        <v>0.2728073487533984</v>
       </c>
       <c r="L232" t="n">
-        <v>0.01721531581364158</v>
+        <v>0.04992784590537624</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1285721010563162</v>
+        <v>0.2720992180901782</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01403304936444494</v>
+        <v>0.07547146445906844</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1280390259089906</v>
+        <v>0.2731646924677086</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01295288966857307</v>
+        <v>0.02129332547797148</v>
       </c>
       <c r="G233" t="n">
-        <v>0.05219720330381999</v>
+        <v>0.2733894852660869</v>
       </c>
       <c r="J233" t="n">
-        <v>0.009544906715621658</v>
+        <v>0.02448829775912424</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1311359179741905</v>
+        <v>0.2744409256920415</v>
       </c>
       <c r="L233" t="n">
-        <v>0.01685241307148103</v>
+        <v>0.04910107999787303</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1293419938770127</v>
+        <v>0.2737285547254487</v>
       </c>
       <c r="N233" t="n">
-        <v>0.0139331701491715</v>
+        <v>0.07397571448873913</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1288057266629366</v>
+        <v>0.2748004091890721</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01255634170372529</v>
+        <v>0.02098352069681783</v>
       </c>
       <c r="G234" t="n">
-        <v>0.05211298385529554</v>
+        <v>0.2750168036307661</v>
       </c>
       <c r="J234" t="n">
-        <v>0.009428149186612902</v>
+        <v>0.02412769808439763</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1319164889145131</v>
+        <v>0.2760745026306846</v>
       </c>
       <c r="L234" t="n">
-        <v>0.01679228194713689</v>
+        <v>0.04867848583509979</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1301118866977092</v>
+        <v>0.2753578913607193</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01343340029776896</v>
+        <v>0.07328361493665209</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1295724274168827</v>
+        <v>0.2764361259104356</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01217364085547985</v>
+        <v>0.02068195266520255</v>
       </c>
       <c r="G235" t="n">
-        <v>0.05202876440677109</v>
+        <v>0.2766441219954451</v>
       </c>
       <c r="J235" t="n">
-        <v>0.009611853576767498</v>
+        <v>0.02377586948433284</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1326970598548357</v>
+        <v>0.2777080795693277</v>
       </c>
       <c r="L235" t="n">
-        <v>0.01633497048408306</v>
+        <v>0.04787457600541453</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1308817795184057</v>
+        <v>0.2769872279959897</v>
       </c>
       <c r="N235" t="n">
-        <v>0.01343377507319926</v>
+        <v>0.07211723327582581</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1303391281708287</v>
+        <v>0.2780718426317992</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01180518244857488</v>
+        <v>0.01839483188720346</v>
       </c>
       <c r="G236" t="n">
-        <v>0.05194454495824663</v>
+        <v>0.2782714403601242</v>
       </c>
       <c r="J236" t="n">
-        <v>0.009496025819381922</v>
+        <v>0.02344008335479739</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1334776307951582</v>
+        <v>0.2793416565079708</v>
       </c>
       <c r="L236" t="n">
-        <v>0.01598052672579336</v>
+        <v>0.04740386309717504</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1316516723391022</v>
+        <v>0.2786165646312603</v>
       </c>
       <c r="N236" t="n">
-        <v>0.0136343297384241</v>
+        <v>0.0711986369792787</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1311058289247748</v>
+        <v>0.2797075593531627</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01145136180774852</v>
+        <v>0.01912836886689837</v>
       </c>
       <c r="G237" t="n">
-        <v>0.05186032550972217</v>
+        <v>0.2798987587248034</v>
       </c>
       <c r="J237" t="n">
-        <v>0.009480671847752635</v>
+        <v>0.02312761109165876</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1342582017354808</v>
+        <v>0.280975233446614</v>
       </c>
       <c r="L237" t="n">
-        <v>0.01572899871574171</v>
+        <v>0.04688085969873923</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1324215651597987</v>
+        <v>0.2802459012665308</v>
       </c>
       <c r="N237" t="n">
-        <v>0.01423509955640545</v>
+        <v>0.07024989352002931</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1318725296787208</v>
+        <v>0.2813432760745262</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01111257425773887</v>
+        <v>0.01888212056765746</v>
       </c>
       <c r="G238" t="n">
-        <v>0.05177610606119772</v>
+        <v>0.2815260770894824</v>
       </c>
       <c r="J238" t="n">
-        <v>0.009565797595176097</v>
+        <v>0.02294024027915846</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1350387726758033</v>
+        <v>0.282608810385257</v>
       </c>
       <c r="L238" t="n">
-        <v>0.0155804344974021</v>
+        <v>0.04600611213759517</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1331914579804952</v>
+        <v>0.2818752379018014</v>
       </c>
       <c r="N238" t="n">
-        <v>0.0141361197901051</v>
+        <v>0.06897851568309332</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1326392304326669</v>
+        <v>0.2829789927958897</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01078921512328402</v>
+        <v>0.01763672383190819</v>
       </c>
       <c r="G239" t="n">
-        <v>0.05169188661267327</v>
+        <v>0.2831533954541615</v>
       </c>
       <c r="J239" t="n">
-        <v>0.00955140899494878</v>
+        <v>0.02265522675172378</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1358193436161259</v>
+        <v>0.2842423873239001</v>
       </c>
       <c r="L239" t="n">
-        <v>0.01483488211424833</v>
+        <v>0.04543416148510579</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1339613508011917</v>
+        <v>0.2835045745370719</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01363742570248488</v>
+        <v>0.06841591739405517</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1334059311866129</v>
+        <v>0.2846147095172533</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01048006548644149</v>
+        <v>0.01839039665610134</v>
       </c>
       <c r="G240" t="n">
-        <v>0.05160766716414881</v>
+        <v>0.2847807138188406</v>
       </c>
       <c r="J240" t="n">
-        <v>0.009437511980367151</v>
+        <v>0.02226912966801205</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1365999145564485</v>
+        <v>0.2858759642625432</v>
       </c>
       <c r="L240" t="n">
-        <v>0.01449238960975427</v>
+        <v>0.04466004035583887</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1347312436218882</v>
+        <v>0.2851339111723424</v>
       </c>
       <c r="N240" t="n">
-        <v>0.0142390525565067</v>
+        <v>0.06765003670403935</v>
       </c>
       <c r="O240" t="n">
-        <v>0.134172631940559</v>
+        <v>0.2862504262386168</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01017583521586551</v>
+        <v>0.01714312432732243</v>
       </c>
       <c r="G241" t="n">
-        <v>0.05152344771562435</v>
+        <v>0.2864080321835197</v>
       </c>
       <c r="J241" t="n">
-        <v>0.009524112484727662</v>
+        <v>0.02218193180181678</v>
       </c>
       <c r="K241" t="n">
-        <v>0.137380485496771</v>
+        <v>0.2875095412011863</v>
       </c>
       <c r="L241" t="n">
-        <v>0.0145530050273939</v>
+        <v>0.04428371436893441</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1355011364425847</v>
+        <v>0.286763247807613</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01344103561513238</v>
+        <v>0.06708082133438398</v>
       </c>
       <c r="O241" t="n">
-        <v>0.134939332694505</v>
+        <v>0.2878861429599803</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.009875305393613594</v>
+        <v>0.01889489213265702</v>
       </c>
       <c r="G242" t="n">
-        <v>0.05143922826709989</v>
+        <v>0.2880353505481987</v>
       </c>
       <c r="J242" t="n">
-        <v>0.009311216441326792</v>
+        <v>0.02169361592693153</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1381610564370936</v>
+        <v>0.2891431181398295</v>
       </c>
       <c r="L242" t="n">
-        <v>0.0139167764106411</v>
+        <v>0.04350514914353248</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1362710292632812</v>
+        <v>0.2883925844428835</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01344341014132377</v>
+        <v>0.06620821900642698</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1357060334484511</v>
+        <v>0.2895218596813438</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.009578871344423812</v>
+        <v>0.01664568535919059</v>
       </c>
       <c r="G243" t="n">
-        <v>0.05135500881857544</v>
+        <v>0.2896626689128778</v>
       </c>
       <c r="J243" t="n">
-        <v>0.009398829783460988</v>
+        <v>0.02150416481714981</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1389416273774161</v>
+        <v>0.2907766950784726</v>
       </c>
       <c r="L243" t="n">
-        <v>0.01358375180296967</v>
+        <v>0.04332431029877304</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1370409220839777</v>
+        <v>0.290021921078154</v>
       </c>
       <c r="N243" t="n">
-        <v>0.0140462113980428</v>
+        <v>0.06513217744150657</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1364727342023971</v>
+        <v>0.2911575764027073</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.009286928393034292</v>
+        <v>0.01639548929400873</v>
       </c>
       <c r="G244" t="n">
-        <v>0.05127078937005098</v>
+        <v>0.2912899872775569</v>
       </c>
       <c r="J244" t="n">
-        <v>0.009486958444426735</v>
+        <v>0.02121356124626522</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1397221983177387</v>
+        <v>0.2924102720171157</v>
       </c>
       <c r="L244" t="n">
-        <v>0.01305397924785359</v>
+        <v>0.04264116345379607</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1378108149046742</v>
+        <v>0.2916512577134245</v>
       </c>
       <c r="N244" t="n">
-        <v>0.01394947464825119</v>
+        <v>0.06435264436096066</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1372394349563432</v>
+        <v>0.2927932931240709</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.008999871864183169</v>
+        <v>0.01814428922419695</v>
       </c>
       <c r="G245" t="n">
-        <v>0.05118656992152653</v>
+        <v>0.292917305642236</v>
       </c>
       <c r="J245" t="n">
-        <v>0.009475608357520482</v>
+        <v>0.02082178798807126</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1405027692580613</v>
+        <v>0.2940438489557588</v>
       </c>
       <c r="L245" t="n">
-        <v>0.01282750678876673</v>
+        <v>0.04205567422774162</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1385807077253707</v>
+        <v>0.2932805943486951</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01375323515491089</v>
+        <v>0.06306956748612741</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1380061357102892</v>
+        <v>0.2944290098454344</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.008718097082608553</v>
+        <v>0.01589207043684079</v>
       </c>
       <c r="G246" t="n">
-        <v>0.05110235047300207</v>
+        <v>0.2945446240069151</v>
       </c>
       <c r="J246" t="n">
-        <v>0.009464785456038703</v>
+        <v>0.02062882781636147</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1412833401983838</v>
+        <v>0.2956774258944019</v>
       </c>
       <c r="L246" t="n">
-        <v>0.01270438246918301</v>
+        <v>0.04126780823974963</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1393506005460672</v>
+        <v>0.2949099309839656</v>
       </c>
       <c r="N246" t="n">
-        <v>0.01395752818098367</v>
+        <v>0.06208289453834498</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1387728364642353</v>
+        <v>0.2960647265667979</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.008441999373048535</v>
+        <v>0.01563881821902575</v>
       </c>
       <c r="G247" t="n">
-        <v>0.05101813102447762</v>
+        <v>0.2961719423715942</v>
       </c>
       <c r="J247" t="n">
-        <v>0.009254495673277852</v>
+        <v>0.02033466350492939</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1420639111387064</v>
+        <v>0.297311002833045</v>
       </c>
       <c r="L247" t="n">
-        <v>0.0120846543325763</v>
+        <v>0.04097753110896019</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1401204933667637</v>
+        <v>0.2965392676192361</v>
       </c>
       <c r="N247" t="n">
-        <v>0.01406238898943152</v>
+        <v>0.06149257323895135</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1395395372181814</v>
+        <v>0.2977004432881614</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.008171974060241269</v>
+        <v>0.01738451785783741</v>
       </c>
       <c r="G248" t="n">
-        <v>0.05093391157595316</v>
+        <v>0.2977992607362733</v>
       </c>
       <c r="J248" t="n">
-        <v>0.009444744942534403</v>
+        <v>0.0199392778275686</v>
       </c>
       <c r="K248" t="n">
-        <v>0.142844482079029</v>
+        <v>0.2989445797716881</v>
       </c>
       <c r="L248" t="n">
-        <v>0.01176837042242052</v>
+        <v>0.03998480845451322</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1408903861874602</v>
+        <v>0.2981686042545066</v>
       </c>
       <c r="N248" t="n">
-        <v>0.01396785284321611</v>
+        <v>0.06039855130928473</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1403062379721274</v>
+        <v>0.299336160009525</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.007908416468924859</v>
+        <v>0.01612915464036128</v>
       </c>
       <c r="G249" t="n">
-        <v>0.05084969212742871</v>
+        <v>0.2994265791009524</v>
       </c>
       <c r="J249" t="n">
-        <v>0.009335539197104809</v>
+        <v>0.0196426535580726</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1436250530193515</v>
+        <v>0.3005781567103312</v>
       </c>
       <c r="L249" t="n">
-        <v>0.01155557878218946</v>
+        <v>0.03938960589554877</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1416602790081568</v>
+        <v>0.2997979408897772</v>
       </c>
       <c r="N249" t="n">
-        <v>0.01407395500529945</v>
+        <v>0.06000077647068297</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1410729387260734</v>
+        <v>0.3009718767308885</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.007651721923837396</v>
+        <v>0.01487271385368289</v>
       </c>
       <c r="G250" t="n">
-        <v>0.05076547267890424</v>
+        <v>0.3010538974656315</v>
       </c>
       <c r="J250" t="n">
-        <v>0.009426884370285549</v>
+        <v>0.01954477347023495</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1444056239596741</v>
+        <v>0.3022117336489743</v>
       </c>
       <c r="L250" t="n">
-        <v>0.01124632745535714</v>
+        <v>0.03879188905120684</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1424301718288533</v>
+        <v>0.3014272775250477</v>
       </c>
       <c r="N250" t="n">
-        <v>0.01358073073864335</v>
+        <v>0.05849919644448442</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1418396394800195</v>
+        <v>0.302607593452252</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.007402285749717033</v>
+        <v>0.01661518078488777</v>
       </c>
       <c r="G251" t="n">
-        <v>0.05068125323037979</v>
+        <v>0.3026812158303105</v>
       </c>
       <c r="J251" t="n">
-        <v>0.009318786395373084</v>
+        <v>0.01914562033784917</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1451861948999966</v>
+        <v>0.3038453105876174</v>
       </c>
       <c r="L251" t="n">
-        <v>0.01124066448539743</v>
+        <v>0.03849162354062738</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1432000646495498</v>
+        <v>0.3030566141603182</v>
       </c>
       <c r="N251" t="n">
-        <v>0.01428821530620955</v>
+        <v>0.05799375895202702</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1426063402339655</v>
+        <v>0.3042433101736156</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.007160503271301862</v>
+        <v>0.01535654072106146</v>
       </c>
       <c r="G252" t="n">
-        <v>0.05059703378185534</v>
+        <v>0.3043085341949897</v>
       </c>
       <c r="J252" t="n">
-        <v>0.00941125120566387</v>
+        <v>0.01894517693470882</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1459667658403192</v>
+        <v>0.3054788875262605</v>
       </c>
       <c r="L252" t="n">
-        <v>0.01053863791578416</v>
+        <v>0.0379887749829505</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1439699574702463</v>
+        <v>0.3046859507955887</v>
       </c>
       <c r="N252" t="n">
-        <v>0.01399644397096</v>
+        <v>0.05708441171464879</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1433730409879116</v>
+        <v>0.3058790268949791</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.006926769813330014</v>
+        <v>0.0160967789492895</v>
       </c>
       <c r="G253" t="n">
-        <v>0.05051281433333088</v>
+        <v>0.3059358525596688</v>
       </c>
       <c r="J253" t="n">
-        <v>0.009204284734454379</v>
+        <v>0.01844342603460744</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1467473367806418</v>
+        <v>0.3071124644649036</v>
       </c>
       <c r="L253" t="n">
-        <v>0.01034029578999127</v>
+        <v>0.03728330899731608</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1447398502909428</v>
+        <v>0.3063152874308593</v>
       </c>
       <c r="N253" t="n">
-        <v>0.01410545199585667</v>
+        <v>0.05597110245368792</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1441397417418576</v>
+        <v>0.3075147436163426</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.006701480700539615</v>
+        <v>0.01383588075665741</v>
       </c>
       <c r="G254" t="n">
-        <v>0.05042859488480642</v>
+        <v>0.3075631709243478</v>
       </c>
       <c r="J254" t="n">
-        <v>0.009397892915041083</v>
+        <v>0.01814035041133857</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1475279077209643</v>
+        <v>0.3087460414035467</v>
       </c>
       <c r="L254" t="n">
-        <v>0.01044568615149266</v>
+        <v>0.03647519120286419</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1455097431116393</v>
+        <v>0.3079446240661298</v>
       </c>
       <c r="N254" t="n">
-        <v>0.01371527464386113</v>
+        <v>0.05525377889048244</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1449064424958037</v>
+        <v>0.3091504603377061</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.006485031257668743</v>
+        <v>0.01357383143025072</v>
       </c>
       <c r="G255" t="n">
-        <v>0.05034437543628197</v>
+        <v>0.3091904892890269</v>
       </c>
       <c r="J255" t="n">
-        <v>0.009192081680720422</v>
+        <v>0.01783593283869574</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1483084786612869</v>
+        <v>0.3103796183421898</v>
       </c>
       <c r="L255" t="n">
-        <v>0.009654857043762233</v>
+        <v>0.03576438721873484</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1462796359323358</v>
+        <v>0.3095739607014004</v>
       </c>
       <c r="N255" t="n">
-        <v>0.01432594717793545</v>
+        <v>0.05433238874637053</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1456731432497498</v>
+        <v>0.3107861770590696</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.00627781680945555</v>
+        <v>0.01531061625715498</v>
       </c>
       <c r="G256" t="n">
-        <v>0.05026015598775752</v>
+        <v>0.310817807653706</v>
       </c>
       <c r="J256" t="n">
-        <v>0.009286856964788884</v>
+        <v>0.01763015609047251</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1490890496016094</v>
+        <v>0.3120131952808329</v>
       </c>
       <c r="L256" t="n">
-        <v>0.009667856510273826</v>
+        <v>0.03535086266406806</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1470495287530323</v>
+        <v>0.3112032973366709</v>
       </c>
       <c r="N256" t="n">
-        <v>0.01383750486104141</v>
+        <v>0.05360687974269002</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1464398440036958</v>
+        <v>0.3124218937804332</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006080232680638148</v>
+        <v>0.0130462205244557</v>
       </c>
       <c r="G257" t="n">
-        <v>0.05017593653923306</v>
+        <v>0.3124451260183851</v>
       </c>
       <c r="J257" t="n">
-        <v>0.009382224700542924</v>
+        <v>0.01742300294046242</v>
       </c>
       <c r="K257" t="n">
-        <v>0.149869620541932</v>
+        <v>0.3136467722194761</v>
       </c>
       <c r="L257" t="n">
-        <v>0.009584732594501405</v>
+        <v>0.03463458315800369</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1478194215737288</v>
+        <v>0.3128326339719414</v>
       </c>
       <c r="N257" t="n">
-        <v>0.01374998295614088</v>
+        <v>0.05207719960077928</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1472065447576419</v>
+        <v>0.3140576105017967</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.005892674195954628</v>
+        <v>0.01378062951923842</v>
       </c>
       <c r="G258" t="n">
-        <v>0.0500917170907086</v>
+        <v>0.3140724443830642</v>
       </c>
       <c r="J258" t="n">
-        <v>0.009278190821278995</v>
+        <v>0.01701445616245899</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1506501914822546</v>
+        <v>0.3152803491581191</v>
       </c>
       <c r="L258" t="n">
-        <v>0.009105533339918814</v>
+        <v>0.03421551431968195</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1485893143944253</v>
+        <v>0.3144619706072119</v>
       </c>
       <c r="N258" t="n">
-        <v>0.01386341672619573</v>
+        <v>0.05174329604197619</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1479732455115879</v>
+        <v>0.3156933272231602</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.005715536680143136</v>
+        <v>0.01451382852858869</v>
       </c>
       <c r="G259" t="n">
-        <v>0.05000749764218414</v>
+        <v>0.3156997627477433</v>
       </c>
       <c r="J259" t="n">
-        <v>0.009374761260293595</v>
+        <v>0.01680449853025578</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1514307624225771</v>
+        <v>0.3169139260967622</v>
       </c>
       <c r="L259" t="n">
-        <v>0.008730306789999975</v>
+        <v>0.03379362176824274</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1493592072151218</v>
+        <v>0.3160913072424825</v>
       </c>
       <c r="N259" t="n">
-        <v>0.01427784143416777</v>
+        <v>0.05030511678761895</v>
       </c>
       <c r="O259" t="n">
-        <v>0.148739946265534</v>
+        <v>0.3173290439445237</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005549215457941771</v>
+        <v>0.01424580283959202</v>
       </c>
       <c r="G260" t="n">
-        <v>0.04992327819365969</v>
+        <v>0.3173270811124224</v>
       </c>
       <c r="J260" t="n">
-        <v>0.009171941950883153</v>
+        <v>0.01649311281764632</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1522113333628997</v>
+        <v>0.3185475030354054</v>
       </c>
       <c r="L260" t="n">
-        <v>0.008759100988218776</v>
+        <v>0.03286887112282608</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1501291000358183</v>
+        <v>0.317720643877753</v>
       </c>
       <c r="N260" t="n">
-        <v>0.01429329234301885</v>
+        <v>0.04966260955904561</v>
       </c>
       <c r="O260" t="n">
-        <v>0.14950664701948</v>
+        <v>0.3189647606658872</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005394105854088664</v>
+        <v>0.01397653773933394</v>
       </c>
       <c r="G261" t="n">
-        <v>0.04983905874513523</v>
+        <v>0.3189543994771015</v>
       </c>
       <c r="J261" t="n">
-        <v>0.00916973882634415</v>
+        <v>0.01598028179842415</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1529919043032223</v>
+        <v>0.3201810799740484</v>
       </c>
       <c r="L261" t="n">
-        <v>0.008191963978049083</v>
+        <v>0.03214122800257191</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1508989928565148</v>
+        <v>0.3193499805130235</v>
       </c>
       <c r="N261" t="n">
-        <v>0.01440980471571079</v>
+        <v>0.04831572207759421</v>
       </c>
       <c r="O261" t="n">
-        <v>0.150273347773426</v>
+        <v>0.3206004773872508</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.00525060319332192</v>
+        <v>0.0117060185149</v>
       </c>
       <c r="G262" t="n">
-        <v>0.04975483929661078</v>
+        <v>0.3205817178417806</v>
       </c>
       <c r="J262" t="n">
-        <v>0.00936815781997305</v>
+        <v>0.01566598824638282</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1537724752435448</v>
+        <v>0.3218146569126916</v>
       </c>
       <c r="L262" t="n">
-        <v>0.007828943802964783</v>
+        <v>0.03161065802662033</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1516688856772113</v>
+        <v>0.320979317148294</v>
       </c>
       <c r="N262" t="n">
-        <v>0.01402741381520556</v>
+        <v>0.04776440206460286</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1510400485273721</v>
+        <v>0.3222361941086143</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005119102800379659</v>
+        <v>0.01143423045337574</v>
       </c>
       <c r="G263" t="n">
-        <v>0.04967061984808632</v>
+        <v>0.3222090362064596</v>
       </c>
       <c r="J263" t="n">
-        <v>0.009267204865066311</v>
+        <v>0.01555021493531589</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1545530461838674</v>
+        <v>0.3234482338513346</v>
       </c>
       <c r="L263" t="n">
-        <v>0.007670088506439826</v>
+        <v>0.03127712681411127</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1524387784979078</v>
+        <v>0.3226086537835646</v>
       </c>
       <c r="N263" t="n">
-        <v>0.0137461549044649</v>
+        <v>0.0470085972414096</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1518067492813182</v>
+        <v>0.3238719108299778</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01216115884184665</v>
       </c>
       <c r="G264" t="n">
-        <v>0.04958640039956187</v>
+        <v>0.3238363545711387</v>
       </c>
       <c r="J264" t="n">
-        <v>0.009266885894920411</v>
+        <v>0.01503294463901686</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1553336171241899</v>
+        <v>0.3250818107899778</v>
       </c>
       <c r="L264" t="n">
-        <v>0.007615446131948117</v>
+        <v>0.03044059998418475</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1532086713186043</v>
+        <v>0.3242379904188351</v>
       </c>
       <c r="N264" t="n">
-        <v>0.01426606324645074</v>
+        <v>0.04544825532935265</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1525734500352642</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.04957324250482503</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005608774781105143</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.04957351103328904</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006213809984298692</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.04957377956175306</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.006815056388560885</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.04957404809021707</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007412464772924475</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.04957431661868109</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008005985916370063</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.04957458514714511</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.008595570597930036</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.04957485367560913</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009181169596585326</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.04957512220407314</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.009762733691368021</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.04957539073253716</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01034021366125937</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.04957565926100118</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01091356028529109</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.0495759277894652</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01148272434244483</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.04957619631792921</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01204765661175192</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.04957646484639323</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01260830787219439</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.04957673337485725</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01316462890280318</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.04957700190332127</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.0137165704825607</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.04957727043178528</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01426408339049753</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.0495775389602493</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01480711840559644</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.04957780748871331</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01534562630687597</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.04957807601717733</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01587955787335427</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.04957834454564135</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01640886388401469</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.04957861307410536</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01693349511788685</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.04957888160256938</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01745340235395451</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.0495791501310334</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.01796853637124687</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.04957941865949742</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.01847884794874807</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.04957968718796144</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.01898448885121008</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.04957995571642546</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.01948661577195614</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.04958022424488947</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.01998538047573781</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.04958049277335349</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02048073374153997</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.0495807613018175</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02097262634839075</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.04958102983028152</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02146100907527534</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.04958129835874554</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02194583270122158</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.04958156688720956</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02242704800521494</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.04958183541567357</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02290460576627258</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.04958210394413759</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02337845676341138</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.04958237247260161</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.0238485517756173</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.04958264100106562</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02431484158191739</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.04958290952952964</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.0247772769612979</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.04958317805799366</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02523580869278558</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.04958344658645768</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02569038755536705</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.04958371511492169</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.02614096432806866</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.04958398364338571</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.02658748978987741</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.04958425217184972</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.02702991471981928</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.04958452070031374</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.02746818989688163</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.04958478922877776</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.02790226610009008</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.04958505775724178</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.02833209410843239</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.0495853262857058</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.02875762470093378</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.04958559481416982</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.02917880865658234</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.04958586334263383</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.029595596754403</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.04958613187109785</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03000793977338419</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.04958640039956187</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03000793977338419</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.04957324250482503</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03046618324490753</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.04965799901027751</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03091994835298803</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.04974275551573001</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03136909827090591</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.0498275120211825</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03181349617194132</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.04991226852663498</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03225300522937449</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.04999702503208748</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03268748861648561</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.05008178153753997</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.03311680950655488</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.05016653804299245</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.0335408310728625</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.05025129454844495</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03395941648868864</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.05033605105389743</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03437242892731351</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.05042080755934993</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.03477973156201733</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.05050556406480242</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.03518118756608024</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.05059032057025491</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.03557666011278247</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.0506750770757074</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.03596601237540425</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.0507598335811599</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.0363491075272257</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.05084459008661238</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.03672580874152707</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.05092934659206487</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.03709597919158858</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.05101410309751736</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.03745948205069033</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.05109885960296985</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.03781618049211261</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.05118361610842234</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.03816593768913554</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.05126837261387483</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.03850861681503941</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.05135312911932732</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.03884408104310433</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.05143788562477981</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.03917219354661054</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.0515226421302323</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.03949281749883821</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.0516073986356848</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.03980637478217341</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.05169215514113729</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.04011608082453155</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.05177691164658977</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.0404223575082987</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.05186166815204227</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.04072506800675503</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.05194642465749475</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.04102407549318075</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.05203118116294724</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04131924314085608</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.05211593766839974</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.04161043412306116</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.05220069417385222</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.0418975116130762</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.05228545067930471</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.04218033878418145</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.05237020718475721</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.04245877880965705</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.0524549636902097</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.04273269486278322</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.05253972019566219</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.04300195011684016</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.05262447670111468</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.04326640774510804</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.05270923320656717</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.04352593092086704</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.05279398971201966</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.04378038281739742</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.05287874621747215</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.04402962660797938</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.05296350272292465</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.04427352546589304</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.05304825922837714</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.04451194256441862</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.05313301573382962</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.04474474107683633</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.05321777223928211</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.04497178417642639</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.0533025287447346</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.04519293503646894</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.05338728525018709</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.04540805683024422</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.05347204175563958</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.04561701273103246</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.05355679826109207</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.04581966591211377</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.05364155476654456</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.04601587954676838</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.05372631127199706</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.03634391969784559</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.05372631127199706</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.04612194295713223</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.055278984058161</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.04622022839058268</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.05683165684432495</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.04631103203752951</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.0583843296304889</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.04639465008838248</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.05993700241665284</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.04647137873355135</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.06148967520281679</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.04654151416344593</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.06304234798898074</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.04660535256847592</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.0645950207751447</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.04666319013905115</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.06614769356130865</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.04671532306558135</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.06770036634747259</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.04676204753847631</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.06925303913363653</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.04680365974814577</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.07080571191980049</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.04684045588499951</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.07235838470596444</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.04687273213944732</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.07391105749212838</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.04690078470189891</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.07546373027829233</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.04692490976276412</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.07701640306445628</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.04694540351245267</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.07856907585062023</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.04696256214137436</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.08012174863678419</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.04697668183993892</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.08167442142294812</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.04698805879855612</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.08322709420911208</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.04699698920763577</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.08477976699527602</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.0470037692575876</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.08633243978143997</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.04700869513882139</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.08788511256760392</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.0470120630417469</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.08943778535376787</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.04701416915677391</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.09099045813993181</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.04701530967431218</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.09254313092609576</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.04701578078477149</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.09409580371225972</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.04701587867856157</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.09564847649842366</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.04699692057570898</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.09720114928458762</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.04691342015630003</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.09875382207075155</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.04676768294656078</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1003064948569155</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.04656440839377594</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1018591676430795</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.04630829594523027</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1034118404292434</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.04600404504820846</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1049645132154074</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.04565635514999526</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1065171860015713</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.04526992569787541</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1080698587877352</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.0448494561391336</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1096225315738992</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.0443996459210546</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1111752043600632</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.04392519449092311</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1127278771462271</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.04343080129602388</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.114280549932391</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.04292116578364161</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.115833222718555</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.04240098740106106</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1173858955047189</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.04187496559556693</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1189385682908829</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.04134779981444398</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1204912410770468</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.0408241895049769</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1220439138632108</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04030883411445045</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1235965866493747</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.03980643309014935</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1251492594355387</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.0393216858793583</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1267019322217026</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.03885929192936208</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1282546050078666</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.03842395068744538</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1298072777940305</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.03802036160089294</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1313599505801945</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.03765133869891316</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1329126233663585</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.03729098503697657</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1344652961525224</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.03692999755030957</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1360179689386863</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.03656879735512303</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1375706417248503</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.03620780556762788</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1391233145110142</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.03584744330403505</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1406759872971782</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.03548813168055541</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1422286600833421</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.03513029181339991</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1437813328695061</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.03477434481877943</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.14533400565567</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.0344207118129049</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.146886678441834</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.03406981391198721</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1484393512279979</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.03372207223223726</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.03337790788986601</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1515446968003258</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.03303774200108431</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1530973695864898</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.03270199568210311</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1546500423726537</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.0323710900491333</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1562027151588177</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.0320454462183858</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1577553879449816</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.03172548530607151</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1593080607311455</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.03141162842840134</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.1608607335173095</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.03110429670158621</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1624134063034735</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.03080391124183701</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1639660790896374</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.03051089316536466</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.1655187518758013</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.03022566358838007</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.1670714246619653</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.02994864362709415</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.1686240974481292</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.02968025439771782</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.1701767702342932</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.02942091701646196</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.1717294430204571</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.02916839056854534</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.1732821158066211</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.02891902410060317</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.174834788592785</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.02867291701051812</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.176387461378949</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.02843020217446043</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.177940134165113</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.02819101246860028</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.1794928069512769</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.02795548076910784</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.1810454797374408</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.02772373995215328</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.1825981525236048</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.02749592289390684</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.1841508253097687</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.02727216247053867</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.1857034980959327</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.02705259155821897</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.1872561708820966</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.02683734303311791</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.1888088436682606</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.0266265497714057</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.1903615164544245</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.02642034464925254</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.1919141892405885</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.02621886054282857</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.1934668620267524</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.02602223032830403</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.1950195348129164</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.0258305868818491</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.1965722075990803</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.02564406307963393</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.1981248803852443</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.02546279179782875</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.1996775531714082</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.02528690591260371</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2012302259575722</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.02511653830012905</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2027828987437361</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.02495182183657492</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2043355715299</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.0247928893981115</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.205888244316064</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.02463987386090903</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.207440917102228</v>
-      </c>
-    </row>
+        <v>0.3255076275513414</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1133.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1133.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.004087288125336146</v>
+        <v>0.001300210756191265</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001627318364679089</v>
+        <v>0.0004943853136756387</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.004032624800020354</v>
+        <v>0.001988218985571208</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001633576938643104</v>
+        <v>0.0008393916174049671</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01297161051393159</v>
+        <v>0.006479216739087884</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001801762830976666</v>
+        <v>0.000820846784089877</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.02032394623615819</v>
+        <v>0.01004440384112043</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001923172658757677</v>
+        <v>0.0008181342752593398</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.006585979924461388</v>
+        <v>0.002564744975102173</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.002991382017962746</v>
+        <v>0.0009887706273512774</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.004045929830972315</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003406534090909087</v>
+        <v>0.001678783234809934</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01695084419940446</v>
+        <v>0.01196467154271477</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003258673270541056</v>
+        <v>0.001641693568179754</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02542770941097394</v>
+        <v>0.02115349506212383</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003271433442727049</v>
+        <v>0.001883924237150377</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.008743890142887831</v>
+        <v>0.003757926119452366</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004881955094037267</v>
+        <v>0.001483155941026916</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.009122287087944624</v>
+        <v>0.005939120961052098</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004900730815929314</v>
+        <v>0.002518174852214901</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02077063350701422</v>
+        <v>0.01600751935761768</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004888009905811584</v>
+        <v>0.002330348735154351</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02982824587932675</v>
+        <v>0.02426155696440646</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004907150164090573</v>
+        <v>0.002454402825778019</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01016279602973089</v>
+        <v>0.004844077651961494</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006509273458716356</v>
+        <v>0.001977541254702555</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01073256329409983</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006534307754572417</v>
+        <v>0.003406534090909087</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02367887927251122</v>
+        <v>0.01905002027465383</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006517346541082113</v>
+        <v>0.003283387136359508</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03345036494233411</v>
+        <v>0.02902528990567499</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006542866885454098</v>
+        <v>0.003272537101037359</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.006585979924461388</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01131843520156798</v>
+        <v>0.005787523035349199</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008136591823395446</v>
+        <v>0.002471926568378194</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01216200233477438</v>
+        <v>0.0083887840538494</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008167884693215522</v>
+        <v>0.004196958087024835</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02562915278523994</v>
+        <v>0.02148868323744688</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008146683176352641</v>
+        <v>0.004104233920449385</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03636382480596828</v>
+        <v>0.03376521167502849</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008178583606817622</v>
+        <v>0.004090671376296699</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.0118547638640305</v>
+        <v>0.006585979924461388</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.008974146053888238</v>
+        <v>0.002991382017962746</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.0137209013141928</v>
+        <v>0.009210590947897536</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.01021960227272726</v>
+        <v>0.005036349704429803</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.0275991713062374</v>
+        <v>0.02384952422959088</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009375781901584649</v>
+        <v>0.004925080704539261</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03993838367620195</v>
+        <v>0.03719039227898391</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009814300328181147</v>
+        <v>0.004908805651556039</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01234003744666214</v>
+        <v>0.007194224120566986</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01139122855275362</v>
+        <v>0.003460697195729471</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01445466085277507</v>
+        <v>0.01012347325655782</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01143503857050173</v>
+        <v>0.005875741321834769</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03003000914007015</v>
+        <v>0.02523627357854161</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.0114053564468937</v>
+        <v>0.005745927488629139</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04147744129828196</v>
+        <v>0.03980990172405824</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.0106454190340909</v>
+        <v>0.005726939926815378</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01429985091826734</v>
+        <v>0.007807915940910938</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01301854691743271</v>
+        <v>0.00395508250940511</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01545964550290557</v>
+        <v>0.01085105187770043</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01306861550914483</v>
+        <v>0.006715132939239737</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03234451003232006</v>
+        <v>0.0275991713062374</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01303469308216423</v>
+        <v>0.006696404411363082</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04545278010059067</v>
+        <v>0.04147744129828196</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.0130857337709082</v>
+        <v>0.006156615154086192</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01522177582628757</v>
+        <v>0.008391222609906518</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.0146458652821118</v>
+        <v>0.004449467823080748</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01673958263153327</v>
+        <v>0.01141694770919553</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01470219244778794</v>
+        <v>0.007554524556644703</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03429196478164129</v>
+        <v>0.02881259698387095</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01466402971743475</v>
+        <v>0.007387621056808893</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04884316873202971</v>
+        <v>0.04496006040142497</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01472145049227172</v>
+        <v>0.007363208477334058</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01610101558161837</v>
+        <v>0.008941461053920949</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01627318364679089</v>
+        <v>0.004943853136756387</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01758665802367337</v>
+        <v>0.01204478164891326</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01633576938643104</v>
+        <v>0.00839391617404967</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03655821974534282</v>
+        <v>0.03047623716457765</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01629336635270528</v>
+        <v>0.00820846784089877</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05228827990331292</v>
+        <v>0.04722901742005625</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01635716721363524</v>
+        <v>0.008181342752593398</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01593277359515535</v>
+        <v>0.009455948199321454</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01790050201146998</v>
+        <v>0.005438238450432026</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01869305746434116</v>
+        <v>0.01265817459472381</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01796934632507415</v>
+        <v>0.009233307791454638</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03852912128073371</v>
+        <v>0.03193894662134444</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01792270298797581</v>
+        <v>0.009029314624988648</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05525643349945586</v>
+        <v>0.04996778670731117</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01799288393499877</v>
+        <v>0.008999477027852738</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01671225327779405</v>
+        <v>0.009932000972475243</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01952782037614907</v>
+        <v>0.005932623764107664</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01975096673855185</v>
+        <v>0.0137209013141928</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01960292326371725</v>
+        <v>0.01038682624106603</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04049051574512297</v>
+        <v>0.03319527803460401</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01955203962324634</v>
+        <v>0.009850161409078522</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05851594940547372</v>
+        <v>0.0522698792414632</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01962860065636229</v>
+        <v>0.009817611303112077</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01643465804043003</v>
+        <v>0.01036693629974953</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02115513874082816</v>
+        <v>0.006427009077783302</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02045257163132069</v>
+        <v>0.01393220365221413</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02123650020236036</v>
+        <v>0.01091209102626457</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04202824949581963</v>
+        <v>0.03513978408478907</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02118137625851687</v>
+        <v>0.0106710081931684</v>
       </c>
       <c r="N78" t="n">
-        <v>0.06113514750638144</v>
+        <v>0.05402880600078586</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02126431737772582</v>
+        <v>0.01063574557837142</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01709519129395888</v>
+        <v>0.01075807110751154</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02278245710550725</v>
+        <v>0.006921394391458942</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02129005792766292</v>
+        <v>0.01480919464987976</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02287007714100346</v>
+        <v>0.01175148264366954</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0437281688901327</v>
+        <v>0.03646701745233225</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0228107128937874</v>
+        <v>0.01149185497725828</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0633823476871947</v>
+        <v>0.05693807796355305</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02290003409908934</v>
+        <v>0.01145387985363076</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01868905644927614</v>
+        <v>0.01110272232212847</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02440977547018634</v>
+        <v>0.00741577970513458</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0222556114125938</v>
+        <v>0.01540671508659652</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02450365407964656</v>
+        <v>0.01259087426107451</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04497612028537123</v>
+        <v>0.03817153081766625</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02444004952905792</v>
+        <v>0.01231270176134816</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06622586983292839</v>
+        <v>0.05869120610803813</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02453575082045287</v>
+        <v>0.0122720141288901</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01821145691727737</v>
+        <v>0.01139820686996756</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02603709383486542</v>
+        <v>0.007910165018810219</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02294141787112856</v>
+        <v>0.01602051000452245</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02613723101828967</v>
+        <v>0.01343026587847947</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04665795003884421</v>
+        <v>0.03924787686122375</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02606938616432845</v>
+        <v>0.01313354854543803</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06873403382859805</v>
+        <v>0.06148170141251463</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02617146754181639</v>
+        <v>0.01309014840414944</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01865759610885816</v>
+        <v>0.01164184167739601</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02766441219954451</v>
+        <v>0.008404550332485859</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02333966308828243</v>
+        <v>0.01694632444581558</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02777080795693277</v>
+        <v>0.01426965749588444</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04745950450786063</v>
+        <v>0.04099060826343748</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02769872279959898</v>
+        <v>0.01395439532952791</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07067515955921883</v>
+        <v>0.06310307485525629</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02780718426317992</v>
+        <v>0.01390828267940878</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02002267743491405</v>
+        <v>0.0118547638640305</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0292917305642236</v>
+        <v>0.008974146053888238</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02404253284907069</v>
+        <v>0.01757990345263391</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02940438489557588</v>
+        <v>0.01510904911328941</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04866663004972963</v>
+        <v>0.04249427770474004</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02932805943486951</v>
+        <v>0.01477524211361779</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07191756690980589</v>
+        <v>0.06554883741453665</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02944290098454344</v>
+        <v>0.01472641695466812</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01931487507681059</v>
+        <v>0.01198306434008369</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03091904892890269</v>
+        <v>0.009393320959837135</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02444221293850854</v>
+        <v>0.01831699206713548</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03103796183421898</v>
+        <v>0.01594844073069437</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04897684006399816</v>
+        <v>0.04355343786556415</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03095739607014004</v>
+        <v>0.01559608889770766</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07332957576537452</v>
+        <v>0.0670125000686293</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03107861770590696</v>
+        <v>0.01554455122992745</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02059203276588713</v>
+        <v>0.01213245879089456</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03254636729358178</v>
+        <v>0.009887706273512775</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02467113585312873</v>
+        <v>0.01895333533147826</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03267153877286209</v>
+        <v>0.01678783234809934</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04992700488500604</v>
+        <v>0.0448626414263425</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03258673270541056</v>
+        <v>0.01641693568179754</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07395134143349691</v>
+        <v>0.06938757379580784</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03271433442727049</v>
+        <v>0.0163626855051868</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01986015289721618</v>
+        <v>0.01227977318937228</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03417368565826086</v>
+        <v>0.01038209158718841</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02509009173632507</v>
+        <v>0.01978467828782031</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03430511571150519</v>
+        <v>0.01762722396550431</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05075702105536276</v>
+        <v>0.04601644106750777</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03421606934068109</v>
+        <v>0.01723778246588742</v>
       </c>
       <c r="N86" t="n">
-        <v>0.07502379079207372</v>
+        <v>0.07056756957434585</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03435005114863401</v>
+        <v>0.01718081978044614</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02111741357035139</v>
+        <v>0.01242501265346672</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03580100402293996</v>
+        <v>0.01087647690086405</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02519783653007854</v>
+        <v>0.02040676597831963</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03593869265014829</v>
+        <v>0.01846661558290928</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05086263119259568</v>
+        <v>0.04730938946949262</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03584540597595162</v>
+        <v>0.0180586292499773</v>
       </c>
       <c r="N87" t="n">
-        <v>0.07646376828575169</v>
+        <v>0.07224599838251688</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03598576786999754</v>
+        <v>0.01799895405570548</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02036199288484641</v>
+        <v>0.01256818230112779</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03742832238761905</v>
+        <v>0.01137086221453969</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02549223711295316</v>
+        <v>0.02131534344513422</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0375722695887914</v>
+        <v>0.01930600720031424</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05153957791423225</v>
+        <v>0.04843603931272975</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03747474261122215</v>
+        <v>0.01887947603406717</v>
       </c>
       <c r="N88" t="n">
-        <v>0.07676480024694476</v>
+        <v>0.07451637119859467</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03762148459136106</v>
+        <v>0.01881708833096481</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02159206894025489</v>
+        <v>0.0127092872503054</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03905564075229814</v>
+        <v>0.01186524752821533</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02577116036351297</v>
+        <v>0.0220061557304221</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03920584652743451</v>
+        <v>0.02014539881771921</v>
       </c>
       <c r="L89" t="n">
-        <v>0.0521836038377998</v>
+        <v>0.04929094327765182</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03910407924649267</v>
+        <v>0.01970032281815704</v>
       </c>
       <c r="N89" t="n">
-        <v>0.07832041300806664</v>
+        <v>0.07577219900085269</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03925720131272459</v>
+        <v>0.01963522260622415</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02280581983613048</v>
+        <v>0.01284833261894943</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04068295911697722</v>
+        <v>0.01235963284189097</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02613247316032198</v>
+        <v>0.02267494787634132</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04083942346607761</v>
+        <v>0.02098479043512418</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05249045158082569</v>
+        <v>0.05066865404469159</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04073341588176321</v>
+        <v>0.02052116960224692</v>
       </c>
       <c r="N90" t="n">
-        <v>0.07882413290153123</v>
+        <v>0.07690699276756452</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04089291803408811</v>
+        <v>0.0204533568814835</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02200142367202679</v>
+        <v>0.01298532352500981</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04231027748165631</v>
+        <v>0.0128540181555666</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02637404238194421</v>
+        <v>0.02321746492504986</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04247300040472071</v>
+        <v>0.02182418205252915</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05345586376083739</v>
+        <v>0.05126372429428161</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04236275251703373</v>
+        <v>0.0213420163863368</v>
       </c>
       <c r="N91" t="n">
-        <v>0.07936948625975238</v>
+        <v>0.07781426347700376</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04252863475545163</v>
+        <v>0.02127149115674283</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02317705854749748</v>
+        <v>0.01312026508643641</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04393759584633541</v>
+        <v>0.01334840346924224</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02669373490694366</v>
+        <v>0.02372945191870575</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04410657734336382</v>
+        <v>0.02266357366993411</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05377558299536223</v>
+        <v>0.0523707067068547</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04399208915230426</v>
+        <v>0.02216286317042668</v>
       </c>
       <c r="N92" t="n">
-        <v>0.07974999941514399</v>
+        <v>0.07948752210744409</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04416435147681516</v>
+        <v>0.02208962543200217</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02233090256209622</v>
+        <v>0.01325316242117917</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0455649142110145</v>
+        <v>0.01384278878291788</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02688941761388434</v>
+        <v>0.024406653899467</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04574015428200692</v>
+        <v>0.02350296528733908</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05384535190192755</v>
+        <v>0.05288415396284346</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04562142578757479</v>
+        <v>0.02298370995451655</v>
       </c>
       <c r="N93" t="n">
-        <v>0.08055919870011985</v>
+        <v>0.08012027963715901</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04580006819817868</v>
+        <v>0.02290775970726151</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02146113381537662</v>
+        <v>0.01338402064718796</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04719223257569358</v>
+        <v>0.01433717409659352</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02695895738133031</v>
+        <v>0.02494481590949163</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04737373122065002</v>
+        <v>0.02434235690474404</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05406091309806083</v>
+        <v>0.05379861874268058</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04725076242284532</v>
+        <v>0.02380455673860643</v>
       </c>
       <c r="N94" t="n">
-        <v>0.08109061044709381</v>
+        <v>0.08140604704442211</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04743578491954221</v>
+        <v>0.02372589398252085</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02256593040689234</v>
+        <v>0.01351284488241269</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04881955094037267</v>
+        <v>0.01483155941026916</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02700022108784554</v>
+        <v>0.02543968299093766</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04900730815929313</v>
+        <v>0.02518174852214901</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05451800920128944</v>
+        <v>0.05420865372679878</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04888009905811584</v>
+        <v>0.02462540352269631</v>
       </c>
       <c r="N95" t="n">
-        <v>0.08193776098847977</v>
+        <v>0.08163833530750703</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04907150164090573</v>
+        <v>0.02454402825778019</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02364347043619702</v>
+        <v>0.01363964024480326</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05044686930505176</v>
+        <v>0.0153259447239448</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02731107561199408</v>
+        <v>0.02578700018596311</v>
       </c>
       <c r="K96" t="n">
-        <v>0.05064088509793623</v>
+        <v>0.02602114013955398</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05491238282914068</v>
+        <v>0.05440881159563066</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05050943569338637</v>
+        <v>0.02544625030678619</v>
       </c>
       <c r="N96" t="n">
-        <v>0.08169417665669143</v>
+        <v>0.08191065540468734</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05070721836226926</v>
+        <v>0.02536216253303953</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02370952772806099</v>
+        <v>0.01376441185230958</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05207418766973085</v>
+        <v>0.01582033003762044</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02718938783233993</v>
+        <v>0.02618251253672596</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05227446203657934</v>
+        <v>0.02686053175695895</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05519834261247478</v>
+        <v>0.05499364502960896</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0521387723286569</v>
+        <v>0.02626709709087606</v>
       </c>
       <c r="N97" t="n">
-        <v>0.0824533837841428</v>
+        <v>0.08231651831423659</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05234293508363278</v>
+        <v>0.02618029680829887</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02270949320638785</v>
+        <v>0.01388716482288156</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05370150603440994</v>
+        <v>0.01631471535129608</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02744180262838562</v>
+        <v>0.02672196508538428</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05390803897522244</v>
+        <v>0.02769992337436391</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0550959331288208</v>
+        <v>0.05519834261247478</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05376810896392743</v>
+        <v>0.02708794387496594</v>
       </c>
       <c r="N98" t="n">
         <v>0.08295488259656392</v>
       </c>
       <c r="O98" t="n">
-        <v>0.0539786518049963</v>
+        <v>0.02699843108355822</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02270234813966136</v>
+        <v>0.01400790427446907</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05532882439908902</v>
+        <v>0.01680910066497172</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02744085865343761</v>
+        <v>0.02690110287409606</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05554161591386555</v>
+        <v>0.02853931499176888</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05498798612748357</v>
+        <v>0.05499834261247477</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05539744559919796</v>
+        <v>0.02790879065905582</v>
       </c>
       <c r="N99" t="n">
-        <v>0.08235458730586059</v>
+        <v>0.08275488259656394</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05561436852635984</v>
+        <v>0.02781656535881756</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02168002240519888</v>
+        <v>0.01412663532502203</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05695614276376811</v>
+        <v>0.01730348597864735</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02722593567528848</v>
+        <v>0.02701567094501928</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05717519285250865</v>
+        <v>0.02937870660917385</v>
       </c>
       <c r="L100" t="n">
-        <v>0.05494297454443381</v>
+        <v>0.05469834261247478</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05702678223446848</v>
+        <v>0.02872963744314569</v>
       </c>
       <c r="N100" t="n">
-        <v>0.08242112791548645</v>
+        <v>0.08245488259656392</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05725008524772336</v>
+        <v>0.02863469963407689</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0236434937687037</v>
+        <v>0.01424336309249034</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05858346112844721</v>
+        <v>0.01779787129232299</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02739374096829066</v>
+        <v>0.02726141434031203</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05880876979115175</v>
+        <v>0.03021809822657881</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05476435918442918</v>
+        <v>0.05489834261247478</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05865611886973902</v>
+        <v>0.02955048422723557</v>
       </c>
       <c r="N101" t="n">
-        <v>0.08213458831521386</v>
+        <v>0.08265488259656389</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05888580196908687</v>
+        <v>0.02945283390933623</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02359372242425173</v>
+        <v>0.01435809269482392</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0602107794931263</v>
+        <v>0.01829225660599863</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02734539874895667</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06044234672979485</v>
+        <v>0.03105748984398378</v>
       </c>
       <c r="L102" t="n">
-        <v>0.05485438381080882</v>
+        <v>0.05519834261247478</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06028545550500954</v>
+        <v>0.03037133101132545</v>
       </c>
       <c r="N102" t="n">
-        <v>0.08259838031455086</v>
+        <v>0.08285488259656393</v>
       </c>
       <c r="O102" t="n">
-        <v>0.0605215186904504</v>
+        <v>0.03027096818459557</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02153166856591889</v>
+        <v>0.01447082924997265</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06183809785780538</v>
+        <v>0.01878664191967427</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0270820332337991</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06207592366843797</v>
+        <v>0.03189688146138875</v>
       </c>
       <c r="L103" t="n">
-        <v>0.05451529218691187</v>
+        <v>0.05519834261247478</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06191479214028008</v>
+        <v>0.03119217779541532</v>
       </c>
       <c r="N103" t="n">
-        <v>0.08191591572300561</v>
+        <v>0.08225488259656394</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06215723541181393</v>
+        <v>0.03108910245985491</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02245829238778109</v>
+        <v>0.01458157787588643</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06346541622248447</v>
+        <v>0.01928102723334991</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02710476863933052</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06370950060708107</v>
+        <v>0.03273627307879372</v>
       </c>
       <c r="L104" t="n">
-        <v>0.0541493280760775</v>
+        <v>0.05499834261247477</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0635441287755506</v>
+        <v>0.0320130245795052</v>
       </c>
       <c r="N104" t="n">
-        <v>0.08219060635008635</v>
+        <v>0.08225488259656394</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06379295213317744</v>
+        <v>0.03190723673511425</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02337455408391427</v>
+        <v>0.01469034369051517</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06509273458716357</v>
+        <v>0.01977541254702555</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02701472918206352</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06534307754572417</v>
+        <v>0.03357566469619868</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05425873524164493</v>
+        <v>0.05499834261247477</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06517346541082113</v>
+        <v>0.03283387136359508</v>
       </c>
       <c r="N105" t="n">
-        <v>0.08122586400530107</v>
+        <v>0.08285488259656393</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06542866885454098</v>
+        <v>0.03272537101037359</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02228141384839437</v>
+        <v>0.01479713181180877</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06672005295184265</v>
+        <v>0.02026979786070119</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02701303907851066</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06697665448436728</v>
+        <v>0.03441505631360365</v>
       </c>
       <c r="L106" t="n">
-        <v>0.05394575744695329</v>
+        <v>0.05489834261247478</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06680280204609165</v>
+        <v>0.03365471814768495</v>
       </c>
       <c r="N106" t="n">
-        <v>0.08142510049815799</v>
+        <v>0.08265488259656389</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06706438557590451</v>
+        <v>0.03354350528563294</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02117983187529729</v>
+        <v>0.01490194735771713</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06834737131652173</v>
+        <v>0.02076418317437683</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02680082254518451</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06861023142301038</v>
+        <v>0.03525444793100861</v>
       </c>
       <c r="L107" t="n">
-        <v>0.0539126384553418</v>
+        <v>0.05489834261247478</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06843213868136218</v>
+        <v>0.03447556493177483</v>
       </c>
       <c r="N107" t="n">
-        <v>0.08139172763816521</v>
+        <v>0.08235488259656393</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06870010229726803</v>
+        <v>0.03436163956089228</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02107076835869898</v>
+        <v>0.01500479544619016</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06997468968120084</v>
+        <v>0.02125856848805247</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02667920379859766</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07024380836165349</v>
+        <v>0.03609383954841359</v>
       </c>
       <c r="L108" t="n">
-        <v>0.0536616220301496</v>
+        <v>0.05469834261247478</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0700614753166327</v>
+        <v>0.03529641171586471</v>
       </c>
       <c r="N108" t="n">
-        <v>0.08102915723483078</v>
+        <v>0.08225488259656394</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07033581901863155</v>
+        <v>0.03517977383615161</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02095518349267533</v>
+        <v>0.01510568119517775</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07160200804587992</v>
+        <v>0.0217529538017281</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02664930705526268</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07187738530029658</v>
+        <v>0.03693323116581855</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05339495193471583</v>
+        <v>0.05479834261247477</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07169081195190324</v>
+        <v>0.03611725849995459</v>
       </c>
       <c r="N109" t="n">
-        <v>0.08064080109766292</v>
+        <v>0.08275488259656394</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07197153573999508</v>
+        <v>0.03599790811141095</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.0218340374713023</v>
+        <v>0.0152046097226298</v>
       </c>
       <c r="G110" t="n">
-        <v>0.073229326410559</v>
+        <v>0.02224733911540374</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02651225653169215</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0735109622389397</v>
+        <v>0.03777262278322352</v>
       </c>
       <c r="L110" t="n">
-        <v>0.0532148719323797</v>
+        <v>0.05469834261247478</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07332014858717377</v>
+        <v>0.03693810528404446</v>
       </c>
       <c r="N110" t="n">
-        <v>0.08003007103616971</v>
+        <v>0.08255488259656391</v>
       </c>
       <c r="O110" t="n">
-        <v>0.0736072524613586</v>
+        <v>0.03681604238667029</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.0217082904886558</v>
+        <v>0.01530158614649622</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0748566447752381</v>
+        <v>0.02274172442907938</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02636917644439862</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07514453917758279</v>
+        <v>0.03861201440062849</v>
       </c>
       <c r="L111" t="n">
-        <v>0.05242362578648038</v>
+        <v>0.05489834261247478</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0749494852224443</v>
+        <v>0.03775895206813434</v>
       </c>
       <c r="N111" t="n">
-        <v>0.07940037885985923</v>
+        <v>0.08245488259656392</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07524296918272212</v>
+        <v>0.03763417666192963</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02257890273881176</v>
+        <v>0.01539661558472692</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07648396313991719</v>
+        <v>0.02323610974275502</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02612119100989468</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K112" t="n">
-        <v>0.0767781161162259</v>
+        <v>0.03945140601803345</v>
       </c>
       <c r="L112" t="n">
-        <v>0.05252345726035706</v>
+        <v>0.05489834261247478</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07657882185771482</v>
+        <v>0.03857979885222422</v>
       </c>
       <c r="N112" t="n">
-        <v>0.07885513637823965</v>
+        <v>0.08255488259656391</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07687868590408564</v>
+        <v>0.03845231093718897</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02044683441584612</v>
+        <v>0.01548970315527178</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07811128150459627</v>
+        <v>0.02373049505643066</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02606942444469292</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07841169305486902</v>
+        <v>0.04029079763543842</v>
       </c>
       <c r="L113" t="n">
-        <v>0.05181661011734889</v>
+        <v>0.05489834261247478</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07820815849298535</v>
+        <v>0.03940064563631409</v>
       </c>
       <c r="N113" t="n">
-        <v>0.07889775540081911</v>
+        <v>0.08225488259656394</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07851440262544918</v>
+        <v>0.03927044521244831</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02231304571383476</v>
+        <v>0.01558085397608071</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07973859986927537</v>
+        <v>0.02422488037010629</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02591500096530588</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08004526999351211</v>
+        <v>0.04113018925284338</v>
       </c>
       <c r="L114" t="n">
-        <v>0.05160532812079502</v>
+        <v>0.05469834261247478</v>
       </c>
       <c r="M114" t="n">
-        <v>0.07983749512825587</v>
+        <v>0.04022149242040397</v>
       </c>
       <c r="N114" t="n">
-        <v>0.07783164773710577</v>
+        <v>0.08265488259656389</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0801501193468127</v>
+        <v>0.04008857948770765</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02217849682685365</v>
+        <v>0.01567007316510362</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08136591823395445</v>
+        <v>0.02471926568378193</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02555904478824617</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08167884693215521</v>
+        <v>0.04196958087024835</v>
       </c>
       <c r="L115" t="n">
-        <v>0.05119185503403467</v>
+        <v>0.05509834261247479</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08146683176352641</v>
+        <v>0.04104233920449385</v>
       </c>
       <c r="N115" t="n">
-        <v>0.07736022519660768</v>
+        <v>0.08255488259656391</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08178583606817622</v>
+        <v>0.04090671376296699</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02204414794897869</v>
+        <v>0.01575736584029041</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08299323659863354</v>
+        <v>0.02521365099745757</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02560268013002635</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08331242387079832</v>
+        <v>0.04280897248765332</v>
       </c>
       <c r="L116" t="n">
-        <v>0.05097843462040696</v>
+        <v>0.05489834261247478</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08309616839879692</v>
+        <v>0.04186318598858373</v>
       </c>
       <c r="N116" t="n">
-        <v>0.077286899588833</v>
+        <v>0.08255488259656391</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08342155278953975</v>
+        <v>0.04172484803822633</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02091095927428581</v>
+        <v>0.01584273711959098</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08462055496331262</v>
+        <v>0.02570803631113321</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02524703120715899</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08494600080944142</v>
+        <v>0.04364836410505829</v>
       </c>
       <c r="L117" t="n">
-        <v>0.05106731064325112</v>
+        <v>0.05469834261247478</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08472550503406746</v>
+        <v>0.0426840327726736</v>
       </c>
       <c r="N117" t="n">
-        <v>0.07651508272328977</v>
+        <v>0.08265488259656389</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08505726951090327</v>
+        <v>0.04254298231348567</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02077528132574187</v>
+        <v>0.01592619212095522</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08624787332799172</v>
+        <v>0.02620242162480885</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02529318130614393</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08657957774808453</v>
+        <v>0.04448775572246325</v>
       </c>
       <c r="L118" t="n">
-        <v>0.05045535615695038</v>
+        <v>0.05489834261247478</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08635484166933799</v>
+        <v>0.04350487955676348</v>
       </c>
       <c r="N118" t="n">
-        <v>0.07634818640948626</v>
+        <v>0.08235488259656393</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08669298623226679</v>
+        <v>0.04336111658874501</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01962105281848825</v>
+        <v>0.01600773596233304</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08787519169267081</v>
+        <v>0.02669680693848449</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0250268124170633</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08821315468672764</v>
+        <v>0.04532714733986822</v>
       </c>
       <c r="L119" t="n">
-        <v>0.0503038977580238</v>
+        <v>0.05489834261247478</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08798417830460852</v>
+        <v>0.04432572634085336</v>
       </c>
       <c r="N119" t="n">
-        <v>0.07545782950700602</v>
+        <v>0.08265488259656389</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08832870295363032</v>
+        <v>0.04417925086400434</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02144954092931152</v>
+        <v>0.01608737376167434</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0895025100573499</v>
+        <v>0.02719119225216013</v>
       </c>
       <c r="J120" t="n">
-        <v>0.0249382504931667</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08984673162537073</v>
+        <v>0.04616653895727319</v>
       </c>
       <c r="L120" t="n">
-        <v>0.04961078885956938</v>
+        <v>0.05509834261247479</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08961351493987904</v>
+        <v>0.04514657312494324</v>
       </c>
       <c r="N120" t="n">
-        <v>0.07529893719530639</v>
+        <v>0.08295488259656392</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08996441967499384</v>
+        <v>0.04499738513926368</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02126387408528806</v>
+        <v>0.01616511063692903</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09112982842202899</v>
+        <v>0.02768557756583577</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02453115836623554</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09148030856401385</v>
+        <v>0.04700593057467815</v>
       </c>
       <c r="L121" t="n">
-        <v>0.04908333991075498</v>
+        <v>0.05489834261247478</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09124285157514958</v>
+        <v>0.04596741990903311</v>
       </c>
       <c r="N121" t="n">
-        <v>0.07468178837951517</v>
+        <v>0.08275488259656394</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09160013639635736</v>
+        <v>0.04581551941452303</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02106718071349427</v>
+        <v>0.01624095170604701</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09275714678670807</v>
+        <v>0.0281799628795114</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02450919886805128</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09311388550265694</v>
+        <v>0.04784532219208312</v>
       </c>
       <c r="L122" t="n">
-        <v>0.04892886136074828</v>
+        <v>0.05469834261247478</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09287218821042009</v>
+        <v>0.04678826669312299</v>
       </c>
       <c r="N122" t="n">
-        <v>0.07411749914284127</v>
+        <v>0.08215488259656389</v>
       </c>
       <c r="O122" t="n">
-        <v>0.0932358531177209</v>
+        <v>0.04663365368978237</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01986258924100651</v>
+        <v>0.01631490208697817</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09438446515138717</v>
+        <v>0.02867434819318705</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02407603483039535</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09474746244130004</v>
+        <v>0.04868471380948809</v>
       </c>
       <c r="L123" t="n">
-        <v>0.04855466365871713</v>
+        <v>0.05489834261247478</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09450152484569063</v>
+        <v>0.04760911347721287</v>
       </c>
       <c r="N123" t="n">
-        <v>0.07351718556849374</v>
+        <v>0.08295488259656392</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09487156983908442</v>
+        <v>0.04745178796504171</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01965322809490117</v>
+        <v>0.01638696689767243</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09601178351606626</v>
+        <v>0.02916873350686268</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02383532908504918</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09638103937994316</v>
+        <v>0.04952410542689306</v>
       </c>
       <c r="L124" t="n">
-        <v>0.04786805725382928</v>
+        <v>0.05469834261247478</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09613086148096116</v>
+        <v>0.04842996026130274</v>
       </c>
       <c r="N124" t="n">
-        <v>0.0719919637396812</v>
+        <v>0.08265488259656389</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09650728656044794</v>
+        <v>0.04826992224030104</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01944222570225462</v>
+        <v>0.01645715125607967</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09763910188074534</v>
+        <v>0.02966311882053832</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02379074446379423</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09801461631858625</v>
+        <v>0.05036349704429802</v>
       </c>
       <c r="L125" t="n">
-        <v>0.04727635259525245</v>
+        <v>0.05469834261247478</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09776019811623168</v>
+        <v>0.04925080704539262</v>
       </c>
       <c r="N125" t="n">
-        <v>0.07145294973961269</v>
+        <v>0.08225488259656394</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09814300328181147</v>
+        <v>0.04908805651556038</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02023271049014323</v>
+        <v>0.0165254602801498</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09926642024542442</v>
+        <v>0.03015750413421396</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02334594379841194</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09964819325722936</v>
+        <v>0.05120288866170299</v>
       </c>
       <c r="L126" t="n">
-        <v>0.04668686013215451</v>
+        <v>0.05519834261247478</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09938953475150221</v>
+        <v>0.0500716538294825</v>
       </c>
       <c r="N126" t="n">
-        <v>0.07131125965149709</v>
+        <v>0.08225488259656394</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09977872000317499</v>
+        <v>0.04990619079081973</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01802781088564341</v>
+        <v>0.01659189908783273</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1008937386101035</v>
+        <v>0.0306518894478896</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02330458992068375</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1012817701958725</v>
+        <v>0.05204228027910796</v>
       </c>
       <c r="L127" t="n">
-        <v>0.04670689031370318</v>
+        <v>0.05469834261247478</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1010188713867727</v>
+        <v>0.05089250061357237</v>
       </c>
       <c r="N127" t="n">
-        <v>0.07047800955854333</v>
+        <v>0.08295488259656392</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1014144367245385</v>
+        <v>0.05072432506607907</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.0188306553158315</v>
+        <v>0.01665647279707834</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1025210569747826</v>
+        <v>0.03114627476156524</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02307034566239108</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1029153471345156</v>
+        <v>0.05288167189651292</v>
       </c>
       <c r="L128" t="n">
-        <v>0.04574375358906624</v>
+        <v>0.05519834261247478</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1026482080220433</v>
+        <v>0.05171334739766225</v>
       </c>
       <c r="N128" t="n">
-        <v>0.06976431554396012</v>
+        <v>0.08215488259656389</v>
       </c>
       <c r="O128" t="n">
-        <v>0.103050153445902</v>
+        <v>0.05154245934133841</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01964028807224499</v>
+        <v>0.01671918652583657</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1041483753394617</v>
+        <v>0.03164066007524088</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02284687385531539</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1045489240731587</v>
+        <v>0.05372106351391789</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04570066186289132</v>
+        <v>0.05499834261247477</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1042775446573138</v>
+        <v>0.05253419418175213</v>
       </c>
       <c r="N129" t="n">
-        <v>0.06878129369095648</v>
+        <v>0.08285488259656393</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1046858701672656</v>
+        <v>0.05236059361659775</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01843445519137887</v>
+        <v>0.01678004539205728</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1057756937041408</v>
+        <v>0.03213504538891652</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02251911945619441</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1061825010118018</v>
+        <v>0.05456045513132286</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04522794823782147</v>
+        <v>0.05519834261247478</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1059068812925843</v>
+        <v>0.053355040965842</v>
       </c>
       <c r="N130" t="n">
-        <v>0.06790205933715798</v>
+        <v>0.08285488259656393</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1063215868886291</v>
+        <v>0.05317872789185709</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.0192130249027552</v>
+        <v>0.0168390545136904</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1074030120688199</v>
+        <v>0.03262943070259215</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02227050292471168</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1078160779504449</v>
+        <v>0.05539984674872783</v>
       </c>
       <c r="L131" t="n">
-        <v>0.04451709499742545</v>
+        <v>0.05479834261247477</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1075362179278549</v>
+        <v>0.05417588774993189</v>
       </c>
       <c r="N131" t="n">
-        <v>0.06765943303199595</v>
+        <v>0.08215488259656389</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1079573036099926</v>
+        <v>0.05399686216711643</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01798047555065029</v>
+        <v>0.01689621900868582</v>
       </c>
       <c r="G132" t="n">
-        <v>0.109030330433499</v>
+        <v>0.03312381601626779</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0221062460733618</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K132" t="n">
-        <v>0.109449654889088</v>
+        <v>0.05623923836613279</v>
       </c>
       <c r="L132" t="n">
-        <v>0.0439785670518284</v>
+        <v>0.05499834261247477</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1091655545631254</v>
+        <v>0.05499673453402176</v>
       </c>
       <c r="N132" t="n">
-        <v>0.06616663448295551</v>
+        <v>0.08225488259656394</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1095930203313562</v>
+        <v>0.05481499644237577</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01774128547934045</v>
+        <v>0.01695154399499343</v>
       </c>
       <c r="G133" t="n">
-        <v>0.110657648798178</v>
+        <v>0.03361820132994343</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02183159224691292</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1110832318277311</v>
+        <v>0.05707862998353776</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04352282931115575</v>
+        <v>0.05479834261247477</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1107948911983959</v>
+        <v>0.05581758131811163</v>
       </c>
       <c r="N133" t="n">
-        <v>0.06573957636640665</v>
+        <v>0.08225488259656394</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1112287370527197</v>
+        <v>0.05563313071763511</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01649993303310202</v>
+        <v>0.01700503459056317</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1122849671628571</v>
+        <v>0.03411258664361907</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02155178479013321</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1127168087663742</v>
+        <v>0.05791802160094273</v>
       </c>
       <c r="L134" t="n">
-        <v>0.0431603466855327</v>
+        <v>0.05499834261247477</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1124242278336664</v>
+        <v>0.05663842810220152</v>
       </c>
       <c r="N134" t="n">
-        <v>0.06499417135871921</v>
+        <v>0.08215488259656389</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1128644537740832</v>
+        <v>0.05645126499289444</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01626089655621128</v>
+        <v>0.0170566959133449</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1139122855275362</v>
+        <v>0.03460697195729471</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02107206704779084</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1143503857050173</v>
+        <v>0.0587574132183477</v>
       </c>
       <c r="L135" t="n">
-        <v>0.04260158408508455</v>
+        <v>0.05509834261247479</v>
       </c>
       <c r="M135" t="n">
-        <v>0.114053564468937</v>
+        <v>0.05745927488629139</v>
       </c>
       <c r="N135" t="n">
-        <v>0.06414633213626336</v>
+        <v>0.08275488259656394</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1145001704954467</v>
+        <v>0.05726939926815378</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01702865439294456</v>
+        <v>0.01710653308128855</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1155396038922153</v>
+        <v>0.03510135727097035</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02099768236465398</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1159839626436604</v>
+        <v>0.05959680483575266</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04205700641993657</v>
+        <v>0.05509834261247479</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1156829011042075</v>
+        <v>0.05828012167038127</v>
       </c>
       <c r="N136" t="n">
-        <v>0.06331197137540912</v>
+        <v>0.08265488259656389</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1161358872168102</v>
+        <v>0.05808753354341312</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01780768488757818</v>
+        <v>0.01715455121234399</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1171669222568944</v>
+        <v>0.03559574258464598</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02053387408549076</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1176175395823035</v>
+        <v>0.06043619645315763</v>
       </c>
       <c r="L137" t="n">
-        <v>0.04133707860021399</v>
+        <v>0.05509834261247479</v>
       </c>
       <c r="M137" t="n">
-        <v>0.117312237739478</v>
+        <v>0.05910096845447114</v>
       </c>
       <c r="N137" t="n">
-        <v>0.06240700175252628</v>
+        <v>0.08295488259656392</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1177716039381737</v>
+        <v>0.05890566781867246</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01760246638438843</v>
+        <v>0.01720075542446117</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1187942406215735</v>
+        <v>0.03609012789832163</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02038588555506937</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1192511165209466</v>
+        <v>0.0612755880705626</v>
       </c>
       <c r="L138" t="n">
-        <v>0.04085226553604218</v>
+        <v>0.05519834261247478</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1189415743747485</v>
+        <v>0.05992181523856101</v>
       </c>
       <c r="N138" t="n">
-        <v>0.06184733594398495</v>
+        <v>0.08275488259656394</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1194073206595373</v>
+        <v>0.05972380209393181</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01741747722765163</v>
+        <v>0.01724515083558993</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1204215589862526</v>
+        <v>0.03658451321199727</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02015896011815797</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1208846934595897</v>
+        <v>0.06211497968796756</v>
       </c>
       <c r="L139" t="n">
-        <v>0.04031303213754633</v>
+        <v>0.05499834261247477</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1205709110100191</v>
+        <v>0.0607426620226509</v>
       </c>
       <c r="N139" t="n">
-        <v>0.06064888662615509</v>
+        <v>0.08245488259656392</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1210430373809008</v>
+        <v>0.06054193636919115</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01625719576164411</v>
+        <v>0.01728774256368022</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1220488773509317</v>
+        <v>0.0370788985256729</v>
       </c>
       <c r="J140" t="n">
-        <v>0.01985834111952473</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1225182703982328</v>
+        <v>0.06295437130537253</v>
       </c>
       <c r="L140" t="n">
-        <v>0.04012984331485175</v>
+        <v>0.05499834261247477</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1222002476452896</v>
+        <v>0.06156350880674077</v>
       </c>
       <c r="N140" t="n">
-        <v>0.06042756647540665</v>
+        <v>0.08225488259656394</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1226787541022643</v>
+        <v>0.06136007064445049</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01512610033064216</v>
+        <v>0.01732853572668194</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1236761957156108</v>
+        <v>0.03757328383934854</v>
       </c>
       <c r="J141" t="n">
-        <v>0.01978927190393781</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1241518473368759</v>
+        <v>0.0637937629227775</v>
       </c>
       <c r="L141" t="n">
-        <v>0.03981316397808374</v>
+        <v>0.05469834261247478</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1238295842805602</v>
+        <v>0.06238435559083064</v>
       </c>
       <c r="N141" t="n">
-        <v>0.06009928816810967</v>
+        <v>0.08235488259656393</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1243144708236279</v>
+        <v>0.06217820491970982</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01702866927892211</v>
+        <v>0.01736753544254496</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1253035140802898</v>
+        <v>0.03806766915302418</v>
       </c>
       <c r="J142" t="n">
-        <v>0.01975699581616536</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K142" t="n">
-        <v>0.125785424275519</v>
+        <v>0.06463315454018247</v>
       </c>
       <c r="L142" t="n">
-        <v>0.03927345903736754</v>
+        <v>0.05469834261247478</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1254589209158307</v>
+        <v>0.06320520237492053</v>
       </c>
       <c r="N142" t="n">
-        <v>0.05917996438063411</v>
+        <v>0.08295488259656392</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1259501875449914</v>
+        <v>0.06299633919496916</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01696938095076027</v>
+        <v>0.01740474682921921</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1269308324449689</v>
+        <v>0.03856205446669982</v>
       </c>
       <c r="J143" t="n">
-        <v>0.01946675620097553</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1274190012141621</v>
+        <v>0.06547254615758744</v>
       </c>
       <c r="L143" t="n">
-        <v>0.03912119340282844</v>
+        <v>0.05519834261247478</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1270882575511012</v>
+        <v>0.0640260491590104</v>
       </c>
       <c r="N143" t="n">
-        <v>0.05948550778935002</v>
+        <v>0.08265488259656389</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1275859042663549</v>
+        <v>0.06381447347022851</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01595237048357502</v>
+        <v>0.01744017500465456</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1285581508096481</v>
+        <v>0.03905643978037546</v>
       </c>
       <c r="J144" t="n">
-        <v>0.01952379640313652</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1290525781528052</v>
+        <v>0.06631193777499239</v>
       </c>
       <c r="L144" t="n">
-        <v>0.0393668319845917</v>
+        <v>0.05509834261247479</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1287175941863717</v>
+        <v>0.06484689594310028</v>
       </c>
       <c r="N144" t="n">
-        <v>0.05883183107062734</v>
+        <v>0.08215487194081711</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1292216209877184</v>
+        <v>0.06463260774548785</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0169565715859799</v>
+        <v>0.01747382508680095</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1301854691743271</v>
+        <v>0.0395508250940511</v>
       </c>
       <c r="J145" t="n">
-        <v>0.01942264951846766</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1306861550914483</v>
+        <v>0.06715132939239736</v>
       </c>
       <c r="L145" t="n">
-        <v>0.03927433029676544</v>
+        <v>0.05469758767527394</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1303469308216423</v>
+        <v>0.06566774272719016</v>
       </c>
       <c r="N145" t="n">
-        <v>0.05851588539958696</v>
+        <v>0.08275203270812909</v>
       </c>
       <c r="O145" t="n">
-        <v>0.130857337709082</v>
+        <v>0.06545074202074719</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.0159671828815583</v>
+        <v>0.01750570219360827</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1318127875390062</v>
+        <v>0.04004521040772674</v>
       </c>
       <c r="J146" t="n">
-        <v>0.01963163144645945</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1323197320300914</v>
+        <v>0.06799072100980234</v>
       </c>
       <c r="L146" t="n">
-        <v>0.0391969171544076</v>
+        <v>0.05509369275432002</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1319762674569128</v>
+        <v>0.06648858951128003</v>
       </c>
       <c r="N146" t="n">
-        <v>0.05893955388408911</v>
+        <v>0.0822442966937843</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1324930544304455</v>
+        <v>0.06626887629600653</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01598387530320409</v>
+        <v>0.0175358114430264</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1334401059036853</v>
+        <v>0.04053959572140237</v>
       </c>
       <c r="J147" t="n">
-        <v>0.01964788019175284</v>
+        <v>0.02734180211319831</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1339533089687346</v>
+        <v>0.0688301126272073</v>
       </c>
       <c r="L147" t="n">
-        <v>0.03903380906654841</v>
+        <v>0.0549865932516585</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1336056040921833</v>
+        <v>0.06730943629536991</v>
       </c>
       <c r="N147" t="n">
-        <v>0.05858542758704877</v>
+        <v>0.08283184877712346</v>
       </c>
       <c r="O147" t="n">
-        <v>0.134128771151809</v>
+        <v>0.06708701057126587</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01600631978381118</v>
+        <v>0.01756415795300527</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1350674242683644</v>
+        <v>0.04103398103507801</v>
       </c>
       <c r="J148" t="n">
-        <v>0.01967101047528433</v>
+        <v>0.02744088433565466</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1355868859073777</v>
+        <v>0.06966950424461227</v>
       </c>
       <c r="L148" t="n">
-        <v>0.03948423707540391</v>
+        <v>0.05477641341403122</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1352349407274538</v>
+        <v>0.06813028307945979</v>
       </c>
       <c r="N148" t="n">
-        <v>0.05925233725080276</v>
+        <v>0.0823148738374872</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1357644878731725</v>
+        <v>0.06790514484652521</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01703418725627346</v>
+        <v>0.01759074684149476</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1366947426330435</v>
+        <v>0.04152836634875366</v>
       </c>
       <c r="J149" t="n">
-        <v>0.01960063701799028</v>
+        <v>0.02743826051147363</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1372204628460208</v>
+        <v>0.07050889586201722</v>
       </c>
       <c r="L149" t="n">
-        <v>0.03934743222319004</v>
+        <v>0.05516327748817998</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1368642773627244</v>
+        <v>0.06895112986354966</v>
       </c>
       <c r="N149" t="n">
-        <v>0.05943911361768789</v>
+        <v>0.08239355675421628</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1374002045945361</v>
+        <v>0.06872327912178455</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01506714865348482</v>
+        <v>0.01761558322644477</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1383220609977226</v>
+        <v>0.04202275166242929</v>
       </c>
       <c r="J150" t="n">
-        <v>0.01953637454080713</v>
+        <v>0.02723399669162338</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1388540397846639</v>
+        <v>0.07134828747942219</v>
       </c>
       <c r="L150" t="n">
-        <v>0.03942262555212289</v>
+        <v>0.05514730972084664</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1384936139979949</v>
+        <v>0.06977197664763955</v>
       </c>
       <c r="N150" t="n">
-        <v>0.05914458743004092</v>
+        <v>0.0826680824066513</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1390359213158996</v>
+        <v>0.06954141339704388</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01710487490833917</v>
+        <v>0.01763867222580524</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1399493793624017</v>
+        <v>0.04251713697610493</v>
       </c>
       <c r="J151" t="n">
-        <v>0.0197778377646713</v>
+        <v>0.02742815892707207</v>
       </c>
       <c r="K151" t="n">
-        <v>0.140487616723307</v>
+        <v>0.07218767909682718</v>
       </c>
       <c r="L151" t="n">
-        <v>0.03980904810441852</v>
+        <v>0.05512863435877299</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1401229506332654</v>
+        <v>0.07059282343172942</v>
       </c>
       <c r="N151" t="n">
-        <v>0.05976758943019878</v>
+        <v>0.08273863567413281</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1406716380372631</v>
+        <v>0.07035954767230322</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01514703695373038</v>
+        <v>0.01766001895752602</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1415766977270808</v>
+        <v>0.04301152228978057</v>
       </c>
       <c r="J152" t="n">
-        <v>0.01982464141051921</v>
+        <v>0.02742081326878786</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1421211936619501</v>
+        <v>0.07302707071423213</v>
       </c>
       <c r="L152" t="n">
-        <v>0.03970593092229285</v>
+        <v>0.05480737564870092</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1417522872685359</v>
+        <v>0.07141367021581929</v>
       </c>
       <c r="N152" t="n">
-        <v>0.05950695036049819</v>
+        <v>0.08240540143600167</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1423073547586266</v>
+        <v>0.07117768194756256</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01619330572255237</v>
+        <v>0.01767962853955706</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1432040160917598</v>
+        <v>0.04350590760345621</v>
       </c>
       <c r="J153" t="n">
-        <v>0.01967640019928726</v>
+        <v>0.02741202576773892</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1437547706005932</v>
+        <v>0.0738664623316371</v>
       </c>
       <c r="L153" t="n">
-        <v>0.03951250504796205</v>
+        <v>0.05498365783737225</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1433816239038065</v>
+        <v>0.07223451699990918</v>
       </c>
       <c r="N153" t="n">
-        <v>0.060061500963276</v>
+        <v>0.0819685645715984</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1439430714799902</v>
+        <v>0.0719958162228219</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01724335214769902</v>
+        <v>0.01769750608984822</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1448313344564389</v>
+        <v>0.04400029291713185</v>
       </c>
       <c r="J154" t="n">
-        <v>0.01973272885191189</v>
+        <v>0.02740186247489339</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1453883475392363</v>
+        <v>0.07470585394904207</v>
       </c>
       <c r="L154" t="n">
-        <v>0.04012800152364207</v>
+        <v>0.05475760517152875</v>
       </c>
       <c r="M154" t="n">
-        <v>0.145010960539077</v>
+        <v>0.07305536378399906</v>
       </c>
       <c r="N154" t="n">
-        <v>0.05973007198086905</v>
+        <v>0.08232830996026369</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1455787882013537</v>
+        <v>0.07281395049808125</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01729684716206423</v>
+        <v>0.01771365672634941</v>
       </c>
       <c r="G155" t="n">
-        <v>0.146458652821118</v>
+        <v>0.04449467823080749</v>
       </c>
       <c r="J155" t="n">
-        <v>0.01989324208932952</v>
+        <v>0.02729038944121943</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1470219244778794</v>
+        <v>0.07554524556644704</v>
       </c>
       <c r="L155" t="n">
-        <v>0.0402516513915489</v>
+        <v>0.05492934189791226</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1466402971743475</v>
+        <v>0.07387621056808892</v>
       </c>
       <c r="N155" t="n">
-        <v>0.05961149415561406</v>
+        <v>0.08228482248133834</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1472145049227172</v>
+        <v>0.07363208477334059</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01735353176836307</v>
+        <v>0.01772808556701056</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1480859711857971</v>
+        <v>0.04498906354448312</v>
       </c>
       <c r="J156" t="n">
-        <v>0.01995755463247655</v>
+        <v>0.02727767271768523</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1486555014165225</v>
+        <v>0.07638463718385201</v>
       </c>
       <c r="L156" t="n">
-        <v>0.03998268569389862</v>
+        <v>0.05489899226326467</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1482696338096181</v>
+        <v>0.07469705735217881</v>
       </c>
       <c r="N156" t="n">
-        <v>0.06020459822984792</v>
+        <v>0.08203828701416283</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1488502216440807</v>
+        <v>0.07445021904859993</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01744349102271074</v>
+        <v>0.01774079772978154</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1497132895504762</v>
+        <v>0.04548344885815876</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02013867749489791</v>
+        <v>0.02716377835525893</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1502890783551656</v>
+        <v>0.07722402880125698</v>
       </c>
       <c r="L157" t="n">
-        <v>0.04057514596209449</v>
+        <v>0.05496668051432776</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1498989704448886</v>
+        <v>0.07551790413626869</v>
       </c>
       <c r="N157" t="n">
-        <v>0.06083299790965163</v>
+        <v>0.08208888843807788</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1504859383654442</v>
+        <v>0.07526835332385926</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01558487940257438</v>
+        <v>0.01775179833261228</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1513406079151553</v>
+        <v>0.0459778341718344</v>
       </c>
       <c r="J158" t="n">
-        <v>0.020279869213028</v>
+        <v>0.02724877240490869</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1519226552938087</v>
+        <v>0.07806342041866193</v>
       </c>
       <c r="L158" t="n">
-        <v>0.04049021190837923</v>
+        <v>0.0546325308978434</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1515283070801591</v>
+        <v>0.07633875092035855</v>
       </c>
       <c r="N158" t="n">
-        <v>0.06063513820592897</v>
+        <v>0.08253681163242421</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1521216550868078</v>
+        <v>0.0760864875991186</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01576776316625245</v>
+        <v>0.01776109249345265</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1529679262798344</v>
+        <v>0.04647221948551004</v>
       </c>
       <c r="J159" t="n">
-        <v>0.020274181811425</v>
+        <v>0.02733272091760267</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1535562322324518</v>
+        <v>0.0789028120360669</v>
       </c>
       <c r="L159" t="n">
-        <v>0.04120517130236723</v>
+        <v>0.05449666766055336</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1531576437154296</v>
+        <v>0.07715959770444844</v>
       </c>
       <c r="N159" t="n">
-        <v>0.06100317509076203</v>
+        <v>0.08198224147654237</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1537573718081713</v>
+        <v>0.07690462187437794</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01698220857204338</v>
+        <v>0.01776868533025256</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1545952446445135</v>
+        <v>0.04696660479918568</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02060998464506357</v>
+        <v>0.02721568994430903</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1551898091710949</v>
+        <v>0.07974220365347187</v>
       </c>
       <c r="L160" t="n">
-        <v>0.04159681116450611</v>
+        <v>0.05465921504919954</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1547869803507002</v>
+        <v>0.07798044448853832</v>
       </c>
       <c r="N160" t="n">
-        <v>0.06200181149740341</v>
+        <v>0.08232536284977315</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1553930885295348</v>
+        <v>0.07772275614963728</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01621828187824563</v>
+        <v>0.01777458196096194</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1562225630091925</v>
+        <v>0.04746099011286131</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02077564706891835</v>
+        <v>0.02709774553599592</v>
       </c>
       <c r="K161" t="n">
-        <v>0.156823386109738</v>
+        <v>0.08058159527087684</v>
       </c>
       <c r="L161" t="n">
-        <v>0.0421419185152436</v>
+        <v>0.05472029731052375</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1564163169859707</v>
+        <v>0.07880129127262818</v>
       </c>
       <c r="N161" t="n">
-        <v>0.06329575035910529</v>
+        <v>0.0821663606314571</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1570288052508984</v>
+        <v>0.07854089042489662</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01746604934315765</v>
+        <v>0.01777878750353065</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1578498813738716</v>
+        <v>0.04795537542653695</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02115953843796402</v>
+        <v>0.02717895374363154</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1584569630483811</v>
+        <v>0.08142098688828181</v>
       </c>
       <c r="L162" t="n">
-        <v>0.04261728037502729</v>
+        <v>0.05478003869126777</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1580456536212412</v>
+        <v>0.07962213805671807</v>
       </c>
       <c r="N162" t="n">
-        <v>0.06374969460912017</v>
+        <v>0.08200541970093489</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1586645219722619</v>
+        <v>0.07935902470015596</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.0187155772250779</v>
+        <v>0.01778130707590862</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1594771997385507</v>
+        <v>0.04844976074021259</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02135002810717519</v>
+        <v>0.02725938061818399</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1600905399870242</v>
+        <v>0.08226037850568677</v>
       </c>
       <c r="L163" t="n">
-        <v>0.04329968376430485</v>
+        <v>0.05473856343817349</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1596749902565117</v>
+        <v>0.08044298484080795</v>
       </c>
       <c r="N163" t="n">
-        <v>0.06502834718070044</v>
+        <v>0.08204272493754733</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1603002386936254</v>
+        <v>0.0801771589754153</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.0179569317823048</v>
+        <v>0.01778214579604575</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1611045181032298</v>
+        <v>0.04894414605388824</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02173548543152652</v>
+        <v>0.02713909221062148</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1617241169256673</v>
+        <v>0.08309977012309173</v>
       </c>
       <c r="L164" t="n">
-        <v>0.04406591570352392</v>
+        <v>0.05459599579798272</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1613043268917823</v>
+        <v>0.08126383162489782</v>
       </c>
       <c r="N164" t="n">
-        <v>0.06519641100709855</v>
+        <v>0.08137846122063486</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1619359554149889</v>
+        <v>0.08099529325067464</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01718017927313682</v>
+        <v>0.01778214579604574</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1627318364679089</v>
+        <v>0.04894414605388824</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02190427976599268</v>
+        <v>0.02721815457191216</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1633576938643104</v>
+        <v>0.0839391617404967</v>
       </c>
       <c r="L165" t="n">
-        <v>0.04429276321313222</v>
+        <v>0.05415246001743723</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1629336635270528</v>
+        <v>0.0820846784089877</v>
       </c>
       <c r="N165" t="n">
-        <v>0.06641858902156661</v>
+        <v>0.08171281342953834</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1635716721363524</v>
+        <v>0.08181342752593398</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01937538595587242</v>
+        <v>0.01734175065305257</v>
       </c>
       <c r="G166" t="n">
-        <v>0.164359154832588</v>
+        <v>0.04894387752542422</v>
       </c>
       <c r="J166" t="n">
-        <v>0.0221447804655483</v>
+        <v>0.02709663375302417</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1649912708029535</v>
+        <v>0.08477855335790167</v>
       </c>
       <c r="L166" t="n">
-        <v>0.04505701331357725</v>
+        <v>0.05410808034327896</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1645630001623234</v>
+        <v>0.08290552519307758</v>
       </c>
       <c r="N166" t="n">
-        <v>0.06745958415735726</v>
+        <v>0.08144596644359836</v>
       </c>
       <c r="O166" t="n">
-        <v>0.165207388857716</v>
+        <v>0.08263156180119331</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01955053384241202</v>
+        <v>0.01690627685443022</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1659864731972671</v>
+        <v>0.0489436089969602</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02235309692187948</v>
+        <v>0.02707459580492567</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1666248477415966</v>
+        <v>0.08561794497530664</v>
       </c>
       <c r="L167" t="n">
-        <v>0.04526725055205424</v>
+        <v>0.05426298102224969</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1661923367975938</v>
+        <v>0.08372637197716745</v>
       </c>
       <c r="N167" t="n">
-        <v>0.06729859800356314</v>
+        <v>0.08147810514215553</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1668431055790795</v>
+        <v>0.08344969607645265</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01772133465760992</v>
+        <v>0.0164763509477997</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1676137915619462</v>
+        <v>0.04894334046849619</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02255337548428027</v>
+        <v>0.02715210677858484</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1682584246802397</v>
+        <v>0.0864573365927116</v>
       </c>
       <c r="L168" t="n">
-        <v>0.04566655975419714</v>
+        <v>0.05441728630109122</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1678216734328644</v>
+        <v>0.08454721876125733</v>
       </c>
       <c r="N168" t="n">
-        <v>0.06800675025783492</v>
+        <v>0.08150941440455051</v>
       </c>
       <c r="O168" t="n">
-        <v>0.168478822300443</v>
+        <v>0.08426783035171199</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.01788810660765043</v>
+        <v>0.01605259948074439</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1692411099266252</v>
+        <v>0.04894307194003217</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02274881933248894</v>
+        <v>0.02712923272496984</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1698920016188828</v>
+        <v>0.08729672821011658</v>
       </c>
       <c r="L169" t="n">
-        <v>0.04575637847448258</v>
+        <v>0.05437112042654543</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1694510100681349</v>
+        <v>0.0853680655453472</v>
       </c>
       <c r="N169" t="n">
-        <v>0.06890010853583228</v>
+        <v>0.08184007911012409</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1701145390218065</v>
+        <v>0.08508596462697134</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01805116482071872</v>
+        <v>0.01563564900088479</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1708684282913044</v>
+        <v>0.04894280341156815</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02303979742557143</v>
+        <v>0.02700603969504882</v>
       </c>
       <c r="K170" t="n">
-        <v>0.171525578557526</v>
+        <v>0.08813611982752155</v>
       </c>
       <c r="L170" t="n">
-        <v>0.04613744309848797</v>
+        <v>0.05402460764535411</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1710803467034055</v>
+        <v>0.08618891232943708</v>
       </c>
       <c r="N170" t="n">
-        <v>0.06967979256674917</v>
+        <v>0.08097028413821677</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1717502557431701</v>
+        <v>0.08590409890223068</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01821082442500001</v>
+        <v>0.01522612605580485</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1724957466559834</v>
+        <v>0.04894253488310413</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02312667872259365</v>
+        <v>0.02698259373978994</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1731591554961691</v>
+        <v>0.08897551144492651</v>
       </c>
       <c r="L171" t="n">
-        <v>0.04651049001179078</v>
+        <v>0.05417787220425913</v>
       </c>
       <c r="M171" t="n">
-        <v>0.172709683338676</v>
+        <v>0.08700975911352696</v>
       </c>
       <c r="N171" t="n">
-        <v>0.07004692207977908</v>
+        <v>0.08160001073134288</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1733859724645336</v>
+        <v>0.08672223317749002</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01836740054867944</v>
+        <v>0.01482465719312445</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1741230650206625</v>
+        <v>0.04894226635464011</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02340983218262153</v>
+        <v>0.02705896091016137</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1747927324348122</v>
+        <v>0.08981490306233147</v>
       </c>
       <c r="L172" t="n">
-        <v>0.04727625559996854</v>
+        <v>0.05382671265422315</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1743390199739465</v>
+        <v>0.08783060589761683</v>
       </c>
       <c r="N172" t="n">
-        <v>0.07070261680411605</v>
+        <v>0.08101811056887043</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1750216891858971</v>
+        <v>0.08754036745274936</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01852120831994225</v>
+        <v>0.01443186896042822</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1757503833853416</v>
+        <v>0.04894199782617609</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02348962676472101</v>
+        <v>0.02703520725713125</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1764263093734553</v>
+        <v>0.09065429467973644</v>
       </c>
       <c r="L173" t="n">
-        <v>0.04733547624859857</v>
+        <v>0.05416412531897871</v>
       </c>
       <c r="M173" t="n">
-        <v>0.175968356609217</v>
+        <v>0.08865145268170671</v>
       </c>
       <c r="N173" t="n">
-        <v>0.0707479964689538</v>
+        <v>0.08111949318140799</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1766574059072606</v>
+        <v>0.08835850172800869</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02067256286697358</v>
+        <v>0.01404838790533529</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1773777017500207</v>
+        <v>0.04894172929771208</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02366643142795802</v>
+        <v>0.02700941344989644</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1780598863120983</v>
+        <v>0.09149368629714141</v>
       </c>
       <c r="L174" t="n">
-        <v>0.0477888883432584</v>
+        <v>0.05409123990741785</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1775976932444876</v>
+        <v>0.08947229946579659</v>
       </c>
       <c r="N174" t="n">
-        <v>0.07188418080348602</v>
+        <v>0.08100608164461798</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1782931226286242</v>
+        <v>0.08917663600326803</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02082177931795864</v>
+        <v>0.01367484057543108</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1790050201146998</v>
+        <v>0.04894146076924806</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02404061513139848</v>
+        <v>0.0268777191367901</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1796934632507415</v>
+        <v>0.09233307791454638</v>
       </c>
       <c r="L175" t="n">
-        <v>0.0484372282695254</v>
+        <v>0.05410934880777871</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1792270298797581</v>
+        <v>0.09029314624988648</v>
       </c>
       <c r="N175" t="n">
-        <v>0.07181228953690644</v>
+        <v>0.08117979903416289</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1799288393499877</v>
+        <v>0.08999477027852737</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02096917280108261</v>
+        <v>0.0133118535183339</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1806323384793789</v>
+        <v>0.04894119224078405</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02421254683410831</v>
+        <v>0.02684066400093792</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1813270401893846</v>
+        <v>0.09317246953195134</v>
       </c>
       <c r="L176" t="n">
-        <v>0.04838123241297712</v>
+        <v>0.05381974440829954</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1808563665150286</v>
+        <v>0.09111399303397634</v>
       </c>
       <c r="N176" t="n">
-        <v>0.07243344239840904</v>
+        <v>0.08104256842570506</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1815645560713512</v>
+        <v>0.09081290455378671</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.0201150584445307</v>
+        <v>0.01296005328163004</v>
       </c>
       <c r="G177" t="n">
-        <v>0.182259656844058</v>
+        <v>0.04894092371232003</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02418259549515347</v>
+        <v>0.02689893509049192</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1829606171280277</v>
+        <v>0.09401186114935631</v>
       </c>
       <c r="L177" t="n">
-        <v>0.04912163715919096</v>
+        <v>0.05392371909721844</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1824857031502992</v>
+        <v>0.09193483981806622</v>
       </c>
       <c r="N177" t="n">
-        <v>0.07304875911718733</v>
+        <v>0.08029631289490707</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1832002727927147</v>
+        <v>0.09163103882904605</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01926249835134833</v>
+        <v>0.01262006641293688</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1838869752087371</v>
+        <v>0.04894065518385601</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02445194029563628</v>
+        <v>0.02665321945360409</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1845941940666708</v>
+        <v>0.09485125276676128</v>
       </c>
       <c r="L178" t="n">
-        <v>0.04916372411880479</v>
+        <v>0.05362256526277359</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1841150397855697</v>
+        <v>0.09275568660215611</v>
       </c>
       <c r="N178" t="n">
-        <v>0.07386040510164182</v>
+        <v>0.08074295551743116</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1848359895140783</v>
+        <v>0.09244917310430539</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02041858751429923</v>
+        <v>0.01229251945984171</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1855142935734161</v>
+        <v>0.04894038665539199</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02473034040109146</v>
+        <v>0.02680420413842652</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1862277710053139</v>
+        <v>0.09569064438416625</v>
       </c>
       <c r="L179" t="n">
-        <v>0.04972580455383874</v>
+        <v>0.05351757529320314</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1857443764208402</v>
+        <v>0.09357653338624598</v>
       </c>
       <c r="N179" t="n">
-        <v>0.0738968738541948</v>
+        <v>0.08018441936893994</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1864717062354418</v>
+        <v>0.09326730737956473</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02157880892288119</v>
+        <v>0.01197803896996084</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1871416119380952</v>
+        <v>0.04894011812692798</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02471562410397034</v>
+        <v>0.02675257619311115</v>
       </c>
       <c r="K180" t="n">
-        <v>0.187861347943957</v>
+        <v>0.09653003600157121</v>
       </c>
       <c r="L180" t="n">
-        <v>0.0499988610802391</v>
+        <v>0.0535100415767453</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1873737130561107</v>
+        <v>0.09439738017033585</v>
       </c>
       <c r="N180" t="n">
-        <v>0.07505634465733951</v>
+        <v>0.08002262752509581</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1881074229568053</v>
+        <v>0.09408544165482408</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02073774923067322</v>
+        <v>0.01167725149088268</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1887689303027743</v>
+        <v>0.04893984959846396</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02500145333826384</v>
+        <v>0.02659902266581007</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1894949248826001</v>
+        <v>0.09736942761897617</v>
       </c>
       <c r="L181" t="n">
-        <v>0.05057024389256939</v>
+        <v>0.05330125650163814</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1890030496913813</v>
+        <v>0.09521822695442574</v>
       </c>
       <c r="N181" t="n">
-        <v>0.07531958253842519</v>
+        <v>0.07975950306156127</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1897431396781688</v>
+        <v>0.09490357593008342</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02088999509125432</v>
+        <v>0.01139078357022238</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1903962486674534</v>
+        <v>0.04893958106999994</v>
       </c>
       <c r="J182" t="n">
-        <v>0.0250814900379628</v>
+        <v>0.02644423060467528</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1911285018212432</v>
+        <v>0.09820881923638114</v>
       </c>
       <c r="L182" t="n">
-        <v>0.05042730318539324</v>
+        <v>0.05329251245611991</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1906323863266518</v>
+        <v>0.09603907373851561</v>
       </c>
       <c r="N182" t="n">
-        <v>0.07586735252480087</v>
+        <v>0.07969696905399865</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1913788563995324</v>
+        <v>0.09572171020534274</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02203013315820347</v>
+        <v>0.0111192617555753</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1920235670321325</v>
+        <v>0.04893931254153593</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02544939613705814</v>
+        <v>0.02638888705785883</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1927620787598863</v>
+        <v>0.09904821085378612</v>
       </c>
       <c r="L183" t="n">
-        <v>0.0507573891532741</v>
+        <v>0.05328510182842866</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1922617229619223</v>
+        <v>0.09685992052260547</v>
       </c>
       <c r="N183" t="n">
-        <v>0.07628041964381582</v>
+        <v>0.07943694857807043</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1930145731208959</v>
+        <v>0.09653984448060209</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02115275008509968</v>
+        <v>0.01086331259453811</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1936508853968116</v>
+        <v>0.04893904401307191</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02559883356954071</v>
+        <v>0.02643367907351268</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1943956556985294</v>
+        <v>0.09988760247119108</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05124785199077561</v>
+        <v>0.05278031700680269</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1938910595971929</v>
+        <v>0.09768076730669537</v>
       </c>
       <c r="N184" t="n">
-        <v>0.07703954892281895</v>
+        <v>0.07978136470943908</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1946502898422594</v>
+        <v>0.09735797875586143</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02025243252552192</v>
+        <v>0.010623562634724</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1952782037614907</v>
+        <v>0.04893877548460789</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02572346426940139</v>
+        <v>0.02647929369978895</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1960292326371725</v>
+        <v>0.100726994088596</v>
       </c>
       <c r="L185" t="n">
-        <v>0.05178604189246128</v>
+        <v>0.05277945037948015</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1955203962324634</v>
+        <v>0.09850161409078524</v>
       </c>
       <c r="N185" t="n">
-        <v>0.07692550538915954</v>
+        <v>0.07923214052376704</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1962860065636229</v>
+        <v>0.09817611303112077</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02032394383688879</v>
+        <v>0.01040063842372461</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1969055221261698</v>
+        <v>0.04893850695614387</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02571695017063107</v>
+        <v>0.02622641798483957</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1976628095758156</v>
+        <v>0.101566385706001</v>
       </c>
       <c r="L186" t="n">
-        <v>0.05165931150185041</v>
+        <v>0.05278379433469912</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1971497328677339</v>
+        <v>0.0993224608748751</v>
       </c>
       <c r="N186" t="n">
-        <v>0.07771905407018664</v>
+        <v>0.0789911990967167</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1979217232849865</v>
+        <v>0.09899424730638011</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.0223820583560093</v>
+        <v>0.01019516650915173</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1985328404908488</v>
+        <v>0.04893823842767986</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02568559909530861</v>
+        <v>0.02627573897681663</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1992963865144587</v>
+        <v>0.102405777323406</v>
       </c>
       <c r="L187" t="n">
-        <v>0.05179505551189656</v>
+        <v>0.05289464126069782</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1987790695030044</v>
+        <v>0.100143307658965</v>
       </c>
       <c r="N187" t="n">
-        <v>0.0775300555626709</v>
+        <v>0.07906046350395052</v>
       </c>
       <c r="O187" t="n">
-        <v>0.19955744000635</v>
+        <v>0.09981238158163945</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02243891522538914</v>
+        <v>0.01000777343859851</v>
       </c>
       <c r="G188" t="n">
-        <v>0.200160158855528</v>
+        <v>0.04893796989921584</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02595209158306296</v>
+        <v>0.02632794372387211</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2009299634531018</v>
+        <v>0.103245168940811</v>
       </c>
       <c r="L188" t="n">
-        <v>0.05172786875045882</v>
+        <v>0.05231328354571438</v>
       </c>
       <c r="M188" t="n">
-        <v>0.200408406138275</v>
+        <v>0.1009641544430549</v>
       </c>
       <c r="N188" t="n">
-        <v>0.07823176755353528</v>
+        <v>0.07904185682113107</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2011931567277135</v>
+        <v>0.1006305158568988</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.022494494523181</v>
+        <v>0.009839085759675147</v>
       </c>
       <c r="G189" t="n">
-        <v>0.201787477220207</v>
+        <v>0.04893770137075183</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02601710078399992</v>
+        <v>0.02618371927415807</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2025635403917449</v>
+        <v>0.1040845605582159</v>
       </c>
       <c r="L189" t="n">
-        <v>0.05215770466454137</v>
+        <v>0.05274101357798699</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2020377427735455</v>
+        <v>0.1017850012271447</v>
       </c>
       <c r="N189" t="n">
-        <v>0.07782899094286272</v>
+        <v>0.07883730212392059</v>
       </c>
       <c r="O189" t="n">
-        <v>0.202828873449077</v>
+        <v>0.1014486501321581</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02154877632753752</v>
+        <v>0.009687356755542803</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2034147955848861</v>
+        <v>0.0489374328422878</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02608060337317898</v>
+        <v>0.0260437526758265</v>
       </c>
       <c r="K190" t="n">
-        <v>0.204197117330388</v>
+        <v>0.1049239521756209</v>
       </c>
       <c r="L190" t="n">
-        <v>0.05198451670114851</v>
+        <v>0.05227912374575383</v>
       </c>
       <c r="M190" t="n">
-        <v>0.203667079408816</v>
+        <v>0.1026058480112346</v>
       </c>
       <c r="N190" t="n">
-        <v>0.07822165494335098</v>
+        <v>0.07884872248798164</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2044645901704406</v>
+        <v>0.1022667844074175</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02060174071661132</v>
+        <v>0.009538903960355442</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2050421139495652</v>
+        <v>0.04893716431382379</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02614257602565953</v>
+        <v>0.02600873097702945</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2058306942690311</v>
+        <v>0.1057633437930258</v>
       </c>
       <c r="L191" t="n">
-        <v>0.05210825830728449</v>
+        <v>0.05222888489526709</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2052964160440865</v>
+        <v>0.1034266947953245</v>
       </c>
       <c r="N191" t="n">
-        <v>0.07900968876769782</v>
+        <v>0.07877724269003444</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2061003068918041</v>
+        <v>0.1030849186826768</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02065336776855509</v>
+        <v>0.009391803233094846</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2066694323142443</v>
+        <v>0.04893689578535977</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02620299541650101</v>
+        <v>0.02607934122591894</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2074642712076742</v>
+        <v>0.1066027354104308</v>
       </c>
       <c r="L192" t="n">
-        <v>0.0524288829299536</v>
+        <v>0.05208492334561995</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2069257526793571</v>
+        <v>0.1042475415794144</v>
       </c>
       <c r="N192" t="n">
-        <v>0.07839302162860118</v>
+        <v>0.07871188700498316</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2077360236131676</v>
+        <v>0.1039030529579362</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02070363756152149</v>
+        <v>0.009246495983094662</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2082967506789234</v>
+        <v>0.04893662725689576</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02606183822076287</v>
+        <v>0.02595566349093849</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2090978481463173</v>
+        <v>0.1074421270278358</v>
       </c>
       <c r="L193" t="n">
-        <v>0.05264634401616006</v>
+        <v>0.05244232160785461</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2085550893146276</v>
+        <v>0.1050683883635043</v>
       </c>
       <c r="N193" t="n">
-        <v>0.07857158273875875</v>
+        <v>0.0782485467203583</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2093717403345311</v>
+        <v>0.1047211872331955</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02175253017366315</v>
+        <v>0.009103423619675796</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2099240690436025</v>
+        <v>0.04893635872843174</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02611908111350454</v>
+        <v>0.02603359831187835</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2107314250849605</v>
+        <v>0.1082815186452408</v>
       </c>
       <c r="L194" t="n">
-        <v>0.05266059501290815</v>
+        <v>0.05200103826882133</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2101844259498981</v>
+        <v>0.1058892351475941</v>
       </c>
       <c r="N194" t="n">
-        <v>0.07904530131086862</v>
+        <v>0.07868716021332983</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2110074570558947</v>
+        <v>0.1055393215084548</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02080002568313272</v>
+        <v>0.008963027552171716</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2115513874082816</v>
+        <v>0.04893609019996772</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02637470076978547</v>
+        <v>0.02611223104234671</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2123650020236036</v>
+        <v>0.1091209102626457</v>
       </c>
       <c r="L195" t="n">
-        <v>0.05267158936720209</v>
+        <v>0.05236103191537034</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2118137625851687</v>
+        <v>0.106710081931684</v>
       </c>
       <c r="N195" t="n">
-        <v>0.07901410655762831</v>
+        <v>0.07872766586106822</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2126431737772582</v>
+        <v>0.1063574557837142</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02084610416808287</v>
+        <v>0.008825749189903573</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2131787057729607</v>
+        <v>0.0489358216715037</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02622867386466508</v>
+        <v>0.02589153966664641</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2139985789622466</v>
+        <v>0.1099603018800507</v>
       </c>
       <c r="L196" t="n">
-        <v>0.05307928052604624</v>
+        <v>0.05202226113435174</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2134430992204392</v>
+        <v>0.1075309287157739</v>
       </c>
       <c r="N196" t="n">
-        <v>0.07927792769173569</v>
+        <v>0.07867000204074348</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2142788904986217</v>
+        <v>0.1071755900589735</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02089074570666624</v>
+        <v>0.008692029942204575</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2148060241376398</v>
+        <v>0.04893555314303968</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02648097707320285</v>
+        <v>0.02597150216908037</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2156321559008897</v>
+        <v>0.1107996934974557</v>
       </c>
       <c r="L197" t="n">
-        <v>0.05318362193644474</v>
+        <v>0.05218468451261593</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2150724358557097</v>
+        <v>0.1083517754998638</v>
       </c>
       <c r="N197" t="n">
-        <v>0.07933669392588877</v>
+        <v>0.07821410712952587</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2159146072199852</v>
+        <v>0.1079937243342329</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02293393037703548</v>
+        <v>0.00856231121839892</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2164333425023189</v>
+        <v>0.04893528461457567</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02643158707045817</v>
+        <v>0.0259520965339514</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2172657328395328</v>
+        <v>0.1116390851148606</v>
       </c>
       <c r="L198" t="n">
-        <v>0.05308456704540193</v>
+        <v>0.05194826063701302</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2167017724909802</v>
+        <v>0.1091726222839536</v>
       </c>
       <c r="N198" t="n">
-        <v>0.07989033447278515</v>
+        <v>0.07795991950458564</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2175503239413487</v>
+        <v>0.1088118586094922</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02297563825734326</v>
+        <v>0.008437034427811178</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2180606608669979</v>
+        <v>0.04893501608611165</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02658048053149051</v>
+        <v>0.02583330074556242</v>
       </c>
       <c r="K199" t="n">
-        <v>0.218899309778176</v>
+        <v>0.1124784767322656</v>
       </c>
       <c r="L199" t="n">
-        <v>0.05328206929992205</v>
+        <v>0.05191294809439326</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2183311091262508</v>
+        <v>0.1099934690680435</v>
       </c>
       <c r="N199" t="n">
-        <v>0.07963877854512302</v>
+        <v>0.07860737754309294</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2191860406627123</v>
+        <v>0.1096299928847515</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02101584942574224</v>
+        <v>0.008316640979774026</v>
       </c>
       <c r="G200" t="n">
-        <v>0.219687979231677</v>
+        <v>0.04893474755764764</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02652763413135928</v>
+        <v>0.02581509278821628</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2205328867168191</v>
+        <v>0.1133178683496706</v>
       </c>
       <c r="L200" t="n">
-        <v>0.05357608214700929</v>
+        <v>0.0517787054716069</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2199604457615213</v>
+        <v>0.1108143158521334</v>
       </c>
       <c r="N200" t="n">
-        <v>0.08028195535559979</v>
+        <v>0.07855641962221793</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2208217573840758</v>
+        <v>0.1104481271600109</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02105454396038502</v>
+        <v>0.008201572283609466</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2213152975963561</v>
+        <v>0.04893447902918362</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02667302454512395</v>
+        <v>0.02579745064621586</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2221664636554622</v>
+        <v>0.1141572599670755</v>
       </c>
       <c r="L201" t="n">
-        <v>0.05356655903366805</v>
+        <v>0.05184549135550418</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2215897823967918</v>
+        <v>0.1116351626362233</v>
       </c>
       <c r="N201" t="n">
-        <v>0.0800197941169134</v>
+        <v>0.0777069841191308</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2224574741054393</v>
+        <v>0.1112662614352702</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02209170193942432</v>
+        <v>0.008092269748649766</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2229426159610352</v>
+        <v>0.0489342105007196</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02661662844784392</v>
+        <v>0.02588035230386403</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2238000405941053</v>
+        <v>0.1149966515844805</v>
       </c>
       <c r="L202" t="n">
-        <v>0.05335345340690245</v>
+        <v>0.05181326433293523</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2232191190320623</v>
+        <v>0.1124560094203131</v>
       </c>
       <c r="N202" t="n">
-        <v>0.08035222404176179</v>
+        <v>0.07845900941100187</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2240931908268028</v>
+        <v>0.1120843957105296</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02312730344101274</v>
+        <v>0.007989174784217408</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2245699343257143</v>
+        <v>0.04893394197225558</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02655842251457866</v>
+        <v>0.02586377574546367</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2254336175327484</v>
+        <v>0.1158360432018855</v>
       </c>
       <c r="L203" t="n">
-        <v>0.05333671871371687</v>
+        <v>0.05218198299075036</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2248484556673329</v>
+        <v>0.113276856204403</v>
       </c>
       <c r="N203" t="n">
-        <v>0.08037917434284275</v>
+        <v>0.07821243387500126</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2257289075481664</v>
+        <v>0.1129025299857889</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02216132854330295</v>
+        <v>0.00789272879964411</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2261972526903934</v>
+        <v>0.04893367344379157</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02659838342038759</v>
+        <v>0.02574769895531763</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2270671944713915</v>
+        <v>0.1166754348192904</v>
       </c>
       <c r="L204" t="n">
-        <v>0.05371630840111549</v>
+        <v>0.05185160591579976</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2264777923026034</v>
+        <v>0.1140977029884929</v>
       </c>
       <c r="N204" t="n">
-        <v>0.08040057423285413</v>
+        <v>0.07756719588829908</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2273646242695299</v>
+        <v>0.1137206642610482</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02119375732444764</v>
+        <v>0.007803373204252922</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2278245710550725</v>
+        <v>0.04893340491532755</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02683648784033017</v>
+        <v>0.02583209991772881</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2287007714100346</v>
+        <v>0.1175148264366954</v>
       </c>
       <c r="L205" t="n">
-        <v>0.0538921759161026</v>
+        <v>0.05162209169493365</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2281071289378739</v>
+        <v>0.1149185497725828</v>
       </c>
       <c r="N205" t="n">
-        <v>0.0811163529244936</v>
+        <v>0.07802323382806564</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2290003409908934</v>
+        <v>0.1145387985363076</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02222456986259939</v>
+        <v>0.007721549407374982</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2294518894197515</v>
+        <v>0.04893313638686353</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02687271244946582</v>
+        <v>0.02581695661700005</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2303343483486777</v>
+        <v>0.1183542180541004</v>
       </c>
       <c r="L206" t="n">
-        <v>0.05356427470568242</v>
+        <v>0.05189339891500225</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2297364655731445</v>
+        <v>0.1157393965566727</v>
       </c>
       <c r="N206" t="n">
-        <v>0.08052643963045908</v>
+        <v>0.07828048607147114</v>
       </c>
       <c r="O206" t="n">
-        <v>0.230636057712257</v>
+        <v>0.1153569328115669</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02325374623591092</v>
+        <v>0.007647698818333978</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2310792077844307</v>
+        <v>0.04893286785839951</v>
       </c>
       <c r="J207" t="n">
-        <v>0.026807033922854</v>
+        <v>0.02570224703743425</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2319679252873208</v>
+        <v>0.1191936096715053</v>
       </c>
       <c r="L207" t="n">
-        <v>0.05413255821685925</v>
+        <v>0.05156548616285586</v>
       </c>
       <c r="M207" t="n">
-        <v>0.231365802208415</v>
+        <v>0.1165602433407625</v>
       </c>
       <c r="N207" t="n">
-        <v>0.08103076356344846</v>
+        <v>0.07763889099568577</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2322717744336205</v>
+        <v>0.1161750670868262</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02328126652253483</v>
+        <v>0.007582262846460359</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2327065261491097</v>
+        <v>0.0489325993299355</v>
       </c>
       <c r="J208" t="n">
-        <v>0.0268394289355541</v>
+        <v>0.02568794916333426</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2336015022259639</v>
+        <v>0.1200330012889103</v>
       </c>
       <c r="L208" t="n">
-        <v>0.05399697989663738</v>
+        <v>0.05183831202534459</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2329951388436855</v>
+        <v>0.1173810901248524</v>
       </c>
       <c r="N208" t="n">
-        <v>0.0807292539361596</v>
+        <v>0.07769838697787962</v>
       </c>
       <c r="O208" t="n">
-        <v>0.233907491154984</v>
+        <v>0.1169932013620856</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02130711080062382</v>
+        <v>0.007525682901078516</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2343338445137888</v>
+        <v>0.04893233080147148</v>
       </c>
       <c r="J209" t="n">
-        <v>0.0268698741626256</v>
+        <v>0.02567404097900297</v>
       </c>
       <c r="K209" t="n">
-        <v>0.235235079164607</v>
+        <v>0.1208723929063153</v>
       </c>
       <c r="L209" t="n">
-        <v>0.05425749319202103</v>
+        <v>0.0517118350893187</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2346244754789561</v>
+        <v>0.1182019369089423</v>
       </c>
       <c r="N209" t="n">
-        <v>0.08152183996129009</v>
+        <v>0.078058912395223</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2355432078763475</v>
+        <v>0.1178113356373449</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02133125914833051</v>
+        <v>0.007478400391518154</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2359611628784679</v>
+        <v>0.04893206227300746</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02699834627912792</v>
+        <v>0.02566050046874326</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2368686561032501</v>
+        <v>0.1217117845237202</v>
       </c>
       <c r="L210" t="n">
-        <v>0.0540140515500144</v>
+        <v>0.05198601394162847</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2362538121142266</v>
+        <v>0.1190227836930322</v>
       </c>
       <c r="N210" t="n">
-        <v>0.08110845085153801</v>
+        <v>0.0780204056248861</v>
       </c>
       <c r="O210" t="n">
-        <v>0.237178924597711</v>
+        <v>0.1186294699126043</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02335369164380756</v>
+        <v>0.007440856727104483</v>
       </c>
       <c r="G211" t="n">
-        <v>0.237588481243147</v>
+        <v>0.04893179374454344</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02682482196012051</v>
+        <v>0.02584730561685798</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2385022330418932</v>
+        <v>0.1225511761411252</v>
       </c>
       <c r="L211" t="n">
-        <v>0.05426660841762188</v>
+        <v>0.05196080716912405</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2378831487494971</v>
+        <v>0.119843630477122</v>
       </c>
       <c r="N211" t="n">
-        <v>0.081489015819601</v>
+        <v>0.07758280504403908</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2388146413190746</v>
+        <v>0.1194476041878636</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02237438836520762</v>
+        <v>0.007413493317166349</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2392157996078261</v>
+        <v>0.04893152521607943</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02694927788066281</v>
+        <v>0.02563443440764999</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2401358099805363</v>
+        <v>0.1233905677585301</v>
       </c>
       <c r="L212" t="n">
-        <v>0.0540151172418476</v>
+        <v>0.05193617335865569</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2395124853847676</v>
+        <v>0.1206644772612119</v>
       </c>
       <c r="N212" t="n">
-        <v>0.08156346407817699</v>
+        <v>0.07784604902985209</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2404503580404381</v>
+        <v>0.1202657384631229</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02139332939068339</v>
+        <v>0.007396751571029821</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2408431179725052</v>
+        <v>0.04893125668761541</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02687169071581426</v>
+        <v>0.0258218648254222</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2417693869191794</v>
+        <v>0.1242299593759351</v>
       </c>
       <c r="L213" t="n">
-        <v>0.05425953146969595</v>
+        <v>0.05181207109707367</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2411418220200382</v>
+        <v>0.1214853240453018</v>
       </c>
       <c r="N213" t="n">
-        <v>0.08123172483996388</v>
+        <v>0.07751007595949538</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2420860747618016</v>
+        <v>0.1210838727383823</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02341049479838744</v>
+        <v>0.007391072898022863</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2424704363371843</v>
+        <v>0.0489309881591514</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02689203714063428</v>
+        <v>0.02580957485447746</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2434029638578225</v>
+        <v>0.1250693509933401</v>
       </c>
       <c r="L214" t="n">
-        <v>0.05409980454817104</v>
+        <v>0.05138845897122807</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2427711586553087</v>
+        <v>0.1223061708293917</v>
       </c>
       <c r="N214" t="n">
-        <v>0.08139372731765926</v>
+        <v>0.07727482421013926</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2437217914831651</v>
+        <v>0.1219020070136416</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02242586466647246</v>
+        <v>0.007391072898022863</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2440977547018633</v>
+        <v>0.0489309881591514</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02691029383018231</v>
+        <v>0.02569754247911864</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2450365407964657</v>
+        <v>0.1259087426107451</v>
       </c>
       <c r="L215" t="n">
-        <v>0.05433588992427726</v>
+        <v>0.0517652955679693</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2444004952905792</v>
+        <v>0.1231270176134815</v>
       </c>
       <c r="N215" t="n">
-        <v>0.08194940072396112</v>
+        <v>0.07724023215895376</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2453575082045286</v>
+        <v>0.122720141288901</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02343941907309115</v>
+        <v>0.007140040247772601</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2457250730665424</v>
+        <v>0.04891372249631459</v>
       </c>
       <c r="J216" t="n">
-        <v>0.0270264374595178</v>
+        <v>0.02568574568364862</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2466701177351088</v>
+        <v>0.12674813422815</v>
       </c>
       <c r="L216" t="n">
-        <v>0.05406774104501882</v>
+        <v>0.05144253947414743</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2460298319258498</v>
+        <v>0.1239478643975714</v>
       </c>
       <c r="N216" t="n">
-        <v>0.08179867427156728</v>
+        <v>0.0774062381831091</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2469932249258922</v>
+        <v>0.1235382755641603</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02245113809639608</v>
+        <v>0.006893858773642868</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2473523914312215</v>
+        <v>0.0488964568334778</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02694044470370019</v>
+        <v>0.02567416245237025</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2483036946737519</v>
+        <v>0.127587525845555</v>
       </c>
       <c r="L217" t="n">
-        <v>0.05409531135739995</v>
+        <v>0.05182014927661274</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2476591685611203</v>
+        <v>0.1247687111816613</v>
       </c>
       <c r="N217" t="n">
-        <v>0.08174147717317554</v>
+        <v>0.07717278065977551</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2486289416472557</v>
+        <v>0.1243564098394196</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02346100181453996</v>
+        <v>0.006653016246456644</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2489797097959006</v>
+        <v>0.048879191170641</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02705229223778892</v>
+        <v>0.02556277076958642</v>
       </c>
       <c r="K218" t="n">
-        <v>0.249937271612395</v>
+        <v>0.1284269174629599</v>
       </c>
       <c r="L218" t="n">
-        <v>0.05461855430842499</v>
+        <v>0.05179808356221552</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2492885051963908</v>
+        <v>0.1255895579657512</v>
       </c>
       <c r="N218" t="n">
-        <v>0.08197773864148378</v>
+        <v>0.07713979796612325</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2502646583686192</v>
+        <v>0.125174544114679</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02346899030567541</v>
+        <v>0.006418000437036893</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2506070281605797</v>
+        <v>0.0488619255078042</v>
       </c>
       <c r="J219" t="n">
-        <v>0.0269619567368434</v>
+        <v>0.02555154861960003</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2515708485510381</v>
+        <v>0.1292663090803649</v>
       </c>
       <c r="L219" t="n">
-        <v>0.05433742334509811</v>
+        <v>0.0516763009178059</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2509178418316613</v>
+        <v>0.1264104047498411</v>
       </c>
       <c r="N219" t="n">
-        <v>0.08130738788918968</v>
+        <v>0.07750722847932234</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2519003750899828</v>
+        <v>0.1259926783899383</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02247508364795511</v>
+        <v>0.006189299116206602</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2522343465252588</v>
+        <v>0.04884465984496741</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02706941487592311</v>
+        <v>0.02554047398671391</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2532044254896812</v>
+        <v>0.1301057006977699</v>
       </c>
       <c r="L220" t="n">
-        <v>0.05465187191442361</v>
+        <v>0.0512547599302341</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2525471784669319</v>
+        <v>0.1272312515339309</v>
       </c>
       <c r="N220" t="n">
-        <v>0.08173035412899116</v>
+        <v>0.07757501057654326</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2535360918113463</v>
+        <v>0.1268108126651977</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02247926191953169</v>
+        <v>0.005967400054788755</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2538616648899379</v>
+        <v>0.04882739418213061</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02697464333008746</v>
+        <v>0.02572952485523096</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2548380024283243</v>
+        <v>0.1309450923151749</v>
       </c>
       <c r="L221" t="n">
-        <v>0.0543618534634058</v>
+        <v>0.0515334191863504</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2541765151022024</v>
+        <v>0.1280520983180208</v>
       </c>
       <c r="N221" t="n">
-        <v>0.08144656657358607</v>
+        <v>0.07734308263495587</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2551718085327098</v>
+        <v>0.127628946940457</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02248150519855784</v>
+        <v>0.005752791023606312</v>
       </c>
       <c r="G222" t="n">
-        <v>0.255488983254617</v>
+        <v>0.04881012851929381</v>
       </c>
       <c r="J222" t="n">
-        <v>0.0269776187743959</v>
+        <v>0.02551867920945401</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2564715793669674</v>
+        <v>0.1317844839325798</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05416732143904882</v>
+        <v>0.05171223727300497</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2558058517374729</v>
+        <v>0.1288729451021107</v>
       </c>
       <c r="N222" t="n">
-        <v>0.08215595443567225</v>
+        <v>0.07711138303173065</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2568075252540734</v>
+        <v>0.1284470812157164</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02247808361699741</v>
+        <v>0.005545959793482269</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2571163016192961</v>
+        <v>0.04879286285645702</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02697699652193702</v>
+        <v>0.02560791503368598</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2581051563056105</v>
+        <v>0.1326238755499848</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05466189050670484</v>
+        <v>0.05159117277704814</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2574351883727434</v>
+        <v>0.1296937918862006</v>
       </c>
       <c r="N223" t="n">
-        <v>0.08185634996489427</v>
+        <v>0.07737985014403759</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2584432419754369</v>
+        <v>0.1292652154909757</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02342748906474022</v>
+        <v>0.005347394135239596</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2587436199839752</v>
+        <v>0.04877559719362021</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02702861287330556</v>
+        <v>0.02569721031222971</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2597387332442536</v>
+        <v>0.1334632671673898</v>
       </c>
       <c r="L224" t="n">
-        <v>0.05425064537273641</v>
+        <v>0.05167018428533002</v>
       </c>
       <c r="M224" t="n">
-        <v>0.259064525008014</v>
+        <v>0.1305146386702905</v>
       </c>
       <c r="N224" t="n">
-        <v>0.08122078251621384</v>
+        <v>0.07684842234904704</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2600789586968004</v>
+        <v>0.130083349766235</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02232302622124323</v>
+        <v>0.005157581819701273</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2603709383486543</v>
+        <v>0.04875833153078342</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02681628634066076</v>
+        <v>0.0256865430293881</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2613723101828967</v>
+        <v>0.1343026587847947</v>
       </c>
       <c r="L225" t="n">
-        <v>0.05411295868827701</v>
+        <v>0.05134923038470088</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2606938616432845</v>
+        <v>0.1313354854543803</v>
       </c>
       <c r="N225" t="n">
-        <v>0.08119025822860981</v>
+        <v>0.07711703802392916</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2617146754181639</v>
+        <v>0.1309014840414944</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.0211709055905842</v>
+        <v>0.004977010617690278</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2619982567133333</v>
+        <v>0.04874106586794662</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02664728831987015</v>
+        <v>0.02567589116946399</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2630058871215398</v>
+        <v>0.1351420504021997</v>
       </c>
       <c r="L226" t="n">
-        <v>0.0538633430416845</v>
+        <v>0.05142826966201089</v>
       </c>
       <c r="M226" t="n">
-        <v>0.262323198278555</v>
+        <v>0.1321563322384702</v>
       </c>
       <c r="N226" t="n">
-        <v>0.08088684457510059</v>
+        <v>0.07758563554585413</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2633503921395274</v>
+        <v>0.1317196183167537</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02097733767684098</v>
+        <v>0.004806168300029584</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2636255750780124</v>
+        <v>0.04872380020510982</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02642889020680124</v>
+        <v>0.02566523271676026</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2646394640601828</v>
+        <v>0.1359814420196047</v>
       </c>
       <c r="L227" t="n">
-        <v>0.0534163110213168</v>
+        <v>0.05130726070411037</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2639525349138255</v>
+        <v>0.1329771790225601</v>
       </c>
       <c r="N227" t="n">
-        <v>0.07993260902870458</v>
+        <v>0.07675415329199203</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2649861088608909</v>
+        <v>0.1325377525920131</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02174853298409139</v>
+        <v>0.004645542637542126</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2652528934426915</v>
+        <v>0.04870653454227302</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02626836339732154</v>
+        <v>0.02545454565557978</v>
       </c>
       <c r="K228" t="n">
-        <v>0.266273040998826</v>
+        <v>0.1368208336370096</v>
       </c>
       <c r="L228" t="n">
-        <v>0.05268637521553174</v>
+        <v>0.05138616209784944</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2655818715490961</v>
+        <v>0.13379802580665</v>
       </c>
       <c r="N228" t="n">
-        <v>0.07974961906244021</v>
+        <v>0.07672252963951326</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2666218255822545</v>
+        <v>0.1333558868672724</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02049070201641325</v>
+        <v>0.004495621401050982</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2668802118073706</v>
+        <v>0.04868926887943623</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02607297928729856</v>
+        <v>0.02564380797022547</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2679066179374691</v>
+        <v>0.1376602252544146</v>
       </c>
       <c r="L229" t="n">
-        <v>0.05198804821268727</v>
+        <v>0.05126493243007843</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2672112081843666</v>
+        <v>0.1346188725907398</v>
       </c>
       <c r="N229" t="n">
-        <v>0.07825994214932602</v>
+        <v>0.07679070296558799</v>
       </c>
       <c r="O229" t="n">
-        <v>0.268257542303618</v>
+        <v>0.1341740211425317</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02221005527788435</v>
+        <v>0.004356892361379087</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2685075301720497</v>
+        <v>0.04867200321659942</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02555000927259983</v>
+        <v>0.02563299764500014</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2695401948761122</v>
+        <v>0.1384996168718196</v>
       </c>
       <c r="L230" t="n">
-        <v>0.0513358426011413</v>
+        <v>0.05104353028764752</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2688405448196372</v>
+        <v>0.1354397193748297</v>
       </c>
       <c r="N230" t="n">
-        <v>0.07758564576238036</v>
+        <v>0.07665861164738613</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2698932590249815</v>
+        <v>0.1349921554177911</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02191280327258255</v>
+        <v>0.004229843289349403</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2701348485367288</v>
+        <v>0.04865473755376263</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02530672474909286</v>
+        <v>0.02562209266420669</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2711737718147553</v>
+        <v>0.1393390084892245</v>
       </c>
       <c r="L231" t="n">
-        <v>0.05094427096925166</v>
+        <v>0.05112191425740686</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2704698814549077</v>
+        <v>0.1362605661589196</v>
       </c>
       <c r="N231" t="n">
-        <v>0.07634879737462169</v>
+        <v>0.0773261940620783</v>
       </c>
       <c r="O231" t="n">
-        <v>0.271528975746345</v>
+        <v>0.1358102896930504</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02060515650458565</v>
+        <v>0.00411496195578491</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2717621669014079</v>
+        <v>0.04863747189092583</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02505039711264517</v>
+        <v>0.02541107113686969</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2728073487533984</v>
+        <v>0.1401784001066295</v>
       </c>
       <c r="L232" t="n">
-        <v>0.04992784590537624</v>
+        <v>0.05110017378879173</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2720992180901782</v>
+        <v>0.1370814129430095</v>
       </c>
       <c r="N232" t="n">
-        <v>0.07547146445906844</v>
+        <v>0.07729364496551894</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2731646924677086</v>
+        <v>0.1366284239683097</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02129332547797148</v>
+        <v>0.004012736131508599</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2733894852660869</v>
+        <v>0.04862020622808903</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02448829775912424</v>
+        <v>0.02560003872360504</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2744409256920415</v>
+        <v>0.1410177917240344</v>
       </c>
       <c r="L233" t="n">
-        <v>0.04910107999787303</v>
+        <v>0.05127860354405547</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2737285547254487</v>
+        <v>0.1379022597270993</v>
       </c>
       <c r="N233" t="n">
-        <v>0.07397571448873913</v>
+        <v>0.07676136411875795</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2748004091890721</v>
+        <v>0.1374465582435691</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02098352069681783</v>
+        <v>0.00392365358734343</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2750168036307661</v>
+        <v>0.04860294056525224</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02412769808439763</v>
+        <v>0.02548910218274096</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2760745026306846</v>
+        <v>0.1418571833414394</v>
       </c>
       <c r="L234" t="n">
-        <v>0.04867848583509979</v>
+        <v>0.05145722023375601</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2753578913607193</v>
+        <v>0.1387231065111892</v>
       </c>
       <c r="N234" t="n">
-        <v>0.07328361493665209</v>
+        <v>0.07732936290258846</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2764361259104356</v>
+        <v>0.1382646925188284</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02068195266520255</v>
+        <v>0.0038482020941124</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2766441219954451</v>
+        <v>0.04858567490241544</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02377586948433284</v>
+        <v>0.02547826342482216</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2777080795693277</v>
+        <v>0.1426965749588444</v>
       </c>
       <c r="L235" t="n">
-        <v>0.04787457600541453</v>
+        <v>0.05113602745176879</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2769872279959897</v>
+        <v>0.1395439532952791</v>
       </c>
       <c r="N235" t="n">
-        <v>0.07211723327582581</v>
+        <v>0.07699764666470249</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2780718426317992</v>
+        <v>0.1390828267940878</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01839483188720346</v>
+        <v>0.003786869422638478</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2782714403601242</v>
+        <v>0.04856840923957864</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02344008335479739</v>
+        <v>0.02536752436039326</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2793416565079708</v>
+        <v>0.1435359665762494</v>
       </c>
       <c r="L236" t="n">
-        <v>0.04740386309717504</v>
+        <v>0.05111502879196927</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2786165646312603</v>
+        <v>0.140364800079369</v>
       </c>
       <c r="N236" t="n">
-        <v>0.0711986369792787</v>
+        <v>0.07726622075279221</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2797075593531627</v>
+        <v>0.1399009610693471</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01912836886689837</v>
+        <v>0.003740143343744645</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2798987587248034</v>
+        <v>0.04855114357674185</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02312761109165876</v>
+        <v>0.02535688689999899</v>
       </c>
       <c r="K237" t="n">
-        <v>0.280975233446614</v>
+        <v>0.1443753581936544</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04688085969873923</v>
+        <v>0.05129422784823287</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2802459012665308</v>
+        <v>0.1411856468634588</v>
       </c>
       <c r="N237" t="n">
-        <v>0.07024989352002931</v>
+        <v>0.07663509051454975</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2813432760745262</v>
+        <v>0.1407190953446064</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01888212056765746</v>
+        <v>0.00370851162825387</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2815260770894824</v>
+        <v>0.04853387791390504</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02294024027915846</v>
+        <v>0.02534635295418401</v>
       </c>
       <c r="K238" t="n">
-        <v>0.282608810385257</v>
+        <v>0.1452147498110593</v>
       </c>
       <c r="L238" t="n">
-        <v>0.04600611213759517</v>
+        <v>0.05097362821443496</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2818752379018014</v>
+        <v>0.1420064936475487</v>
       </c>
       <c r="N238" t="n">
-        <v>0.06897851568309332</v>
+        <v>0.07640426129766714</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2829789927958897</v>
+        <v>0.1415372296198658</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01763672383190819</v>
+        <v>0.003692462046989142</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2831533954541615</v>
+        <v>0.04851661225106825</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02265522675172378</v>
+        <v>0.02543592443349298</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2842423873239001</v>
+        <v>0.1460541414284643</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04543416148510579</v>
+        <v>0.05095323348445108</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2835045745370719</v>
+        <v>0.1428273404316386</v>
       </c>
       <c r="N239" t="n">
-        <v>0.06841591739405517</v>
+        <v>0.07667373844983649</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2846147095172533</v>
+        <v>0.1423553638951251</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01839039665610134</v>
+        <v>0.00369049063991294</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2847807138188406</v>
+        <v>0.04849934658823146</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02226912966801205</v>
+        <v>0.02532560324847059</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2858759642625432</v>
+        <v>0.1468935330458692</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04466004035583887</v>
+        <v>0.05103304725215657</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2851339111723424</v>
+        <v>0.1436481872157285</v>
       </c>
       <c r="N240" t="n">
-        <v>0.06765003670403935</v>
+        <v>0.07634352731874988</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2862504262386168</v>
+        <v>0.1431734981703845</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01714312432732243</v>
+        <v>0.003691134792685284</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2864080321835197</v>
+        <v>0.04848208092539465</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02218193180181678</v>
+        <v>0.02541539130966153</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2875095412011863</v>
+        <v>0.1477329246632742</v>
       </c>
       <c r="L241" t="n">
-        <v>0.04428371436893441</v>
+        <v>0.05101307311142686</v>
       </c>
       <c r="M241" t="n">
-        <v>0.286763247807613</v>
+        <v>0.1444690339998184</v>
       </c>
       <c r="N241" t="n">
-        <v>0.06708082133438398</v>
+        <v>0.07651363325209948</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2878861429599803</v>
+        <v>0.1439916324456438</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01889489213265702</v>
+        <v>0.003692890545268647</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2880353505481987</v>
+        <v>0.04846481526255786</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02169361592693153</v>
+        <v>0.02530529052761044</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2891431181398295</v>
+        <v>0.1485723162806792</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04350514914353248</v>
+        <v>0.05119331465613741</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2883925844428835</v>
+        <v>0.1452898807839082</v>
       </c>
       <c r="N242" t="n">
-        <v>0.06620821900642698</v>
+        <v>0.07708406159757719</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2895218596813438</v>
+        <v>0.1448097667209031</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01664568535919059</v>
+        <v>0.003696245668486017</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2896626689128778</v>
+        <v>0.04844754959972106</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02150416481714981</v>
+        <v>0.02549530281286204</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2907766950784726</v>
+        <v>0.1494117078980841</v>
       </c>
       <c r="L243" t="n">
-        <v>0.04332431029877304</v>
+        <v>0.05127377548016357</v>
       </c>
       <c r="M243" t="n">
-        <v>0.290021921078154</v>
+        <v>0.1461107275679981</v>
       </c>
       <c r="N243" t="n">
-        <v>0.06513217744150657</v>
+        <v>0.07705481770287537</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2911575764027073</v>
+        <v>0.1456279009961625</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01639548929400873</v>
+        <v>0.003701687933160371</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2912899872775569</v>
+        <v>0.04843028393688426</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02121356124626522</v>
+        <v>0.02548543007596098</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2924102720171157</v>
+        <v>0.1502510995154891</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04264116345379607</v>
+        <v>0.05095445917738084</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2916512577134245</v>
+        <v>0.146931574352088</v>
       </c>
       <c r="N244" t="n">
-        <v>0.06435264436096066</v>
+        <v>0.07642590691568585</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2927932931240709</v>
+        <v>0.1464460352714218</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01814428922419695</v>
+        <v>0.003709705110114682</v>
       </c>
       <c r="G245" t="n">
-        <v>0.292917305642236</v>
+        <v>0.04841301827404747</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02082178798807126</v>
+        <v>0.02537567422745195</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2940438489557588</v>
+        <v>0.1510904911328941</v>
       </c>
       <c r="L245" t="n">
-        <v>0.04205567422774162</v>
+        <v>0.05093536934166459</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2932805943486951</v>
+        <v>0.1477524211361778</v>
       </c>
       <c r="N245" t="n">
-        <v>0.06306956748612741</v>
+        <v>0.0768973345837009</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2944290098454344</v>
+        <v>0.1472641695466812</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01589207043684079</v>
+        <v>0.003720784970171927</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2945446240069151</v>
+        <v>0.04839575261121067</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02062882781636147</v>
+        <v>0.02546603717787962</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2956774258944019</v>
+        <v>0.151929882750299</v>
       </c>
       <c r="L246" t="n">
-        <v>0.04126780823974963</v>
+        <v>0.05081650956689029</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2949099309839656</v>
+        <v>0.1485732679202677</v>
       </c>
       <c r="N246" t="n">
-        <v>0.06208289453834498</v>
+        <v>0.07656910605461253</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2960647265667979</v>
+        <v>0.1480823038219405</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01563881821902575</v>
+        <v>0.003735415284155101</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2961719423715942</v>
+        <v>0.04837848694837387</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02033466350492939</v>
+        <v>0.02525652083778866</v>
       </c>
       <c r="K247" t="n">
-        <v>0.297311002833045</v>
+        <v>0.152769274367704</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04097753110896019</v>
+        <v>0.05119788344693338</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2965392676192361</v>
+        <v>0.1493941147043576</v>
       </c>
       <c r="N247" t="n">
-        <v>0.06149257323895135</v>
+        <v>0.07694122667611292</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2977004432881614</v>
+        <v>0.1489004380971999</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01738451785783741</v>
+        <v>0.003754083822887153</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2977992607362733</v>
+        <v>0.04836122128553708</v>
       </c>
       <c r="J248" t="n">
-        <v>0.0199392778275686</v>
+        <v>0.02524712711772378</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2989445797716881</v>
+        <v>0.153608665985109</v>
       </c>
       <c r="L248" t="n">
-        <v>0.03998480845451322</v>
+        <v>0.05117949457566923</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2981686042545066</v>
+        <v>0.1502149614884475</v>
       </c>
       <c r="N248" t="n">
-        <v>0.06039855130928473</v>
+        <v>0.07691370179589413</v>
       </c>
       <c r="O248" t="n">
-        <v>0.299336160009525</v>
+        <v>0.1497185723724592</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01612915464036128</v>
+        <v>0.003777278357191091</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2994265791009524</v>
+        <v>0.04834395562270027</v>
       </c>
       <c r="J249" t="n">
-        <v>0.0196426535580726</v>
+        <v>0.02533785792822961</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3005781567103312</v>
+        <v>0.154448057602514</v>
       </c>
       <c r="L249" t="n">
-        <v>0.03938960589554877</v>
+        <v>0.05106134654697325</v>
       </c>
       <c r="M249" t="n">
-        <v>0.2997979408897772</v>
+        <v>0.1510358082725374</v>
       </c>
       <c r="N249" t="n">
-        <v>0.06000077647068297</v>
+        <v>0.07638653676164819</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3009718767308885</v>
+        <v>0.1505367066477185</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01487271385368289</v>
+        <v>0.003805486657889885</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3010538974656315</v>
+        <v>0.04832668995986348</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01954477347023495</v>
+        <v>0.02542871517985086</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3022117336489743</v>
+        <v>0.1552874492199189</v>
       </c>
       <c r="L250" t="n">
-        <v>0.03879188905120684</v>
+        <v>0.05074344295472094</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3014272775250477</v>
+        <v>0.1518566550566272</v>
       </c>
       <c r="N250" t="n">
-        <v>0.05849919644448442</v>
+        <v>0.07615973692106726</v>
       </c>
       <c r="O250" t="n">
-        <v>0.302607593452252</v>
+        <v>0.1513548409229779</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01661518078488777</v>
+        <v>0.003839196495806496</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3026812158303105</v>
+        <v>0.04830942429702668</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01914562033784917</v>
+        <v>0.02541970078313222</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3038453105876174</v>
+        <v>0.1561268408373239</v>
       </c>
       <c r="L251" t="n">
-        <v>0.03849162354062738</v>
+        <v>0.05082578739278773</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3030566141603182</v>
+        <v>0.1526775018407171</v>
       </c>
       <c r="N251" t="n">
-        <v>0.05799375895202702</v>
+        <v>0.0760333076218434</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3042433101736156</v>
+        <v>0.1521729751982372</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01535654072106146</v>
+        <v>0.003878895641763934</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3043085341949897</v>
+        <v>0.04829215863418988</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01894517693470882</v>
+        <v>0.02531081664861831</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3054788875262605</v>
+        <v>0.1569662324547288</v>
       </c>
       <c r="L252" t="n">
-        <v>0.0379887749829505</v>
+        <v>0.05110838345504895</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3046859507955887</v>
+        <v>0.153498348624807</v>
       </c>
       <c r="N252" t="n">
-        <v>0.05708441171464879</v>
+        <v>0.07610725421166875</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3058790268949791</v>
+        <v>0.1529911094734965</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.0160967789492895</v>
+        <v>0.003925071866585139</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3059358525596688</v>
+        <v>0.04827489297135308</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01844342603460744</v>
+        <v>0.02520206468685386</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3071124644649036</v>
+        <v>0.1578056240721338</v>
       </c>
       <c r="L253" t="n">
-        <v>0.03728330899731608</v>
+        <v>0.05059123473538008</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3063152874308593</v>
+        <v>0.1543191954088969</v>
       </c>
       <c r="N253" t="n">
-        <v>0.05597110245368792</v>
+        <v>0.0759815820382353</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3075147436163426</v>
+        <v>0.1538092437487559</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01383588075665741</v>
+        <v>0.003978212941093115</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3075631709243478</v>
+        <v>0.04825762730851629</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01814035041133857</v>
+        <v>0.02539344680838353</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3087460414035467</v>
+        <v>0.1586450156895388</v>
       </c>
       <c r="L254" t="n">
-        <v>0.03647519120286419</v>
+        <v>0.05077434482765658</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3079446240661298</v>
+        <v>0.1551400421929867</v>
       </c>
       <c r="N254" t="n">
-        <v>0.05525377889048244</v>
+        <v>0.07625629644923515</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3091504603377061</v>
+        <v>0.1546273780240152</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01357383143025072</v>
+        <v>0.00403880663611083</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3091904892890269</v>
+        <v>0.04824036164567948</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01783593283869574</v>
+        <v>0.02528496492375198</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3103796183421898</v>
+        <v>0.1594844073069437</v>
       </c>
       <c r="L255" t="n">
-        <v>0.03576438721873484</v>
+        <v>0.0509577173257538</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3095739607014004</v>
+        <v>0.1559608889770766</v>
       </c>
       <c r="N255" t="n">
-        <v>0.05433238874637053</v>
+        <v>0.07613140279236058</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3107861770590696</v>
+        <v>0.1554455122992746</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01531061625715498</v>
+        <v>0.004107340722461258</v>
       </c>
       <c r="G256" t="n">
-        <v>0.310817807653706</v>
+        <v>0.04822309598284269</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01763015609047251</v>
+        <v>0.02537662094350393</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3120131952808329</v>
+        <v>0.1603237989243487</v>
       </c>
       <c r="L256" t="n">
-        <v>0.03535086266406806</v>
+        <v>0.05054135582354718</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3112032973366709</v>
+        <v>0.1567817357611665</v>
       </c>
       <c r="N256" t="n">
-        <v>0.05360687974269002</v>
+        <v>0.0761069064153036</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3124218937804332</v>
+        <v>0.1562636465745339</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.0130462205244557</v>
+        <v>0.004184302970967391</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3124451260183851</v>
+        <v>0.04820583032000589</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01742300294046242</v>
+        <v>0.02516841677818402</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3136467722194761</v>
+        <v>0.1611631905417537</v>
       </c>
       <c r="L257" t="n">
-        <v>0.03463458315800369</v>
+        <v>0.05072526391491219</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3128326339719414</v>
+        <v>0.1576025825452564</v>
       </c>
       <c r="N257" t="n">
-        <v>0.05207719960077928</v>
+        <v>0.07618281266575616</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3140576105017967</v>
+        <v>0.1570817808497932</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01378062951923842</v>
+        <v>0.004270181152452202</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3140724443830642</v>
+        <v>0.04818856465716909</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01701445616245899</v>
+        <v>0.02526035433833693</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3152803491581191</v>
+        <v>0.1620025821591586</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03421551431968195</v>
+        <v>0.05070944519372425</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3144619706072119</v>
+        <v>0.1584234293293462</v>
       </c>
       <c r="N258" t="n">
-        <v>0.05174329604197619</v>
+        <v>0.07615912689141047</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3156933272231602</v>
+        <v>0.1578999151250526</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01451382852858869</v>
+        <v>0.004365463037738666</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3156997627477433</v>
+        <v>0.0481712989943323</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01680449853025578</v>
+        <v>0.02535243553450736</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3169139260967622</v>
+        <v>0.1628419737765636</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03379362176824274</v>
+        <v>0.05079390325385871</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3160913072424825</v>
+        <v>0.1592442761134361</v>
       </c>
       <c r="N259" t="n">
-        <v>0.05030511678761895</v>
+        <v>0.07623585443995867</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3173290439445237</v>
+        <v>0.1587180494003119</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01424580283959202</v>
+        <v>0.004470636397649753</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3173270811124224</v>
+        <v>0.0481540333314955</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01649311281764632</v>
+        <v>0.02534466227723996</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3185475030354054</v>
+        <v>0.1636813653939686</v>
       </c>
       <c r="L260" t="n">
-        <v>0.03286887112282608</v>
+        <v>0.05097864168919117</v>
       </c>
       <c r="M260" t="n">
-        <v>0.317720643877753</v>
+        <v>0.160065122897526</v>
       </c>
       <c r="N260" t="n">
-        <v>0.04966260955904561</v>
+        <v>0.07621300065909276</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3189647606658872</v>
+        <v>0.1595361836755712</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01397653773933394</v>
+        <v>0.004586189003008459</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3189543994771015</v>
+        <v>0.0481367676686587</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01598028179842415</v>
+        <v>0.02533703647707941</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3201810799740484</v>
+        <v>0.1645207570113735</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03214122800257191</v>
+        <v>0.05076366409359684</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3193499805130235</v>
+        <v>0.1608859696816159</v>
       </c>
       <c r="N261" t="n">
-        <v>0.04831572207759421</v>
+        <v>0.07629057089650482</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3206004773872508</v>
+        <v>0.1603543179508306</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.0117060185149</v>
+        <v>0.004712608624637744</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3205817178417806</v>
+        <v>0.04811950200582191</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01566598824638282</v>
+        <v>0.02522956004457041</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3218146569126916</v>
+        <v>0.1653601486287785</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03161065802662033</v>
+        <v>0.05094897406095122</v>
       </c>
       <c r="M262" t="n">
-        <v>0.320979317148294</v>
+        <v>0.1617068164657058</v>
       </c>
       <c r="N262" t="n">
-        <v>0.04776440206460286</v>
+        <v>0.07616857049988712</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3222361941086143</v>
+        <v>0.1611724522260899</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01143423045337574</v>
+        <v>0.004850383033360599</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3222090362064596</v>
+        <v>0.04810223634298511</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01555021493531589</v>
+        <v>0.02522223489025761</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3234482338513346</v>
+        <v>0.1661995402461835</v>
       </c>
       <c r="L263" t="n">
-        <v>0.03127712681411127</v>
+        <v>0.05093457518512981</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3226086537835646</v>
+        <v>0.1625276632497956</v>
       </c>
       <c r="N263" t="n">
-        <v>0.0470085972414096</v>
+        <v>0.0760470048169315</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3238719108299778</v>
+        <v>0.1619905865013493</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01216115884184665</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3238363545711387</v>
+        <v>0.04808497068014831</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01503294463901686</v>
+        <v>0.02511506292468572</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3250818107899778</v>
+        <v>0.1670389318635885</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03044059998418475</v>
+        <v>0.05062047106000794</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3242379904188351</v>
+        <v>0.1633485100338855</v>
       </c>
       <c r="N264" t="n">
-        <v>0.04544825532935265</v>
+        <v>0.07582587919533024</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3255076275513414</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1628087207766086</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04807181278541147</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005298950073203544</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04807208131387548</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.00559495375620659</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.0480723498423395</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005887919107758717</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04807261837080352</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006177754186635159</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04807288689926754</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006464367051585783</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04807315542773155</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006747665761385517</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04807342395619557</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.007027558374784526</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04807369248465959</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007303952950557455</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04807396101312361</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007576757547454752</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04807422954158763</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.00784588022425077</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04807449807005165</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008111229039696258</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04807476659851566</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008372712052565255</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04807503512697968</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008630237321608843</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04807530365544369</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.008883712905600707</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04807557218390771</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.009133046863292298</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04807584071237173</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.009378147253456925</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04807610924083575</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009618922134846414</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04807637776929976</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.009855279566228607</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04807664629776378</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.010087127606371</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.0480769148262278</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01031437431402595</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04807718335469181</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01053692774796584</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04807745188315583</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01075469596694344</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04807772041161985</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01096758702973073</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04807798894008387</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01117550899508091</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04807825746854788</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01137874534848537</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.0480785259970119</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.0115794567090171</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04807879452547591</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01177792656216723</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04807906305393993</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01197406296668959</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04807933158240395</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01216777398135519</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04807960011086797</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01235896766491808</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04807986863933198</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01254755207614906</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.048080137167796</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01273343527380238</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04808040569626002</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01291652531664467</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04808067422472403</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01309673026344228</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04808094275318806</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01327395817294985</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04808121128165207</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01344811710393757</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04808147981011609</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01361911511516033</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.0480817483385801</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01378686026538804</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04808201686704412</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.0139512606133759</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04808228539550814</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.0141122242178935</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04808255392397216</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01426965913769634</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04808282245243617</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01442347343155373</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04808309098090019</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01457357515822147</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04808335950936421</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01471987237646855</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04808362803782823</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01486227314505107</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04808389656629224</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01500068552273771</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04808416509475626</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01513501756828493</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04808443362322028</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01526517734046105</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.0480847021516843</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01539107289802287</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04808497068014831</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01539107289802287</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04807181278541147</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.0154945158215713</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.0480896155051763</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01559456592668348</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04810741822494113</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01569114343580456</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04812522094470597</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01578416857137965</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.0481430236644708</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.0158735615558539</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04816082638423563</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01595924261167242</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04817862910400046</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01604113196128037</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.0481964318237653</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01611914982712286</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04821423454353013</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01619321643164504</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04823203726329496</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01626325199729204</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04824983998305979</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01632917674650899</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04826764270282462</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.01639091090174102</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04828544542258945</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01644837468543327</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04830324814235429</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01650148832003086</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04832105086211912</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01655017202797895</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04833885358188395</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01659434603172263</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04835665630164878</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01663393055370708</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04837445902141362</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01666884581637741</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04839226174117844</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01669901204217874</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04841006446094328</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01672434945355623</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04842786718070811</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01674477827295499</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04844566990047294</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01676021872282017</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.04846347262023778</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.01677059102559689</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04848127534000261</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01677581540373028</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04849907805976744</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01677613783801454</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04851688077953226</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01677343310098902</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.0485346834992971</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01676794717344791</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04855248621906193</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01675960027783632</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.04857028893882676</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.0167483126365994</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04858809165859159</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01673400447218228</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04860589437835643</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01671659600703009</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04862369709812125</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01669600746358797</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04864149981788609</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01667215906430105</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04865930253765092</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01664497103161446</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04867710525741575</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01661436358797333</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04869490797718059</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.0165802569558228</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04871271069694542</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.016542571357608</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04873051341671025</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01650122701577406</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04874831613647508</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01645614415276612</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.04876611885623992</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.0164072429910293</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04878392157600474</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01635444375300875</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04880172429576958</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.0162976666611496</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04881952701553441</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01623683193789697</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04883732973529924</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.016171859805696</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04885513245506407</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01610267048699183</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04887293517482891</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01602918420422959</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.04889073789459374</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.0159513211798544</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04890854061435857</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01586900163631141</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.0489263433341234</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01578214579604574</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04894414605388824</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01578214579604574</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04894414605388824</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01616767631507766</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05052649055512583</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01654575652167416</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05210883505636343</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.01691620940407256</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05369117955760103</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01727885795051019</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05527352405883864</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.01763352514922436</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05685586856007623</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.01798003398845238</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.05843821306131383</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.0183182074564316</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06002055756255144</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.01864786854139931</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06160290206378904</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.01896884023159287</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06318524656502662</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.01928094551524956</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06476759106626423</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.01958400738060671</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.06634993556750184</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.01987784881590166</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.06793228006873944</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.02016229280937172</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.06951462456997703</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02043716234925423</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07109696907121463</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.02070228042378645</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07267931357245223</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02095747002120577</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.07426165807368984</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02120255412974949</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.07584400257492745</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02143735573765491</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.07742634707616504</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02166169783315938</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.07900869157740263</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.0218754034045002</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08059103607864024</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.0220782954399147</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08217338057987784</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02227019692764019</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08375572508111544</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02245093085591401</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08533806958235304</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02262032021297349</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.08692041408359064</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.0227781879870559</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.08850275858482824</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.0229243571663986</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09008510308606583</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02305865073923891</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09166744758730343</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02318089169381414</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09324979208854105</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02329090301836163</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09483213658977864</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02338850770111868</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.09641448109101625</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.0234735287303226</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.09799682559225384</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02354578909421076</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.09957917009349143</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02360511178102043</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1011615145947291</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02365131977898896</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1027438590959666</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02368423607635366</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1043262035972042</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02370952772806099</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1059085480984418</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.02370951111942016</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1074908925996794</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02370644234517076</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1090732371009171</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02369833996212733</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1106555816021546</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.0236855862653602</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1122379261033922</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02366856354993963</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1138202706046298</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02364765411093593</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1154026151058674</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.0236232402434194</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.116984959607105</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02359570424246034</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1185673041083426</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02356542840312906</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1201496486095802</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02353279502049584</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1217319931108179</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02349818638963097</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1233143376120554</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02346198480560477</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1248966821132931</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02342457256348755</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1264790266145306</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02338633195834958</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1280613711157682</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02334738746193289</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1296437156170059</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02329628276026312</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1312260601182434</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02322956218313038</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.132808404619481</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.02315120228271685</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1343907491207187</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02306517961120484</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1359730936219562</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02297547072077656</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1375554381231938</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02288605216361429</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1391377826244314</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02280090049190027</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.140720127125669</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02272399225781675</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1423024716269067</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.02265930401354598</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1438848161281442</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02261081231127023</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1454671606293819</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02257455901169433</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1470495051306195</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.02254052115472786</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.148631849631857</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02250848171171864</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02247831325845601</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1517965386343322</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02244988837072931</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1533788831355699</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02242307962432791</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1549612276368074</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.0223977595950411</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1565435721380451</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02237380085865824</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1581259166392827</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02235107599096869</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1597082611405203</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02232945756776175</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1612906056417579</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02230881816482679</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1628729501429954</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02228903035795311</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1644552946442331</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02226996672293008</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1660376391454707</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02225149983554704</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1676199836467082</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02223350227159331</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1692023281479459</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02221584660685823</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1707846726491835</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02219840541713113</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.172367017150421</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02218105127820139</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1739493616516587</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.0221636567658583</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1755317061528963</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02214609445589119</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1771140506541339</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02212823692408944</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1786963951553714</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02211032996953112</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.180278739656609</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02209272227094901</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1818610841578467</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02207542490616002</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1834434286590843</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02205844893316726</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1850257731603219</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02204180540997387</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1866081176615595</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02202550539458292</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1881904621627971</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02200955994499756</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1897728066640346</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02199398011922092</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1913551511652722</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02197877697525608</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1929374956665099</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02196396157110617</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1945198401677475</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02194954496477428</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.196102184668985</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02193553821426354</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.1976845291702227</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02192195237757708</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.1992668736714603</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02190879851271801</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2008492181726979</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02189608767768945</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2024315626739355</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02188383093049448</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2040139071751731</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02187203932913627</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2055962516764107</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
